--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -700,7 +700,7 @@
         <v>2.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="G3" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.92</v>
+        <v>2.68</v>
       </c>
       <c r="I3" t="n">
-        <v>3.75</v>
+        <v>3.95</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="Q3" t="n">
         <v>2.08</v>
@@ -949,7 +949,7 @@
         <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="K4" t="n">
         <v>6.8</v>
@@ -973,10 +973,10 @@
         <v>1.46</v>
       </c>
       <c r="R4" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="S4" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -988,7 +988,7 @@
         <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="X4" t="n">
         <v>36</v>
@@ -1087,7 +1087,7 @@
         <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>1.77</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="G6" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="H6" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I6" t="n">
         <v>5.1</v>
@@ -1375,7 +1375,7 @@
         <v>1.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1483,7 +1483,7 @@
         <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="I8" t="n">
         <v>1.89</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>2.22</v>
       </c>
       <c r="I9" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J9" t="n">
         <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="G10" t="n">
         <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="I10" t="n">
         <v>1.41</v>
@@ -1780,7 +1780,7 @@
         <v>2.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q11" t="n">
         <v>1.35</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.98</v>
+        <v>3.4</v>
       </c>
       <c r="G13" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="H13" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="I13" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="J13" t="n">
-        <v>2.86</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>8</v>
+        <v>5.3</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>2.82</v>
+        <v>2.62</v>
       </c>
       <c r="H14" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
-        <v>2.74</v>
+        <v>3.9</v>
       </c>
       <c r="K14" t="n">
-        <v>8.4</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.3</v>
+        <v>2.56</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="n">
         <v>1.35</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>3.25</v>
@@ -2572,7 +2572,7 @@
         <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>4.7</v>
       </c>
       <c r="G19" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="I19" t="n">
         <v>1.98</v>
@@ -3127,7 +3127,7 @@
         <v>1.45</v>
       </c>
       <c r="P20" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q20" t="n">
         <v>2.36</v>
@@ -3142,7 +3142,7 @@
         <v>2.18</v>
       </c>
       <c r="U20" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3157,22 +3157,22 @@
         <v>14.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AA20" t="n">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="AB20" t="n">
         <v>7</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF20" t="n">
         <v>9.199999999999999</v>
@@ -3184,7 +3184,7 @@
         <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="n">
         <v>19</v>
@@ -3193,7 +3193,7 @@
         <v>22</v>
       </c>
       <c r="AL20" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
         <v>180</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="G21" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="H21" t="n">
         <v>3.25</v>
@@ -3259,13 +3259,13 @@
         <v>3.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
         <v>1.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R21" t="n">
         <v>1.26</v>
@@ -3277,7 +3277,7 @@
         <v>1.99</v>
       </c>
       <c r="U21" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>10.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
         <v>22</v>
@@ -3307,7 +3307,7 @@
         <v>14.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF21" t="n">
         <v>15.5</v>
@@ -3316,7 +3316,7 @@
         <v>12.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
         <v>65</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.16</v>
+        <v>1.83</v>
       </c>
       <c r="G22" t="n">
         <v>2.28</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I22" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.96</v>
+        <v>2.64</v>
       </c>
       <c r="K22" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>9.6</v>
+        <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="H23" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="I23" t="n">
         <v>1.32</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="G24" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I24" t="n">
         <v>5.8</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G26" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H26" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="I26" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="J26" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q27" t="n">
         <v>3.05</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I29" t="n">
         <v>3</v>
       </c>
-      <c r="G29" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.8</v>
-      </c>
       <c r="J29" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="K29" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4459,7 +4459,7 @@
         <v>1000</v>
       </c>
       <c r="J30" t="n">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
         <v>1000</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.24</v>
+        <v>1.75</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -682,7 +682,7 @@
         <v>1.01</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="Q2" t="n">
         <v>1.27</v>
@@ -940,7 +940,7 @@
         <v>1.32</v>
       </c>
       <c r="G4" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="H4" t="n">
         <v>8.800000000000001</v>
@@ -949,7 +949,7 @@
         <v>12</v>
       </c>
       <c r="J4" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="K4" t="n">
         <v>6.8</v>
@@ -973,10 +973,10 @@
         <v>1.46</v>
       </c>
       <c r="R4" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="S4" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="T4" t="n">
         <v>1.01</v>
@@ -1351,7 +1351,7 @@
         <v>1.8</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="J7" t="n">
         <v>3.55</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
         <v>1000</v>
@@ -1492,7 +1492,7 @@
         <v>2.12</v>
       </c>
       <c r="K8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="I10" t="n">
         <v>1.41</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
         <v>1.69</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="G11" t="n">
         <v>1000</v>
@@ -1897,7 +1897,7 @@
         <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2023,13 +2023,13 @@
         <v>2.14</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
         <v>5.6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K12" t="n">
         <v>7.6</v>
@@ -2158,16 +2158,16 @@
         <v>3.9</v>
       </c>
       <c r="H13" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="I13" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q13" t="n">
         <v>1.41</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="G14" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="H14" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J14" t="n">
         <v>3.9</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2437,7 +2437,7 @@
         <v>1.01</v>
       </c>
       <c r="K15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="G16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="I16" t="n">
         <v>2.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
         <v>3.5</v>
@@ -2590,7 +2590,7 @@
         <v>1.74</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>1.73</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="G20" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H20" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="I20" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="J20" t="n">
         <v>3.7</v>
@@ -3133,7 +3133,7 @@
         <v>2.36</v>
       </c>
       <c r="R20" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S20" t="n">
         <v>4.6</v>
@@ -3169,7 +3169,7 @@
         <v>8</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>110</v>
@@ -3193,7 +3193,7 @@
         <v>22</v>
       </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM20" t="n">
         <v>180</v>
@@ -3259,7 +3259,7 @@
         <v>3.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P21" t="n">
         <v>1.7</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G22" t="n">
         <v>2.28</v>
@@ -3379,7 +3379,7 @@
         <v>5.4</v>
       </c>
       <c r="J22" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="K22" t="n">
         <v>3.7</v>
@@ -3508,7 +3508,7 @@
         <v>17.5</v>
       </c>
       <c r="H23" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="I23" t="n">
         <v>1.32</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3640,16 +3640,16 @@
         <v>1.9</v>
       </c>
       <c r="G24" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H24" t="n">
         <v>4.6</v>
       </c>
       <c r="I24" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K24" t="n">
         <v>3.75</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G26" t="n">
         <v>3.6</v>
@@ -3916,7 +3916,7 @@
         <v>2.46</v>
       </c>
       <c r="I26" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="J26" t="n">
         <v>3</v>
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G29" t="n">
         <v>4.2</v>
       </c>
       <c r="H29" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I29" t="n">
         <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="K29" t="n">
         <v>4.9</v>
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q29" t="n">
         <v>2.32</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.04</v>
+        <v>1.85</v>
       </c>
       <c r="G30" t="n">
-        <v>1000</v>
+        <v>2.32</v>
       </c>
       <c r="H30" t="n">
-        <v>1.04</v>
+        <v>3.2</v>
       </c>
       <c r="I30" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
       <c r="J30" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K30" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Q30" t="n">
         <v>1.8</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -808,16 +808,16 @@
         <v>3.25</v>
       </c>
       <c r="H3" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I3" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="J3" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="K3" t="n">
-        <v>4.4</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>1.32</v>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H4" t="n">
         <v>8.800000000000001</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="G5" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="I5" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="J5" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1210,7 +1210,7 @@
         <v>1.93</v>
       </c>
       <c r="G6" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="H6" t="n">
         <v>3.9</v>
@@ -1219,7 +1219,7 @@
         <v>5.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K6" t="n">
         <v>3.75</v>
@@ -1240,7 +1240,7 @@
         <v>2.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>1.8</v>
       </c>
       <c r="I7" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
         <v>3.55</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.06</v>
+        <v>4.2</v>
       </c>
       <c r="G11" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="I11" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>60</v>
+        <v>5.7</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G12" t="n">
         <v>2.14</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="G13" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="I13" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
         <v>4.1</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>2.74</v>
       </c>
       <c r="I14" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
         <v>3.9</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="G15" t="n">
         <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.01</v>
+        <v>1.91</v>
       </c>
       <c r="K15" t="n">
         <v>60</v>
@@ -2452,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>4.7</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H19" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="I19" t="n">
         <v>1.98</v>
@@ -2977,7 +2977,7 @@
         <v>3.45</v>
       </c>
       <c r="K19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -3106,13 +3106,13 @@
         <v>5.4</v>
       </c>
       <c r="I20" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J20" t="n">
         <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>2.36</v>
       </c>
       <c r="R20" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S20" t="n">
         <v>4.6</v>
@@ -3142,7 +3142,7 @@
         <v>2.18</v>
       </c>
       <c r="U20" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3157,7 +3157,7 @@
         <v>14.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA20" t="n">
         <v>200</v>
@@ -3169,10 +3169,10 @@
         <v>8</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF20" t="n">
         <v>9.199999999999999</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G21" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J21" t="n">
         <v>3.25</v>
@@ -3259,7 +3259,7 @@
         <v>3.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
         <v>1.7</v>
@@ -3289,13 +3289,13 @@
         <v>10.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB21" t="n">
         <v>8.800000000000001</v>
@@ -3307,7 +3307,7 @@
         <v>14.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF21" t="n">
         <v>15.5</v>
@@ -3319,10 +3319,10 @@
         <v>20</v>
       </c>
       <c r="AI21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="n">
         <v>32</v>
@@ -3337,7 +3337,7 @@
         <v>32</v>
       </c>
       <c r="AO21" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
@@ -3910,7 +3910,7 @@
         <v>3.25</v>
       </c>
       <c r="G26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H26" t="n">
         <v>2.46</v>
@@ -4312,22 +4312,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="G29" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="H29" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="J29" t="n">
-        <v>2.84</v>
+        <v>2.92</v>
       </c>
       <c r="K29" t="n">
-        <v>4.9</v>
+        <v>3.75</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -4342,10 +4342,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -943,49 +943,49 @@
         <v>1.44</v>
       </c>
       <c r="H4" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="J4" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K4" t="n">
         <v>6.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>2.72</v>
+        <v>5.8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.72</v>
+        <v>2.64</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="R4" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.82</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W4" t="n">
         <v>3.25</v>
@@ -1000,10 +1000,10 @@
         <v>110</v>
       </c>
       <c r="AA4" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AB4" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC4" t="n">
         <v>16.5</v>
@@ -1015,16 +1015,16 @@
         <v>150</v>
       </c>
       <c r="AF4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH4" t="n">
         <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ4" t="n">
         <v>13.5</v>
@@ -1039,10 +1039,10 @@
         <v>130</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AO4" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
@@ -1075,19 +1075,19 @@
         <v>5.2</v>
       </c>
       <c r="G5" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="H5" t="n">
-        <v>1.83</v>
+        <v>1.76</v>
       </c>
       <c r="I5" t="n">
         <v>1.85</v>
       </c>
       <c r="J5" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
-        <v>2.2</v>
+        <v>1.97</v>
       </c>
       <c r="H6" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.46</v>
+        <v>1.51</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>5.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
         <v>4.6</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>1.69</v>
       </c>
       <c r="I11" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="J11" t="n">
         <v>4.1</v>
@@ -1915,7 +1915,7 @@
         <v>2.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="G12" t="n">
-        <v>2.14</v>
+        <v>2.34</v>
       </c>
       <c r="H12" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="K12" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>2.06</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G13" t="n">
         <v>4.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="J13" t="n">
         <v>4.1</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q14" t="n">
         <v>1.53</v>
@@ -2428,7 +2428,7 @@
         <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="I15" t="n">
         <v>2.1</v>
@@ -2569,7 +2569,7 @@
         <v>2.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
         <v>3.5</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>2.22</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>4.9</v>
       </c>
       <c r="H19" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="I19" t="n">
         <v>1.98</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="G20" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="H20" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J20" t="n">
         <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -3121,7 +3121,7 @@
         <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O20" t="n">
         <v>1.45</v>
@@ -3133,7 +3133,7 @@
         <v>2.36</v>
       </c>
       <c r="R20" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S20" t="n">
         <v>4.6</v>
@@ -3142,7 +3142,7 @@
         <v>2.18</v>
       </c>
       <c r="U20" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3157,7 +3157,7 @@
         <v>14.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA20" t="n">
         <v>200</v>
@@ -3169,7 +3169,7 @@
         <v>8</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
         <v>100</v>
@@ -3259,7 +3259,7 @@
         <v>3.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P21" t="n">
         <v>1.7</v>
@@ -3310,7 +3310,7 @@
         <v>44</v>
       </c>
       <c r="AF21" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG21" t="n">
         <v>12.5</v>
@@ -3325,7 +3325,7 @@
         <v>40</v>
       </c>
       <c r="AK21" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
         <v>55</v>
@@ -3505,7 +3505,7 @@
         <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="H23" t="n">
         <v>1.28</v>
@@ -3535,7 +3535,7 @@
         <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="G24" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H24" t="n">
         <v>4.6</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="G26" t="n">
         <v>3.5</v>
       </c>
       <c r="H26" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="I26" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K26" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -4051,10 +4051,10 @@
         <v>2.6</v>
       </c>
       <c r="I27" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="J27" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="K27" t="n">
         <v>3.05</v>
@@ -4447,19 +4447,19 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="G30" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="H30" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
         <v>4.9</v>
       </c>
       <c r="J30" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K30" t="n">
         <v>7</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -676,7 +676,7 @@
         <v>1.04</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>1.3</v>
       </c>
       <c r="J2" t="n">
         <v>1.01</v>
@@ -685,94 +685,94 @@
         <v>60</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="P2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.27</v>
+        <v>1.08</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.32</v>
+        <v>2.54</v>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.66</v>
+        <v>2.96</v>
       </c>
       <c r="I3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
         <v>2.08</v>
@@ -940,22 +940,22 @@
         <v>1.32</v>
       </c>
       <c r="G4" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" t="n">
         <v>12.5</v>
       </c>
       <c r="J4" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="K4" t="n">
         <v>6.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -970,10 +970,10 @@
         <v>2.64</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S4" t="n">
         <v>2.2</v>
@@ -988,7 +988,7 @@
         <v>1.08</v>
       </c>
       <c r="W4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="X4" t="n">
         <v>36</v>
@@ -1039,7 +1039,7 @@
         <v>130</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="AO4" t="n">
         <v>160</v>
@@ -1081,7 +1081,7 @@
         <v>1.76</v>
       </c>
       <c r="I5" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="J5" t="n">
         <v>3.6</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="G6" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>4.2</v>
       </c>
       <c r="G7" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="H7" t="n">
         <v>1.81</v>
@@ -1354,7 +1354,7 @@
         <v>2.02</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
         <v>4.6</v>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
         <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>1.57</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>1.89</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="K8" t="n">
         <v>60</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
         <v>11</v>
@@ -1756,13 +1756,13 @@
         <v>1.38</v>
       </c>
       <c r="I10" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="J10" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="K10" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.81</v>
+        <v>1.69</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="G11" t="n">
         <v>5.4</v>
@@ -1891,10 +1891,10 @@
         <v>1.69</v>
       </c>
       <c r="I11" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="J11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>5.7</v>
@@ -1915,7 +1915,7 @@
         <v>2.66</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.84</v>
+        <v>1.09</v>
       </c>
       <c r="G12" t="n">
-        <v>2.34</v>
+        <v>1000</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>1.04</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="J12" t="n">
-        <v>2.72</v>
+        <v>1.01</v>
       </c>
       <c r="K12" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.06</v>
+        <v>1.15</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2158,10 +2158,10 @@
         <v>4.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="I13" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
         <v>4.1</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.48</v>
+        <v>2.74</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2296,10 +2296,10 @@
         <v>2.74</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="K14" t="n">
         <v>4.9</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.97</v>
+        <v>1.04</v>
       </c>
       <c r="G15" t="n">
         <v>1000</v>
       </c>
       <c r="H15" t="n">
-        <v>1.68</v>
+        <v>1.04</v>
       </c>
       <c r="I15" t="n">
-        <v>2.1</v>
+        <v>1000</v>
       </c>
       <c r="J15" t="n">
-        <v>1.91</v>
+        <v>1.01</v>
       </c>
       <c r="K15" t="n">
         <v>60</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="G17" t="n">
         <v>1000</v>
       </c>
       <c r="H17" t="n">
-        <v>1.8</v>
+        <v>1.04</v>
       </c>
       <c r="I17" t="n">
-        <v>2.28</v>
+        <v>1000</v>
       </c>
       <c r="J17" t="n">
-        <v>1.78</v>
+        <v>1.01</v>
       </c>
       <c r="K17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="G18" t="n">
         <v>2.86</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>1.53</v>
       </c>
       <c r="I18" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="J18" t="n">
-        <v>2.24</v>
+        <v>1.53</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>1.44</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.22</v>
+        <v>1.01</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>4.7</v>
       </c>
       <c r="G19" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H19" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="I19" t="n">
         <v>1.98</v>
@@ -3121,13 +3121,13 @@
         <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O20" t="n">
         <v>1.45</v>
       </c>
       <c r="P20" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q20" t="n">
         <v>2.36</v>
@@ -3139,7 +3139,7 @@
         <v>4.6</v>
       </c>
       <c r="T20" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U20" t="n">
         <v>1.8</v>
@@ -3157,7 +3157,7 @@
         <v>14.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA20" t="n">
         <v>200</v>
@@ -3169,13 +3169,13 @@
         <v>8</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG20" t="n">
         <v>10.5</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="G21" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H21" t="n">
         <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J21" t="n">
         <v>3.25</v>
@@ -3265,7 +3265,7 @@
         <v>1.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R21" t="n">
         <v>1.26</v>
@@ -3277,7 +3277,7 @@
         <v>1.99</v>
       </c>
       <c r="U21" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.84</v>
+        <v>2.1</v>
       </c>
       <c r="G22" t="n">
         <v>2.28</v>
       </c>
       <c r="H22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I22" t="n">
-        <v>5.4</v>
+        <v>4.8</v>
       </c>
       <c r="J22" t="n">
-        <v>2.68</v>
+        <v>2.94</v>
       </c>
       <c r="K22" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="H23" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="I23" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="J23" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="K23" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.83</v>
+        <v>1.01</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3640,10 +3640,10 @@
         <v>1.89</v>
       </c>
       <c r="G24" t="n">
-        <v>2.08</v>
+        <v>1000</v>
       </c>
       <c r="H24" t="n">
-        <v>4.6</v>
+        <v>1.36</v>
       </c>
       <c r="I24" t="n">
         <v>5.9</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.02</v>
+        <v>1.97</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="G26" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="H26" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="I26" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="J26" t="n">
         <v>2.98</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G27" t="n">
         <v>3.5</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.78</v>
+        <v>1.04</v>
       </c>
       <c r="G30" t="n">
-        <v>2.28</v>
+        <v>1000</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="I30" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="J30" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="K30" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -4477,10 +4477,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1.78</v>
+        <v>1.24</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO30"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.04</v>
+        <v>11.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="H2" t="n">
-        <v>1.04</v>
+        <v>1.23</v>
       </c>
       <c r="I2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="J2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="L2" t="n">
         <v>1.01</v>
-      </c>
-      <c r="K2" t="n">
-        <v>60</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.17</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>2.88</v>
+        <v>1.02</v>
       </c>
       <c r="O2" t="n">
         <v>1.08</v>
       </c>
       <c r="P2" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.08</v>
+        <v>1.31</v>
       </c>
       <c r="R2" t="n">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="T2" t="n">
         <v>1.01</v>
@@ -718,7 +718,7 @@
         <v>4.4</v>
       </c>
       <c r="W2" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H3" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="I3" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="J3" t="n">
         <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>1.32</v>
       </c>
       <c r="G4" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H4" t="n">
         <v>8</v>
@@ -949,7 +949,7 @@
         <v>12.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="K4" t="n">
         <v>6.8</v>
@@ -985,28 +985,28 @@
         <v>1.98</v>
       </c>
       <c r="V4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="X4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Y4" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Z4" t="n">
         <v>110</v>
       </c>
       <c r="AA4" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AB4" t="n">
         <v>13.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AD4" t="n">
         <v>42</v>
@@ -1042,7 +1042,7 @@
         <v>4.7</v>
       </c>
       <c r="AO4" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
@@ -1081,25 +1081,25 @@
         <v>1.76</v>
       </c>
       <c r="I5" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P5" t="n">
         <v>1.77</v>
@@ -1108,76 +1108,76 @@
         <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
@@ -1207,34 +1207,34 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="G6" t="n">
         <v>1.96</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
         <v>4.3</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
         <v>2.64</v>
@@ -1243,76 +1243,76 @@
         <v>1.51</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G7" t="n">
         <v>5.6</v>
@@ -1351,103 +1351,103 @@
         <v>1.81</v>
       </c>
       <c r="I7" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
         <v>4.6</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P7" t="n">
-        <v>1.78</v>
+        <v>1.93</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.01</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>1.55</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>1.89</v>
       </c>
       <c r="J8" t="n">
-        <v>1.01</v>
+        <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>60</v>
+        <v>950</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G10" t="n">
         <v>11</v>
       </c>
       <c r="H10" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="I10" t="n">
         <v>1.4</v>
@@ -1762,7 +1762,7 @@
         <v>5.6</v>
       </c>
       <c r="K10" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,36 +1868,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.2</v>
+        <v>2.08</v>
       </c>
       <c r="G11" t="n">
-        <v>5.4</v>
+        <v>2.86</v>
       </c>
       <c r="H11" t="n">
-        <v>1.69</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>1.94</v>
+        <v>4.9</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="K11" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.66</v>
+        <v>1.44</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.38</v>
+        <v>2.22</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,36 +2003,36 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.09</v>
+        <v>3.05</v>
       </c>
       <c r="G12" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>2.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1000</v>
+        <v>2.6</v>
       </c>
       <c r="J12" t="n">
-        <v>1.01</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>7.2</v>
+        <v>3.5</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.15</v>
+        <v>1.74</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,36 +2138,36 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.65</v>
+        <v>1.82</v>
       </c>
       <c r="G13" t="n">
-        <v>4.2</v>
+        <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1</v>
+        <v>2.76</v>
       </c>
       <c r="K13" t="n">
-        <v>4.8</v>
+        <v>950</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.74</v>
+        <v>1.41</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.47</v>
+        <v>2.28</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,66 +2273,66 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.24</v>
+        <v>4.7</v>
       </c>
       <c r="G14" t="n">
-        <v>2.66</v>
+        <v>4.8</v>
       </c>
       <c r="H14" t="n">
-        <v>2.74</v>
+        <v>1.98</v>
       </c>
       <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.45</v>
       </c>
-      <c r="J14" t="n">
-        <v>2.9</v>
-      </c>
       <c r="K14" t="n">
-        <v>4.9</v>
+        <v>3.5</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="P14" t="n">
-        <v>2.58</v>
+        <v>1.74</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.47</v>
+        <v>2.28</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,64 +2341,64 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,66 +2408,66 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="G15" t="n">
-        <v>1000</v>
+        <v>1.81</v>
       </c>
       <c r="H15" t="n">
-        <v>1.04</v>
+        <v>5.5</v>
       </c>
       <c r="I15" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="J15" t="n">
-        <v>1.01</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>60</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P15" t="n">
-        <v>3.45</v>
+        <v>1.72</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.28</v>
+        <v>2.36</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,64 +2476,64 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,66 +2543,66 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H16" t="n">
         <v>3.15</v>
       </c>
-      <c r="G16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H16" t="n">
-        <v>2.5</v>
-      </c>
       <c r="I16" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="J16" t="n">
         <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P16" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,64 +2611,64 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,36 +2678,36 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="G17" t="n">
-        <v>1000</v>
+        <v>2.28</v>
       </c>
       <c r="H17" t="n">
-        <v>1.04</v>
+        <v>4.3</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>4.8</v>
       </c>
       <c r="J17" t="n">
-        <v>1.01</v>
+        <v>2.94</v>
       </c>
       <c r="K17" t="n">
-        <v>60</v>
+        <v>3.2</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.01</v>
+        <v>2.78</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,36 +2813,36 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.18</v>
+        <v>14</v>
       </c>
       <c r="G18" t="n">
-        <v>2.86</v>
+        <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="I18" t="n">
-        <v>1000</v>
+        <v>1.3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.53</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
-        <v>1000</v>
+        <v>6.6</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>1.44</v>
+        <v>2.06</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,36 +2948,36 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Everton De Vina</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.7</v>
+        <v>1.89</v>
       </c>
       <c r="G19" t="n">
-        <v>4.8</v>
+        <v>2.08</v>
       </c>
       <c r="H19" t="n">
-        <v>1.97</v>
+        <v>4.6</v>
       </c>
       <c r="I19" t="n">
-        <v>1.98</v>
+        <v>5.9</v>
       </c>
       <c r="J19" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>1.73</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,66 +3083,66 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.36</v>
+        <v>1.01</v>
       </c>
       <c r="R20" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3151,64 +3151,64 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="Z20" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AI20" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AO20" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,66 +3218,66 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="G21" t="n">
-        <v>2.64</v>
+        <v>3.85</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>2.36</v>
       </c>
       <c r="I21" t="n">
-        <v>3.25</v>
+        <v>2.56</v>
       </c>
       <c r="J21" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="K21" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.36</v>
+        <v>2.78</v>
       </c>
       <c r="R21" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.99</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -3286,58 +3286,58 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -3353,36 +3353,36 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.1</v>
+        <v>3.45</v>
       </c>
       <c r="G22" t="n">
-        <v>2.28</v>
+        <v>3.5</v>
       </c>
       <c r="H22" t="n">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="I22" t="n">
-        <v>4.8</v>
+        <v>2.78</v>
       </c>
       <c r="J22" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="K22" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.48</v>
+        <v>1.41</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.78</v>
+        <v>3.05</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,36 +3488,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>2.02</v>
+        <v>1.24</v>
       </c>
       <c r="Q23" t="n">
         <v>1.01</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,36 +3623,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Everton De Vina</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.89</v>
+        <v>3.25</v>
       </c>
       <c r="G24" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="H24" t="n">
-        <v>1.36</v>
+        <v>2.4</v>
       </c>
       <c r="I24" t="n">
-        <v>5.9</v>
+        <v>2.8</v>
       </c>
       <c r="J24" t="n">
-        <v>3.35</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.97</v>
+        <v>2.5</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,36 +3758,36 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>OHiggins</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3802,10 +3802,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.24</v>
+        <v>1.97</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.01</v>
+        <v>1.8</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3877,681 +3877,6 @@
         <v>0</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>19:45:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Tigre</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Racing Club</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="G26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>19:45:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Defensa y Justicia</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Estudiantes</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="G27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Paraguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>20:15:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Cerro Porteno</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Sportivo Luqueno</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>20:20:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>La Equidad</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G29" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Chilean Primera Division</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>OHiggins</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Deportes Concepcion</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO30" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO25"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,19 +670,19 @@
         <v>11.5</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="H2" t="n">
         <v>1.23</v>
       </c>
       <c r="I2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="J2" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="K2" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L2" t="n">
         <v>1.01</v>
@@ -691,70 +691,70 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.02</v>
+        <v>3.25</v>
       </c>
       <c r="O2" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="P2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="S2" t="n">
-        <v>1.02</v>
+        <v>1.89</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="U2" t="n">
         <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="W2" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="n">
         <v>2.98</v>
@@ -811,25 +811,25 @@
         <v>2.98</v>
       </c>
       <c r="I3" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J3" t="n">
         <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
         <v>1.66</v>
@@ -838,76 +838,76 @@
         <v>2.28</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -955,7 +955,7 @@
         <v>6.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1078,7 +1078,7 @@
         <v>5.9</v>
       </c>
       <c r="H5" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="I5" t="n">
         <v>1.84</v>
@@ -1102,7 +1102,7 @@
         <v>1.35</v>
       </c>
       <c r="P5" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q5" t="n">
         <v>2.1</v>
@@ -1111,7 +1111,7 @@
         <v>1.27</v>
       </c>
       <c r="S5" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T5" t="n">
         <v>2</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="G6" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="H6" t="n">
         <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K6" t="n">
         <v>4.3</v>
@@ -1243,7 +1243,7 @@
         <v>1.51</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S6" t="n">
         <v>2.22</v>
@@ -1255,19 +1255,19 @@
         <v>2.36</v>
       </c>
       <c r="V6" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W6" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="X6" t="n">
         <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z6" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
         <v>100</v>
@@ -1279,13 +1279,13 @@
         <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AG6" t="n">
         <v>12.5</v>
@@ -1294,25 +1294,25 @@
         <v>14.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM6" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN6" t="n">
         <v>9</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G7" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H7" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I7" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,22 +1366,22 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="T7" t="n">
         <v>1.01</v>
@@ -1390,7 +1390,7 @@
         <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="W7" t="n">
         <v>1.22</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="G8" t="n">
         <v>11.5</v>
@@ -1492,97 +1492,97 @@
         <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>950</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,112 +1612,112 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="G9" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H9" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I9" t="n">
         <v>2.42</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P9" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -1747,13 +1747,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="I10" t="n">
         <v>1.4</v>
@@ -1765,100 +1765,100 @@
         <v>5.8</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
         <v>1.82</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.08</v>
+        <v>4.2</v>
       </c>
       <c r="G11" t="n">
-        <v>2.86</v>
+        <v>5.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>1.67</v>
       </c>
       <c r="I11" t="n">
-        <v>4.9</v>
+        <v>1.9</v>
       </c>
       <c r="J11" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="K11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>1.44</v>
+        <v>2.88</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.22</v>
+        <v>1.39</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.05</v>
+        <v>1.09</v>
       </c>
       <c r="G12" t="n">
-        <v>3.3</v>
+        <v>2.32</v>
       </c>
       <c r="H12" t="n">
-        <v>2.5</v>
+        <v>1.04</v>
       </c>
       <c r="I12" t="n">
-        <v>2.6</v>
+        <v>4.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>950</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>1.74</v>
+        <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.14</v>
+        <v>1.72</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.82</v>
+        <v>3.65</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>4.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="I13" t="n">
-        <v>2.3</v>
+        <v>1.99</v>
       </c>
       <c r="J13" t="n">
-        <v>2.76</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>950</v>
+        <v>4.8</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="P13" t="n">
-        <v>1.41</v>
+        <v>2.74</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.28</v>
+        <v>1.47</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.7</v>
+        <v>2.28</v>
       </c>
       <c r="G14" t="n">
-        <v>4.8</v>
+        <v>2.64</v>
       </c>
       <c r="H14" t="n">
-        <v>1.98</v>
+        <v>2.78</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.85</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>3.15</v>
+        <v>2.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.42</v>
+        <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>1.74</v>
+        <v>2.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.28</v>
+        <v>1.45</v>
       </c>
       <c r="R14" t="n">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="S14" t="n">
-        <v>4.2</v>
+        <v>2.02</v>
       </c>
       <c r="T14" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="U14" t="n">
-        <v>1.92</v>
+        <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X14" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="G15" t="n">
-        <v>1.81</v>
+        <v>4.6</v>
       </c>
       <c r="H15" t="n">
-        <v>5.5</v>
+        <v>1.79</v>
       </c>
       <c r="I15" t="n">
-        <v>5.6</v>
+        <v>1.92</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.45</v>
+        <v>1.09</v>
       </c>
       <c r="P15" t="n">
-        <v>1.72</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.36</v>
+        <v>1.29</v>
       </c>
       <c r="R15" t="n">
-        <v>1.26</v>
+        <v>1.86</v>
       </c>
       <c r="S15" t="n">
-        <v>4.6</v>
+        <v>1.71</v>
       </c>
       <c r="T15" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="Y15" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="Z15" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AA15" t="n">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="AB15" t="n">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="AC15" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>100</v>
       </c>
-      <c r="AF15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>19</v>
-      </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="AL15" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AM15" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="AN15" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F16" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I16" t="n">
         <v>2.6</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.25</v>
       </c>
       <c r="J16" t="n">
         <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M16" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
         <v>3.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="P16" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="S16" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="U16" t="n">
-        <v>1.97</v>
+        <v>1.01</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X16" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AB16" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC16" t="n">
         <v>9</v>
       </c>
-      <c r="AC16" t="n">
-        <v>7.2</v>
-      </c>
       <c r="AD16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AG16" t="n">
-        <v>12.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI16" t="n">
         <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AK16" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AM16" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.18</v>
+        <v>3.85</v>
       </c>
       <c r="G17" t="n">
+        <v>13</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q17" t="n">
         <v>2.28</v>
       </c>
-      <c r="H17" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.78</v>
-      </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>14</v>
+        <v>2.08</v>
       </c>
       <c r="G18" t="n">
-        <v>17</v>
+        <v>2.86</v>
       </c>
       <c r="H18" t="n">
-        <v>1.27</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>1.3</v>
+        <v>4.9</v>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="K18" t="n">
-        <v>6.6</v>
+        <v>5.1</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P18" t="n">
-        <v>2.06</v>
+        <v>1.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.79</v>
+        <v>2.24</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Everton De Vina</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.89</v>
+        <v>4.7</v>
       </c>
       <c r="G19" t="n">
-        <v>2.08</v>
+        <v>4.8</v>
       </c>
       <c r="H19" t="n">
-        <v>4.6</v>
+        <v>1.98</v>
       </c>
       <c r="I19" t="n">
-        <v>5.9</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P19" t="n">
         <v>1.73</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL19" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AM19" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO19" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P20" t="n">
-        <v>1.24</v>
+        <v>1.72</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,126 +3218,126 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="G21" t="n">
-        <v>3.85</v>
+        <v>2.64</v>
       </c>
       <c r="H21" t="n">
-        <v>2.36</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>2.56</v>
+        <v>3.25</v>
       </c>
       <c r="J21" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="K21" t="n">
         <v>3.3</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="P21" t="n">
-        <v>1.47</v>
+        <v>1.71</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.78</v>
+        <v>2.34</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -3353,36 +3353,36 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>3.45</v>
+        <v>2.18</v>
       </c>
       <c r="G22" t="n">
-        <v>3.5</v>
+        <v>2.28</v>
       </c>
       <c r="H22" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="I22" t="n">
-        <v>2.78</v>
+        <v>4.8</v>
       </c>
       <c r="J22" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="K22" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3397,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,36 +3488,36 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1.24</v>
+        <v>2.06</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,36 +3623,36 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Everton De Vina</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>3.25</v>
+        <v>1.89</v>
       </c>
       <c r="G24" t="n">
-        <v>4.2</v>
+        <v>2.08</v>
       </c>
       <c r="H24" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="I24" t="n">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K24" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.5</v>
+        <v>2.18</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3748,135 +3748,810 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Deportivo Recoleta</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>19:45:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Tigre</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Racing Club</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>19:45:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Defensa y Justicia</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Estudiantes</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Paraguayan Primera Division</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>20:15:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Cerro Porteno</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueno</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>20:20:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>La Equidad</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Tolima</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>Chilean Primera Division</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>2026-02-02</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>20:30:00</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>OHiggins</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Deportes Concepcion</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="F30" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G30" t="n">
         <v>2.18</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H30" t="n">
         <v>4.1</v>
       </c>
-      <c r="I25" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J25" t="n">
+      <c r="I30" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J30" t="n">
         <v>3.35</v>
       </c>
-      <c r="K25" t="n">
+      <c r="K30" t="n">
         <v>4</v>
       </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>1.97</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="Q30" t="n">
         <v>1.8</v>
       </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO25" t="n">
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -691,22 +691,22 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>3.25</v>
+        <v>7.6</v>
       </c>
       <c r="O2" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="P2" t="n">
         <v>3.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="S2" t="n">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="T2" t="n">
         <v>1.7</v>
@@ -721,40 +721,40 @@
         <v>1.07</v>
       </c>
       <c r="X2" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB2" t="n">
         <v>65</v>
       </c>
-      <c r="Y2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>75</v>
-      </c>
       <c r="AC2" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AH2" t="n">
         <v>40</v>
       </c>
       <c r="AI2" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="G3" t="n">
         <v>2.98</v>
@@ -811,13 +811,13 @@
         <v>2.98</v>
       </c>
       <c r="I3" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J3" t="n">
         <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
@@ -826,16 +826,16 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
@@ -1075,19 +1075,19 @@
         <v>5.2</v>
       </c>
       <c r="G5" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="I5" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K5" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
         <v>1.44</v>
@@ -1096,10 +1096,10 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P5" t="n">
         <v>1.78</v>
@@ -1108,76 +1108,76 @@
         <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S5" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="T5" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U5" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="V5" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="W5" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="X5" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA5" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG5" t="n">
         <v>22</v>
       </c>
-      <c r="AB5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>48</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>26</v>
-      </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ5" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AK5" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AL5" t="n">
         <v>110</v>
       </c>
       <c r="AM5" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AO5" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="6">
@@ -1207,16 +1207,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G6" t="n">
         <v>1.98</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J6" t="n">
         <v>3.7</v>
@@ -1255,7 +1255,7 @@
         <v>2.36</v>
       </c>
       <c r="V6" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W6" t="n">
         <v>2.02</v>
@@ -1273,10 +1273,10 @@
         <v>100</v>
       </c>
       <c r="AB6" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>20</v>
@@ -1285,10 +1285,10 @@
         <v>46</v>
       </c>
       <c r="AF6" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG6" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH6" t="n">
         <v>14.5</v>
@@ -1309,10 +1309,10 @@
         <v>50</v>
       </c>
       <c r="AN6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO6" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1369,7 +1369,7 @@
         <v>1.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="P7" t="n">
         <v>1.9</v>
@@ -1384,10 +1384,10 @@
         <v>1.01</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.75</v>
       </c>
       <c r="V7" t="n">
         <v>1.98</v>
@@ -1396,49 +1396,49 @@
         <v>1.22</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ7" t="n">
         <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
@@ -1501,7 +1501,7 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="O8" t="n">
         <v>1.16</v>
@@ -1513,10 +1513,10 @@
         <v>1.46</v>
       </c>
       <c r="R8" t="n">
-        <v>1.47</v>
+        <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1615,13 +1615,13 @@
         <v>3.45</v>
       </c>
       <c r="G9" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H9" t="n">
         <v>2.24</v>
       </c>
       <c r="I9" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J9" t="n">
         <v>3.25</v>
@@ -1702,7 +1702,7 @@
         <v>50</v>
       </c>
       <c r="AJ9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK9" t="n">
         <v>55</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="H10" t="n">
         <v>1.39</v>
       </c>
       <c r="I10" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="J10" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="K10" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.37</v>
@@ -1774,85 +1774,85 @@
         <v>3.95</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="R10" t="n">
         <v>1.39</v>
       </c>
       <c r="S10" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U10" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="W10" t="n">
         <v>1.11</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AB10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH10" t="n">
         <v>32</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>36</v>
       </c>
       <c r="AI10" t="n">
         <v>48</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>460</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="G13" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="I13" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="J13" t="n">
         <v>4.1</v>
@@ -2176,10 +2176,10 @@
         <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>2.74</v>
+        <v>6.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P13" t="n">
         <v>2.74</v>
@@ -2188,76 +2188,76 @@
         <v>1.47</v>
       </c>
       <c r="R13" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="S13" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="W13" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="X13" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="Z13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA13" t="n">
         <v>24</v>
       </c>
-      <c r="AA13" t="n">
-        <v>34</v>
-      </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AC13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH13" t="n">
         <v>16</v>
       </c>
-      <c r="AD13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE13" t="n">
+      <c r="AI13" t="n">
         <v>25</v>
       </c>
-      <c r="AF13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>36</v>
-      </c>
       <c r="AJ13" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM13" t="n">
         <v>55</v>
       </c>
-      <c r="AL13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>75</v>
-      </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="14">
@@ -2290,16 +2290,16 @@
         <v>2.28</v>
       </c>
       <c r="G14" t="n">
-        <v>2.64</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
         <v>2.78</v>
       </c>
       <c r="I14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J14" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="K14" t="n">
         <v>4.6</v>
@@ -2311,22 +2311,22 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="O14" t="n">
         <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="Q14" t="n">
         <v>1.45</v>
       </c>
       <c r="R14" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="S14" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T14" t="n">
         <v>1.01</v>
@@ -2335,10 +2335,10 @@
         <v>1.01</v>
       </c>
       <c r="V14" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W14" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2527,7 +2527,7 @@
         <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -2563,7 +2563,7 @@
         <v>3.3</v>
       </c>
       <c r="H16" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="I16" t="n">
         <v>2.6</v>
@@ -2572,19 +2572,19 @@
         <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L16" t="n">
         <v>1.48</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
         <v>3.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="P16" t="n">
         <v>1.74</v>
@@ -2593,76 +2593,76 @@
         <v>2.2</v>
       </c>
       <c r="R16" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="S16" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="T16" t="n">
-        <v>1.01</v>
+        <v>1.88</v>
       </c>
       <c r="U16" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V16" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W16" t="n">
         <v>1.43</v>
       </c>
       <c r="X16" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AB16" t="n">
         <v>11</v>
       </c>
-      <c r="Z16" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF16" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG16" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>60</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>70</v>
-      </c>
       <c r="AK16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN16" t="n">
         <v>50</v>
       </c>
-      <c r="AL16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -2731,7 +2731,7 @@
         <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="T17" t="n">
         <v>1.01</v>
@@ -2968,10 +2968,10 @@
         <v>4.8</v>
       </c>
       <c r="H19" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="I19" t="n">
         <v>1.98</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
       </c>
       <c r="J19" t="n">
         <v>3.45</v>
@@ -3010,7 +3010,7 @@
         <v>1.92</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="W19" t="n">
         <v>1.26</v>
@@ -3115,7 +3115,7 @@
         <v>3.75</v>
       </c>
       <c r="L20" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.1</v>
@@ -3124,7 +3124,7 @@
         <v>3.15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P20" t="n">
         <v>1.72</v>
@@ -3172,7 +3172,7 @@
         <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF20" t="n">
         <v>9</v>
@@ -3235,13 +3235,13 @@
         <v>2.6</v>
       </c>
       <c r="G21" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H21" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I21" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.25</v>
       </c>
       <c r="J21" t="n">
         <v>3.25</v>
@@ -3250,7 +3250,7 @@
         <v>3.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="M21" t="n">
         <v>1.1</v>
@@ -3274,16 +3274,16 @@
         <v>4.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U21" t="n">
         <v>1.97</v>
       </c>
       <c r="V21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W21" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X21" t="n">
         <v>10</v>
@@ -3385,16 +3385,16 @@
         <v>3.15</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P22" t="n">
         <v>1.47</v>
@@ -3403,76 +3403,76 @@
         <v>2.92</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AM22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3505,7 +3505,7 @@
         <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="H23" t="n">
         <v>1.27</v>
@@ -3520,16 +3520,16 @@
         <v>6.6</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P23" t="n">
         <v>2.06</v>
@@ -3538,76 +3538,76 @@
         <v>1.81</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="AL23" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="AM23" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -3640,7 +3640,7 @@
         <v>1.89</v>
       </c>
       <c r="G24" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H24" t="n">
         <v>4.6</v>
@@ -3670,7 +3670,7 @@
         <v>1.73</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="P25" t="n">
         <v>1.24</v>
@@ -3808,76 +3808,76 @@
         <v>1.01</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
@@ -3913,7 +3913,7 @@
         <v>3.75</v>
       </c>
       <c r="H26" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I26" t="n">
         <v>2.56</v>
@@ -4060,16 +4060,16 @@
         <v>3.05</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="P27" t="n">
         <v>1.41</v>
@@ -4078,76 +4078,76 @@
         <v>3.05</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AF27" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI27" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AK27" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL27" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AM27" t="n">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="AN27" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AO27" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
@@ -4315,7 +4315,7 @@
         <v>3.25</v>
       </c>
       <c r="G29" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H29" t="n">
         <v>2.4</v>
@@ -4327,7 +4327,7 @@
         <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -697,22 +697,22 @@
         <v>1.12</v>
       </c>
       <c r="P2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="R2" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="S2" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="T2" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="V2" t="n">
         <v>4.5</v>
@@ -724,55 +724,55 @@
         <v>50</v>
       </c>
       <c r="Y2" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AB2" t="n">
         <v>65</v>
       </c>
       <c r="AC2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AH2" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="3">
@@ -835,7 +835,7 @@
         <v>1.64</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
@@ -844,10 +844,10 @@
         <v>3.7</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="V3" t="n">
         <v>1.42</v>
@@ -955,7 +955,7 @@
         <v>6.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -970,7 +970,7 @@
         <v>2.64</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R4" t="n">
         <v>1.66</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G6" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="H6" t="n">
         <v>4.4</v>
@@ -1225,7 +1225,7 @@
         <v>4.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
@@ -1258,7 +1258,7 @@
         <v>1.24</v>
       </c>
       <c r="W6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="X6" t="n">
         <v>26</v>
@@ -1273,7 +1273,7 @@
         <v>100</v>
       </c>
       <c r="AB6" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
         <v>9.800000000000001</v>
@@ -1285,13 +1285,13 @@
         <v>46</v>
       </c>
       <c r="AF6" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AG6" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AI6" t="n">
         <v>46</v>
@@ -1300,7 +1300,7 @@
         <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="8">
@@ -1501,7 +1501,7 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.22</v>
+        <v>1.03</v>
       </c>
       <c r="O8" t="n">
         <v>1.16</v>
@@ -1630,7 +1630,7 @@
         <v>3.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1669,7 +1669,7 @@
         <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
         <v>16.5</v>
@@ -1678,10 +1678,10 @@
         <v>36</v>
       </c>
       <c r="AB9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
         <v>13</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="G10" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="H10" t="n">
         <v>1.39</v>
@@ -1798,7 +1798,7 @@
         <v>3.35</v>
       </c>
       <c r="W10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="X10" t="n">
         <v>22</v>
@@ -1807,28 +1807,28 @@
         <v>7.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.8</v>
+        <v>970</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AB10" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AD10" t="n">
         <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AF10" t="n">
         <v>110</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AH10" t="n">
         <v>32</v>
@@ -1885,13 +1885,13 @@
         <v>4.2</v>
       </c>
       <c r="G11" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="I11" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="J11" t="n">
         <v>4.2</v>
@@ -1915,13 +1915,13 @@
         <v>2.88</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="R11" t="n">
         <v>1.65</v>
       </c>
       <c r="S11" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="T11" t="n">
         <v>1.01</v>
@@ -1930,7 +1930,7 @@
         <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W11" t="n">
         <v>1.22</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.09</v>
+        <v>1.74</v>
       </c>
       <c r="G12" t="n">
         <v>2.32</v>
       </c>
       <c r="H12" t="n">
-        <v>1.04</v>
+        <v>2.94</v>
       </c>
       <c r="I12" t="n">
         <v>4.9</v>
@@ -2050,7 +2050,7 @@
         <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="R12" t="n">
         <v>1.41</v>
@@ -2065,7 +2065,7 @@
         <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W12" t="n">
         <v>1.75</v>
@@ -2446,28 +2446,28 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>3.4</v>
+        <v>6.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="P15" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q15" t="n">
         <v>1.29</v>
       </c>
       <c r="R15" t="n">
-        <v>1.86</v>
+        <v>1.99</v>
       </c>
       <c r="S15" t="n">
         <v>1.71</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>3</v>
       </c>
       <c r="V15" t="n">
         <v>2.08</v>
@@ -2476,58 +2476,58 @@
         <v>1.28</v>
       </c>
       <c r="X15" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="Y15" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA15" t="n">
         <v>30</v>
       </c>
-      <c r="Z15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>36</v>
-      </c>
       <c r="AB15" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AD15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH15" t="n">
         <v>18</v>
       </c>
-      <c r="AE15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG15" t="n">
+      <c r="AI15" t="n">
         <v>26</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AJ15" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN15" t="n">
         <v>21</v>
       </c>
-      <c r="AI15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO15" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -2563,7 +2563,7 @@
         <v>3.3</v>
       </c>
       <c r="H16" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="I16" t="n">
         <v>2.6</v>
@@ -2695,7 +2695,7 @@
         <v>3.85</v>
       </c>
       <c r="G17" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H17" t="n">
         <v>1.79</v>
@@ -2725,7 +2725,7 @@
         <v>1.41</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R17" t="n">
         <v>1.18</v>
@@ -2743,7 +2743,7 @@
         <v>1.76</v>
       </c>
       <c r="W17" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2851,13 +2851,13 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.03</v>
+        <v>1.45</v>
       </c>
       <c r="O18" t="n">
         <v>1.5</v>
       </c>
       <c r="P18" t="n">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="Q18" t="n">
         <v>2.24</v>
@@ -2866,7 +2866,7 @@
         <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2968,10 +2968,10 @@
         <v>4.8</v>
       </c>
       <c r="H19" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="I19" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
         <v>3.45</v>
@@ -2980,13 +2980,13 @@
         <v>3.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O19" t="n">
         <v>1.43</v>
@@ -3010,7 +3010,7 @@
         <v>1.92</v>
       </c>
       <c r="V19" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
         <v>1.26</v>
@@ -3052,16 +3052,16 @@
         <v>46</v>
       </c>
       <c r="AJ19" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AK19" t="n">
         <v>70</v>
       </c>
       <c r="AL19" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM19" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN19" t="n">
         <v>100</v>
@@ -3124,13 +3124,13 @@
         <v>3.15</v>
       </c>
       <c r="O20" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P20" t="n">
         <v>1.72</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R20" t="n">
         <v>1.26</v>
@@ -3172,7 +3172,7 @@
         <v>22</v>
       </c>
       <c r="AE20" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF20" t="n">
         <v>9</v>
@@ -3184,7 +3184,7 @@
         <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="n">
         <v>18</v>
@@ -3235,13 +3235,13 @@
         <v>2.6</v>
       </c>
       <c r="G21" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H21" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J21" t="n">
         <v>3.25</v>
@@ -3265,13 +3265,13 @@
         <v>1.71</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R21" t="n">
         <v>1.26</v>
       </c>
       <c r="S21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T21" t="n">
         <v>1.99</v>
@@ -3280,10 +3280,10 @@
         <v>1.97</v>
       </c>
       <c r="V21" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W21" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X21" t="n">
         <v>10</v>
@@ -3508,7 +3508,7 @@
         <v>16.5</v>
       </c>
       <c r="H23" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="I23" t="n">
         <v>1.29</v>
@@ -3562,7 +3562,7 @@
         <v>7.6</v>
       </c>
       <c r="Z23" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AA23" t="n">
         <v>9.800000000000001</v>
@@ -3580,7 +3580,7 @@
         <v>17</v>
       </c>
       <c r="AF23" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AG23" t="n">
         <v>60</v>
@@ -3655,94 +3655,94 @@
         <v>3.75</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P24" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3922,19 +3922,19 @@
         <v>2.98</v>
       </c>
       <c r="K26" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="P26" t="n">
         <v>1.47</v>
@@ -3943,76 +3943,76 @@
         <v>2.8</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AK26" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
@@ -4195,16 +4195,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P28" t="n">
         <v>1.24</v>
@@ -4213,76 +4213,76 @@
         <v>1.01</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.25</v>
+        <v>2.48</v>
       </c>
       <c r="G29" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H29" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="I29" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
@@ -4330,94 +4330,94 @@
         <v>3.8</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P29" t="n">
         <v>1.53</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4450,7 +4450,7 @@
         <v>1.91</v>
       </c>
       <c r="G30" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
         <v>4.1</v>
@@ -4459,22 +4459,22 @@
         <v>4.7</v>
       </c>
       <c r="J30" t="n">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="K30" t="n">
         <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P30" t="n">
         <v>1.97</v>
@@ -4483,76 +4483,76 @@
         <v>1.8</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO30"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
         <v>14.5</v>
       </c>
       <c r="H2" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="I2" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="J2" t="n">
         <v>7.4</v>
@@ -700,31 +700,31 @@
         <v>3.3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="R2" t="n">
         <v>1.93</v>
       </c>
       <c r="S2" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V2" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="W2" t="n">
         <v>1.07</v>
       </c>
       <c r="X2" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Y2" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="Z2" t="n">
         <v>11</v>
@@ -742,7 +742,7 @@
         <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>14</v>
+        <v>970</v>
       </c>
       <c r="AF2" t="n">
         <v>150</v>
@@ -754,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="AI2" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -805,28 +805,28 @@
         <v>2.56</v>
       </c>
       <c r="G3" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="H3" t="n">
         <v>2.98</v>
       </c>
       <c r="I3" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>1.64</v>
+        <v>2.94</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -838,76 +838,76 @@
         <v>2.24</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.61</v>
+        <v>1.89</v>
       </c>
       <c r="U3" t="n">
-        <v>1.63</v>
+        <v>1.89</v>
       </c>
       <c r="V3" t="n">
         <v>1.42</v>
       </c>
       <c r="W3" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="X3" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG3" t="n">
         <v>15</v>
       </c>
-      <c r="Z3" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AH3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL3" t="n">
         <v>65</v>
       </c>
-      <c r="AF3" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>75</v>
-      </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -940,7 +940,7 @@
         <v>1.32</v>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H4" t="n">
         <v>8</v>
@@ -988,7 +988,7 @@
         <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="X4" t="n">
         <v>34</v>
@@ -1249,10 +1249,10 @@
         <v>2.22</v>
       </c>
       <c r="T6" t="n">
-        <v>1.43</v>
+        <v>1.52</v>
       </c>
       <c r="U6" t="n">
-        <v>2.36</v>
+        <v>2.62</v>
       </c>
       <c r="V6" t="n">
         <v>1.24</v>
@@ -1375,13 +1375,13 @@
         <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="R7" t="n">
         <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>1.01</v>
+        <v>1.9</v>
       </c>
       <c r="T7" t="n">
         <v>1.58</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5</v>
+        <v>6.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="I8" t="n">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="J8" t="n">
         <v>3.8</v>
       </c>
       <c r="K8" t="n">
-        <v>8.800000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1501,16 +1501,16 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>1.03</v>
+        <v>2.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
@@ -1525,10 +1525,10 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="W8" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.74</v>
+        <v>1.99</v>
       </c>
       <c r="G12" t="n">
-        <v>2.32</v>
+        <v>2.24</v>
       </c>
       <c r="H12" t="n">
-        <v>2.94</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
@@ -2065,10 +2065,10 @@
         <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="W12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2152,13 +2152,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G13" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="H13" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="I13" t="n">
         <v>1.95</v>
@@ -2167,7 +2167,7 @@
         <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2203,7 +2203,7 @@
         <v>2.04</v>
       </c>
       <c r="W13" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="X13" t="n">
         <v>32</v>
@@ -2230,7 +2230,7 @@
         <v>18</v>
       </c>
       <c r="AF13" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="n">
         <v>19</v>
@@ -2242,19 +2242,19 @@
         <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK13" t="n">
         <v>42</v>
       </c>
       <c r="AL13" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AM13" t="n">
         <v>55</v>
       </c>
       <c r="AN13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO13" t="n">
         <v>7.8</v>
@@ -2458,7 +2458,7 @@
         <v>1.29</v>
       </c>
       <c r="R15" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
         <v>1.71</v>
@@ -2479,10 +2479,10 @@
         <v>55</v>
       </c>
       <c r="Y15" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AA15" t="n">
         <v>30</v>
@@ -2500,7 +2500,7 @@
         <v>21</v>
       </c>
       <c r="AF15" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AG15" t="n">
         <v>22</v>
@@ -2518,7 +2518,7 @@
         <v>42</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="n">
         <v>50</v>
@@ -2683,31 +2683,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.85</v>
+        <v>2.28</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>2.56</v>
       </c>
       <c r="H17" t="n">
-        <v>1.79</v>
+        <v>3.45</v>
       </c>
       <c r="I17" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="K17" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="L17" t="n">
         <v>1.01</v>
@@ -2716,22 +2716,22 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="O17" t="n">
         <v>1.01</v>
       </c>
       <c r="P17" t="n">
-        <v>1.41</v>
+        <v>1.56</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="R17" t="n">
         <v>1.18</v>
       </c>
       <c r="S17" t="n">
-        <v>2.3</v>
+        <v>2.42</v>
       </c>
       <c r="T17" t="n">
         <v>1.01</v>
@@ -2740,10 +2740,10 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.76</v>
+        <v>1.32</v>
       </c>
       <c r="W17" t="n">
-        <v>1.16</v>
+        <v>1.64</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2818,31 +2818,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.08</v>
+        <v>4.7</v>
       </c>
       <c r="G18" t="n">
-        <v>2.86</v>
+        <v>6.4</v>
       </c>
       <c r="H18" t="n">
-        <v>3.1</v>
+        <v>1.93</v>
       </c>
       <c r="I18" t="n">
-        <v>4.9</v>
+        <v>2.14</v>
       </c>
       <c r="J18" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>5.1</v>
+        <v>3.5</v>
       </c>
       <c r="L18" t="n">
         <v>1.01</v>
@@ -2851,22 +2851,22 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="O18" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.24</v>
+        <v>2.56</v>
       </c>
       <c r="R18" t="n">
         <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>2.24</v>
+        <v>2.56</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2875,10 +2875,10 @@
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.25</v>
+        <v>1.89</v>
       </c>
       <c r="W18" t="n">
-        <v>1.53</v>
+        <v>1.18</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -3184,7 +3184,7 @@
         <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ20" t="n">
         <v>18</v>
@@ -3268,7 +3268,7 @@
         <v>2.36</v>
       </c>
       <c r="R21" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S21" t="n">
         <v>4.6</v>
@@ -3388,13 +3388,13 @@
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N22" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="O22" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="P22" t="n">
         <v>1.47</v>
@@ -3406,13 +3406,13 @@
         <v>1.13</v>
       </c>
       <c r="S22" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.92</v>
+        <v>2.24</v>
       </c>
       <c r="U22" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="V22" t="n">
         <v>1.26</v>
@@ -3421,55 +3421,55 @@
         <v>1.78</v>
       </c>
       <c r="X22" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB22" t="n">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AF22" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ22" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AK22" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AL22" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3640,7 +3640,7 @@
         <v>1.89</v>
       </c>
       <c r="G24" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="n">
         <v>4.6</v>
@@ -3661,16 +3661,16 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="O24" t="n">
         <v>1.39</v>
       </c>
       <c r="P24" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.18</v>
+        <v>1.97</v>
       </c>
       <c r="R24" t="n">
         <v>1.21</v>
@@ -3688,7 +3688,7 @@
         <v>1.24</v>
       </c>
       <c r="W24" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3916,7 +3916,7 @@
         <v>2.38</v>
       </c>
       <c r="I26" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J26" t="n">
         <v>2.98</v>
@@ -4009,7 +4009,7 @@
         <v>240</v>
       </c>
       <c r="AN26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AO26" t="n">
         <v>46</v>
@@ -4102,7 +4102,7 @@
         <v>7.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AA27" t="n">
         <v>48</v>
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.48</v>
+        <v>3.25</v>
       </c>
       <c r="G29" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H29" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.72</v>
+        <v>2.8</v>
       </c>
       <c r="J29" t="n">
         <v>3</v>
@@ -4336,16 +4336,16 @@
         <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O29" t="n">
         <v>1.02</v>
       </c>
       <c r="P29" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R29" t="n">
         <v>1.14</v>
@@ -4360,7 +4360,7 @@
         <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W29" t="n">
         <v>1.33</v>
@@ -4450,13 +4450,13 @@
         <v>1.91</v>
       </c>
       <c r="G30" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H30" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J30" t="n">
         <v>3.6</v>
@@ -4468,43 +4468,43 @@
         <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>1.97</v>
+        <v>3.8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P30" t="n">
         <v>1.97</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R30" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="S30" t="n">
-        <v>2.94</v>
+        <v>3.35</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>1.79</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="V30" t="n">
         <v>1.27</v>
       </c>
       <c r="W30" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
@@ -4531,7 +4531,7 @@
         <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
@@ -4546,12 +4546,417 @@
         <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN30" t="n">
         <v>1000</v>
       </c>
       <c r="AO30" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Argentinos Juniors</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Belgrano</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="X31" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>280</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Argentinian Primera Division</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>22:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Union Santa Fe</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Gimnasia Mendoza</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="I32" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S32" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X32" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>100</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X33" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO33" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G2" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
         <v>1.22</v>
@@ -679,43 +679,43 @@
         <v>1.27</v>
       </c>
       <c r="J2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N2" t="n">
         <v>7.4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7.6</v>
       </c>
       <c r="O2" t="n">
         <v>1.12</v>
       </c>
       <c r="P2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="Q2" t="n">
         <v>1.35</v>
       </c>
       <c r="R2" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="S2" t="n">
         <v>1.88</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="V2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="W2" t="n">
         <v>1.07</v>
@@ -754,7 +754,7 @@
         <v>38</v>
       </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>150</v>
       </c>
       <c r="AN2" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="AO2" t="n">
         <v>3.3</v>
@@ -802,28 +802,28 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="G3" t="n">
         <v>2.94</v>
       </c>
       <c r="H3" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L3" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
         <v>2.94</v>
@@ -832,10 +832,10 @@
         <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R3" t="n">
         <v>1.24</v>
@@ -847,22 +847,22 @@
         <v>1.89</v>
       </c>
       <c r="U3" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W3" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AA3" t="n">
         <v>70</v>
@@ -871,13 +871,13 @@
         <v>11</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AF3" t="n">
         <v>21</v>
@@ -889,7 +889,7 @@
         <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ3" t="n">
         <v>55</v>
@@ -907,7 +907,7 @@
         <v>42</v>
       </c>
       <c r="AO3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
@@ -940,7 +940,7 @@
         <v>1.32</v>
       </c>
       <c r="G4" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H4" t="n">
         <v>8</v>
@@ -949,16 +949,16 @@
         <v>12.5</v>
       </c>
       <c r="J4" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="K4" t="n">
         <v>6.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
         <v>5.8</v>
@@ -988,7 +988,7 @@
         <v>1.09</v>
       </c>
       <c r="W4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="X4" t="n">
         <v>34</v>
@@ -1090,7 +1090,7 @@
         <v>3.95</v>
       </c>
       <c r="L5" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="G6" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H6" t="n">
         <v>4.4</v>
@@ -1219,16 +1219,16 @@
         <v>5.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
         <v>1.23</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
         <v>5.8</v>
@@ -1252,13 +1252,13 @@
         <v>1.52</v>
       </c>
       <c r="U6" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="V6" t="n">
         <v>1.24</v>
       </c>
       <c r="W6" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X6" t="n">
         <v>26</v>
@@ -1309,7 +1309,7 @@
         <v>50</v>
       </c>
       <c r="AN6" t="n">
-        <v>8</v>
+        <v>970</v>
       </c>
       <c r="AO6" t="n">
         <v>30</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G7" t="n">
-        <v>5.5</v>
+        <v>5.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="I7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
         <v>3.5</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,43 +1366,43 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="O7" t="n">
         <v>1.28</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>1.9</v>
+        <v>3.35</v>
       </c>
       <c r="T7" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="U7" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="n">
         <v>12.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA7" t="n">
         <v>30</v>
@@ -1426,7 +1426,7 @@
         <v>26</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI7" t="n">
         <v>50</v>
@@ -1435,10 +1435,10 @@
         <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G8" t="n">
         <v>6.6</v>
@@ -1486,10 +1486,10 @@
         <v>1.62</v>
       </c>
       <c r="I8" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="K8" t="n">
         <v>5.8</v>
@@ -1516,7 +1516,7 @@
         <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1615,22 +1615,22 @@
         <v>3.45</v>
       </c>
       <c r="G9" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H9" t="n">
         <v>2.24</v>
       </c>
       <c r="I9" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
         <v>3.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1657,7 +1657,7 @@
         <v>1.86</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
         <v>1.73</v>
@@ -1762,7 +1762,7 @@
         <v>5.3</v>
       </c>
       <c r="K10" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.37</v>
@@ -1777,13 +1777,13 @@
         <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
         <v>3.15</v>
@@ -1807,7 +1807,7 @@
         <v>7.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>970</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA10" t="n">
         <v>970</v>
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="AI10" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AJ10" t="n">
         <v>460</v>
@@ -1846,7 +1846,7 @@
         <v>170</v>
       </c>
       <c r="AM10" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN10" t="n">
         <v>320</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G11" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H11" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="I11" t="n">
-        <v>1.89</v>
+        <v>1.92</v>
       </c>
       <c r="J11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1906,16 +1906,16 @@
         <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="O11" t="n">
         <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R11" t="n">
         <v>1.65</v>
@@ -1930,10 +1930,10 @@
         <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="W11" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="G12" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I12" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
         <v>4.2</v>
@@ -2041,7 +2041,7 @@
         <v>1.01</v>
       </c>
       <c r="N12" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="O12" t="n">
         <v>1.22</v>
@@ -2050,7 +2050,7 @@
         <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R12" t="n">
         <v>1.41</v>
@@ -2065,10 +2065,10 @@
         <v>1.01</v>
       </c>
       <c r="V12" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X12" t="n">
         <v>1000</v>
@@ -2152,19 +2152,19 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="G13" t="n">
         <v>4.8</v>
       </c>
       <c r="H13" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="I13" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K13" t="n">
         <v>4.7</v>
@@ -2182,7 +2182,7 @@
         <v>1.15</v>
       </c>
       <c r="P13" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="Q13" t="n">
         <v>1.47</v>
@@ -2200,7 +2200,7 @@
         <v>2.62</v>
       </c>
       <c r="V13" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="W13" t="n">
         <v>1.26</v>
@@ -2218,7 +2218,7 @@
         <v>24</v>
       </c>
       <c r="AB13" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
         <v>11.5</v>
@@ -2233,7 +2233,7 @@
         <v>42</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
         <v>16</v>
@@ -2242,10 +2242,10 @@
         <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK13" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AL13" t="n">
         <v>44</v>
@@ -2254,7 +2254,7 @@
         <v>55</v>
       </c>
       <c r="AN13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO13" t="n">
         <v>7.8</v>
@@ -2287,58 +2287,58 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H14" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="I14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J14" t="n">
         <v>3.6</v>
       </c>
       <c r="K14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>2.66</v>
+        <v>5.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="Q14" t="n">
         <v>1.45</v>
       </c>
       <c r="R14" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>2.66</v>
       </c>
       <c r="V14" t="n">
         <v>1.47</v>
       </c>
       <c r="W14" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="G16" t="n">
         <v>3.3</v>
@@ -2569,7 +2569,7 @@
         <v>2.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
         <v>3.45</v>
@@ -2581,7 +2581,7 @@
         <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O16" t="n">
         <v>1.42</v>
@@ -2590,7 +2590,7 @@
         <v>1.74</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R16" t="n">
         <v>1.26</v>
@@ -2605,7 +2605,7 @@
         <v>1.94</v>
       </c>
       <c r="V16" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W16" t="n">
         <v>1.43</v>
@@ -2614,7 +2614,7 @@
         <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z16" t="n">
         <v>17</v>
@@ -2644,13 +2644,13 @@
         <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ16" t="n">
         <v>60</v>
       </c>
       <c r="AK16" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL16" t="n">
         <v>60</v>
@@ -2659,10 +2659,10 @@
         <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AO16" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -2701,10 +2701,10 @@
         <v>3.45</v>
       </c>
       <c r="I17" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.74</v>
+        <v>2.94</v>
       </c>
       <c r="K17" t="n">
         <v>3.4</v>
@@ -2740,7 +2740,7 @@
         <v>1.01</v>
       </c>
       <c r="V17" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="W17" t="n">
         <v>1.64</v>
@@ -2851,13 +2851,13 @@
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="O18" t="n">
         <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q18" t="n">
         <v>2.56</v>
@@ -2971,7 +2971,7 @@
         <v>1.99</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="J19" t="n">
         <v>3.45</v>
@@ -3010,7 +3010,7 @@
         <v>1.92</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W19" t="n">
         <v>1.26</v>
@@ -3064,7 +3064,7 @@
         <v>150</v>
       </c>
       <c r="AN19" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AO19" t="n">
         <v>18.5</v>
@@ -3268,7 +3268,7 @@
         <v>2.36</v>
       </c>
       <c r="R21" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S21" t="n">
         <v>4.6</v>
@@ -3301,7 +3301,7 @@
         <v>9</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD21" t="n">
         <v>14</v>
@@ -3316,7 +3316,7 @@
         <v>12</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI21" t="n">
         <v>60</v>
@@ -3331,7 +3331,7 @@
         <v>55</v>
       </c>
       <c r="AM21" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN21" t="n">
         <v>32</v>
@@ -3376,7 +3376,7 @@
         <v>4.3</v>
       </c>
       <c r="I22" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J22" t="n">
         <v>2.92</v>
@@ -3385,7 +3385,7 @@
         <v>3.15</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="M22" t="n">
         <v>1.14</v>
@@ -3394,7 +3394,7 @@
         <v>2.38</v>
       </c>
       <c r="O22" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="P22" t="n">
         <v>1.47</v>
@@ -3403,19 +3403,19 @@
         <v>2.92</v>
       </c>
       <c r="R22" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="S22" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T22" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="U22" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="V22" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W22" t="n">
         <v>1.78</v>
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G23" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="H23" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="I23" t="n">
         <v>1.29</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K23" t="n">
-        <v>6.6</v>
+        <v>7.2</v>
       </c>
       <c r="L23" t="n">
         <v>1.36</v>
@@ -3532,19 +3532,19 @@
         <v>1.27</v>
       </c>
       <c r="P23" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="R23" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S23" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T23" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="U23" t="n">
         <v>1.57</v>
@@ -3565,13 +3565,13 @@
         <v>7.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AB23" t="n">
         <v>40</v>
       </c>
       <c r="AC23" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD23" t="n">
         <v>12</v>
@@ -3589,7 +3589,7 @@
         <v>50</v>
       </c>
       <c r="AI23" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
         <v>1000</v>
@@ -3640,7 +3640,7 @@
         <v>1.89</v>
       </c>
       <c r="G24" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H24" t="n">
         <v>4.6</v>
@@ -3688,7 +3688,7 @@
         <v>1.24</v>
       </c>
       <c r="W24" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3910,19 +3910,19 @@
         <v>3.55</v>
       </c>
       <c r="G26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H26" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="I26" t="n">
         <v>2.54</v>
       </c>
       <c r="J26" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K26" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3943,7 +3943,7 @@
         <v>2.8</v>
       </c>
       <c r="R26" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S26" t="n">
         <v>6.4</v>
@@ -3958,7 +3958,7 @@
         <v>1.64</v>
       </c>
       <c r="W26" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X26" t="n">
         <v>7.8</v>
@@ -3973,10 +3973,10 @@
         <v>40</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD26" t="n">
         <v>13</v>
@@ -3988,7 +3988,7 @@
         <v>24</v>
       </c>
       <c r="AG26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH26" t="n">
         <v>28</v>
@@ -3997,10 +3997,10 @@
         <v>80</v>
       </c>
       <c r="AJ26" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK26" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL26" t="n">
         <v>120</v>
@@ -4009,7 +4009,7 @@
         <v>240</v>
       </c>
       <c r="AN26" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AO26" t="n">
         <v>46</v>
@@ -4087,10 +4087,10 @@
         <v>2.3</v>
       </c>
       <c r="U27" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="V27" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W27" t="n">
         <v>1.4</v>
@@ -4141,7 +4141,7 @@
         <v>120</v>
       </c>
       <c r="AM27" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AN27" t="n">
         <v>120</v>
@@ -4312,34 +4312,34 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="G29" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H29" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I29" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K29" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="N29" t="n">
-        <v>1.55</v>
+        <v>2.62</v>
       </c>
       <c r="O29" t="n">
-        <v>1.02</v>
+        <v>1.52</v>
       </c>
       <c r="P29" t="n">
         <v>1.55</v>
@@ -4348,25 +4348,25 @@
         <v>2.32</v>
       </c>
       <c r="R29" t="n">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="S29" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>2.02</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V29" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="W29" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
         <v>1000</v>
@@ -4408,7 +4408,7 @@
         <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="G30" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I30" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4474,13 +4474,13 @@
         <v>3.8</v>
       </c>
       <c r="O30" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P30" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R30" t="n">
         <v>1.37</v>
@@ -4495,16 +4495,16 @@
         <v>2.08</v>
       </c>
       <c r="V30" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W30" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
@@ -4549,7 +4549,7 @@
         <v>120</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="G31" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="H31" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I31" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="J31" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K31" t="n">
         <v>3.6</v>
@@ -4606,10 +4606,10 @@
         <v>1.11</v>
       </c>
       <c r="N31" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="O31" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="P31" t="n">
         <v>1.56</v>
@@ -4627,19 +4627,19 @@
         <v>2.26</v>
       </c>
       <c r="U31" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="V31" t="n">
         <v>1.16</v>
       </c>
       <c r="W31" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X31" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y31" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z31" t="n">
         <v>55</v>
@@ -4648,7 +4648,7 @@
         <v>280</v>
       </c>
       <c r="AB31" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC31" t="n">
         <v>8.6</v>
@@ -4672,7 +4672,7 @@
         <v>170</v>
       </c>
       <c r="AJ31" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AK31" t="n">
         <v>26</v>
@@ -4684,7 +4684,7 @@
         <v>280</v>
       </c>
       <c r="AN31" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO31" t="n">
         <v>300</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G32" t="n">
         <v>2.08</v>
       </c>
       <c r="H32" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="I32" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="K32" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
@@ -4744,7 +4744,7 @@
         <v>2.44</v>
       </c>
       <c r="O32" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="P32" t="n">
         <v>1.48</v>
@@ -4789,10 +4789,10 @@
         <v>7.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE32" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF32" t="n">
         <v>10.5</v>
@@ -4801,7 +4801,7 @@
         <v>12</v>
       </c>
       <c r="AH32" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI32" t="n">
         <v>170</v>
@@ -4813,7 +4813,7 @@
         <v>32</v>
       </c>
       <c r="AL32" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AM32" t="n">
         <v>330</v>
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="G33" t="n">
         <v>4.5</v>
       </c>
       <c r="H33" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="I33" t="n">
         <v>2.22</v>
@@ -4873,13 +4873,13 @@
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
         <v>2.86</v>
       </c>
       <c r="O33" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P33" t="n">
         <v>1.62</v>
@@ -4894,10 +4894,10 @@
         <v>4.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="U33" t="n">
-        <v>1.59</v>
+        <v>1.82</v>
       </c>
       <c r="V33" t="n">
         <v>1.82</v>
@@ -4906,58 +4906,58 @@
         <v>1.28</v>
       </c>
       <c r="X33" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="Z33" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA33" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AB33" t="n">
-        <v>16.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC33" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="AD33" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE33" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AF33" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AG33" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AH33" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AI33" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AK33" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AL33" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN33" t="n">
         <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
         <v>15</v>
@@ -805,7 +805,7 @@
         <v>2.62</v>
       </c>
       <c r="G3" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
         <v>2.92</v>
@@ -820,13 +820,13 @@
         <v>3.35</v>
       </c>
       <c r="L3" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -853,7 +853,7 @@
         <v>1.43</v>
       </c>
       <c r="W3" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X3" t="n">
         <v>12.5</v>
@@ -940,7 +940,7 @@
         <v>1.32</v>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="H4" t="n">
         <v>8</v>
@@ -949,100 +949,100 @@
         <v>12.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K4" t="n">
         <v>6.8</v>
       </c>
       <c r="L4" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>5.8</v>
+        <v>2.14</v>
       </c>
       <c r="O4" t="n">
         <v>1.16</v>
       </c>
       <c r="P4" t="n">
-        <v>2.64</v>
+        <v>2.14</v>
       </c>
       <c r="Q4" t="n">
         <v>1.49</v>
       </c>
       <c r="R4" t="n">
-        <v>1.66</v>
+        <v>1.46</v>
       </c>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="T4" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="V4" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W4" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="X4" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y4" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="n">
         <v>110</v>
       </c>
       <c r="AA4" t="n">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="AB4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC4" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AD4" t="n">
         <v>42</v>
       </c>
       <c r="AE4" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AF4" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG4" t="n">
         <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ4" t="n">
         <v>13.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="AO4" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5">
@@ -1075,19 +1075,19 @@
         <v>5.2</v>
       </c>
       <c r="G5" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J5" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L5" t="n">
         <v>1.45</v>
@@ -1120,7 +1120,7 @@
         <v>1.92</v>
       </c>
       <c r="V5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="W5" t="n">
         <v>1.21</v>
@@ -1132,10 +1132,10 @@
         <v>7.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
         <v>16.5</v>
@@ -1207,58 +1207,58 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G6" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="H6" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
         <v>5.1</v>
       </c>
       <c r="J6" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K6" t="n">
         <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.64</v>
+        <v>2.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.51</v>
+        <v>1.59</v>
       </c>
       <c r="R6" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="T6" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="U6" t="n">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="V6" t="n">
         <v>1.24</v>
       </c>
       <c r="W6" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="X6" t="n">
         <v>26</v>
@@ -1270,7 +1270,7 @@
         <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB6" t="n">
         <v>970</v>
@@ -1282,7 +1282,7 @@
         <v>20</v>
       </c>
       <c r="AE6" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
         <v>970</v>
@@ -1291,28 +1291,28 @@
         <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AJ6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
       </c>
       <c r="AM6" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AN6" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -1345,10 +1345,10 @@
         <v>4.3</v>
       </c>
       <c r="G7" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I7" t="n">
         <v>2</v>
@@ -1363,19 +1363,19 @@
         <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>1.87</v>
+        <v>3.55</v>
       </c>
       <c r="O7" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
         <v>1.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
         <v>1.33</v>
@@ -1384,70 +1384,70 @@
         <v>3.35</v>
       </c>
       <c r="T7" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="n">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
         <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X7" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>12.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AO7" t="n">
         <v>16</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="G8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="I8" t="n">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="J8" t="n">
         <v>4.2</v>
@@ -1501,22 +1501,22 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O8" t="n">
         <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>2.38</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1525,10 +1525,10 @@
         <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="W8" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
@@ -1612,13 +1612,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G9" t="n">
         <v>3.8</v>
       </c>
       <c r="H9" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I9" t="n">
         <v>2.36</v>
@@ -1627,37 +1627,37 @@
         <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="P9" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R9" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S9" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="T9" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>1.73</v>
@@ -1666,7 +1666,7 @@
         <v>1.36</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y9" t="n">
         <v>10</v>
@@ -1675,7 +1675,7 @@
         <v>16.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AB9" t="n">
         <v>13.5</v>
@@ -1714,7 +1714,7 @@
         <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO9" t="n">
         <v>25</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G10" t="n">
         <v>11</v>
@@ -1756,13 +1756,13 @@
         <v>1.39</v>
       </c>
       <c r="I10" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="J10" t="n">
         <v>5.3</v>
       </c>
       <c r="K10" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.37</v>
@@ -1771,31 +1771,31 @@
         <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U10" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="W10" t="n">
         <v>1.1</v>
@@ -1804,52 +1804,52 @@
         <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AB10" t="n">
         <v>29</v>
       </c>
       <c r="AC10" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG10" t="n">
         <v>38</v>
       </c>
       <c r="AH10" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AI10" t="n">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>460</v>
+        <v>500</v>
       </c>
       <c r="AK10" t="n">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="AL10" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AM10" t="n">
         <v>240</v>
       </c>
       <c r="AN10" t="n">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="AO10" t="n">
         <v>8</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="I11" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="J11" t="n">
         <v>4.3</v>
@@ -1915,10 +1915,10 @@
         <v>2.86</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
         <v>1.91</v>
@@ -1930,10 +1930,10 @@
         <v>1.01</v>
       </c>
       <c r="V11" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W11" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2017,112 +2017,112 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="G12" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="H12" t="n">
         <v>3.55</v>
       </c>
       <c r="I12" t="n">
-        <v>4.3</v>
+        <v>3.95</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>2.16</v>
+        <v>3.85</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P12" t="n">
         <v>2.16</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R12" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="S12" t="n">
-        <v>2.52</v>
+        <v>2.84</v>
       </c>
       <c r="T12" t="n">
-        <v>1.01</v>
+        <v>1.66</v>
       </c>
       <c r="U12" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V12" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="W12" t="n">
-        <v>1.73</v>
+        <v>1.84</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="G13" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="I13" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="J13" t="n">
         <v>4.2</v>
@@ -2185,7 +2185,7 @@
         <v>2.78</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="R13" t="n">
         <v>1.73</v>
@@ -2194,13 +2194,13 @@
         <v>2.16</v>
       </c>
       <c r="T13" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="U13" t="n">
         <v>2.62</v>
       </c>
       <c r="V13" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="W13" t="n">
         <v>1.26</v>
@@ -2218,7 +2218,7 @@
         <v>24</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AC13" t="n">
         <v>11.5</v>
@@ -2242,19 +2242,19 @@
         <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AK13" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AL13" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM13" t="n">
         <v>55</v>
       </c>
       <c r="AN13" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="AO13" t="n">
         <v>7.8</v>
@@ -2290,16 +2290,16 @@
         <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="H14" t="n">
         <v>2.76</v>
       </c>
       <c r="I14" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J14" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>4.5</v>
@@ -2311,34 +2311,34 @@
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="O14" t="n">
         <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.6</v>
+        <v>2.72</v>
       </c>
       <c r="Q14" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="T14" t="n">
         <v>1.45</v>
       </c>
-      <c r="R14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.48</v>
       </c>
-      <c r="U14" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.47</v>
-      </c>
       <c r="W14" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2425,10 +2425,10 @@
         <v>3.6</v>
       </c>
       <c r="G15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I15" t="n">
         <v>1.92</v>
@@ -2446,16 +2446,16 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>6.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O15" t="n">
         <v>1.11</v>
       </c>
       <c r="P15" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="R15" t="n">
         <v>2</v>
@@ -2464,16 +2464,16 @@
         <v>1.71</v>
       </c>
       <c r="T15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="U15" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="V15" t="n">
         <v>2.08</v>
       </c>
       <c r="W15" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X15" t="n">
         <v>55</v>
@@ -2482,16 +2482,16 @@
         <v>25</v>
       </c>
       <c r="Z15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB15" t="n">
         <v>38</v>
       </c>
       <c r="AC15" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AD15" t="n">
         <v>15</v>
@@ -2503,10 +2503,10 @@
         <v>48</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI15" t="n">
         <v>26</v>
@@ -2515,10 +2515,10 @@
         <v>85</v>
       </c>
       <c r="AK15" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL15" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="n">
         <v>50</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G16" t="n">
         <v>3.3</v>
@@ -2566,10 +2566,10 @@
         <v>2.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
         <v>3.45</v>
@@ -2587,25 +2587,25 @@
         <v>1.42</v>
       </c>
       <c r="P16" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R16" t="n">
         <v>1.26</v>
       </c>
       <c r="S16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="U16" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="V16" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W16" t="n">
         <v>1.43</v>
@@ -2704,13 +2704,13 @@
         <v>4.4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.94</v>
+        <v>2.76</v>
       </c>
       <c r="K17" t="n">
         <v>3.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
@@ -2827,46 +2827,46 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="G18" t="n">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="H18" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="I18" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2.66</v>
       </c>
       <c r="K18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.01</v>
+        <v>1.49</v>
       </c>
       <c r="M18" t="n">
         <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="O18" t="n">
         <v>1.01</v>
       </c>
       <c r="P18" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="R18" t="n">
         <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="T18" t="n">
         <v>1.01</v>
@@ -2875,10 +2875,10 @@
         <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="W18" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -3115,7 +3115,7 @@
         <v>3.75</v>
       </c>
       <c r="L20" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M20" t="n">
         <v>1.1</v>
@@ -3127,7 +3127,7 @@
         <v>1.45</v>
       </c>
       <c r="P20" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q20" t="n">
         <v>2.36</v>
@@ -3139,10 +3139,10 @@
         <v>4.6</v>
       </c>
       <c r="T20" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="U20" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V20" t="n">
         <v>1.21</v>
@@ -3184,7 +3184,7 @@
         <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="n">
         <v>18</v>
@@ -3196,7 +3196,7 @@
         <v>48</v>
       </c>
       <c r="AM20" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AN20" t="n">
         <v>15.5</v>
@@ -3235,7 +3235,7 @@
         <v>2.6</v>
       </c>
       <c r="G21" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="H21" t="n">
         <v>3.2</v>
@@ -3295,7 +3295,7 @@
         <v>20</v>
       </c>
       <c r="AA21" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB21" t="n">
         <v>9</v>
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G22" t="n">
         <v>2.28</v>
       </c>
       <c r="H22" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
         <v>4.7</v>
@@ -3385,34 +3385,34 @@
         <v>3.15</v>
       </c>
       <c r="L22" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="M22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="R22" t="n">
         <v>1.14</v>
       </c>
-      <c r="N22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.15</v>
-      </c>
       <c r="S22" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="T22" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="U22" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="V22" t="n">
         <v>1.27</v>
@@ -3424,34 +3424,34 @@
         <v>7.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z22" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AA22" t="n">
         <v>140</v>
       </c>
       <c r="AB22" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AE22" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI22" t="n">
         <v>140</v>
@@ -3460,13 +3460,13 @@
         <v>34</v>
       </c>
       <c r="AK22" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AL22" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM22" t="n">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="AN22" t="n">
         <v>40</v>
@@ -3505,7 +3505,7 @@
         <v>15</v>
       </c>
       <c r="G23" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="H23" t="n">
         <v>1.25</v>
@@ -3526,10 +3526,10 @@
         <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P23" t="n">
         <v>2.08</v>
@@ -3538,10 +3538,10 @@
         <v>1.79</v>
       </c>
       <c r="R23" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S23" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T23" t="n">
         <v>2.54</v>
@@ -3553,22 +3553,22 @@
         <v>4.4</v>
       </c>
       <c r="W23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="X23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA23" t="n">
         <v>9.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AC23" t="n">
         <v>17.5</v>
@@ -3580,34 +3580,34 @@
         <v>17</v>
       </c>
       <c r="AF23" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AG23" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AH23" t="n">
         <v>50</v>
       </c>
       <c r="AI23" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="n">
         <v>1000</v>
       </c>
       <c r="AK23" t="n">
+        <v>430</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>310</v>
+      </c>
+      <c r="AM23" t="n">
         <v>390</v>
       </c>
-      <c r="AL23" t="n">
-        <v>290</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>350</v>
-      </c>
       <c r="AN23" t="n">
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="24">
@@ -3670,7 +3670,7 @@
         <v>1.73</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R24" t="n">
         <v>1.21</v>
@@ -3946,7 +3946,7 @@
         <v>1.16</v>
       </c>
       <c r="S26" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="T26" t="n">
         <v>2.18</v>
@@ -4315,22 +4315,22 @@
         <v>3.2</v>
       </c>
       <c r="G29" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H29" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M29" t="n">
         <v>1.12</v>
@@ -4342,10 +4342,10 @@
         <v>1.52</v>
       </c>
       <c r="P29" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="R29" t="n">
         <v>1.19</v>
@@ -4360,10 +4360,10 @@
         <v>1.76</v>
       </c>
       <c r="V29" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="W29" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X29" t="n">
         <v>11</v>
@@ -4480,7 +4480,7 @@
         <v>1.96</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R30" t="n">
         <v>1.37</v>
@@ -4612,7 +4612,7 @@
         <v>1.5</v>
       </c>
       <c r="P31" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="Q31" t="n">
         <v>2.46</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="G33" t="n">
         <v>4.5</v>
@@ -4879,25 +4879,25 @@
         <v>2.86</v>
       </c>
       <c r="O33" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P33" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R33" t="n">
         <v>1.22</v>
       </c>
       <c r="S33" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="T33" t="n">
         <v>2</v>
       </c>
       <c r="U33" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V33" t="n">
         <v>1.82</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="G2" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="H2" t="n">
         <v>1.22</v>
@@ -682,37 +682,37 @@
         <v>7.6</v>
       </c>
       <c r="K2" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="L2" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="S2" t="n">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="T2" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="V2" t="n">
         <v>4.7</v>
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="Y2" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="Z2" t="n">
         <v>11</v>
@@ -733,46 +733,46 @@
         <v>11</v>
       </c>
       <c r="AB2" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AC2" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AD2" t="n">
         <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>970</v>
+        <v>17</v>
       </c>
       <c r="AF2" t="n">
         <v>150</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH2" t="n">
         <v>38</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="AL2" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AM2" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AN2" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AO2" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="3">
@@ -937,61 +937,61 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="G4" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="I4" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K4" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.24</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>2.14</v>
+        <v>3.45</v>
       </c>
       <c r="O4" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="P4" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="R4" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
-        <v>2.44</v>
+        <v>2.34</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
         <v>1.89</v>
       </c>
       <c r="V4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="W4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="X4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y4" t="n">
         <v>40</v>
@@ -1000,10 +1000,10 @@
         <v>110</v>
       </c>
       <c r="AA4" t="n">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="AB4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC4" t="n">
         <v>14.5</v>
@@ -1015,13 +1015,13 @@
         <v>170</v>
       </c>
       <c r="AF4" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG4" t="n">
         <v>12.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI4" t="n">
         <v>130</v>
@@ -1078,52 +1078,52 @@
         <v>5.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="J5" t="n">
         <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L5" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O5" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P5" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R5" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S5" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="T5" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="U5" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="V5" t="n">
         <v>2.18</v>
       </c>
       <c r="W5" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X5" t="n">
         <v>12.5</v>
@@ -1138,7 +1138,7 @@
         <v>19</v>
       </c>
       <c r="AB5" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="n">
         <v>8.4</v>
@@ -1153,7 +1153,7 @@
         <v>42</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
         <v>23</v>
@@ -1168,7 +1168,7 @@
         <v>85</v>
       </c>
       <c r="AL5" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AM5" t="n">
         <v>150</v>
@@ -1207,43 +1207,43 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="G6" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="I6" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M6" t="n">
         <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P6" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q6" t="n">
         <v>1.59</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
         <v>2.46</v>
@@ -1252,13 +1252,13 @@
         <v>1.58</v>
       </c>
       <c r="U6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="V6" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W6" t="n">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="X6" t="n">
         <v>26</v>
@@ -1270,19 +1270,19 @@
         <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="n">
         <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF6" t="n">
         <v>970</v>
@@ -1294,10 +1294,10 @@
         <v>18.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>23</v>
@@ -1312,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="AO6" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -1366,10 +1366,10 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
         <v>1.87</v>
@@ -1381,7 +1381,7 @@
         <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
         <v>1.8</v>
@@ -1399,7 +1399,7 @@
         <v>16.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z7" t="n">
         <v>13</v>
@@ -1408,7 +1408,7 @@
         <v>25</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC7" t="n">
         <v>9.800000000000001</v>
@@ -1417,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="AE7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
         <v>42</v>
@@ -1510,13 +1510,13 @@
         <v>2.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="R8" t="n">
         <v>1.18</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="T8" t="n">
         <v>1.01</v>
@@ -1615,7 +1615,7 @@
         <v>3.5</v>
       </c>
       <c r="G9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H9" t="n">
         <v>2.26</v>
@@ -1624,7 +1624,7 @@
         <v>2.36</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>3.5</v>
@@ -1663,7 +1663,7 @@
         <v>1.73</v>
       </c>
       <c r="W9" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X9" t="n">
         <v>13.5</v>
@@ -1672,13 +1672,13 @@
         <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA9" t="n">
         <v>32</v>
       </c>
       <c r="AB9" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC9" t="n">
         <v>8.6</v>
@@ -1759,7 +1759,7 @@
         <v>1.41</v>
       </c>
       <c r="J10" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="K10" t="n">
         <v>5.5</v>
@@ -1777,7 +1777,7 @@
         <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
         <v>1.81</v>
@@ -1792,7 +1792,7 @@
         <v>2.18</v>
       </c>
       <c r="U10" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
         <v>3.4</v>
@@ -1885,13 +1885,13 @@
         <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="H11" t="n">
         <v>1.73</v>
       </c>
       <c r="I11" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="J11" t="n">
         <v>4.3</v>
@@ -1903,13 +1903,13 @@
         <v>1.01</v>
       </c>
       <c r="M11" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>2.86</v>
+        <v>6.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P11" t="n">
         <v>2.86</v>
@@ -1918,61 +1918,61 @@
         <v>1.44</v>
       </c>
       <c r="R11" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="S11" t="n">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="T11" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="V11" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="W11" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB11" t="n">
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
         <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AK11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="12">
@@ -2020,16 +2020,16 @@
         <v>2.04</v>
       </c>
       <c r="G12" t="n">
-        <v>2.34</v>
+        <v>2.2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K12" t="n">
         <v>4.1</v>
@@ -2041,49 +2041,49 @@
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="P12" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="R12" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S12" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="T12" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U12" t="n">
         <v>2.28</v>
       </c>
       <c r="V12" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W12" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA12" t="n">
         <v>80</v>
       </c>
       <c r="AB12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
         <v>10.5</v>
@@ -2107,19 +2107,19 @@
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM12" t="n">
         <v>90</v>
       </c>
       <c r="AN12" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO12" t="n">
         <v>40</v>
@@ -2167,7 +2167,7 @@
         <v>4.2</v>
       </c>
       <c r="K13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
@@ -2290,10 +2290,10 @@
         <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="H14" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I14" t="n">
         <v>3.05</v>
@@ -2302,7 +2302,7 @@
         <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="L14" t="n">
         <v>1.24</v>
@@ -2311,34 +2311,34 @@
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P14" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="R14" t="n">
         <v>1.72</v>
       </c>
       <c r="S14" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="T14" t="n">
         <v>1.45</v>
       </c>
       <c r="U14" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="V14" t="n">
         <v>1.48</v>
       </c>
       <c r="W14" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X14" t="n">
         <v>1000</v>
@@ -2425,10 +2425,10 @@
         <v>3.6</v>
       </c>
       <c r="G15" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H15" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="I15" t="n">
         <v>1.92</v>
@@ -2437,7 +2437,7 @@
         <v>4.5</v>
       </c>
       <c r="K15" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,7 +2446,7 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.11</v>
@@ -2455,16 +2455,16 @@
         <v>3.35</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R15" t="n">
         <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="T15" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="U15" t="n">
         <v>2.92</v>
@@ -2473,7 +2473,7 @@
         <v>2.08</v>
       </c>
       <c r="W15" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="X15" t="n">
         <v>55</v>
@@ -2563,7 +2563,7 @@
         <v>3.3</v>
       </c>
       <c r="H16" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="I16" t="n">
         <v>2.58</v>
@@ -2587,22 +2587,22 @@
         <v>1.42</v>
       </c>
       <c r="P16" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R16" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S16" t="n">
         <v>4.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U16" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="V16" t="n">
         <v>1.63</v>
@@ -2626,7 +2626,7 @@
         <v>11</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD16" t="n">
         <v>13</v>
@@ -2701,10 +2701,10 @@
         <v>3.45</v>
       </c>
       <c r="I17" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.76</v>
+        <v>2.94</v>
       </c>
       <c r="K17" t="n">
         <v>3.4</v>
@@ -2713,91 +2713,91 @@
         <v>1.45</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P17" t="n">
         <v>1.57</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.56</v>
-      </c>
       <c r="Q17" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R17" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S17" t="n">
-        <v>2.42</v>
+        <v>4.9</v>
       </c>
       <c r="T17" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V17" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W17" t="n">
         <v>1.64</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AM17" t="n">
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -2830,7 +2830,7 @@
         <v>4.2</v>
       </c>
       <c r="G18" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="H18" t="n">
         <v>2.04</v>
@@ -2839,7 +2839,7 @@
         <v>2.28</v>
       </c>
       <c r="J18" t="n">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="K18" t="n">
         <v>3.4</v>
@@ -2878,7 +2878,7 @@
         <v>1.79</v>
       </c>
       <c r="W18" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -3112,7 +3112,7 @@
         <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L20" t="n">
         <v>1.51</v>
@@ -3127,7 +3127,7 @@
         <v>1.45</v>
       </c>
       <c r="P20" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q20" t="n">
         <v>2.36</v>
@@ -3142,7 +3142,7 @@
         <v>2.18</v>
       </c>
       <c r="U20" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V20" t="n">
         <v>1.21</v>
@@ -3154,7 +3154,7 @@
         <v>10.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="n">
         <v>40</v>
@@ -3391,19 +3391,19 @@
         <v>1.13</v>
       </c>
       <c r="N22" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="O22" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="P22" t="n">
         <v>1.45</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="R22" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S22" t="n">
         <v>6.2</v>
@@ -3451,7 +3451,7 @@
         <v>14.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI22" t="n">
         <v>140</v>
@@ -3463,10 +3463,10 @@
         <v>42</v>
       </c>
       <c r="AL22" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM22" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AN22" t="n">
         <v>40</v>
@@ -3505,22 +3505,22 @@
         <v>15</v>
       </c>
       <c r="G23" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="H23" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="I23" t="n">
         <v>1.29</v>
       </c>
       <c r="J23" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="K23" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="M23" t="n">
         <v>1.06</v>
@@ -3532,28 +3532,28 @@
         <v>1.26</v>
       </c>
       <c r="P23" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R23" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S23" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T23" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="U23" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V23" t="n">
         <v>4.4</v>
       </c>
       <c r="W23" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="X23" t="n">
         <v>23</v>
@@ -3568,13 +3568,13 @@
         <v>9.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AC23" t="n">
         <v>17.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE23" t="n">
         <v>17</v>
@@ -3583,10 +3583,10 @@
         <v>190</v>
       </c>
       <c r="AG23" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AH23" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="n">
         <v>65</v>
@@ -3595,19 +3595,19 @@
         <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="AL23" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AM23" t="n">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="AN23" t="n">
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="24">
@@ -3640,7 +3640,7 @@
         <v>1.89</v>
       </c>
       <c r="G24" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="H24" t="n">
         <v>4.6</v>
@@ -3670,7 +3670,7 @@
         <v>1.73</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="R24" t="n">
         <v>1.21</v>
@@ -3688,7 +3688,7 @@
         <v>1.24</v>
       </c>
       <c r="W24" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
@@ -3910,13 +3910,13 @@
         <v>3.55</v>
       </c>
       <c r="G26" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H26" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="I26" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="J26" t="n">
         <v>3.05</v>
@@ -3931,16 +3931,16 @@
         <v>1.13</v>
       </c>
       <c r="N26" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="O26" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="P26" t="n">
         <v>1.47</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="R26" t="n">
         <v>1.16</v>
@@ -3949,7 +3949,7 @@
         <v>6.2</v>
       </c>
       <c r="T26" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U26" t="n">
         <v>1.67</v>
@@ -3964,7 +3964,7 @@
         <v>7.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z26" t="n">
         <v>13.5</v>
@@ -4000,10 +4000,10 @@
         <v>85</v>
       </c>
       <c r="AK26" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AL26" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM26" t="n">
         <v>240</v>
@@ -4045,7 +4045,7 @@
         <v>3.45</v>
       </c>
       <c r="G27" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H27" t="n">
         <v>2.6</v>
@@ -4117,7 +4117,7 @@
         <v>970</v>
       </c>
       <c r="AE27" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
@@ -4315,7 +4315,7 @@
         <v>3.2</v>
       </c>
       <c r="G29" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="H29" t="n">
         <v>2.4</v>
@@ -4330,7 +4330,7 @@
         <v>3.4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="M29" t="n">
         <v>1.12</v>
@@ -4450,7 +4450,7 @@
         <v>1.92</v>
       </c>
       <c r="G30" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="H30" t="n">
         <v>4.1</v>
@@ -4498,7 +4498,7 @@
         <v>1.28</v>
       </c>
       <c r="W30" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4858,13 +4858,13 @@
         <v>4.5</v>
       </c>
       <c r="H33" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="I33" t="n">
         <v>2.22</v>
       </c>
       <c r="J33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K33" t="n">
         <v>3.45</v>
@@ -4876,16 +4876,16 @@
         <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O33" t="n">
         <v>1.47</v>
       </c>
       <c r="P33" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="R33" t="n">
         <v>1.22</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
         <v>14.5</v>
@@ -691,19 +691,19 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="Q2" t="n">
         <v>1.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="S2" t="n">
         <v>2.04</v>
@@ -712,7 +712,7 @@
         <v>1.96</v>
       </c>
       <c r="U2" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V2" t="n">
         <v>4.7</v>
@@ -724,7 +724,7 @@
         <v>46</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z2" t="n">
         <v>11</v>
@@ -742,7 +742,7 @@
         <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF2" t="n">
         <v>150</v>
@@ -760,7 +760,7 @@
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AL2" t="n">
         <v>150</v>
@@ -769,10 +769,10 @@
         <v>170</v>
       </c>
       <c r="AN2" t="n">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="AO2" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="G3" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
         <v>3.05</v>
@@ -835,7 +835,7 @@
         <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R3" t="n">
         <v>1.24</v>
@@ -850,7 +850,7 @@
         <v>1.9</v>
       </c>
       <c r="V3" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="W3" t="n">
         <v>1.53</v>
@@ -859,43 +859,43 @@
         <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AB3" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AF3" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH3" t="n">
         <v>21</v>
       </c>
-      <c r="AG3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>24</v>
-      </c>
       <c r="AI3" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ3" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AK3" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL3" t="n">
         <v>65</v>
@@ -904,10 +904,10 @@
         <v>160</v>
       </c>
       <c r="AN3" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO3" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
@@ -949,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="J4" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K4" t="n">
         <v>6.2</v>
@@ -1078,7 +1078,7 @@
         <v>5.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="I5" t="n">
         <v>1.84</v>
@@ -1087,7 +1087,7 @@
         <v>3.75</v>
       </c>
       <c r="K5" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L5" t="n">
         <v>1.46</v>
@@ -1102,16 +1102,16 @@
         <v>1.38</v>
       </c>
       <c r="P5" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R5" t="n">
         <v>1.3</v>
       </c>
       <c r="S5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
         <v>2.06</v>
@@ -1153,7 +1153,7 @@
         <v>42</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
         <v>23</v>
@@ -1168,7 +1168,7 @@
         <v>85</v>
       </c>
       <c r="AL5" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AM5" t="n">
         <v>150</v>
@@ -1210,7 +1210,7 @@
         <v>1.78</v>
       </c>
       <c r="G6" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
         <v>4.6</v>
@@ -1219,16 +1219,16 @@
         <v>5.3</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M6" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
         <v>5.4</v>
@@ -1276,13 +1276,13 @@
         <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
         <v>21</v>
       </c>
       <c r="AE6" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AF6" t="n">
         <v>970</v>
@@ -1309,7 +1309,7 @@
         <v>65</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>44</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="G7" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="J7" t="n">
         <v>3.5</v>
@@ -1366,73 +1366,73 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.94</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.98</v>
-      </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="W7" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="X7" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z7" t="n">
         <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB7" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
         <v>12</v>
       </c>
       <c r="AE7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG7" t="n">
         <v>23</v>
       </c>
-      <c r="AF7" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>22</v>
       </c>
-      <c r="AH7" t="n">
-        <v>23</v>
-      </c>
       <c r="AI7" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ7" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AK7" t="n">
         <v>75</v>
@@ -1441,13 +1441,13 @@
         <v>80</v>
       </c>
       <c r="AM7" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN7" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AO7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="G9" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="H9" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I9" t="n">
         <v>2.36</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.47</v>
       </c>
       <c r="M9" t="n">
         <v>1.09</v>
@@ -1645,7 +1645,7 @@
         <v>1.74</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
         <v>1.28</v>
@@ -1663,7 +1663,7 @@
         <v>1.73</v>
       </c>
       <c r="W9" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X9" t="n">
         <v>13.5</v>
@@ -1714,7 +1714,7 @@
         <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AO9" t="n">
         <v>25</v>
@@ -1780,7 +1780,7 @@
         <v>2.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="R10" t="n">
         <v>1.39</v>
@@ -1792,7 +1792,7 @@
         <v>2.18</v>
       </c>
       <c r="U10" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V10" t="n">
         <v>3.4</v>
@@ -1801,7 +1801,7 @@
         <v>1.1</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y10" t="n">
         <v>8.4</v>
@@ -1828,7 +1828,7 @@
         <v>120</v>
       </c>
       <c r="AG10" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AH10" t="n">
         <v>38</v>
@@ -1882,22 +1882,22 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="G11" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="I11" t="n">
-        <v>1.89</v>
+        <v>1.82</v>
       </c>
       <c r="J11" t="n">
         <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L11" t="n">
         <v>1.01</v>
@@ -1912,40 +1912,40 @@
         <v>1.14</v>
       </c>
       <c r="P11" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="Q11" t="n">
         <v>1.44</v>
       </c>
       <c r="R11" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="S11" t="n">
         <v>2.08</v>
       </c>
       <c r="T11" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="U11" t="n">
         <v>2.62</v>
       </c>
       <c r="V11" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="W11" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z11" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
         <v>1000</v>
@@ -1957,7 +1957,7 @@
         <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>2.34</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="J12" t="n">
         <v>3.65</v>
@@ -2050,7 +2050,7 @@
         <v>2.14</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R12" t="n">
         <v>1.46</v>
@@ -2059,40 +2059,40 @@
         <v>2.88</v>
       </c>
       <c r="T12" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V12" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="W12" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="X12" t="n">
         <v>21</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA12" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB12" t="n">
         <v>13</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AF12" t="n">
         <v>17</v>
@@ -2101,10 +2101,10 @@
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AJ12" t="n">
         <v>30</v>
@@ -2116,13 +2116,13 @@
         <v>38</v>
       </c>
       <c r="AM12" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN12" t="n">
         <v>15.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
@@ -2290,7 +2290,7 @@
         <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="H14" t="n">
         <v>2.78</v>
@@ -2305,7 +2305,7 @@
         <v>4.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
@@ -2425,7 +2425,7 @@
         <v>3.6</v>
       </c>
       <c r="G15" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="H15" t="n">
         <v>1.78</v>
@@ -2455,13 +2455,13 @@
         <v>3.35</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="R15" t="n">
         <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="T15" t="n">
         <v>1.4</v>
@@ -2476,7 +2476,7 @@
         <v>1.31</v>
       </c>
       <c r="X15" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="Y15" t="n">
         <v>25</v>
@@ -2512,10 +2512,10 @@
         <v>26</v>
       </c>
       <c r="AJ15" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AK15" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="n">
         <v>40</v>
@@ -2527,7 +2527,7 @@
         <v>21</v>
       </c>
       <c r="AO15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H16" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="I16" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="J16" t="n">
         <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.48</v>
@@ -2599,16 +2599,16 @@
         <v>4.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U16" t="n">
         <v>1.99</v>
       </c>
       <c r="V16" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W16" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X16" t="n">
         <v>12</v>
@@ -2617,22 +2617,22 @@
         <v>9.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB16" t="n">
         <v>11</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" t="n">
         <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF16" t="n">
         <v>22</v>
@@ -2647,10 +2647,10 @@
         <v>50</v>
       </c>
       <c r="AJ16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AK16" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AL16" t="n">
         <v>60</v>
@@ -2659,7 +2659,7 @@
         <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AO16" t="n">
         <v>32</v>
@@ -2839,7 +2839,7 @@
         <v>2.28</v>
       </c>
       <c r="J18" t="n">
-        <v>2.76</v>
+        <v>2.94</v>
       </c>
       <c r="K18" t="n">
         <v>3.4</v>
@@ -2848,31 +2848,31 @@
         <v>1.49</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N18" t="n">
-        <v>1.49</v>
+        <v>2.46</v>
       </c>
       <c r="O18" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="P18" t="n">
         <v>1.49</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="R18" t="n">
         <v>1.18</v>
       </c>
       <c r="S18" t="n">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>2.16</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="V18" t="n">
         <v>1.79</v>
@@ -2881,49 +2881,49 @@
         <v>1.25</v>
       </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ18" t="n">
         <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
@@ -2932,7 +2932,7 @@
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19">
@@ -3010,7 +3010,7 @@
         <v>1.92</v>
       </c>
       <c r="V19" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="W19" t="n">
         <v>1.26</v>
@@ -3112,7 +3112,7 @@
         <v>3.7</v>
       </c>
       <c r="K20" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L20" t="n">
         <v>1.51</v>
@@ -3130,7 +3130,7 @@
         <v>1.72</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R20" t="n">
         <v>1.26</v>
@@ -3142,7 +3142,7 @@
         <v>2.18</v>
       </c>
       <c r="U20" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V20" t="n">
         <v>1.21</v>
@@ -3151,10 +3151,10 @@
         <v>2.22</v>
       </c>
       <c r="X20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z20" t="n">
         <v>40</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G22" t="n">
         <v>2.28</v>
@@ -3376,10 +3376,10 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="J22" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K22" t="n">
         <v>3.15</v>
@@ -3415,7 +3415,7 @@
         <v>1.64</v>
       </c>
       <c r="V22" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W22" t="n">
         <v>1.78</v>
@@ -3424,31 +3424,31 @@
         <v>7.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z22" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AA22" t="n">
         <v>140</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
         <v>110</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG22" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AH22" t="n">
         <v>29</v>
@@ -3460,7 +3460,7 @@
         <v>34</v>
       </c>
       <c r="AK22" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL22" t="n">
         <v>85</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G23" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="H23" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="I23" t="n">
         <v>1.29</v>
@@ -3517,34 +3517,34 @@
         <v>6.4</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="L23" t="n">
         <v>1.35</v>
       </c>
       <c r="M23" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
         <v>4.1</v>
       </c>
       <c r="O23" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="P23" t="n">
         <v>2.1</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R23" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S23" t="n">
         <v>3</v>
       </c>
       <c r="T23" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="U23" t="n">
         <v>1.58</v>
@@ -3556,58 +3556,58 @@
         <v>1.06</v>
       </c>
       <c r="X23" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="n">
         <v>7.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB23" t="n">
         <v>40</v>
       </c>
       <c r="AC23" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AD23" t="n">
         <v>11.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF23" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AG23" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AH23" t="n">
         <v>48</v>
       </c>
       <c r="AI23" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AK23" t="n">
-        <v>420</v>
+        <v>370</v>
       </c>
       <c r="AL23" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AM23" t="n">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>730</v>
       </c>
       <c r="AO23" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="24">
@@ -3661,7 +3661,7 @@
         <v>1.01</v>
       </c>
       <c r="N24" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="O24" t="n">
         <v>1.39</v>
@@ -3670,13 +3670,13 @@
         <v>1.73</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R24" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S24" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="T24" t="n">
         <v>1.01</v>
@@ -3916,7 +3916,7 @@
         <v>2.46</v>
       </c>
       <c r="I26" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="J26" t="n">
         <v>3.05</v>
@@ -3928,28 +3928,28 @@
         <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N26" t="n">
         <v>2.36</v>
       </c>
       <c r="O26" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="P26" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="R26" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S26" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="T26" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="U26" t="n">
         <v>1.67</v>
@@ -3964,7 +3964,7 @@
         <v>7.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z26" t="n">
         <v>13.5</v>
@@ -3973,46 +3973,46 @@
         <v>40</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC26" t="n">
         <v>7.2</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF26" t="n">
         <v>24</v>
       </c>
       <c r="AG26" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI26" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AJ26" t="n">
         <v>85</v>
       </c>
       <c r="AK26" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AL26" t="n">
         <v>110</v>
       </c>
       <c r="AM26" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AN26" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AO26" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27">
@@ -4315,7 +4315,7 @@
         <v>3.2</v>
       </c>
       <c r="G29" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H29" t="n">
         <v>2.4</v>
@@ -4327,7 +4327,7 @@
         <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L29" t="n">
         <v>1.55</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="G30" t="n">
         <v>2.02</v>
@@ -4480,7 +4480,7 @@
         <v>1.96</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="R30" t="n">
         <v>1.37</v>
@@ -4492,10 +4492,10 @@
         <v>1.79</v>
       </c>
       <c r="U30" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="V30" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W30" t="n">
         <v>1.98</v>
@@ -4504,7 +4504,7 @@
         <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
@@ -4549,7 +4549,7 @@
         <v>120</v>
       </c>
       <c r="AN30" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G31" t="n">
         <v>1.79</v>
@@ -4852,16 +4852,16 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="G33" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H33" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="I33" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="J33" t="n">
         <v>3.3</v>
@@ -4885,25 +4885,25 @@
         <v>1.63</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="R33" t="n">
         <v>1.22</v>
       </c>
       <c r="S33" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="U33" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V33" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="W33" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X33" t="n">
         <v>10.5</v>
@@ -4930,7 +4930,7 @@
         <v>29</v>
       </c>
       <c r="AF33" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG33" t="n">
         <v>19</v>
@@ -4942,7 +4942,7 @@
         <v>55</v>
       </c>
       <c r="AJ33" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK33" t="n">
         <v>70</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>09:50:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Al-Raed (KSA)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>1.59</v>
       </c>
       <c r="G2" t="n">
-        <v>14.5</v>
+        <v>2.02</v>
       </c>
       <c r="H2" t="n">
-        <v>1.22</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.27</v>
+        <v>7.6</v>
       </c>
       <c r="J2" t="n">
-        <v>7.6</v>
+        <v>3.25</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>3.05</v>
+        <v>1.8</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.18</v>
       </c>
       <c r="S2" t="n">
-        <v>2.04</v>
+        <v>1.74</v>
       </c>
       <c r="T2" t="n">
-        <v>1.96</v>
+        <v>1.01</v>
       </c>
       <c r="U2" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>4.7</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>1.07</v>
+        <v>1.98</v>
       </c>
       <c r="X2" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>3.85</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.68</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>14.5</v>
       </c>
       <c r="H3" t="n">
-        <v>2.82</v>
+        <v>1.22</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>1.27</v>
       </c>
       <c r="J3" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P3" t="n">
         <v>3.05</v>
       </c>
-      <c r="K3" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.66</v>
-      </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>1.38</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="n">
-        <v>4.3</v>
+        <v>2.02</v>
       </c>
       <c r="T3" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="U3" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V3" t="n">
-        <v>1.46</v>
+        <v>4.7</v>
       </c>
       <c r="W3" t="n">
-        <v>1.53</v>
+        <v>1.07</v>
       </c>
       <c r="X3" t="n">
-        <v>12.5</v>
+        <v>46</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB3" t="n">
         <v>55</v>
       </c>
-      <c r="AB3" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="AC3" t="n">
-        <v>7.6</v>
+        <v>970</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>42</v>
+        <v>16.5</v>
       </c>
       <c r="AF3" t="n">
-        <v>970</v>
+        <v>150</v>
       </c>
       <c r="AG3" t="n">
-        <v>13.5</v>
+        <v>46</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="AL3" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AM3" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN3" t="n">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="AO3" t="n">
-        <v>48</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="G4" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O4" t="n">
         <v>1.44</v>
       </c>
-      <c r="H4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="P4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.24</v>
       </c>
-      <c r="M4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.53</v>
-      </c>
       <c r="S4" t="n">
-        <v>2.34</v>
+        <v>4.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="U4" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V4" t="n">
-        <v>1.1</v>
+        <v>1.46</v>
       </c>
       <c r="W4" t="n">
-        <v>3.25</v>
+        <v>1.52</v>
       </c>
       <c r="X4" t="n">
-        <v>28</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>110</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>380</v>
+        <v>55</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD4" t="n">
         <v>14.5</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>42</v>
       </c>
-      <c r="AE4" t="n">
-        <v>170</v>
-      </c>
       <c r="AF4" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AG4" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AI4" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13.5</v>
+        <v>46</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AM4" t="n">
         <v>160</v>
       </c>
       <c r="AN4" t="n">
-        <v>6.2</v>
+        <v>38</v>
       </c>
       <c r="AO4" t="n">
-        <v>200</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1063,127 +1063,127 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.2</v>
+        <v>1.35</v>
       </c>
       <c r="G5" t="n">
-        <v>5.6</v>
+        <v>1.44</v>
       </c>
       <c r="H5" t="n">
-        <v>1.79</v>
+        <v>6.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.84</v>
+        <v>11</v>
       </c>
       <c r="J5" t="n">
-        <v>3.75</v>
+        <v>4.7</v>
       </c>
       <c r="K5" t="n">
-        <v>3.95</v>
+        <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="O5" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>1.79</v>
+        <v>2.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.12</v>
+        <v>1.59</v>
       </c>
       <c r="R5" t="n">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>2.34</v>
       </c>
       <c r="T5" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="U5" t="n">
         <v>1.89</v>
       </c>
       <c r="V5" t="n">
-        <v>2.18</v>
+        <v>1.1</v>
       </c>
       <c r="W5" t="n">
-        <v>1.22</v>
+        <v>3.25</v>
       </c>
       <c r="X5" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>380</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG5" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>22</v>
-      </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AI5" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AJ5" t="n">
-        <v>150</v>
+        <v>13.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AM5" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN5" t="n">
-        <v>120</v>
+        <v>6.2</v>
       </c>
       <c r="AO5" t="n">
-        <v>14.5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.78</v>
+        <v>5.3</v>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>5.6</v>
       </c>
       <c r="H6" t="n">
-        <v>4.6</v>
+        <v>1.79</v>
       </c>
       <c r="I6" t="n">
-        <v>5.3</v>
+        <v>1.8</v>
       </c>
       <c r="J6" t="n">
         <v>3.8</v>
       </c>
       <c r="K6" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L6" t="n">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>5.4</v>
+        <v>3.35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>2.42</v>
+        <v>1.79</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.59</v>
+        <v>2.12</v>
       </c>
       <c r="R6" t="n">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>2.46</v>
+        <v>3.95</v>
       </c>
       <c r="T6" t="n">
-        <v>1.58</v>
+        <v>2.06</v>
       </c>
       <c r="U6" t="n">
-        <v>2.48</v>
+        <v>1.89</v>
       </c>
       <c r="V6" t="n">
-        <v>1.23</v>
+        <v>2.24</v>
       </c>
       <c r="W6" t="n">
-        <v>2.08</v>
+        <v>1.21</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>12.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>27</v>
+        <v>7.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE6" t="n">
         <v>21</v>
       </c>
-      <c r="AE6" t="n">
-        <v>70</v>
-      </c>
       <c r="AF6" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AG6" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AH6" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="AL6" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="AM6" t="n">
-        <v>65</v>
+        <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="AO6" t="n">
-        <v>44</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="7">
@@ -1333,127 +1333,127 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H7" t="n">
         <v>4.6</v>
       </c>
-      <c r="G7" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1.78</v>
-      </c>
       <c r="I7" t="n">
-        <v>1.94</v>
+        <v>5.3</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
         <v>4.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>3.45</v>
+        <v>5.4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.19</v>
       </c>
       <c r="P7" t="n">
-        <v>1.84</v>
+        <v>2.42</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>1.58</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.58</v>
       </c>
       <c r="S7" t="n">
-        <v>3.5</v>
+        <v>2.44</v>
       </c>
       <c r="T7" t="n">
-        <v>1.85</v>
+        <v>1.58</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>2.46</v>
       </c>
       <c r="V7" t="n">
-        <v>2.06</v>
+        <v>1.23</v>
       </c>
       <c r="W7" t="n">
-        <v>1.22</v>
+        <v>2.12</v>
       </c>
       <c r="X7" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.800000000000001</v>
+        <v>32</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="AA7" t="n">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="AB7" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AE7" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AO7" t="n">
         <v>46</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="G8" t="n">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="I8" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="J8" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>5.8</v>
+        <v>3.95</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>2.42</v>
+        <v>3.45</v>
       </c>
       <c r="O8" t="n">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>2.42</v>
+        <v>1.84</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.51</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
-        <v>1.51</v>
+        <v>3.5</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>1.86</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="V8" t="n">
-        <v>2.18</v>
+        <v>2.06</v>
       </c>
       <c r="W8" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1603,127 +1603,127 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cracovia Krakow</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="G9" t="n">
-        <v>3.95</v>
+        <v>5.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2.24</v>
+        <v>1.66</v>
       </c>
       <c r="I9" t="n">
-        <v>2.36</v>
+        <v>1.84</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3.45</v>
+        <v>4.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="O9" t="n">
-        <v>1.41</v>
+        <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>1.74</v>
+        <v>2.42</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V9" t="n">
         <v>2.2</v>
       </c>
-      <c r="R9" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="X9" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD9" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>13</v>
-      </c>
       <c r="AE9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AVS Futebol SAD</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Cracovia Krakow</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9.800000000000001</v>
+        <v>3.55</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>3.95</v>
       </c>
       <c r="H10" t="n">
-        <v>1.39</v>
+        <v>2.24</v>
       </c>
       <c r="I10" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.41</v>
       </c>
-      <c r="J10" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.29</v>
-      </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>1.74</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.39</v>
+        <v>1.28</v>
       </c>
       <c r="S10" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="T10" t="n">
-        <v>2.18</v>
+        <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>3.4</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>1.1</v>
+        <v>1.34</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.4</v>
+        <v>16</v>
       </c>
       <c r="AA10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD10" t="n">
         <v>13</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AE10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF10" t="n">
         <v>29</v>
       </c>
-      <c r="AC10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>120</v>
-      </c>
       <c r="AG10" t="n">
-        <v>44</v>
+        <v>17.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK10" t="n">
         <v>55</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>500</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>230</v>
-      </c>
       <c r="AL10" t="n">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="AM10" t="n">
-        <v>240</v>
+        <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>350</v>
+        <v>65</v>
       </c>
       <c r="AO10" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>5.1</v>
+        <v>11.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.68</v>
+        <v>1.39</v>
       </c>
       <c r="I11" t="n">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="K11" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>6.4</v>
+        <v>3.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
-        <v>2.9</v>
+        <v>2.04</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.44</v>
+        <v>1.85</v>
       </c>
       <c r="R11" t="n">
-        <v>1.77</v>
+        <v>1.39</v>
       </c>
       <c r="S11" t="n">
-        <v>2.08</v>
+        <v>3.2</v>
       </c>
       <c r="T11" t="n">
-        <v>1.51</v>
+        <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>2.62</v>
+        <v>1.74</v>
       </c>
       <c r="V11" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="W11" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>18</v>
+        <v>8.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.5</v>
+        <v>9.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AH11" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AO11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.16</v>
+        <v>4.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.34</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>1.68</v>
       </c>
       <c r="I12" t="n">
-        <v>3.55</v>
+        <v>1.82</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="K12" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="L12" t="n">
         <v>1.01</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.26</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>2.14</v>
+        <v>2.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="R12" t="n">
-        <v>1.46</v>
+        <v>1.77</v>
       </c>
       <c r="S12" t="n">
-        <v>2.88</v>
+        <v>2.08</v>
       </c>
       <c r="T12" t="n">
-        <v>1.66</v>
+        <v>1.51</v>
       </c>
       <c r="U12" t="n">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
       <c r="V12" t="n">
-        <v>1.39</v>
+        <v>2.2</v>
       </c>
       <c r="W12" t="n">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z12" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z12" t="n">
-        <v>30</v>
-      </c>
       <c r="AA12" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AB12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD12" t="n">
         <v>13</v>
       </c>
-      <c r="AC12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AE12" t="n">
-        <v>42</v>
+        <v>18.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
         <v>18.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.3</v>
+        <v>2.18</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="H13" t="n">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>1.84</v>
+        <v>3.55</v>
       </c>
       <c r="J13" t="n">
-        <v>4.2</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="P13" t="n">
-        <v>2.78</v>
+        <v>2.14</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
-        <v>1.73</v>
+        <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>2.16</v>
+        <v>2.88</v>
       </c>
       <c r="T13" t="n">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="U13" t="n">
-        <v>2.62</v>
+        <v>2.3</v>
       </c>
       <c r="V13" t="n">
-        <v>2.18</v>
+        <v>1.39</v>
       </c>
       <c r="W13" t="n">
-        <v>1.26</v>
+        <v>1.76</v>
       </c>
       <c r="X13" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Z13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF13" t="n">
         <v>17</v>
       </c>
-      <c r="AA13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AG13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>30</v>
       </c>
-      <c r="AC13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI13" t="n">
+      <c r="AK13" t="n">
         <v>25</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>60</v>
-      </c>
       <c r="AL13" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AN13" t="n">
-        <v>38</v>
+        <v>15.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.54</v>
+        <v>4.9</v>
       </c>
       <c r="H14" t="n">
-        <v>2.78</v>
+        <v>1.78</v>
       </c>
       <c r="I14" t="n">
-        <v>3.05</v>
+        <v>1.84</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K14" t="n">
         <v>4.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
         <v>1.02</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O14" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="R14" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S14" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="T14" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="U14" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="V14" t="n">
-        <v>1.48</v>
+        <v>2.18</v>
       </c>
       <c r="W14" t="n">
-        <v>1.65</v>
+        <v>1.26</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.6</v>
+        <v>2.26</v>
       </c>
       <c r="G15" t="n">
-        <v>4.3</v>
+        <v>2.56</v>
       </c>
       <c r="H15" t="n">
-        <v>1.78</v>
+        <v>2.78</v>
       </c>
       <c r="I15" t="n">
-        <v>1.92</v>
+        <v>3.15</v>
       </c>
       <c r="J15" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>8.4</v>
+        <v>6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="P15" t="n">
-        <v>3.35</v>
+        <v>2.76</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="S15" t="n">
-        <v>1.81</v>
+        <v>2.12</v>
       </c>
       <c r="T15" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="U15" t="n">
-        <v>2.92</v>
+        <v>2.74</v>
       </c>
       <c r="V15" t="n">
-        <v>2.08</v>
+        <v>1.46</v>
       </c>
       <c r="W15" t="n">
-        <v>1.31</v>
+        <v>1.64</v>
       </c>
       <c r="X15" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="G16" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="H16" t="n">
-        <v>2.44</v>
+        <v>1.78</v>
       </c>
       <c r="I16" t="n">
-        <v>2.54</v>
+        <v>1.92</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.4</v>
+        <v>5.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>3.15</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.42</v>
       </c>
-      <c r="P16" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.91</v>
-      </c>
       <c r="U16" t="n">
-        <v>1.99</v>
+        <v>2.96</v>
       </c>
       <c r="V16" t="n">
-        <v>1.64</v>
+        <v>2.08</v>
       </c>
       <c r="W16" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="X16" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.6</v>
+        <v>25</v>
       </c>
       <c r="Z16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC16" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AD16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>48</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL16" t="n">
         <v>40</v>
       </c>
-      <c r="AB16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH16" t="n">
+      <c r="AM16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN16" t="n">
         <v>21</v>
       </c>
-      <c r="AI16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>50</v>
-      </c>
       <c r="AO16" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.28</v>
+        <v>3.25</v>
       </c>
       <c r="G17" t="n">
-        <v>2.56</v>
+        <v>3.45</v>
       </c>
       <c r="H17" t="n">
-        <v>3.45</v>
+        <v>2.44</v>
       </c>
       <c r="I17" t="n">
-        <v>4.1</v>
+        <v>2.54</v>
       </c>
       <c r="J17" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
         <v>3.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M17" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>2.66</v>
+        <v>3.15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="P17" t="n">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.44</v>
+        <v>2.24</v>
       </c>
       <c r="R17" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="S17" t="n">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="U17" t="n">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="V17" t="n">
-        <v>1.32</v>
+        <v>1.64</v>
       </c>
       <c r="W17" t="n">
-        <v>1.64</v>
+        <v>1.4</v>
       </c>
       <c r="X17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB17" t="n">
         <v>11</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AC17" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD17" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>95</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>19</v>
-      </c>
       <c r="AE17" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AF17" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AJ17" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AK17" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AL17" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="AO17" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -2818,25 +2818,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.2</v>
+        <v>2.28</v>
       </c>
       <c r="G18" t="n">
-        <v>5</v>
+        <v>2.56</v>
       </c>
       <c r="H18" t="n">
-        <v>2.04</v>
+        <v>3.45</v>
       </c>
       <c r="I18" t="n">
-        <v>2.28</v>
+        <v>4.1</v>
       </c>
       <c r="J18" t="n">
         <v>2.94</v>
@@ -2845,100 +2845,100 @@
         <v>3.4</v>
       </c>
       <c r="L18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O18" t="n">
         <v>1.49</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.55</v>
-      </c>
       <c r="P18" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="R18" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S18" t="n">
         <v>4.9</v>
       </c>
       <c r="T18" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="V18" t="n">
-        <v>1.79</v>
+        <v>1.32</v>
       </c>
       <c r="W18" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="Z18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG18" t="n">
         <v>14</v>
       </c>
-      <c r="AA18" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE18" t="n">
+      <c r="AH18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK18" t="n">
         <v>38</v>
       </c>
-      <c r="AF18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>110</v>
-      </c>
       <c r="AL18" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO18" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="G19" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="I19" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="J19" t="n">
-        <v>3.45</v>
+        <v>2.94</v>
       </c>
       <c r="K19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N19" t="n">
-        <v>3.25</v>
+        <v>2.46</v>
       </c>
       <c r="O19" t="n">
-        <v>1.43</v>
+        <v>1.55</v>
       </c>
       <c r="P19" t="n">
-        <v>1.73</v>
+        <v>1.49</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.3</v>
+        <v>2.64</v>
       </c>
       <c r="R19" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="T19" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="U19" t="n">
-        <v>1.92</v>
+        <v>1.69</v>
       </c>
       <c r="V19" t="n">
-        <v>1.99</v>
+        <v>1.79</v>
       </c>
       <c r="W19" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="X19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="Z19" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AA19" t="n">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="AB19" t="n">
         <v>14</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH19" t="n">
         <v>32</v>
       </c>
-      <c r="AG19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>21</v>
-      </c>
       <c r="AI19" t="n">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="AJ19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK19" t="n">
         <v>110</v>
       </c>
-      <c r="AK19" t="n">
-        <v>70</v>
-      </c>
       <c r="AL19" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AM19" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>18.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="G20" t="n">
-        <v>1.81</v>
+        <v>4.7</v>
       </c>
       <c r="H20" t="n">
-        <v>5.6</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>5.7</v>
+        <v>2.04</v>
       </c>
       <c r="J20" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P20" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S20" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="T20" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="V20" t="n">
-        <v>1.21</v>
+        <v>1.97</v>
       </c>
       <c r="W20" t="n">
-        <v>2.22</v>
+        <v>1.27</v>
       </c>
       <c r="X20" t="n">
         <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>15.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AA20" t="n">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="AB20" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="AJ20" t="n">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="AK20" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="AL20" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="n">
         <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>15.5</v>
+        <v>90</v>
       </c>
       <c r="AO20" t="n">
-        <v>150</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3223,31 +3223,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="G21" t="n">
-        <v>2.62</v>
+        <v>1.81</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>5.6</v>
       </c>
       <c r="I21" t="n">
-        <v>3.25</v>
+        <v>5.7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="L21" t="n">
         <v>1.51</v>
@@ -3256,16 +3256,16 @@
         <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O21" t="n">
         <v>1.45</v>
       </c>
       <c r="P21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R21" t="n">
         <v>1.26</v>
@@ -3274,76 +3274,76 @@
         <v>4.6</v>
       </c>
       <c r="T21" t="n">
-        <v>1.99</v>
+        <v>2.18</v>
       </c>
       <c r="U21" t="n">
-        <v>1.97</v>
+        <v>1.81</v>
       </c>
       <c r="V21" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="W21" t="n">
-        <v>1.61</v>
+        <v>2.22</v>
       </c>
       <c r="X21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG21" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>12</v>
-      </c>
       <c r="AH21" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AL21" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM21" t="n">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AN21" t="n">
-        <v>32</v>
+        <v>15.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>46</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="G22" t="n">
-        <v>2.28</v>
+        <v>2.64</v>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>4.9</v>
+        <v>3.25</v>
       </c>
       <c r="J22" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="K22" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="L22" t="n">
-        <v>1.63</v>
+        <v>1.51</v>
       </c>
       <c r="M22" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q22" t="n">
         <v>2.38</v>
       </c>
-      <c r="O22" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.92</v>
-      </c>
       <c r="R22" t="n">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="S22" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32</v>
+        <v>1.99</v>
       </c>
       <c r="U22" t="n">
-        <v>1.64</v>
+        <v>1.97</v>
       </c>
       <c r="V22" t="n">
-        <v>1.26</v>
+        <v>1.44</v>
       </c>
       <c r="W22" t="n">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="X22" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK22" t="n">
         <v>32</v>
       </c>
-      <c r="AA22" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>38</v>
-      </c>
       <c r="AL22" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AM22" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="AN22" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>14</v>
+        <v>2.18</v>
       </c>
       <c r="G23" t="n">
-        <v>17</v>
+        <v>2.28</v>
       </c>
       <c r="H23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S23" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.27</v>
       </c>
-      <c r="I23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="J23" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K23" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V23" t="n">
-        <v>4.4</v>
-      </c>
       <c r="W23" t="n">
-        <v>1.06</v>
+        <v>1.78</v>
       </c>
       <c r="X23" t="n">
-        <v>20</v>
+        <v>7.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB23" t="n">
         <v>6.8</v>
       </c>
-      <c r="AA23" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AB23" t="n">
+      <c r="AC23" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN23" t="n">
         <v>40</v>
       </c>
-      <c r="AC23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>160</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>48</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>990</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>370</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>260</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>350</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>730</v>
-      </c>
       <c r="AO23" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Everton De Vina</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.89</v>
+        <v>13.5</v>
       </c>
       <c r="G24" t="n">
+        <v>17</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>7</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P24" t="n">
         <v>2.08</v>
       </c>
-      <c r="H24" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.73</v>
-      </c>
       <c r="Q24" t="n">
-        <v>2.18</v>
+        <v>1.8</v>
       </c>
       <c r="R24" t="n">
-        <v>1.23</v>
+        <v>1.41</v>
       </c>
       <c r="S24" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="V24" t="n">
-        <v>1.24</v>
+        <v>4.4</v>
       </c>
       <c r="W24" t="n">
-        <v>1.93</v>
+        <v>1.06</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ24" t="n">
         <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>730</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,118 +3763,118 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>Everton De Vina</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L25" t="n">
         <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N25" t="n">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="P25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W25" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE25" t="n">
         <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3883,7 +3883,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,126 +3893,126 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.65</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="N26" t="n">
-        <v>2.36</v>
+        <v>1.02</v>
       </c>
       <c r="O26" t="n">
-        <v>1.67</v>
+        <v>1.35</v>
       </c>
       <c r="P26" t="n">
-        <v>1.45</v>
+        <v>1.24</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.98</v>
+        <v>1.01</v>
       </c>
       <c r="R26" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="S26" t="n">
-        <v>6.4</v>
+        <v>1.01</v>
       </c>
       <c r="T26" t="n">
-        <v>2.4</v>
+        <v>1.01</v>
       </c>
       <c r="U26" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="V26" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="W26" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="X26" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4033,31 +4033,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="G27" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="H27" t="n">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="I27" t="n">
-        <v>2.78</v>
+        <v>2.54</v>
       </c>
       <c r="J27" t="n">
-        <v>2.86</v>
+        <v>3.05</v>
       </c>
       <c r="K27" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,70 +4066,70 @@
         <v>1.15</v>
       </c>
       <c r="N27" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="O27" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="P27" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="R27" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S27" t="n">
         <v>6.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="U27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.64</v>
       </c>
-      <c r="V27" t="n">
-        <v>1.58</v>
-      </c>
       <c r="W27" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="X27" t="n">
         <v>7.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI27" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AJ27" t="n">
         <v>85</v>
@@ -4138,22 +4138,22 @@
         <v>70</v>
       </c>
       <c r="AL27" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM27" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AN27" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AO27" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>2.86</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N28" t="n">
-        <v>1.02</v>
+        <v>2.3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.3</v>
+        <v>1.68</v>
       </c>
       <c r="P28" t="n">
-        <v>1.24</v>
+        <v>1.42</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="R28" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="S28" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="V28" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="W28" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,75 +4298,75 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N29" t="n">
-        <v>2.62</v>
+        <v>1.02</v>
       </c>
       <c r="O29" t="n">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
       <c r="P29" t="n">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.5</v>
+        <v>1.01</v>
       </c>
       <c r="R29" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S29" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="T29" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="U29" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="V29" t="n">
-        <v>1.58</v>
+        <v>1.01</v>
       </c>
       <c r="W29" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="X29" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
         <v>1000</v>
@@ -4408,7 +4408,7 @@
         <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,75 +4433,75 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>OHiggins</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.94</v>
+        <v>3.35</v>
       </c>
       <c r="G30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T30" t="n">
         <v>2.02</v>
       </c>
-      <c r="H30" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.79</v>
-      </c>
       <c r="U30" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="V30" t="n">
-        <v>1.29</v>
+        <v>1.61</v>
       </c>
       <c r="W30" t="n">
-        <v>1.98</v>
+        <v>1.36</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y30" t="n">
         <v>1000</v>
@@ -4531,7 +4531,7 @@
         <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
         <v>1000</v>
@@ -4543,13 +4543,13 @@
         <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM30" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,126 +4568,126 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>OHiggins</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="G31" t="n">
-        <v>1.79</v>
+        <v>2.04</v>
       </c>
       <c r="H31" t="n">
-        <v>6.2</v>
+        <v>4.1</v>
       </c>
       <c r="I31" t="n">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="J31" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="K31" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="L31" t="n">
         <v>1.01</v>
       </c>
       <c r="M31" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>2.76</v>
+        <v>3.8</v>
       </c>
       <c r="O31" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="P31" t="n">
-        <v>1.59</v>
+        <v>1.97</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.46</v>
+        <v>1.91</v>
       </c>
       <c r="R31" t="n">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="T31" t="n">
-        <v>2.26</v>
+        <v>1.79</v>
       </c>
       <c r="U31" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="V31" t="n">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="W31" t="n">
-        <v>2.26</v>
+        <v>1.96</v>
       </c>
       <c r="X31" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AI31" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="AN31" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AO31" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
@@ -4708,127 +4708,127 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.06</v>
+        <v>1.73</v>
       </c>
       <c r="G32" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="H32" t="n">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="I32" t="n">
-        <v>5.2</v>
+        <v>7.2</v>
       </c>
       <c r="J32" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="K32" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="N32" t="n">
-        <v>2.44</v>
+        <v>2.76</v>
       </c>
       <c r="O32" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="P32" t="n">
-        <v>1.48</v>
+        <v>1.59</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.86</v>
+        <v>2.46</v>
       </c>
       <c r="R32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V32" t="n">
         <v>1.16</v>
       </c>
-      <c r="S32" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.23</v>
-      </c>
       <c r="W32" t="n">
-        <v>1.92</v>
+        <v>2.26</v>
       </c>
       <c r="X32" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="Y32" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Z32" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AA32" t="n">
-        <v>150</v>
+        <v>280</v>
       </c>
       <c r="AB32" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE32" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AF32" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG32" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI32" t="n">
         <v>170</v>
       </c>
       <c r="AJ32" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AK32" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AL32" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AM32" t="n">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="AN32" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>180</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,125 +4838,260 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3.9</v>
+        <v>2.06</v>
       </c>
       <c r="G33" t="n">
-        <v>4.4</v>
+        <v>2.08</v>
       </c>
       <c r="H33" t="n">
-        <v>2.14</v>
+        <v>4.9</v>
       </c>
       <c r="I33" t="n">
-        <v>2.26</v>
+        <v>5.2</v>
       </c>
       <c r="J33" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K33" t="n">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="L33" t="n">
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="N33" t="n">
-        <v>2.88</v>
+        <v>2.44</v>
       </c>
       <c r="O33" t="n">
-        <v>1.47</v>
+        <v>1.62</v>
       </c>
       <c r="P33" t="n">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="Q33" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S33" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T33" t="n">
         <v>2.32</v>
       </c>
-      <c r="R33" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.98</v>
-      </c>
       <c r="U33" t="n">
-        <v>1.84</v>
+        <v>1.66</v>
       </c>
       <c r="V33" t="n">
-        <v>1.79</v>
+        <v>1.23</v>
       </c>
       <c r="W33" t="n">
-        <v>1.29</v>
+        <v>1.92</v>
       </c>
       <c r="X33" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF33" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y33" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD33" t="n">
+      <c r="AG33" t="n">
         <v>12</v>
       </c>
-      <c r="AE33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>19</v>
-      </c>
       <c r="AH33" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AI33" t="n">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="AJ33" t="n">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="AK33" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AL33" t="n">
         <v>85</v>
       </c>
       <c r="AM33" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I34" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM34" t="n">
         <v>190</v>
       </c>
-      <c r="AN33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO33" t="n">
+      <c r="AN34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO34" t="n">
         <v>29</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -670,7 +670,7 @@
         <v>1.59</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>110</v>
       </c>
       <c r="H2" t="n">
         <v>4.1</v>
@@ -718,7 +718,7 @@
         <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>1.98</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -811,13 +811,13 @@
         <v>1.22</v>
       </c>
       <c r="I3" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="J3" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="L3" t="n">
         <v>1.19</v>
@@ -838,7 +838,7 @@
         <v>1.38</v>
       </c>
       <c r="R3" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="S3" t="n">
         <v>2.02</v>
@@ -850,7 +850,7 @@
         <v>1.87</v>
       </c>
       <c r="V3" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="W3" t="n">
         <v>1.07</v>
@@ -862,10 +862,10 @@
         <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB3" t="n">
         <v>55</v>
@@ -874,10 +874,10 @@
         <v>970</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF3" t="n">
         <v>150</v>
@@ -940,7 +940,7 @@
         <v>2.7</v>
       </c>
       <c r="G4" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="H4" t="n">
         <v>2.88</v>
@@ -952,7 +952,7 @@
         <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.5</v>
@@ -967,10 +967,10 @@
         <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R4" t="n">
         <v>1.24</v>
@@ -979,7 +979,7 @@
         <v>4.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="U4" t="n">
         <v>1.9</v>
@@ -1003,13 +1003,13 @@
         <v>55</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC4" t="n">
         <v>7.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
         <v>42</v>
@@ -1042,7 +1042,7 @@
         <v>38</v>
       </c>
       <c r="AO4" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
@@ -1078,7 +1078,7 @@
         <v>1.44</v>
       </c>
       <c r="H5" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="I5" t="n">
         <v>11</v>
@@ -1090,34 +1090,34 @@
         <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="M5" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>3.45</v>
+        <v>5</v>
       </c>
       <c r="O5" t="n">
         <v>1.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S5" t="n">
         <v>2.34</v>
       </c>
       <c r="T5" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U5" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
         <v>1.1</v>
@@ -1132,10 +1132,10 @@
         <v>40</v>
       </c>
       <c r="Z5" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA5" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AB5" t="n">
         <v>11.5</v>
@@ -1144,10 +1144,10 @@
         <v>14.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AE5" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AF5" t="n">
         <v>10.5</v>
@@ -1171,13 +1171,13 @@
         <v>40</v>
       </c>
       <c r="AM5" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN5" t="n">
         <v>6.2</v>
       </c>
       <c r="AO5" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="G6" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I6" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="J6" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
         <v>1.46</v>
@@ -1234,7 +1234,7 @@
         <v>3.35</v>
       </c>
       <c r="O6" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
         <v>1.79</v>
@@ -1246,19 +1246,19 @@
         <v>1.3</v>
       </c>
       <c r="S6" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V6" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X6" t="n">
         <v>12.5</v>
@@ -1288,7 +1288,7 @@
         <v>42</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH6" t="n">
         <v>23</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="G7" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H7" t="n">
         <v>4.6</v>
@@ -1357,7 +1357,7 @@
         <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
         <v>1.24</v>
@@ -1483,7 +1483,7 @@
         <v>5.6</v>
       </c>
       <c r="H8" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="I8" t="n">
         <v>1.94</v>
@@ -1492,7 +1492,7 @@
         <v>3.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="G9" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="H9" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="I9" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K9" t="n">
         <v>4.9</v>
@@ -1636,34 +1636,34 @@
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.19</v>
       </c>
       <c r="P9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q9" t="n">
         <v>1.51</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S9" t="n">
         <v>2.3</v>
       </c>
       <c r="T9" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U9" t="n">
         <v>2.28</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="W9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1717,7 +1717,7 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="10">
@@ -1756,7 +1756,7 @@
         <v>2.24</v>
       </c>
       <c r="I10" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="J10" t="n">
         <v>3.25</v>
@@ -1795,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="W10" t="n">
         <v>1.34</v>
@@ -1849,7 +1849,7 @@
         <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO10" t="n">
         <v>25</v>
@@ -1885,28 +1885,28 @@
         <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="H11" t="n">
         <v>1.39</v>
       </c>
       <c r="I11" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="J11" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="K11" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O11" t="n">
         <v>1.29</v>
@@ -1915,7 +1915,7 @@
         <v>2.04</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
         <v>1.39</v>
@@ -1930,64 +1930,64 @@
         <v>1.74</v>
       </c>
       <c r="V11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W11" t="n">
         <v>1.1</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AA11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AG11" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AH11" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ11" t="n">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="AK11" t="n">
+        <v>220</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>180</v>
+      </c>
+      <c r="AM11" t="n">
         <v>230</v>
       </c>
-      <c r="AL11" t="n">
-        <v>190</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>240</v>
-      </c>
       <c r="AN11" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AO11" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="12">
@@ -2035,7 +2035,7 @@
         <v>5.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M12" t="n">
         <v>1.02</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G13" t="n">
         <v>2.3</v>
@@ -2191,7 +2191,7 @@
         <v>1.46</v>
       </c>
       <c r="S13" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T13" t="n">
         <v>1.66</v>
@@ -2290,7 +2290,7 @@
         <v>4.2</v>
       </c>
       <c r="G14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="H14" t="n">
         <v>1.78</v>
@@ -2305,10 +2305,10 @@
         <v>4.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M14" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
         <v>6.2</v>
@@ -2344,13 +2344,13 @@
         <v>32</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AB14" t="n">
         <v>30</v>
@@ -2389,7 +2389,7 @@
         <v>55</v>
       </c>
       <c r="AN14" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AO14" t="n">
         <v>7.8</v>
@@ -2443,7 +2443,7 @@
         <v>1.23</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
         <v>6</v>
@@ -2455,7 +2455,7 @@
         <v>2.76</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="R15" t="n">
         <v>1.72</v>
@@ -2560,7 +2560,7 @@
         <v>3.6</v>
       </c>
       <c r="G16" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H16" t="n">
         <v>1.78</v>
@@ -2578,7 +2578,7 @@
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
         <v>8.199999999999999</v>
@@ -2593,7 +2593,7 @@
         <v>1.32</v>
       </c>
       <c r="R16" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
         <v>1.84</v>
@@ -2614,37 +2614,37 @@
         <v>46</v>
       </c>
       <c r="Y16" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Z16" t="n">
         <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AB16" t="n">
         <v>38</v>
       </c>
       <c r="AC16" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AF16" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AG16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI16" t="n">
         <v>23</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>26</v>
       </c>
       <c r="AJ16" t="n">
         <v>70</v>
@@ -2653,13 +2653,13 @@
         <v>38</v>
       </c>
       <c r="AL16" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AO16" t="n">
         <v>6</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G17" t="n">
         <v>3.45</v>
@@ -2701,10 +2701,10 @@
         <v>2.44</v>
       </c>
       <c r="I17" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
         <v>3.4</v>
@@ -2716,7 +2716,7 @@
         <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O17" t="n">
         <v>1.42</v>
@@ -2725,10 +2725,10 @@
         <v>1.74</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S17" t="n">
         <v>4.2</v>
@@ -2737,13 +2737,13 @@
         <v>1.91</v>
       </c>
       <c r="U17" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="W17" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X17" t="n">
         <v>12</v>
@@ -2752,10 +2752,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z17" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="n">
         <v>11</v>
@@ -2767,7 +2767,7 @@
         <v>12.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AF17" t="n">
         <v>22</v>
@@ -2776,7 +2776,7 @@
         <v>14.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
         <v>50</v>
@@ -2797,7 +2797,7 @@
         <v>50</v>
       </c>
       <c r="AO17" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
@@ -2884,34 +2884,34 @@
         <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA18" t="n">
         <v>95</v>
       </c>
       <c r="AB18" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE18" t="n">
         <v>70</v>
       </c>
       <c r="AF18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
         <v>90</v>
@@ -2920,7 +2920,7 @@
         <v>42</v>
       </c>
       <c r="AK18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL18" t="n">
         <v>70</v>
@@ -2929,7 +2929,7 @@
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO18" t="n">
         <v>90</v>
@@ -3019,7 +3019,7 @@
         <v>10</v>
       </c>
       <c r="Y19" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="Z19" t="n">
         <v>14</v>
@@ -3049,7 +3049,7 @@
         <v>32</v>
       </c>
       <c r="AI19" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
@@ -3103,7 +3103,7 @@
         <v>4.7</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="I20" t="n">
         <v>2.04</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="G21" t="n">
         <v>1.81</v>
@@ -3247,7 +3247,7 @@
         <v>3.7</v>
       </c>
       <c r="K21" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L21" t="n">
         <v>1.51</v>
@@ -3265,10 +3265,10 @@
         <v>1.72</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R21" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S21" t="n">
         <v>4.6</v>
@@ -3283,7 +3283,7 @@
         <v>1.21</v>
       </c>
       <c r="W21" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="X21" t="n">
         <v>11</v>
@@ -3301,10 +3301,10 @@
         <v>7</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE21" t="n">
         <v>95</v>
@@ -3376,13 +3376,13 @@
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K22" t="n">
         <v>3.25</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.3</v>
       </c>
       <c r="L22" t="n">
         <v>1.51</v>
@@ -3391,7 +3391,7 @@
         <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O22" t="n">
         <v>1.45</v>
@@ -3412,13 +3412,13 @@
         <v>1.99</v>
       </c>
       <c r="U22" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="V22" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="W22" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X22" t="n">
         <v>10</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G23" t="n">
         <v>2.28</v>
@@ -3529,7 +3529,7 @@
         <v>2.38</v>
       </c>
       <c r="O23" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="P23" t="n">
         <v>1.45</v>
@@ -3538,7 +3538,7 @@
         <v>2.92</v>
       </c>
       <c r="R23" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="S23" t="n">
         <v>6.2</v>
@@ -3598,7 +3598,7 @@
         <v>38</v>
       </c>
       <c r="AL23" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM23" t="n">
         <v>300</v>
@@ -3640,7 +3640,7 @@
         <v>13.5</v>
       </c>
       <c r="G24" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="H24" t="n">
         <v>1.27</v>
@@ -3649,10 +3649,10 @@
         <v>1.29</v>
       </c>
       <c r="J24" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="K24" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L24" t="n">
         <v>1.35</v>
@@ -3691,7 +3691,7 @@
         <v>1.06</v>
       </c>
       <c r="X24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y24" t="n">
         <v>7.4</v>
@@ -3703,7 +3703,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AB24" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="n">
         <v>15.5</v>
@@ -3718,7 +3718,7 @@
         <v>170</v>
       </c>
       <c r="AG24" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AH24" t="n">
         <v>48</v>
@@ -3742,7 +3742,7 @@
         <v>730</v>
       </c>
       <c r="AO24" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="25">
@@ -3775,13 +3775,13 @@
         <v>1.89</v>
       </c>
       <c r="G25" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H25" t="n">
         <v>4.6</v>
       </c>
       <c r="I25" t="n">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="J25" t="n">
         <v>3.35</v>
@@ -3790,7 +3790,7 @@
         <v>3.75</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M25" t="n">
         <v>1.09</v>
@@ -3802,19 +3802,19 @@
         <v>1.4</v>
       </c>
       <c r="P25" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R25" t="n">
         <v>1.27</v>
       </c>
       <c r="S25" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="T25" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U25" t="n">
         <v>1.89</v>
@@ -3823,7 +3823,7 @@
         <v>1.24</v>
       </c>
       <c r="W25" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="X25" t="n">
         <v>14</v>
@@ -4042,64 +4042,64 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G27" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="H27" t="n">
         <v>2.46</v>
       </c>
       <c r="I27" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="J27" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="K27" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="M27" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N27" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="O27" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="P27" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="S27" t="n">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="T27" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="U27" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="V27" t="n">
         <v>1.64</v>
       </c>
       <c r="W27" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X27" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Z27" t="n">
         <v>13.5</v>
@@ -4108,46 +4108,46 @@
         <v>40</v>
       </c>
       <c r="AB27" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC27" t="n">
         <v>7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
       </c>
       <c r="AG27" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AH27" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AI27" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK27" t="n">
         <v>80</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>70</v>
-      </c>
       <c r="AL27" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AM27" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="AN27" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AO27" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28">
@@ -4183,16 +4183,16 @@
         <v>3.55</v>
       </c>
       <c r="H28" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I28" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="J28" t="n">
         <v>2.86</v>
       </c>
       <c r="K28" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
@@ -4456,7 +4456,7 @@
         <v>2.4</v>
       </c>
       <c r="I30" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J30" t="n">
         <v>3.1</v>
@@ -4465,7 +4465,7 @@
         <v>3.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="M30" t="n">
         <v>1.12</v>
@@ -4495,7 +4495,7 @@
         <v>1.76</v>
       </c>
       <c r="V30" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W30" t="n">
         <v>1.36</v>
@@ -4516,7 +4516,7 @@
         <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>
@@ -4651,7 +4651,7 @@
         <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
@@ -5020,7 +5020,7 @@
         <v>1.61</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="R34" t="n">
         <v>1.22</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO34"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
         <v>1.59</v>
       </c>
       <c r="G2" t="n">
-        <v>110</v>
+        <v>990</v>
       </c>
       <c r="H2" t="n">
         <v>4.1</v>
@@ -685,13 +685,13 @@
         <v>7.8</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M2" t="n">
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
         <v>1.01</v>
@@ -703,16 +703,16 @@
         <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S2" t="n">
-        <v>1.74</v>
+        <v>2.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V2" t="n">
         <v>1.15</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>11:20:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12</v>
+        <v>3.3</v>
       </c>
       <c r="G3" t="n">
-        <v>14.5</v>
+        <v>5.6</v>
       </c>
       <c r="H3" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.22</v>
       </c>
-      <c r="I3" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="J3" t="n">
-        <v>8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N3" t="n">
-        <v>7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="V3" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.07</v>
-      </c>
       <c r="X3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:15:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.7</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>2.92</v>
+        <v>14.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.88</v>
+        <v>1.22</v>
       </c>
       <c r="I4" t="n">
-        <v>3.15</v>
+        <v>1.26</v>
       </c>
       <c r="J4" t="n">
+        <v>8</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P4" t="n">
         <v>3.1</v>
       </c>
-      <c r="K4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.67</v>
-      </c>
       <c r="Q4" t="n">
-        <v>2.32</v>
+        <v>1.39</v>
       </c>
       <c r="R4" t="n">
-        <v>1.24</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
-        <v>4.3</v>
+        <v>1.99</v>
       </c>
       <c r="T4" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="V4" t="n">
-        <v>1.46</v>
+        <v>4.8</v>
       </c>
       <c r="W4" t="n">
-        <v>1.52</v>
+        <v>1.07</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>46</v>
       </c>
       <c r="Y4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA4" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>55</v>
       </c>
-      <c r="AB4" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AC4" t="n">
-        <v>7.6</v>
+        <v>970</v>
       </c>
       <c r="AD4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>42</v>
+        <v>14.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>970</v>
+        <v>150</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.5</v>
+        <v>46</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AJ4" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>38</v>
+        <v>210</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="AM4" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AN4" t="n">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="AO4" t="n">
-        <v>44</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="G5" t="n">
-        <v>1.44</v>
+        <v>2.92</v>
       </c>
       <c r="H5" t="n">
-        <v>7.8</v>
+        <v>2.88</v>
       </c>
       <c r="I5" t="n">
-        <v>11</v>
+        <v>3.15</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>5</v>
+        <v>2.96</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="P5" t="n">
-        <v>2.36</v>
+        <v>1.67</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>2.32</v>
       </c>
       <c r="R5" t="n">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
       <c r="S5" t="n">
-        <v>2.34</v>
+        <v>4.3</v>
       </c>
       <c r="T5" t="n">
         <v>1.91</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="V5" t="n">
-        <v>1.1</v>
+        <v>1.46</v>
       </c>
       <c r="W5" t="n">
-        <v>3.25</v>
+        <v>1.52</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>12.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>40</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>370</v>
+        <v>55</v>
       </c>
       <c r="AB5" t="n">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>14.5</v>
+        <v>7.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM5" t="n">
         <v>160</v>
       </c>
-      <c r="AF5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>150</v>
-      </c>
       <c r="AN5" t="n">
-        <v>6.2</v>
+        <v>38</v>
       </c>
       <c r="AO5" t="n">
-        <v>190</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.2</v>
+        <v>1.35</v>
       </c>
       <c r="G6" t="n">
-        <v>5.5</v>
+        <v>1.43</v>
       </c>
       <c r="H6" t="n">
-        <v>1.8</v>
+        <v>7.8</v>
       </c>
       <c r="I6" t="n">
-        <v>1.82</v>
+        <v>10.5</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>4.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>6.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>1.79</v>
+        <v>2.36</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.12</v>
+        <v>1.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.3</v>
+        <v>1.54</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>2.34</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U6" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V6" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>1.22</v>
+        <v>3.3</v>
       </c>
       <c r="X6" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>360</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG6" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y6" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>21</v>
-      </c>
       <c r="AH6" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AI6" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>150</v>
+        <v>13.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="AL6" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
         <v>150</v>
       </c>
       <c r="AN6" t="n">
-        <v>120</v>
+        <v>6.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>14.5</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.77</v>
+        <v>5.2</v>
       </c>
       <c r="G7" t="n">
-        <v>1.88</v>
+        <v>5.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="I7" t="n">
-        <v>5.3</v>
+        <v>1.82</v>
       </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>1.24</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>5.4</v>
+        <v>3.3</v>
       </c>
       <c r="O7" t="n">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="P7" t="n">
-        <v>2.42</v>
+        <v>1.79</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.58</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
-        <v>1.58</v>
+        <v>1.3</v>
       </c>
       <c r="S7" t="n">
-        <v>2.44</v>
+        <v>3.95</v>
       </c>
       <c r="T7" t="n">
-        <v>1.58</v>
+        <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>2.46</v>
+        <v>1.89</v>
       </c>
       <c r="V7" t="n">
-        <v>1.23</v>
+        <v>2.2</v>
       </c>
       <c r="W7" t="n">
-        <v>2.12</v>
+        <v>1.22</v>
       </c>
       <c r="X7" t="n">
-        <v>28</v>
+        <v>12.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>32</v>
+        <v>7.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>25</v>
+        <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
-        <v>970</v>
+        <v>42</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.5</v>
+        <v>21</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="AK7" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AL7" t="n">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="AM7" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>9.6</v>
+        <v>120</v>
       </c>
       <c r="AO7" t="n">
-        <v>46</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.7</v>
+        <v>1.77</v>
       </c>
       <c r="G8" t="n">
-        <v>5.6</v>
+        <v>1.88</v>
       </c>
       <c r="H8" t="n">
-        <v>1.78</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.94</v>
+        <v>5.3</v>
       </c>
       <c r="J8" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.24</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>3.45</v>
+        <v>5.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>1.84</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.56</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.65</v>
       </c>
       <c r="S8" t="n">
-        <v>3.5</v>
+        <v>2.36</v>
       </c>
       <c r="T8" t="n">
-        <v>1.86</v>
+        <v>1.56</v>
       </c>
       <c r="U8" t="n">
-        <v>1.94</v>
+        <v>2.52</v>
       </c>
       <c r="V8" t="n">
-        <v>2.06</v>
+        <v>1.24</v>
       </c>
       <c r="W8" t="n">
-        <v>1.22</v>
+        <v>2.12</v>
       </c>
       <c r="X8" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.800000000000001</v>
+        <v>32</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="AA8" t="n">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="AB8" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AE8" t="n">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="AF8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AO8" t="n">
         <v>46</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G9" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="I9" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="J9" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>5.2</v>
+        <v>3.45</v>
       </c>
       <c r="O9" t="n">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>2.44</v>
+        <v>1.84</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.51</v>
+        <v>1.98</v>
       </c>
       <c r="R9" t="n">
-        <v>1.58</v>
+        <v>1.32</v>
       </c>
       <c r="S9" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="U9" t="n">
-        <v>2.28</v>
+        <v>1.94</v>
       </c>
       <c r="V9" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="W9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AD9" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="G10" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H10" t="n">
         <v>2.24</v>
       </c>
       <c r="I10" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J10" t="n">
         <v>3.25</v>
@@ -1795,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="W10" t="n">
         <v>1.34</v>
@@ -1804,7 +1804,7 @@
         <v>13.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z10" t="n">
         <v>16</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AVS Futebol SAD</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>4.7</v>
       </c>
       <c r="G11" t="n">
-        <v>10.5</v>
+        <v>6.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.39</v>
+        <v>1.63</v>
       </c>
       <c r="I11" t="n">
-        <v>1.4</v>
+        <v>1.76</v>
       </c>
       <c r="J11" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.38</v>
+        <v>1.2</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.04</v>
+        <v>2.46</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.51</v>
       </c>
       <c r="R11" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="S11" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="T11" t="n">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
-        <v>1.74</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>3.5</v>
+        <v>2.28</v>
       </c>
       <c r="W11" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD11" t="n">
         <v>12.5</v>
       </c>
-      <c r="AB11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AE11" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>1.68</v>
+        <v>1.39</v>
       </c>
       <c r="I12" t="n">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="J12" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="K12" t="n">
-        <v>5.2</v>
+        <v>5.6</v>
       </c>
       <c r="L12" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>2.9</v>
+        <v>2.04</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.44</v>
+        <v>1.81</v>
       </c>
       <c r="R12" t="n">
-        <v>1.77</v>
+        <v>1.39</v>
       </c>
       <c r="S12" t="n">
-        <v>2.08</v>
+        <v>3.2</v>
       </c>
       <c r="T12" t="n">
-        <v>1.51</v>
+        <v>2.18</v>
       </c>
       <c r="U12" t="n">
-        <v>2.62</v>
+        <v>1.74</v>
       </c>
       <c r="V12" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.25</v>
+        <v>1.1</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Z12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE12" t="n">
         <v>17.5</v>
       </c>
-      <c r="AA12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AH12" t="n">
-        <v>18.5</v>
+        <v>36</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
-        <v>95</v>
+        <v>490</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AO12" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.16</v>
+        <v>4.2</v>
       </c>
       <c r="G13" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>1.68</v>
       </c>
       <c r="I13" t="n">
-        <v>3.55</v>
+        <v>1.82</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>4.4</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>5.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.26</v>
+        <v>1.14</v>
       </c>
       <c r="P13" t="n">
-        <v>2.14</v>
+        <v>2.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="R13" t="n">
-        <v>1.46</v>
+        <v>1.77</v>
       </c>
       <c r="S13" t="n">
-        <v>2.9</v>
+        <v>2.08</v>
       </c>
       <c r="T13" t="n">
-        <v>1.66</v>
+        <v>1.51</v>
       </c>
       <c r="U13" t="n">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
       <c r="V13" t="n">
-        <v>1.39</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
-        <v>1.76</v>
+        <v>1.25</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z13" t="n">
         <v>17.5</v>
       </c>
-      <c r="Z13" t="n">
-        <v>30</v>
-      </c>
       <c r="AA13" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="AB13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD13" t="n">
         <v>13</v>
       </c>
-      <c r="AC13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AE13" t="n">
-        <v>42</v>
+        <v>18.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AH13" t="n">
         <v>18.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="AK13" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.2</v>
+        <v>2.16</v>
       </c>
       <c r="G14" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>1.78</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>1.84</v>
+        <v>3.55</v>
       </c>
       <c r="J14" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>6.2</v>
+        <v>4.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>2.78</v>
+        <v>2.14</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.73</v>
+        <v>1.46</v>
       </c>
       <c r="S14" t="n">
-        <v>2.16</v>
+        <v>2.9</v>
       </c>
       <c r="T14" t="n">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="U14" t="n">
-        <v>2.62</v>
+        <v>2.3</v>
       </c>
       <c r="V14" t="n">
-        <v>2.18</v>
+        <v>1.39</v>
       </c>
       <c r="W14" t="n">
-        <v>1.26</v>
+        <v>1.76</v>
       </c>
       <c r="X14" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Y14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN14" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>25</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>34</v>
-      </c>
       <c r="AO14" t="n">
-        <v>7.8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -2413,121 +2413,121 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.26</v>
+        <v>4.2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.56</v>
+        <v>4.7</v>
       </c>
       <c r="H15" t="n">
-        <v>2.78</v>
+        <v>1.83</v>
       </c>
       <c r="I15" t="n">
-        <v>3.15</v>
+        <v>1.84</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P15" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="R15" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S15" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="T15" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="U15" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="V15" t="n">
-        <v>1.46</v>
+        <v>2.18</v>
       </c>
       <c r="W15" t="n">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="16">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.6</v>
+        <v>2.28</v>
       </c>
       <c r="G16" t="n">
-        <v>4.2</v>
+        <v>2.58</v>
       </c>
       <c r="H16" t="n">
-        <v>1.78</v>
+        <v>2.78</v>
       </c>
       <c r="I16" t="n">
-        <v>1.92</v>
+        <v>3.15</v>
       </c>
       <c r="J16" t="n">
+        <v>4</v>
+      </c>
+      <c r="K16" t="n">
         <v>4.5</v>
       </c>
-      <c r="K16" t="n">
-        <v>5.2</v>
-      </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>8.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.11</v>
+        <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>3.45</v>
+        <v>2.76</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="S16" t="n">
-        <v>1.84</v>
+        <v>2.12</v>
       </c>
       <c r="T16" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="U16" t="n">
-        <v>2.96</v>
+        <v>2.74</v>
       </c>
       <c r="V16" t="n">
-        <v>2.08</v>
+        <v>1.46</v>
       </c>
       <c r="W16" t="n">
-        <v>1.31</v>
+        <v>1.65</v>
       </c>
       <c r="X16" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="G17" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P17" t="n">
         <v>3.45</v>
       </c>
-      <c r="H17" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.74</v>
-      </c>
       <c r="Q17" t="n">
-        <v>2.22</v>
+        <v>1.32</v>
       </c>
       <c r="R17" t="n">
-        <v>1.28</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="T17" t="n">
-        <v>1.91</v>
+        <v>1.44</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>2.98</v>
       </c>
       <c r="V17" t="n">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="W17" t="n">
-        <v>1.41</v>
+        <v>1.31</v>
       </c>
       <c r="X17" t="n">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.199999999999999</v>
+        <v>21</v>
       </c>
       <c r="Z17" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AA17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK17" t="n">
         <v>38</v>
       </c>
-      <c r="AB17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>48</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>46</v>
-      </c>
       <c r="AL17" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AN17" t="n">
-        <v>50</v>
+        <v>970</v>
       </c>
       <c r="AO17" t="n">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.28</v>
+        <v>3.15</v>
       </c>
       <c r="G18" t="n">
-        <v>2.56</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
-        <v>3.45</v>
+        <v>2.54</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>2.62</v>
       </c>
       <c r="J18" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L18" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>2.66</v>
+        <v>3.15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="P18" t="n">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="R18" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="S18" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="T18" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U18" t="n">
         <v>2</v>
       </c>
-      <c r="U18" t="n">
-        <v>1.81</v>
-      </c>
       <c r="V18" t="n">
-        <v>1.32</v>
+        <v>1.61</v>
       </c>
       <c r="W18" t="n">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z18" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="n">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AF18" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="AJ18" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AK18" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AL18" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN18" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="AO18" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -2977,7 +2977,7 @@
         <v>2.94</v>
       </c>
       <c r="K19" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L19" t="n">
         <v>1.49</v>
@@ -3073,7 +3073,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.6</v>
+        <v>2.28</v>
       </c>
       <c r="G20" t="n">
-        <v>4.7</v>
+        <v>2.54</v>
       </c>
       <c r="H20" t="n">
-        <v>2.02</v>
+        <v>3.45</v>
       </c>
       <c r="I20" t="n">
-        <v>2.04</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>2.94</v>
       </c>
       <c r="K20" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="L20" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N20" t="n">
-        <v>3.2</v>
+        <v>2.66</v>
       </c>
       <c r="O20" t="n">
-        <v>1.43</v>
+        <v>1.49</v>
       </c>
       <c r="P20" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="R20" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="S20" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="T20" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="V20" t="n">
-        <v>1.97</v>
+        <v>1.33</v>
       </c>
       <c r="W20" t="n">
-        <v>1.27</v>
+        <v>1.64</v>
       </c>
       <c r="X20" t="n">
         <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="Z20" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AA20" t="n">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="AB20" t="n">
-        <v>14</v>
+        <v>8.6</v>
       </c>
       <c r="AC20" t="n">
         <v>7.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="AF20" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AJ20" t="n">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="AK20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL20" t="n">
         <v>70</v>
       </c>
-      <c r="AL20" t="n">
-        <v>80</v>
-      </c>
       <c r="AM20" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO20" t="n">
         <v>90</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>18.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.79</v>
+        <v>4.4</v>
       </c>
       <c r="G21" t="n">
-        <v>1.81</v>
+        <v>4.5</v>
       </c>
       <c r="H21" t="n">
-        <v>5.6</v>
+        <v>2.04</v>
       </c>
       <c r="I21" t="n">
-        <v>5.7</v>
+        <v>2.06</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O21" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
         <v>1.72</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R21" t="n">
         <v>1.27</v>
       </c>
       <c r="S21" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T21" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="V21" t="n">
-        <v>1.21</v>
+        <v>1.94</v>
       </c>
       <c r="W21" t="n">
-        <v>2.24</v>
+        <v>1.28</v>
       </c>
       <c r="X21" t="n">
         <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>160</v>
+        <v>24</v>
       </c>
       <c r="AB21" t="n">
-        <v>7</v>
+        <v>13.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="AF21" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="AG21" t="n">
-        <v>10.5</v>
+        <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="AL21" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="n">
         <v>150</v>
       </c>
       <c r="AN21" t="n">
-        <v>15.5</v>
+        <v>90</v>
       </c>
       <c r="AO21" t="n">
-        <v>150</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,31 +3358,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="G22" t="n">
-        <v>2.64</v>
+        <v>1.81</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="I22" t="n">
-        <v>3.3</v>
+        <v>5.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="K22" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="L22" t="n">
         <v>1.51</v>
@@ -3397,88 +3397,88 @@
         <v>1.45</v>
       </c>
       <c r="P22" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R22" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S22" t="n">
         <v>4.6</v>
       </c>
       <c r="T22" t="n">
-        <v>1.99</v>
+        <v>2.18</v>
       </c>
       <c r="U22" t="n">
-        <v>1.98</v>
+        <v>1.81</v>
       </c>
       <c r="V22" t="n">
-        <v>1.43</v>
+        <v>1.21</v>
       </c>
       <c r="W22" t="n">
-        <v>1.6</v>
+        <v>2.22</v>
       </c>
       <c r="X22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG22" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12</v>
-      </c>
       <c r="AH22" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AI22" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AJ22" t="n">
-        <v>38</v>
+        <v>18.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM22" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO22" t="n">
         <v>130</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.2</v>
+        <v>2.62</v>
       </c>
       <c r="G23" t="n">
-        <v>2.28</v>
+        <v>2.64</v>
       </c>
       <c r="H23" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S23" t="n">
         <v>4.6</v>
       </c>
-      <c r="J23" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S23" t="n">
-        <v>6.2</v>
-      </c>
       <c r="T23" t="n">
-        <v>2.32</v>
+        <v>1.99</v>
       </c>
       <c r="U23" t="n">
-        <v>1.66</v>
+        <v>1.98</v>
       </c>
       <c r="V23" t="n">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="W23" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="X23" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK23" t="n">
         <v>32</v>
       </c>
-      <c r="AA23" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>38</v>
-      </c>
       <c r="AL23" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
-        <v>300</v>
+        <v>130</v>
       </c>
       <c r="AN23" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>13.5</v>
+        <v>2.18</v>
       </c>
       <c r="G24" t="n">
-        <v>16.5</v>
+        <v>2.28</v>
       </c>
       <c r="H24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S24" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V24" t="n">
         <v>1.27</v>
       </c>
-      <c r="I24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="J24" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="W24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="X24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB24" t="n">
         <v>6.8</v>
       </c>
-      <c r="L24" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N24" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X24" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AB24" t="n">
+      <c r="AC24" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK24" t="n">
         <v>38</v>
       </c>
-      <c r="AC24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>170</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>48</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>370</v>
-      </c>
       <c r="AL24" t="n">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="AM24" t="n">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="AN24" t="n">
-        <v>730</v>
+        <v>40</v>
       </c>
       <c r="AO24" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Everton De Vina</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.89</v>
+        <v>13</v>
       </c>
       <c r="G25" t="n">
-        <v>2.04</v>
+        <v>16.5</v>
       </c>
       <c r="H25" t="n">
-        <v>4.6</v>
+        <v>1.27</v>
       </c>
       <c r="I25" t="n">
-        <v>5.9</v>
+        <v>1.3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.35</v>
+        <v>6.6</v>
       </c>
       <c r="K25" t="n">
-        <v>3.75</v>
+        <v>6.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="M25" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="P25" t="n">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.18</v>
+        <v>1.82</v>
       </c>
       <c r="R25" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="S25" t="n">
-        <v>3.6</v>
+        <v>3.05</v>
       </c>
       <c r="T25" t="n">
-        <v>1.97</v>
+        <v>2.5</v>
       </c>
       <c r="U25" t="n">
-        <v>1.89</v>
+        <v>1.6</v>
       </c>
       <c r="V25" t="n">
-        <v>1.24</v>
+        <v>4.3</v>
       </c>
       <c r="W25" t="n">
-        <v>1.98</v>
+        <v>1.07</v>
       </c>
       <c r="X25" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="Y25" t="n">
-        <v>17.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>44</v>
+        <v>6.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>150</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB25" t="n">
-        <v>9.199999999999999</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.6</v>
+        <v>15.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="n">
-        <v>13.5</v>
+        <v>160</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AH25" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ25" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>28</v>
+        <v>350</v>
       </c>
       <c r="AL25" t="n">
-        <v>55</v>
+        <v>260</v>
       </c>
       <c r="AM25" t="n">
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="AN25" t="n">
-        <v>21</v>
+        <v>690</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,118 +3898,118 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>Everton De Vina</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M26" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>1.02</v>
+        <v>3.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="P26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.01</v>
-      </c>
       <c r="W26" t="n">
-        <v>1.01</v>
+        <v>1.98</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AE26" t="n">
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,126 +4028,126 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>2.58</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>2.22</v>
+        <v>1.02</v>
       </c>
       <c r="O27" t="n">
-        <v>1.75</v>
+        <v>1.35</v>
       </c>
       <c r="P27" t="n">
-        <v>1.39</v>
+        <v>1.24</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.2</v>
+        <v>1.01</v>
       </c>
       <c r="R27" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>7.8</v>
+        <v>1.01</v>
       </c>
       <c r="T27" t="n">
-        <v>2.46</v>
+        <v>1.01</v>
       </c>
       <c r="U27" t="n">
-        <v>1.6</v>
+        <v>1.01</v>
       </c>
       <c r="V27" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="W27" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="X27" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="G28" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="H28" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="I28" t="n">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="J28" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="K28" t="n">
         <v>3</v>
       </c>
       <c r="L28" t="n">
-        <v>1.01</v>
+        <v>1.67</v>
       </c>
       <c r="M28" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N28" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="O28" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="P28" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="R28" t="n">
         <v>1.14</v>
       </c>
       <c r="S28" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y28" t="n">
         <v>6.4</v>
       </c>
-      <c r="T28" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X28" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>7.4</v>
-      </c>
       <c r="Z28" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF28" t="n">
         <v>24</v>
       </c>
       <c r="AG28" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH28" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI28" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AJ28" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AK28" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AM28" t="n">
         <v>300</v>
       </c>
       <c r="AN28" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AO28" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
         <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="N29" t="n">
-        <v>1.02</v>
+        <v>2.28</v>
       </c>
       <c r="O29" t="n">
-        <v>1.3</v>
+        <v>1.68</v>
       </c>
       <c r="P29" t="n">
-        <v>1.24</v>
+        <v>1.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.01</v>
+        <v>3.05</v>
       </c>
       <c r="R29" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="S29" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.01</v>
+        <v>2.3</v>
       </c>
       <c r="U29" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="V29" t="n">
-        <v>1.01</v>
+        <v>1.58</v>
       </c>
       <c r="W29" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AC29" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,75 +4433,75 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1.47</v>
+        <v>1.01</v>
       </c>
       <c r="M30" t="n">
-        <v>1.12</v>
+        <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>2.62</v>
+        <v>1.02</v>
       </c>
       <c r="O30" t="n">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.52</v>
+        <v>1.01</v>
       </c>
       <c r="R30" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="T30" t="n">
-        <v>2.02</v>
+        <v>1.01</v>
       </c>
       <c r="U30" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="V30" t="n">
-        <v>1.62</v>
+        <v>1.01</v>
       </c>
       <c r="W30" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="X30" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
         <v>1000</v>
@@ -4516,7 +4516,7 @@
         <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>
@@ -4543,7 +4543,7 @@
         <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,75 +4568,75 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>OHiggins</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.95</v>
+        <v>3.35</v>
       </c>
       <c r="G31" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T31" t="n">
         <v>2.04</v>
       </c>
-      <c r="H31" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R31" t="n">
+      <c r="U31" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W31" t="n">
         <v>1.37</v>
       </c>
-      <c r="S31" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U31" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.96</v>
-      </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y31" t="n">
         <v>1000</v>
@@ -4651,7 +4651,7 @@
         <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
@@ -4666,7 +4666,7 @@
         <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
         <v>1000</v>
@@ -4678,13 +4678,13 @@
         <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM31" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,126 +4703,126 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>OHiggins</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="G32" t="n">
-        <v>1.79</v>
+        <v>2.04</v>
       </c>
       <c r="H32" t="n">
-        <v>6.2</v>
+        <v>4.1</v>
       </c>
       <c r="I32" t="n">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="J32" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="K32" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="L32" t="n">
         <v>1.01</v>
       </c>
       <c r="M32" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>2.76</v>
+        <v>3.8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="P32" t="n">
-        <v>1.59</v>
+        <v>1.97</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.46</v>
+        <v>1.91</v>
       </c>
       <c r="R32" t="n">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="S32" t="n">
-        <v>5.1</v>
+        <v>3.35</v>
       </c>
       <c r="T32" t="n">
-        <v>2.26</v>
+        <v>1.79</v>
       </c>
       <c r="U32" t="n">
-        <v>1.67</v>
+        <v>2.1</v>
       </c>
       <c r="V32" t="n">
-        <v>1.16</v>
+        <v>1.29</v>
       </c>
       <c r="W32" t="n">
-        <v>2.26</v>
+        <v>1.96</v>
       </c>
       <c r="X32" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
         <v>8.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AI32" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AO32" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
@@ -4954,7 +4954,7 @@
         <v>330</v>
       </c>
       <c r="AN33" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AO33" t="n">
         <v>180</v>
@@ -4963,7 +4963,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,125 +4973,260 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3.9</v>
+        <v>1.73</v>
       </c>
       <c r="G34" t="n">
-        <v>4.3</v>
+        <v>1.79</v>
       </c>
       <c r="H34" t="n">
-        <v>2.12</v>
+        <v>6.2</v>
       </c>
       <c r="I34" t="n">
-        <v>2.26</v>
+        <v>7.2</v>
       </c>
       <c r="J34" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K34" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
       </c>
       <c r="M34" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="X34" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>280</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>280</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M35" t="n">
         <v>1.1</v>
       </c>
-      <c r="N34" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O34" t="n">
+      <c r="N35" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O35" t="n">
         <v>1.47</v>
       </c>
-      <c r="P34" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="R34" t="n">
+      <c r="P35" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R35" t="n">
         <v>1.22</v>
       </c>
-      <c r="S34" t="n">
+      <c r="S35" t="n">
         <v>4.5</v>
       </c>
-      <c r="T34" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X34" t="n">
+      <c r="T35" t="n">
+        <v>2</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X35" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="Y35" t="n">
         <v>7.8</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="Z35" t="n">
         <v>13</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AA35" t="n">
         <v>30</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AB35" t="n">
         <v>12.5</v>
       </c>
-      <c r="AC34" t="n">
+      <c r="AC35" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD34" t="n">
+      <c r="AD35" t="n">
         <v>12</v>
       </c>
-      <c r="AE34" t="n">
+      <c r="AE35" t="n">
         <v>29</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="AF35" t="n">
         <v>30</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="AG35" t="n">
         <v>19</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AH35" t="n">
         <v>23</v>
       </c>
-      <c r="AI34" t="n">
+      <c r="AI35" t="n">
         <v>55</v>
       </c>
-      <c r="AJ34" t="n">
+      <c r="AJ35" t="n">
         <v>120</v>
       </c>
-      <c r="AK34" t="n">
+      <c r="AK35" t="n">
         <v>70</v>
       </c>
-      <c r="AL34" t="n">
+      <c r="AL35" t="n">
         <v>85</v>
       </c>
-      <c r="AM34" t="n">
+      <c r="AM35" t="n">
         <v>190</v>
       </c>
-      <c r="AN34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO34" t="n">
+      <c r="AN35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO35" t="n">
         <v>29</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -667,58 +667,58 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>990</v>
+        <v>1.88</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>7.6</v>
+        <v>5.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>7.8</v>
+        <v>500</v>
       </c>
       <c r="L2" t="n">
         <v>1.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>3.85</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T2" t="n">
         <v>1.8</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.05</v>
-      </c>
       <c r="U2" t="n">
-        <v>1.05</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>2.12</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -802,58 +802,58 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="G3" t="n">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="I3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="K3" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
         <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>1.53</v>
+        <v>2.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="P3" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>2.06</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="W3" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="G4" t="n">
         <v>14.5</v>
@@ -946,16 +946,16 @@
         <v>1.22</v>
       </c>
       <c r="I4" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="K4" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="M4" t="n">
         <v>1.02</v>
@@ -967,43 +967,43 @@
         <v>1.13</v>
       </c>
       <c r="P4" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="S4" t="n">
-        <v>1.99</v>
+        <v>2.04</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U4" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="W4" t="n">
         <v>1.07</v>
       </c>
       <c r="X4" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="Y4" t="n">
         <v>13</v>
       </c>
       <c r="Z4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA4" t="n">
         <v>10</v>
       </c>
-      <c r="AA4" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AB4" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
         <v>970</v>
@@ -1012,16 +1012,16 @@
         <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
         <v>150</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="AH4" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AI4" t="n">
         <v>34</v>
@@ -1039,7 +1039,7 @@
         <v>170</v>
       </c>
       <c r="AN4" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AO4" t="n">
         <v>3.75</v>
@@ -1072,76 +1072,76 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="G5" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="H5" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K5" t="n">
         <v>3.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="P5" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="R5" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S5" t="n">
         <v>4.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="U5" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W5" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X5" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="n">
         <v>55</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
         <v>14</v>
@@ -1153,16 +1153,16 @@
         <v>970</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AI5" t="n">
         <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AK5" t="n">
         <v>38</v>
@@ -1171,13 +1171,13 @@
         <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO5" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="G6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H6" t="n">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="I6" t="n">
         <v>10.5</v>
@@ -1222,97 +1222,97 @@
         <v>4.8</v>
       </c>
       <c r="K6" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
         <v>1.54</v>
       </c>
       <c r="S6" t="n">
-        <v>2.34</v>
+        <v>2.52</v>
       </c>
       <c r="T6" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="X6" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Y6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AA6" t="n">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="AB6" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AE6" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF6" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AG6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH6" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AK6" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM6" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN6" t="n">
         <v>6.2</v>
       </c>
       <c r="AO6" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7">
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="G7" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="H7" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="I7" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="J7" t="n">
         <v>3.85</v>
@@ -1360,40 +1360,40 @@
         <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O7" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P7" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="S7" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T7" t="n">
         <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="V7" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="W7" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X7" t="n">
         <v>12.5</v>
@@ -1405,10 +1405,10 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
         <v>8.4</v>
@@ -1417,25 +1417,25 @@
         <v>10.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AF7" t="n">
         <v>42</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
         <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ7" t="n">
         <v>150</v>
       </c>
       <c r="AK7" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AL7" t="n">
         <v>95</v>
@@ -1447,7 +1447,7 @@
         <v>120</v>
       </c>
       <c r="AO7" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G8" t="n">
         <v>1.88</v>
@@ -1519,22 +1519,22 @@
         <v>2.36</v>
       </c>
       <c r="T8" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="U8" t="n">
         <v>2.52</v>
       </c>
       <c r="V8" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W8" t="n">
         <v>2.12</v>
       </c>
       <c r="X8" t="n">
-        <v>28</v>
+        <v>970</v>
       </c>
       <c r="Y8" t="n">
-        <v>32</v>
+        <v>970</v>
       </c>
       <c r="Z8" t="n">
         <v>50</v>
@@ -1549,7 +1549,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="AE8" t="n">
         <v>70</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G9" t="n">
         <v>5.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="I9" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
         <v>1.41</v>
@@ -1657,10 +1657,10 @@
         <v>1.86</v>
       </c>
       <c r="U9" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
         <v>1.22</v>
@@ -1753,7 +1753,7 @@
         <v>3.9</v>
       </c>
       <c r="H10" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I10" t="n">
         <v>2.38</v>
@@ -1762,10 +1762,10 @@
         <v>3.25</v>
       </c>
       <c r="K10" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
@@ -1801,7 +1801,7 @@
         <v>1.34</v>
       </c>
       <c r="X10" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
         <v>9.800000000000001</v>
@@ -1816,7 +1816,7 @@
         <v>12.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
         <v>13</v>
@@ -1831,7 +1831,7 @@
         <v>17.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
         <v>50</v>
@@ -1888,16 +1888,16 @@
         <v>6.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="I11" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="J11" t="n">
         <v>4.3</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L11" t="n">
         <v>1.2</v>
@@ -1912,10 +1912,10 @@
         <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="R11" t="n">
         <v>1.58</v>
@@ -1933,13 +1933,13 @@
         <v>2.28</v>
       </c>
       <c r="W11" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -2023,16 +2023,16 @@
         <v>11</v>
       </c>
       <c r="H12" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="J12" t="n">
         <v>5.2</v>
       </c>
       <c r="K12" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.38</v>
@@ -2044,13 +2044,13 @@
         <v>4</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="R12" t="n">
         <v>1.39</v>
@@ -2098,7 +2098,7 @@
         <v>100</v>
       </c>
       <c r="AG12" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AH12" t="n">
         <v>36</v>
@@ -2155,22 +2155,22 @@
         <v>4.2</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H13" t="n">
         <v>1.68</v>
       </c>
       <c r="I13" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="J13" t="n">
         <v>4.4</v>
       </c>
       <c r="K13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L13" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
@@ -2182,25 +2182,25 @@
         <v>1.14</v>
       </c>
       <c r="P13" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q13" t="n">
         <v>1.44</v>
       </c>
       <c r="R13" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="S13" t="n">
         <v>2.08</v>
       </c>
       <c r="T13" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U13" t="n">
         <v>2.62</v>
       </c>
       <c r="V13" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W13" t="n">
         <v>1.25</v>
@@ -2212,34 +2212,34 @@
         <v>18</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
         <v>23</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AC13" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AJ13" t="n">
         <v>95</v>
@@ -2248,16 +2248,16 @@
         <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO13" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="14">
@@ -2320,19 +2320,19 @@
         <v>2.14</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R14" t="n">
         <v>1.46</v>
       </c>
       <c r="S14" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="T14" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U14" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V14" t="n">
         <v>1.39</v>
@@ -2341,7 +2341,7 @@
         <v>1.76</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="n">
         <v>17.5</v>
@@ -2353,31 +2353,31 @@
         <v>70</v>
       </c>
       <c r="AB14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF14" t="n">
         <v>16.5</v>
       </c>
-      <c r="AE14" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>17</v>
-      </c>
       <c r="AG14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI14" t="n">
         <v>48</v>
       </c>
       <c r="AJ14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK14" t="n">
         <v>25</v>
@@ -2389,7 +2389,7 @@
         <v>85</v>
       </c>
       <c r="AN14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
         <v>36</v>
@@ -2440,16 +2440,16 @@
         <v>4.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P15" t="n">
         <v>2.78</v>
@@ -2458,10 +2458,10 @@
         <v>1.48</v>
       </c>
       <c r="R15" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="S15" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="T15" t="n">
         <v>1.52</v>
@@ -2515,10 +2515,10 @@
         <v>110</v>
       </c>
       <c r="AK15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL15" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM15" t="n">
         <v>55</v>
@@ -2557,58 +2557,58 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.58</v>
+        <v>2.44</v>
       </c>
       <c r="H16" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="I16" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K16" t="n">
         <v>4.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="R16" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="S16" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="T16" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="U16" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="V16" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.65</v>
+        <v>1.69</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="G17" t="n">
         <v>4.2</v>
       </c>
       <c r="H17" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="I17" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="J17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K17" t="n">
         <v>5.2</v>
@@ -2716,13 +2716,13 @@
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
         <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="Q17" t="n">
         <v>1.32</v>
@@ -2731,25 +2731,25 @@
         <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="T17" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="U17" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="V17" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W17" t="n">
         <v>1.31</v>
       </c>
       <c r="X17" t="n">
-        <v>46</v>
+        <v>970</v>
       </c>
       <c r="Y17" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="Z17" t="n">
         <v>970</v>
@@ -2758,7 +2758,7 @@
         <v>25</v>
       </c>
       <c r="AB17" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AC17" t="n">
         <v>14.5</v>
@@ -2827,67 +2827,67 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H18" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I18" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="J18" t="n">
         <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O18" t="n">
         <v>1.42</v>
       </c>
       <c r="P18" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R18" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W18" t="n">
         <v>1.44</v>
       </c>
       <c r="X18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Z18" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AA18" t="n">
         <v>38</v>
@@ -2899,40 +2899,40 @@
         <v>7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF18" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AG18" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI18" t="n">
         <v>50</v>
       </c>
       <c r="AJ18" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AL18" t="n">
         <v>60</v>
       </c>
       <c r="AM18" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>130</v>
+        <v>44</v>
       </c>
       <c r="AO18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
@@ -3004,7 +3004,7 @@
         <v>4.9</v>
       </c>
       <c r="T19" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="U19" t="n">
         <v>1.69</v>
@@ -3124,7 +3124,7 @@
         <v>2.66</v>
       </c>
       <c r="O20" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
         <v>1.57</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H21" t="n">
         <v>2.04</v>
@@ -3244,13 +3244,13 @@
         <v>2.06</v>
       </c>
       <c r="J21" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K21" t="n">
         <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M21" t="n">
         <v>1.1</v>
@@ -3262,7 +3262,7 @@
         <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q21" t="n">
         <v>2.34</v>
@@ -3277,16 +3277,16 @@
         <v>2.04</v>
       </c>
       <c r="U21" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="V21" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="W21" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y21" t="n">
         <v>7.6</v>
@@ -3295,7 +3295,7 @@
         <v>11</v>
       </c>
       <c r="AA21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB21" t="n">
         <v>13.5</v>
@@ -3307,10 +3307,10 @@
         <v>10.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG21" t="n">
         <v>18</v>
@@ -3319,13 +3319,13 @@
         <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ21" t="n">
         <v>110</v>
       </c>
       <c r="AK21" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL21" t="n">
         <v>80</v>
@@ -3367,10 +3367,10 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="G22" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="H22" t="n">
         <v>5.5</v>
@@ -3379,10 +3379,10 @@
         <v>5.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K22" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="L22" t="n">
         <v>1.51</v>
@@ -3406,25 +3406,25 @@
         <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="T22" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="U22" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="V22" t="n">
         <v>1.21</v>
       </c>
       <c r="W22" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="X22" t="n">
         <v>11</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z22" t="n">
         <v>40</v>
@@ -3436,7 +3436,7 @@
         <v>7</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
         <v>22</v>
@@ -3445,7 +3445,7 @@
         <v>90</v>
       </c>
       <c r="AF22" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG22" t="n">
         <v>10.5</v>
@@ -3460,7 +3460,7 @@
         <v>18.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
         <v>48</v>
@@ -3469,10 +3469,10 @@
         <v>150</v>
       </c>
       <c r="AN22" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AO22" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G23" t="n">
         <v>2.64</v>
@@ -3511,7 +3511,7 @@
         <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="n">
         <v>3.2</v>
@@ -3523,22 +3523,22 @@
         <v>1.54</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O23" t="n">
         <v>1.45</v>
       </c>
       <c r="P23" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R23" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S23" t="n">
         <v>4.6</v>
@@ -3556,7 +3556,7 @@
         <v>1.6</v>
       </c>
       <c r="X23" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Y23" t="n">
         <v>10.5</v>
@@ -3565,16 +3565,16 @@
         <v>20</v>
       </c>
       <c r="AA23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB23" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC23" t="n">
         <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE23" t="n">
         <v>42</v>
@@ -3607,7 +3607,7 @@
         <v>32</v>
       </c>
       <c r="AO23" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G24" t="n">
         <v>2.28</v>
@@ -3646,10 +3646,10 @@
         <v>4.3</v>
       </c>
       <c r="I24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J24" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K24" t="n">
         <v>3.1</v>
@@ -3664,7 +3664,7 @@
         <v>2.38</v>
       </c>
       <c r="O24" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="P24" t="n">
         <v>1.45</v>
@@ -3682,7 +3682,7 @@
         <v>2.32</v>
       </c>
       <c r="U24" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V24" t="n">
         <v>1.27</v>
@@ -3703,7 +3703,7 @@
         <v>140</v>
       </c>
       <c r="AB24" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AC24" t="n">
         <v>7.6</v>
@@ -3715,7 +3715,7 @@
         <v>110</v>
       </c>
       <c r="AF24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG24" t="n">
         <v>13</v>
@@ -3739,7 +3739,7 @@
         <v>300</v>
       </c>
       <c r="AN24" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AO24" t="n">
         <v>1000</v>
@@ -3775,7 +3775,7 @@
         <v>13</v>
       </c>
       <c r="G25" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="H25" t="n">
         <v>1.27</v>
@@ -3784,13 +3784,13 @@
         <v>1.3</v>
       </c>
       <c r="J25" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="K25" t="n">
         <v>6.8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -3799,19 +3799,19 @@
         <v>4.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P25" t="n">
         <v>2.08</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R25" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S25" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T25" t="n">
         <v>2.5</v>
@@ -3823,13 +3823,13 @@
         <v>4.3</v>
       </c>
       <c r="W25" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="X25" t="n">
         <v>19</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z25" t="n">
         <v>6.8</v>
@@ -3838,10 +3838,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AB25" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AC25" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD25" t="n">
         <v>11.5</v>
@@ -3853,7 +3853,7 @@
         <v>160</v>
       </c>
       <c r="AG25" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AH25" t="n">
         <v>46</v>
@@ -3865,19 +3865,19 @@
         <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AL25" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AM25" t="n">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="AN25" t="n">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="AO25" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="26">
@@ -4177,22 +4177,22 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="G28" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H28" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="I28" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J28" t="n">
         <v>2.96</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L28" t="n">
         <v>1.67</v>
@@ -4201,13 +4201,13 @@
         <v>1.16</v>
       </c>
       <c r="N28" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="O28" t="n">
         <v>1.75</v>
       </c>
       <c r="P28" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q28" t="n">
         <v>3.2</v>
@@ -4216,10 +4216,10 @@
         <v>1.14</v>
       </c>
       <c r="S28" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="T28" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="U28" t="n">
         <v>1.61</v>
@@ -4228,19 +4228,19 @@
         <v>1.63</v>
       </c>
       <c r="W28" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X28" t="n">
         <v>6.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="Z28" t="n">
         <v>13.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB28" t="n">
         <v>8.6</v>
@@ -4249,7 +4249,7 @@
         <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE28" t="n">
         <v>46</v>
@@ -4270,19 +4270,19 @@
         <v>95</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL28" t="n">
         <v>130</v>
       </c>
       <c r="AM28" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
       <c r="AN28" t="n">
         <v>130</v>
       </c>
       <c r="AO28" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
@@ -4315,22 +4315,22 @@
         <v>3.45</v>
       </c>
       <c r="G29" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="H29" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I29" t="n">
         <v>2.72</v>
       </c>
       <c r="J29" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="K29" t="n">
         <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.68</v>
       </c>
       <c r="M29" t="n">
         <v>1.15</v>
@@ -4351,7 +4351,7 @@
         <v>1.14</v>
       </c>
       <c r="S29" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T29" t="n">
         <v>2.3</v>
@@ -4363,7 +4363,7 @@
         <v>1.58</v>
       </c>
       <c r="W29" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X29" t="n">
         <v>7.4</v>
@@ -4615,7 +4615,7 @@
         <v>1.53</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="R31" t="n">
         <v>1.19</v>
@@ -4852,13 +4852,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G33" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="H33" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I33" t="n">
         <v>5.2</v>
@@ -4903,7 +4903,7 @@
         <v>1.23</v>
       </c>
       <c r="W33" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="X33" t="n">
         <v>7.8</v>
@@ -4924,10 +4924,10 @@
         <v>7.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE33" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF33" t="n">
         <v>10.5</v>
@@ -4954,7 +4954,7 @@
         <v>330</v>
       </c>
       <c r="AN33" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AO33" t="n">
         <v>180</v>
@@ -5002,7 +5002,7 @@
         <v>3.4</v>
       </c>
       <c r="K34" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L34" t="n">
         <v>1.01</v>
@@ -5092,7 +5092,7 @@
         <v>18.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35">
@@ -5146,7 +5146,7 @@
         <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="O35" t="n">
         <v>1.47</v>
@@ -5155,13 +5155,13 @@
         <v>1.63</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R35" t="n">
         <v>1.22</v>
       </c>
       <c r="S35" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T35" t="n">
         <v>2</v>
@@ -5185,7 +5185,7 @@
         <v>13</v>
       </c>
       <c r="AA35" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AB35" t="n">
         <v>12.5</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -682,7 +682,7 @@
         <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>500</v>
+        <v>950</v>
       </c>
       <c r="L2" t="n">
         <v>1.3</v>
@@ -697,7 +697,7 @@
         <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
         <v>1.86</v>
@@ -802,31 +802,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="G3" t="n">
         <v>5.1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="I3" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="J3" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="O3" t="n">
         <v>1.08</v>
@@ -841,7 +841,7 @@
         <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
         <v>1.05</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="G4" t="n">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="I4" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="J4" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L4" t="n">
         <v>1.2</v>
@@ -961,61 +961,61 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O4" t="n">
         <v>1.13</v>
       </c>
       <c r="P4" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="R4" t="n">
         <v>1.89</v>
       </c>
       <c r="S4" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="T4" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V4" t="n">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="X4" t="n">
         <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AB4" t="n">
         <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AE4" t="n">
         <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AG4" t="n">
         <v>970</v>
@@ -1024,25 +1024,25 @@
         <v>970</v>
       </c>
       <c r="AI4" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>210</v>
+        <v>270</v>
       </c>
       <c r="AL4" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AM4" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN4" t="n">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="5">
@@ -1075,13 +1075,13 @@
         <v>2.74</v>
       </c>
       <c r="G5" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
         <v>3.05</v>
@@ -1099,10 +1099,10 @@
         <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q5" t="n">
         <v>2.28</v>
@@ -1114,10 +1114,10 @@
         <v>4.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
         <v>1.45</v>
@@ -1129,10 +1129,10 @@
         <v>11.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>20</v>
+        <v>970</v>
       </c>
       <c r="AA5" t="n">
         <v>55</v>
@@ -1141,13 +1141,13 @@
         <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
         <v>14</v>
       </c>
       <c r="AE5" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AF5" t="n">
         <v>970</v>
@@ -1162,7 +1162,7 @@
         <v>60</v>
       </c>
       <c r="AJ5" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AK5" t="n">
         <v>38</v>
@@ -1219,7 +1219,7 @@
         <v>10.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
         <v>5.8</v>
@@ -1246,7 +1246,7 @@
         <v>1.54</v>
       </c>
       <c r="S6" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="J7" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
         <v>1.44</v>
@@ -1366,88 +1366,88 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="O7" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
         <v>1.32</v>
       </c>
       <c r="S7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
         <v>1.93</v>
       </c>
       <c r="V7" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="W7" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="X7" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA7" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AE7" t="n">
-        <v>970</v>
+        <v>19.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
         <v>42</v>
       </c>
       <c r="AJ7" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AK7" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL7" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AM7" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN7" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AO7" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="8">
@@ -1477,58 +1477,58 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="G8" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="I8" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="J8" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.56</v>
       </c>
-      <c r="R8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.61</v>
-      </c>
       <c r="U8" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="V8" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="X8" t="n">
         <v>970</v>
@@ -1537,52 +1537,52 @@
         <v>970</v>
       </c>
       <c r="Z8" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA8" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB8" t="n">
         <v>15.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF8" t="n">
-        <v>970</v>
+        <v>18.5</v>
       </c>
       <c r="AG8" t="n">
         <v>12.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ8" t="n">
         <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO8" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -1612,25 +1612,25 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="G9" t="n">
         <v>5.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="I9" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
@@ -1642,10 +1642,10 @@
         <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
         <v>1.32</v>
@@ -1654,13 +1654,13 @@
         <v>3.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U9" t="n">
         <v>1.96</v>
       </c>
       <c r="V9" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W9" t="n">
         <v>1.22</v>
@@ -1699,7 +1699,7 @@
         <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="n">
         <v>140</v>
@@ -1750,16 +1750,16 @@
         <v>3.6</v>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H10" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="I10" t="n">
         <v>2.38</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
         <v>3.45</v>
@@ -1771,34 +1771,34 @@
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
         <v>1.41</v>
       </c>
       <c r="P10" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="R10" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
         <v>4.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
         <v>1.72</v>
       </c>
       <c r="W10" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X10" t="n">
         <v>13</v>
@@ -1849,7 +1849,7 @@
         <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AO10" t="n">
         <v>25</v>
@@ -1888,22 +1888,22 @@
         <v>6.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="I11" t="n">
         <v>1.77</v>
       </c>
       <c r="J11" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L11" t="n">
         <v>1.2</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
         <v>5.2</v>
@@ -1924,16 +1924,16 @@
         <v>2.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V11" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="W11" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -2020,7 +2020,7 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" t="n">
         <v>1.4</v>
@@ -2029,10 +2029,10 @@
         <v>1.42</v>
       </c>
       <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
         <v>5.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.38</v>
@@ -2041,43 +2041,43 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R12" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="S12" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T12" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="U12" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="V12" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="W12" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X12" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y12" t="n">
         <v>8</v>
       </c>
       <c r="Z12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA12" t="n">
         <v>11.5</v>
@@ -2089,40 +2089,40 @@
         <v>11.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF12" t="n">
         <v>100</v>
       </c>
       <c r="AG12" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AH12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI12" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ12" t="n">
         <v>490</v>
       </c>
       <c r="AK12" t="n">
+        <v>190</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>170</v>
+      </c>
+      <c r="AM12" t="n">
         <v>220</v>
       </c>
-      <c r="AL12" t="n">
-        <v>180</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>230</v>
-      </c>
       <c r="AN12" t="n">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="AO12" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="G13" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H13" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="I13" t="n">
-        <v>1.81</v>
+        <v>1.74</v>
       </c>
       <c r="J13" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K13" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.21</v>
@@ -2176,88 +2176,88 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P13" t="n">
-        <v>2.92</v>
+        <v>3.15</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="R13" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="S13" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="T13" t="n">
         <v>1.52</v>
       </c>
       <c r="U13" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="V13" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="W13" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="Y13" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AD13" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF13" t="n">
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AK13" t="n">
         <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="14">
@@ -2362,7 +2362,7 @@
         <v>16</v>
       </c>
       <c r="AE14" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AF14" t="n">
         <v>16.5</v>
@@ -2425,16 +2425,16 @@
         <v>4.2</v>
       </c>
       <c r="G15" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H15" t="n">
         <v>1.83</v>
       </c>
       <c r="I15" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="J15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
         <v>4.6</v>
@@ -2467,13 +2467,13 @@
         <v>1.52</v>
       </c>
       <c r="U15" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="V15" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="W15" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X15" t="n">
         <v>30</v>
@@ -2563,7 +2563,7 @@
         <v>2.44</v>
       </c>
       <c r="H16" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="I16" t="n">
         <v>3.05</v>
@@ -2572,7 +2572,7 @@
         <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.21</v>
@@ -2596,13 +2596,13 @@
         <v>1.78</v>
       </c>
       <c r="S16" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T16" t="n">
         <v>1.51</v>
       </c>
       <c r="U16" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="V16" t="n">
         <v>1.5</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="G17" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="I17" t="n">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="J17" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K17" t="n">
         <v>5.2</v>
@@ -2716,64 +2716,64 @@
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O17" t="n">
         <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="S17" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="U17" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="V17" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="W17" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="X17" t="n">
         <v>970</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="Z17" t="n">
         <v>970</v>
       </c>
       <c r="AA17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB17" t="n">
         <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AE17" t="n">
         <v>970</v>
       </c>
       <c r="AF17" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AG17" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AH17" t="n">
         <v>970</v>
@@ -2782,16 +2782,16 @@
         <v>23</v>
       </c>
       <c r="AJ17" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="n">
         <v>38</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>44</v>
       </c>
       <c r="AN17" t="n">
         <v>970</v>
@@ -2827,16 +2827,16 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="G18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I18" t="n">
         <v>2.58</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.66</v>
       </c>
       <c r="J18" t="n">
         <v>3.25</v>
@@ -2860,7 +2860,7 @@
         <v>1.76</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="R18" t="n">
         <v>1.28</v>
@@ -2869,16 +2869,16 @@
         <v>4.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="U18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="W18" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="X18" t="n">
         <v>12</v>
@@ -2896,16 +2896,16 @@
         <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE18" t="n">
         <v>32</v>
       </c>
       <c r="AF18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG18" t="n">
         <v>14</v>
@@ -2917,10 +2917,10 @@
         <v>50</v>
       </c>
       <c r="AJ18" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AK18" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AL18" t="n">
         <v>60</v>
@@ -2929,7 +2929,7 @@
         <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AO18" t="n">
         <v>28</v>
@@ -2962,25 +2962,25 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H19" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="I19" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="J19" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K19" t="n">
         <v>3.35</v>
       </c>
       <c r="L19" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="M19" t="n">
         <v>1.13</v>
@@ -3010,7 +3010,7 @@
         <v>1.69</v>
       </c>
       <c r="V19" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="W19" t="n">
         <v>1.25</v>
@@ -3028,7 +3028,7 @@
         <v>36</v>
       </c>
       <c r="AB19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC19" t="n">
         <v>8.800000000000001</v>
@@ -3040,16 +3040,16 @@
         <v>38</v>
       </c>
       <c r="AF19" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AG19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AH19" t="n">
         <v>32</v>
       </c>
       <c r="AI19" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
         <v>1000</v>
@@ -3067,7 +3067,7 @@
         <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="G21" t="n">
         <v>4.5</v>
-      </c>
-      <c r="G21" t="n">
-        <v>4.6</v>
       </c>
       <c r="H21" t="n">
         <v>2.04</v>
@@ -3250,7 +3250,7 @@
         <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M21" t="n">
         <v>1.1</v>
@@ -3262,16 +3262,16 @@
         <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q21" t="n">
         <v>2.34</v>
       </c>
       <c r="R21" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S21" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T21" t="n">
         <v>2.04</v>
@@ -3280,10 +3280,10 @@
         <v>1.9</v>
       </c>
       <c r="V21" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="W21" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X21" t="n">
         <v>10.5</v>
@@ -3292,7 +3292,7 @@
         <v>7.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA21" t="n">
         <v>23</v>
@@ -3301,7 +3301,7 @@
         <v>13.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD21" t="n">
         <v>10.5</v>
@@ -3313,7 +3313,7 @@
         <v>30</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH21" t="n">
         <v>21</v>
@@ -3322,7 +3322,7 @@
         <v>46</v>
       </c>
       <c r="AJ21" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="n">
         <v>65</v>
@@ -3385,46 +3385,46 @@
         <v>3.65</v>
       </c>
       <c r="L22" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P22" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="R22" t="n">
         <v>1.27</v>
       </c>
       <c r="S22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T22" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U22" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="V22" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W22" t="n">
         <v>2.18</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z22" t="n">
         <v>40</v>
@@ -3433,28 +3433,28 @@
         <v>160</v>
       </c>
       <c r="AB22" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF22" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG22" t="n">
         <v>10.5</v>
       </c>
       <c r="AH22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AJ22" t="n">
         <v>18.5</v>
@@ -3463,16 +3463,16 @@
         <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM22" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO22" t="n">
         <v>150</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>140</v>
       </c>
     </row>
     <row r="23">
@@ -3553,7 +3553,7 @@
         <v>1.44</v>
       </c>
       <c r="W23" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="X23" t="n">
         <v>10</v>
@@ -3586,7 +3586,7 @@
         <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
         <v>60</v>
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G24" t="n">
         <v>2.28</v>
@@ -3658,7 +3658,7 @@
         <v>1.63</v>
       </c>
       <c r="M24" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N24" t="n">
         <v>2.38</v>
@@ -3670,7 +3670,7 @@
         <v>1.45</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="R24" t="n">
         <v>1.16</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G25" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="H25" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="I25" t="n">
         <v>1.3</v>
       </c>
       <c r="J25" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K25" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="L25" t="n">
         <v>1.36</v>
@@ -3799,7 +3799,7 @@
         <v>4.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
         <v>2.08</v>
@@ -3808,19 +3808,19 @@
         <v>1.84</v>
       </c>
       <c r="R25" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S25" t="n">
         <v>3.1</v>
       </c>
       <c r="T25" t="n">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="U25" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="V25" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="W25" t="n">
         <v>1.06</v>
@@ -3832,28 +3832,28 @@
         <v>7.6</v>
       </c>
       <c r="Z25" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AA25" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AB25" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AC25" t="n">
         <v>14.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
         <v>16</v>
       </c>
       <c r="AF25" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AG25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AH25" t="n">
         <v>46</v>
@@ -3865,19 +3865,19 @@
         <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AL25" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AM25" t="n">
         <v>330</v>
       </c>
       <c r="AN25" t="n">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="AO25" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="26">
@@ -3964,7 +3964,7 @@
         <v>14</v>
       </c>
       <c r="Y26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z26" t="n">
         <v>44</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,34 +4066,34 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="O27" t="n">
         <v>1.35</v>
       </c>
       <c r="P27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R27" t="n">
         <v>1.24</v>
       </c>
-      <c r="Q27" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.18</v>
-      </c>
       <c r="S27" t="n">
-        <v>1.01</v>
+        <v>3.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="U27" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="V27" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="W27" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4180,7 +4180,7 @@
         <v>3.6</v>
       </c>
       <c r="G28" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="H28" t="n">
         <v>2.54</v>
@@ -4189,10 +4189,10 @@
         <v>2.6</v>
       </c>
       <c r="J28" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="K28" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="L28" t="n">
         <v>1.67</v>
@@ -4219,22 +4219,22 @@
         <v>7.6</v>
       </c>
       <c r="T28" t="n">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="U28" t="n">
         <v>1.61</v>
       </c>
       <c r="V28" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="W28" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X28" t="n">
         <v>6.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Z28" t="n">
         <v>13.5</v>
@@ -4270,19 +4270,19 @@
         <v>95</v>
       </c>
       <c r="AK28" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="n">
         <v>130</v>
       </c>
       <c r="AM28" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AN28" t="n">
         <v>130</v>
       </c>
       <c r="AO28" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G29" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H29" t="n">
         <v>2.6</v>
       </c>
       <c r="I29" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="J29" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K29" t="n">
         <v>3</v>
@@ -4336,13 +4336,13 @@
         <v>1.15</v>
       </c>
       <c r="N29" t="n">
-        <v>2.28</v>
+        <v>2.34</v>
       </c>
       <c r="O29" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="P29" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q29" t="n">
         <v>3.05</v>
@@ -4360,7 +4360,7 @@
         <v>1.64</v>
       </c>
       <c r="V29" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W29" t="n">
         <v>1.38</v>
@@ -4369,7 +4369,7 @@
         <v>7.4</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z29" t="n">
         <v>970</v>
@@ -4387,7 +4387,7 @@
         <v>970</v>
       </c>
       <c r="AE29" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF29" t="n">
         <v>24</v>
@@ -4588,10 +4588,10 @@
         <v>3.65</v>
       </c>
       <c r="H31" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I31" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="J31" t="n">
         <v>3.1</v>
@@ -4600,7 +4600,7 @@
         <v>3.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="M31" t="n">
         <v>1.12</v>
@@ -4621,7 +4621,7 @@
         <v>1.19</v>
       </c>
       <c r="S31" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="T31" t="n">
         <v>2.04</v>
@@ -4636,7 +4636,7 @@
         <v>1.37</v>
       </c>
       <c r="X31" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y31" t="n">
         <v>1000</v>
@@ -4921,7 +4921,7 @@
         <v>6.2</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD33" t="n">
         <v>22</v>
@@ -4996,10 +4996,10 @@
         <v>6.2</v>
       </c>
       <c r="I34" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="J34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K34" t="n">
         <v>3.65</v>
@@ -5011,7 +5011,7 @@
         <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="O34" t="n">
         <v>1.5</v>
@@ -5026,7 +5026,7 @@
         <v>1.2</v>
       </c>
       <c r="S34" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T34" t="n">
         <v>2.26</v>
@@ -5050,7 +5050,7 @@
         <v>55</v>
       </c>
       <c r="AA34" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AB34" t="n">
         <v>6.4</v>
@@ -5065,16 +5065,16 @@
         <v>160</v>
       </c>
       <c r="AF34" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG34" t="n">
         <v>11.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI34" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ34" t="n">
         <v>19</v>
@@ -5086,13 +5086,13 @@
         <v>65</v>
       </c>
       <c r="AM34" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AN34" t="n">
         <v>18.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="G2" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H2" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="J2" t="n">
         <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>950</v>
+        <v>5.1</v>
       </c>
       <c r="L2" t="n">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -703,10 +703,10 @@
         <v>1.86</v>
       </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T2" t="n">
         <v>1.8</v>
@@ -715,10 +715,10 @@
         <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -736,7 +736,7 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -802,94 +802,94 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="G3" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="I3" t="n">
-        <v>2.58</v>
+        <v>2.32</v>
       </c>
       <c r="J3" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.41</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="n">
-        <v>2.38</v>
+        <v>2.9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.08</v>
+        <v>1.42</v>
       </c>
       <c r="P3" t="n">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>3.6</v>
       </c>
       <c r="T3" t="n">
-        <v>1.05</v>
+        <v>1.94</v>
       </c>
       <c r="U3" t="n">
-        <v>1.05</v>
+        <v>1.87</v>
       </c>
       <c r="V3" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="G4" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="I4" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="J4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="K4" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.2</v>
@@ -961,34 +961,34 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P4" t="n">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.89</v>
+        <v>1.96</v>
       </c>
       <c r="S4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U4" t="n">
         <v>1.96</v>
       </c>
-      <c r="U4" t="n">
-        <v>1.85</v>
-      </c>
       <c r="V4" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="X4" t="n">
         <v>970</v>
@@ -997,16 +997,16 @@
         <v>14</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AB4" t="n">
         <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AD4" t="n">
         <v>13.5</v>
@@ -1015,7 +1015,7 @@
         <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AG4" t="n">
         <v>970</v>
@@ -1030,19 +1030,19 @@
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>270</v>
+        <v>220</v>
       </c>
       <c r="AL4" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="AM4" t="n">
         <v>180</v>
       </c>
       <c r="AN4" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="G5" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
         <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L5" t="n">
         <v>1.5</v>
@@ -1099,64 +1099,64 @@
         <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P5" t="n">
         <v>1.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
         <v>1.25</v>
       </c>
       <c r="S5" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="V5" t="n">
         <v>1.45</v>
       </c>
       <c r="W5" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="X5" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AA5" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>48</v>
       </c>
       <c r="AF5" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI5" t="n">
         <v>60</v>
@@ -1165,10 +1165,10 @@
         <v>46</v>
       </c>
       <c r="AK5" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM5" t="n">
         <v>150</v>
@@ -1177,7 +1177,7 @@
         <v>40</v>
       </c>
       <c r="AO5" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -1207,79 +1207,79 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="G6" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H6" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>10.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K6" t="n">
         <v>5.8</v>
       </c>
       <c r="L6" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M6" t="n">
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="R6" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S6" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="X6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z6" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AA6" t="n">
         <v>330</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AC6" t="n">
         <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>36</v>
+        <v>970</v>
       </c>
       <c r="AE6" t="n">
         <v>150</v>
@@ -1309,7 +1309,7 @@
         <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="AO6" t="n">
         <v>170</v>
@@ -1345,19 +1345,19 @@
         <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H7" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="I7" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="J7" t="n">
         <v>3.8</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.44</v>
@@ -1381,31 +1381,31 @@
         <v>1.32</v>
       </c>
       <c r="S7" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V7" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="W7" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y7" t="n">
         <v>7.6</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB7" t="n">
         <v>19</v>
@@ -1417,31 +1417,31 @@
         <v>9.6</v>
       </c>
       <c r="AE7" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
         <v>50</v>
       </c>
       <c r="AG7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>42</v>
       </c>
       <c r="AJ7" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AK7" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL7" t="n">
         <v>100</v>
       </c>
-      <c r="AL7" t="n">
-        <v>110</v>
-      </c>
       <c r="AM7" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN7" t="n">
         <v>140</v>
@@ -1477,13 +1477,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="G8" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="H8" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="I8" t="n">
         <v>4.9</v>
@@ -1492,7 +1492,7 @@
         <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
         <v>1.23</v>
@@ -1501,7 +1501,7 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="O8" t="n">
         <v>1.17</v>
@@ -1510,22 +1510,22 @@
         <v>2.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R8" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="S8" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="T8" t="n">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="U8" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="W8" t="n">
         <v>2.06</v>
@@ -1537,19 +1537,19 @@
         <v>970</v>
       </c>
       <c r="Z8" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AA8" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AB8" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC8" t="n">
         <v>11.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>21</v>
+        <v>970</v>
       </c>
       <c r="AE8" t="n">
         <v>60</v>
@@ -1558,7 +1558,7 @@
         <v>18.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
         <v>16.5</v>
@@ -1567,22 +1567,22 @@
         <v>55</v>
       </c>
       <c r="AJ8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>970</v>
+      </c>
+      <c r="AL8" t="n">
         <v>25</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>29</v>
       </c>
       <c r="AM8" t="n">
         <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G9" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="H9" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="I9" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="J9" t="n">
         <v>3.55</v>
@@ -1654,19 +1654,19 @@
         <v>3.5</v>
       </c>
       <c r="T9" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U9" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="V9" t="n">
         <v>2.12</v>
       </c>
       <c r="W9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X9" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
         <v>8.6</v>
@@ -1675,10 +1675,10 @@
         <v>11.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC9" t="n">
         <v>9</v>
@@ -1690,22 +1690,22 @@
         <v>24</v>
       </c>
       <c r="AF9" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AI9" t="n">
         <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AK9" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="AL9" t="n">
         <v>80</v>
@@ -1714,7 +1714,7 @@
         <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="G10" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="H10" t="n">
         <v>2.24</v>
@@ -1774,7 +1774,7 @@
         <v>3.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="P10" t="n">
         <v>1.76</v>
@@ -1792,7 +1792,7 @@
         <v>1.88</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
         <v>1.72</v>
@@ -1801,19 +1801,19 @@
         <v>1.35</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
         <v>16</v>
       </c>
       <c r="AA10" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AB10" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC10" t="n">
         <v>8.4</v>
@@ -1831,10 +1831,10 @@
         <v>17.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ10" t="n">
         <v>75</v>
@@ -1843,16 +1843,16 @@
         <v>55</v>
       </c>
       <c r="AL10" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM10" t="n">
         <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AO10" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
@@ -1885,13 +1885,13 @@
         <v>4.7</v>
       </c>
       <c r="G11" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="I11" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="J11" t="n">
         <v>4.1</v>
@@ -1921,16 +1921,16 @@
         <v>1.58</v>
       </c>
       <c r="S11" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T11" t="n">
         <v>1.61</v>
       </c>
       <c r="U11" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="W11" t="n">
         <v>1.21</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G12" t="n">
         <v>12</v>
@@ -2026,7 +2026,7 @@
         <v>1.4</v>
       </c>
       <c r="I12" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -2044,37 +2044,37 @@
         <v>4.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R12" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S12" t="n">
         <v>3.15</v>
       </c>
       <c r="T12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U12" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="V12" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="W12" t="n">
         <v>1.09</v>
       </c>
       <c r="X12" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z12" t="n">
         <v>8</v>
@@ -2092,7 +2092,7 @@
         <v>10.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF12" t="n">
         <v>100</v>
@@ -2101,13 +2101,13 @@
         <v>40</v>
       </c>
       <c r="AH12" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI12" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ12" t="n">
-        <v>490</v>
+        <v>440</v>
       </c>
       <c r="AK12" t="n">
         <v>190</v>
@@ -2116,13 +2116,13 @@
         <v>170</v>
       </c>
       <c r="AM12" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN12" t="n">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="13">
@@ -2155,10 +2155,10 @@
         <v>4.6</v>
       </c>
       <c r="G13" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="H13" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="I13" t="n">
         <v>1.74</v>
@@ -2182,16 +2182,16 @@
         <v>1.13</v>
       </c>
       <c r="P13" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="R13" t="n">
         <v>1.89</v>
       </c>
       <c r="S13" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="T13" t="n">
         <v>1.52</v>
@@ -2203,7 +2203,7 @@
         <v>2.34</v>
       </c>
       <c r="W13" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X13" t="n">
         <v>50</v>
@@ -2212,7 +2212,7 @@
         <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
@@ -2221,19 +2221,19 @@
         <v>1000</v>
       </c>
       <c r="AC13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD13" t="n">
         <v>14</v>
       </c>
-      <c r="AD13" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE13" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
@@ -2245,19 +2245,19 @@
         <v>120</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="14">
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="G14" t="n">
         <v>2.3</v>
@@ -2317,10 +2317,10 @@
         <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
         <v>1.46</v>
@@ -2329,7 +2329,7 @@
         <v>2.92</v>
       </c>
       <c r="T14" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U14" t="n">
         <v>2.32</v>
@@ -2344,55 +2344,55 @@
         <v>20</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="n">
         <v>70</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE14" t="n">
         <v>44</v>
       </c>
       <c r="AF14" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AK14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL14" t="n">
         <v>38</v>
       </c>
       <c r="AM14" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO14" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -2431,16 +2431,16 @@
         <v>1.83</v>
       </c>
       <c r="I15" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
         <v>4.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2455,7 +2455,7 @@
         <v>2.78</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="R15" t="n">
         <v>1.74</v>
@@ -2467,10 +2467,10 @@
         <v>1.52</v>
       </c>
       <c r="U15" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="V15" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="W15" t="n">
         <v>1.28</v>
@@ -2479,10 +2479,10 @@
         <v>30</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Z15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA15" t="n">
         <v>22</v>
@@ -2491,43 +2491,43 @@
         <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AD15" t="n">
         <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AJ15" t="n">
         <v>110</v>
       </c>
       <c r="AK15" t="n">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="AL15" t="n">
         <v>46</v>
       </c>
       <c r="AM15" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AN15" t="n">
         <v>32</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="16">
@@ -2566,13 +2566,13 @@
         <v>2.78</v>
       </c>
       <c r="I16" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.21</v>
@@ -2590,13 +2590,13 @@
         <v>2.96</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="R16" t="n">
         <v>1.78</v>
       </c>
       <c r="S16" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T16" t="n">
         <v>1.51</v>
@@ -2626,7 +2626,7 @@
         <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2659,7 +2659,7 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
         <v>1000</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="G17" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="H17" t="n">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="I17" t="n">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="J17" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K17" t="n">
         <v>5.2</v>
@@ -2719,19 +2719,19 @@
         <v>9.199999999999999</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P17" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="Q17" t="n">
         <v>1.3</v>
       </c>
       <c r="R17" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="S17" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="T17" t="n">
         <v>1.42</v>
@@ -2740,10 +2740,10 @@
         <v>3.1</v>
       </c>
       <c r="V17" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="W17" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="X17" t="n">
         <v>970</v>
@@ -2752,52 +2752,52 @@
         <v>25</v>
       </c>
       <c r="Z17" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AA17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB17" t="n">
         <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>16.5</v>
+        <v>970</v>
       </c>
       <c r="AD17" t="n">
         <v>15.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>970</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK17" t="n">
         <v>46</v>
       </c>
-      <c r="AG17" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK17" t="n">
+      <c r="AL17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM17" t="n">
         <v>40</v>
       </c>
-      <c r="AL17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>38</v>
-      </c>
       <c r="AN17" t="n">
-        <v>970</v>
+        <v>24</v>
       </c>
       <c r="AO17" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="18">
@@ -2827,64 +2827,64 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H18" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I18" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="J18" t="n">
         <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L18" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
         <v>1.42</v>
       </c>
       <c r="P18" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R18" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S18" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="U18" t="n">
         <v>2.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="W18" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z18" t="n">
         <v>15.5</v>
@@ -2908,10 +2908,10 @@
         <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
         <v>50</v>
@@ -2932,7 +2932,7 @@
         <v>46</v>
       </c>
       <c r="AO18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
@@ -2992,7 +2992,7 @@
         <v>1.55</v>
       </c>
       <c r="P19" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="Q19" t="n">
         <v>2.64</v>
@@ -3019,7 +3019,7 @@
         <v>10</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="Z19" t="n">
         <v>14</v>
@@ -3028,7 +3028,7 @@
         <v>36</v>
       </c>
       <c r="AB19" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AC19" t="n">
         <v>8.800000000000001</v>
@@ -3037,7 +3037,7 @@
         <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AF19" t="n">
         <v>36</v>
@@ -3046,7 +3046,7 @@
         <v>22</v>
       </c>
       <c r="AH19" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
@@ -3130,7 +3130,7 @@
         <v>1.57</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R20" t="n">
         <v>1.2</v>
@@ -3139,7 +3139,7 @@
         <v>4.9</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U20" t="n">
         <v>1.81</v>
@@ -3154,22 +3154,22 @@
         <v>11</v>
       </c>
       <c r="Y20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z20" t="n">
         <v>28</v>
       </c>
       <c r="AA20" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
         <v>8.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
         <v>70</v>
@@ -3190,7 +3190,7 @@
         <v>42</v>
       </c>
       <c r="AK20" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL20" t="n">
         <v>70</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H21" t="n">
         <v>2.04</v>
@@ -3256,31 +3256,31 @@
         <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O21" t="n">
         <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R21" t="n">
         <v>1.26</v>
       </c>
       <c r="S21" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="T21" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U21" t="n">
         <v>1.9</v>
       </c>
       <c r="V21" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="W21" t="n">
         <v>1.28</v>
@@ -3292,7 +3292,7 @@
         <v>7.6</v>
       </c>
       <c r="Z21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA21" t="n">
         <v>23</v>
@@ -3307,13 +3307,13 @@
         <v>10.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF21" t="n">
         <v>30</v>
       </c>
       <c r="AG21" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH21" t="n">
         <v>21</v>
@@ -3322,7 +3322,7 @@
         <v>46</v>
       </c>
       <c r="AJ21" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AK21" t="n">
         <v>65</v>
@@ -3331,7 +3331,7 @@
         <v>80</v>
       </c>
       <c r="AM21" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN21" t="n">
         <v>90</v>
@@ -3409,7 +3409,7 @@
         <v>4.4</v>
       </c>
       <c r="T22" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U22" t="n">
         <v>1.84</v>
@@ -3427,10 +3427,10 @@
         <v>15.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA22" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB22" t="n">
         <v>7.2</v>
@@ -3439,13 +3439,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE22" t="n">
         <v>85</v>
       </c>
       <c r="AF22" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG22" t="n">
         <v>10.5</v>
@@ -3454,7 +3454,7 @@
         <v>23</v>
       </c>
       <c r="AI22" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ22" t="n">
         <v>18.5</v>
@@ -3469,7 +3469,7 @@
         <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
         <v>150</v>
@@ -3520,10 +3520,10 @@
         <v>3.25</v>
       </c>
       <c r="L23" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="M23" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
         <v>3.1</v>
@@ -3532,13 +3532,13 @@
         <v>1.45</v>
       </c>
       <c r="P23" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q23" t="n">
         <v>2.4</v>
       </c>
       <c r="R23" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S23" t="n">
         <v>4.6</v>
@@ -3556,7 +3556,7 @@
         <v>1.61</v>
       </c>
       <c r="X23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y23" t="n">
         <v>10.5</v>
@@ -3574,7 +3574,7 @@
         <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
         <v>42</v>
@@ -3586,10 +3586,10 @@
         <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="n">
         <v>38</v>
@@ -3637,19 +3637,19 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G24" t="n">
         <v>2.28</v>
       </c>
       <c r="H24" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I24" t="n">
         <v>4.7</v>
       </c>
       <c r="J24" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="K24" t="n">
         <v>3.1</v>
@@ -3661,25 +3661,25 @@
         <v>1.14</v>
       </c>
       <c r="N24" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="O24" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="P24" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="R24" t="n">
         <v>1.16</v>
       </c>
       <c r="S24" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="T24" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U24" t="n">
         <v>1.67</v>
@@ -3691,7 +3691,7 @@
         <v>1.78</v>
       </c>
       <c r="X24" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="Y24" t="n">
         <v>11</v>
@@ -3700,22 +3700,22 @@
         <v>32</v>
       </c>
       <c r="AA24" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
         <v>6.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AF24" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AG24" t="n">
         <v>13</v>
@@ -3724,25 +3724,25 @@
         <v>29</v>
       </c>
       <c r="AI24" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK24" t="n">
         <v>38</v>
       </c>
       <c r="AL24" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM24" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AN24" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
     </row>
     <row r="25">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="G25" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H25" t="n">
         <v>1.28</v>
@@ -3784,10 +3784,10 @@
         <v>1.3</v>
       </c>
       <c r="J25" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K25" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="L25" t="n">
         <v>1.36</v>
@@ -3802,61 +3802,61 @@
         <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R25" t="n">
         <v>1.41</v>
       </c>
       <c r="S25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T25" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="U25" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="V25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="W25" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X25" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AA25" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AB25" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="n">
         <v>14.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE25" t="n">
         <v>16</v>
       </c>
       <c r="AF25" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AG25" t="n">
         <v>60</v>
       </c>
       <c r="AH25" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI25" t="n">
         <v>55</v>
@@ -3871,13 +3871,13 @@
         <v>280</v>
       </c>
       <c r="AM25" t="n">
-        <v>330</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="AO25" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="26">
@@ -3907,22 +3907,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="G26" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H26" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="I26" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
         <v>3.35</v>
       </c>
       <c r="K26" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L26" t="n">
         <v>1.47</v>
@@ -3949,58 +3949,58 @@
         <v>4.1</v>
       </c>
       <c r="T26" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U26" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V26" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W26" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="X26" t="n">
         <v>14</v>
       </c>
       <c r="Y26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z26" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="AA26" t="n">
         <v>150</v>
       </c>
       <c r="AB26" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC26" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AC26" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF26" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG26" t="n">
         <v>13</v>
       </c>
       <c r="AH26" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL26" t="n">
         <v>55</v>
@@ -4009,7 +4009,7 @@
         <v>170</v>
       </c>
       <c r="AN26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4042,112 +4042,112 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="G27" t="n">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="H27" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="I27" t="n">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="J27" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="K27" t="n">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>1.1</v>
+        <v>3.25</v>
       </c>
       <c r="O27" t="n">
         <v>1.35</v>
       </c>
       <c r="P27" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.72</v>
       </c>
-      <c r="R27" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.05</v>
-      </c>
       <c r="V27" t="n">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="W27" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AF27" t="n">
         <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AK27" t="n">
         <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN27" t="n">
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="28">
@@ -4180,16 +4180,16 @@
         <v>3.6</v>
       </c>
       <c r="G28" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="H28" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="I28" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="J28" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="K28" t="n">
         <v>2.94</v>
@@ -4201,7 +4201,7 @@
         <v>1.16</v>
       </c>
       <c r="N28" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="O28" t="n">
         <v>1.75</v>
@@ -4210,7 +4210,7 @@
         <v>1.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="R28" t="n">
         <v>1.14</v>
@@ -4225,10 +4225,10 @@
         <v>1.61</v>
       </c>
       <c r="V28" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="W28" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X28" t="n">
         <v>6.6</v>
@@ -4237,7 +4237,7 @@
         <v>6.6</v>
       </c>
       <c r="Z28" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA28" t="n">
         <v>42</v>
@@ -4249,7 +4249,7 @@
         <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE28" t="n">
         <v>46</v>
@@ -4258,7 +4258,7 @@
         <v>24</v>
       </c>
       <c r="AG28" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH28" t="n">
         <v>32</v>
@@ -4270,10 +4270,10 @@
         <v>95</v>
       </c>
       <c r="AK28" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AM28" t="n">
         <v>360</v>
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G29" t="n">
         <v>3.75</v>
@@ -4321,10 +4321,10 @@
         <v>2.6</v>
       </c>
       <c r="I29" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="J29" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="K29" t="n">
         <v>3</v>
@@ -4336,10 +4336,10 @@
         <v>1.15</v>
       </c>
       <c r="N29" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="O29" t="n">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="P29" t="n">
         <v>1.41</v>
@@ -4351,34 +4351,34 @@
         <v>1.14</v>
       </c>
       <c r="S29" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="T29" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U29" t="n">
         <v>1.64</v>
       </c>
       <c r="V29" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W29" t="n">
         <v>1.38</v>
       </c>
       <c r="X29" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y29" t="n">
         <v>7.4</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>7.2</v>
       </c>
       <c r="Z29" t="n">
         <v>970</v>
       </c>
       <c r="AA29" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB29" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC29" t="n">
         <v>7.4</v>
@@ -4396,13 +4396,13 @@
         <v>19.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AI29" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>90</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>85</v>
       </c>
       <c r="AK29" t="n">
         <v>70</v>
@@ -4411,7 +4411,7 @@
         <v>120</v>
       </c>
       <c r="AM29" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AN29" t="n">
         <v>120</v>
@@ -4447,22 +4447,22 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,34 +4471,34 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="O30" t="n">
         <v>1.3</v>
       </c>
       <c r="P30" t="n">
-        <v>1.24</v>
+        <v>1.67</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.01</v>
+        <v>1.92</v>
       </c>
       <c r="R30" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S30" t="n">
-        <v>1.01</v>
+        <v>2.98</v>
       </c>
       <c r="T30" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="U30" t="n">
-        <v>1.01</v>
+        <v>1.65</v>
       </c>
       <c r="V30" t="n">
-        <v>1.01</v>
+        <v>1.12</v>
       </c>
       <c r="W30" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="X30" t="n">
         <v>1000</v>
@@ -4585,13 +4585,13 @@
         <v>3.35</v>
       </c>
       <c r="G31" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H31" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J31" t="n">
         <v>3.1</v>
@@ -4612,10 +4612,10 @@
         <v>1.52</v>
       </c>
       <c r="P31" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="R31" t="n">
         <v>1.19</v>
@@ -4624,13 +4624,13 @@
         <v>5.1</v>
       </c>
       <c r="T31" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U31" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="V31" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="W31" t="n">
         <v>1.37</v>
@@ -4639,7 +4639,7 @@
         <v>10.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z31" t="n">
         <v>1000</v>
@@ -4648,22 +4648,22 @@
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AH31" t="n">
         <v>1000</v>
@@ -4681,7 +4681,7 @@
         <v>95</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN31" t="n">
         <v>1000</v>
@@ -4729,13 +4729,13 @@
         <v>4.5</v>
       </c>
       <c r="J32" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K32" t="n">
         <v>3.9</v>
       </c>
       <c r="L32" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
@@ -4750,7 +4750,7 @@
         <v>1.97</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R32" t="n">
         <v>1.37</v>
@@ -4762,43 +4762,43 @@
         <v>1.79</v>
       </c>
       <c r="U32" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V32" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W32" t="n">
         <v>1.96</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA32" t="n">
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG32" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH32" t="n">
         <v>22</v>
@@ -4807,19 +4807,19 @@
         <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM32" t="n">
         <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4861,7 +4861,7 @@
         <v>4.8</v>
       </c>
       <c r="I33" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J33" t="n">
         <v>3.05</v>
@@ -4873,7 +4873,7 @@
         <v>1.01</v>
       </c>
       <c r="M33" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="N33" t="n">
         <v>2.44</v>
@@ -4885,7 +4885,7 @@
         <v>1.48</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="R33" t="n">
         <v>1.16</v>
@@ -4900,7 +4900,7 @@
         <v>1.66</v>
       </c>
       <c r="V33" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="W33" t="n">
         <v>1.87</v>
@@ -4918,7 +4918,7 @@
         <v>150</v>
       </c>
       <c r="AB33" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="AC33" t="n">
         <v>7.4</v>
@@ -4936,10 +4936,10 @@
         <v>12</v>
       </c>
       <c r="AH33" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="AI33" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ33" t="n">
         <v>26</v>
@@ -4948,13 +4948,13 @@
         <v>32</v>
       </c>
       <c r="AL33" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM33" t="n">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="AN33" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO33" t="n">
         <v>180</v>
@@ -4987,13 +4987,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="G34" t="n">
         <v>1.79</v>
       </c>
       <c r="H34" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I34" t="n">
         <v>7</v>
@@ -5005,7 +5005,7 @@
         <v>3.65</v>
       </c>
       <c r="L34" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M34" t="n">
         <v>1.11</v>
@@ -5029,10 +5029,10 @@
         <v>5.3</v>
       </c>
       <c r="T34" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U34" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="V34" t="n">
         <v>1.16</v>
@@ -5047,22 +5047,22 @@
         <v>16</v>
       </c>
       <c r="Z34" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA34" t="n">
         <v>270</v>
       </c>
       <c r="AB34" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AC34" t="n">
         <v>8.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE34" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF34" t="n">
         <v>9.4</v>
@@ -5077,7 +5077,7 @@
         <v>160</v>
       </c>
       <c r="AJ34" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AK34" t="n">
         <v>25</v>
@@ -5134,7 +5134,7 @@
         <v>2.2</v>
       </c>
       <c r="J35" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K35" t="n">
         <v>3.45</v>
@@ -5146,7 +5146,7 @@
         <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="O35" t="n">
         <v>1.47</v>
@@ -5161,7 +5161,7 @@
         <v>1.22</v>
       </c>
       <c r="S35" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="T35" t="n">
         <v>2</v>
@@ -5176,19 +5176,19 @@
         <v>1.29</v>
       </c>
       <c r="X35" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="Z35" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB35" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AC35" t="n">
         <v>7.8</v>
@@ -5197,37 +5197,37 @@
         <v>12</v>
       </c>
       <c r="AE35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF35" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="AG35" t="n">
         <v>19</v>
       </c>
       <c r="AH35" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AI35" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ35" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AK35" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AL35" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AM35" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN35" t="n">
         <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="G2" t="n">
         <v>1.87</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I2" t="n">
         <v>5.6</v>
@@ -682,10 +682,10 @@
         <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -700,7 +700,7 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="R2" t="n">
         <v>1.39</v>
@@ -709,7 +709,7 @@
         <v>3.1</v>
       </c>
       <c r="T2" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U2" t="n">
         <v>2.06</v>
@@ -736,7 +736,7 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -817,49 +817,49 @@
         <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.41</v>
       </c>
-      <c r="M3" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.42</v>
-      </c>
       <c r="P3" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="U3" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="W3" t="n">
         <v>1.29</v>
       </c>
       <c r="X3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z3" t="n">
         <v>15.5</v>
@@ -871,22 +871,22 @@
         <v>15</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF3" t="n">
         <v>34</v>
       </c>
-      <c r="AF3" t="n">
-        <v>36</v>
-      </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI3" t="n">
         <v>60</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="H4" t="n">
         <v>1.19</v>
       </c>
       <c r="I4" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="J4" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="M4" t="n">
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O4" t="n">
         <v>1.12</v>
@@ -973,19 +973,19 @@
         <v>1.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="S4" t="n">
         <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U4" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="V4" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="W4" t="n">
         <v>1.06</v>
@@ -994,13 +994,13 @@
         <v>970</v>
       </c>
       <c r="Y4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AB4" t="n">
         <v>970</v>
@@ -1021,7 +1021,7 @@
         <v>970</v>
       </c>
       <c r="AH4" t="n">
-        <v>970</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="n">
         <v>40</v>
@@ -1036,13 +1036,13 @@
         <v>150</v>
       </c>
       <c r="AM4" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN4" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="5">
@@ -1075,7 +1075,7 @@
         <v>2.7</v>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -1102,19 +1102,19 @@
         <v>1.41</v>
       </c>
       <c r="P5" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R5" t="n">
         <v>1.25</v>
       </c>
       <c r="S5" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T5" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="U5" t="n">
         <v>1.96</v>
@@ -1126,34 +1126,34 @@
         <v>1.53</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AA5" t="n">
         <v>65</v>
       </c>
       <c r="AB5" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
         <v>16</v>
       </c>
       <c r="AE5" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AH5" t="n">
         <v>21</v>
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="G6" t="n">
         <v>1.42</v>
@@ -1219,10 +1219,10 @@
         <v>10.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.25</v>
@@ -1237,16 +1237,16 @@
         <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="R6" t="n">
         <v>1.56</v>
       </c>
       <c r="S6" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -1258,7 +1258,7 @@
         <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="X6" t="n">
         <v>26</v>
@@ -1285,7 +1285,7 @@
         <v>150</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="G7" t="n">
         <v>6.4</v>
@@ -1366,7 +1366,7 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1375,7 +1375,7 @@
         <v>1.85</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R7" t="n">
         <v>1.32</v>
@@ -1384,10 +1384,10 @@
         <v>3.8</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U7" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V7" t="n">
         <v>2.32</v>
@@ -1399,10 +1399,10 @@
         <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA7" t="n">
         <v>17.5</v>
@@ -1420,13 +1420,13 @@
         <v>19</v>
       </c>
       <c r="AF7" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG7" t="n">
         <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>42</v>
@@ -1444,7 +1444,7 @@
         <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AO7" t="n">
         <v>12.5</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="G8" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="H8" t="n">
         <v>4.3</v>
       </c>
       <c r="I8" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="J8" t="n">
         <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.23</v>
@@ -1501,43 +1501,43 @@
         <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P8" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
       <c r="R8" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="S8" t="n">
         <v>2.24</v>
       </c>
       <c r="T8" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U8" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="V8" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="W8" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="X8" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="Y8" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="Z8" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA8" t="n">
         <v>110</v>
@@ -1546,43 +1546,43 @@
         <v>16.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK8" t="n">
         <v>18.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>970</v>
       </c>
       <c r="AL8" t="n">
         <v>25</v>
       </c>
       <c r="AM8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN8" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G9" t="n">
         <v>5.8</v>
       </c>
       <c r="H9" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="I9" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="J9" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -1636,16 +1636,16 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="R9" t="n">
         <v>1.32</v>
@@ -1660,7 +1660,7 @@
         <v>2.04</v>
       </c>
       <c r="V9" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
         <v>1.21</v>
@@ -1687,7 +1687,7 @@
         <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
         <v>48</v>
@@ -1717,7 +1717,7 @@
         <v>110</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="10">
@@ -1753,7 +1753,7 @@
         <v>3.9</v>
       </c>
       <c r="H10" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="I10" t="n">
         <v>2.38</v>
@@ -1765,7 +1765,7 @@
         <v>3.45</v>
       </c>
       <c r="L10" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
@@ -1786,7 +1786,7 @@
         <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
         <v>1.88</v>
@@ -1810,13 +1810,13 @@
         <v>16</v>
       </c>
       <c r="AA10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="n">
         <v>14.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD10" t="n">
         <v>13</v>
@@ -1885,13 +1885,13 @@
         <v>4.7</v>
       </c>
       <c r="G11" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="H11" t="n">
         <v>1.66</v>
       </c>
       <c r="I11" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="J11" t="n">
         <v>4.1</v>
@@ -1906,13 +1906,13 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="O11" t="n">
         <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="Q11" t="n">
         <v>1.49</v>
@@ -1921,19 +1921,19 @@
         <v>1.58</v>
       </c>
       <c r="S11" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="T11" t="n">
         <v>1.61</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V11" t="n">
         <v>2.26</v>
       </c>
       <c r="W11" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X11" t="n">
         <v>1000</v>
@@ -1951,7 +1951,7 @@
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
         <v>12.5</v>
@@ -2041,19 +2041,19 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O12" t="n">
         <v>1.28</v>
       </c>
       <c r="P12" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="R12" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S12" t="n">
         <v>3.15</v>
@@ -2062,13 +2062,13 @@
         <v>2.22</v>
       </c>
       <c r="U12" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V12" t="n">
         <v>3.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="X12" t="n">
         <v>16.5</v>
@@ -2110,16 +2110,16 @@
         <v>440</v>
       </c>
       <c r="AK12" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AL12" t="n">
         <v>170</v>
       </c>
       <c r="AM12" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AN12" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AO12" t="n">
         <v>6.6</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G13" t="n">
         <v>5.3</v>
       </c>
       <c r="H13" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="I13" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="J13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K13" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.21</v>
@@ -2182,13 +2182,13 @@
         <v>1.13</v>
       </c>
       <c r="P13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q13" t="n">
         <v>1.39</v>
       </c>
       <c r="R13" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="S13" t="n">
         <v>1.95</v>
@@ -2197,7 +2197,7 @@
         <v>1.52</v>
       </c>
       <c r="U13" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="V13" t="n">
         <v>2.34</v>
@@ -2293,7 +2293,7 @@
         <v>2.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
         <v>3.55</v>
@@ -2329,10 +2329,10 @@
         <v>2.92</v>
       </c>
       <c r="T14" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U14" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V14" t="n">
         <v>1.39</v>
@@ -2425,16 +2425,16 @@
         <v>4.2</v>
       </c>
       <c r="G15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H15" t="n">
         <v>1.83</v>
       </c>
       <c r="I15" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="J15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K15" t="n">
         <v>4.6</v>
@@ -2470,7 +2470,7 @@
         <v>2.7</v>
       </c>
       <c r="V15" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="W15" t="n">
         <v>1.28</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G16" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H16" t="n">
         <v>2.78</v>
@@ -2581,16 +2581,16 @@
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="R16" t="n">
         <v>1.78</v>
@@ -2602,7 +2602,7 @@
         <v>1.51</v>
       </c>
       <c r="U16" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="V16" t="n">
         <v>1.5</v>
@@ -2701,7 +2701,7 @@
         <v>1.69</v>
       </c>
       <c r="I17" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="J17" t="n">
         <v>4.8</v>
@@ -2728,10 +2728,10 @@
         <v>1.3</v>
       </c>
       <c r="R17" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="S17" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="T17" t="n">
         <v>1.42</v>
@@ -2779,7 +2779,7 @@
         <v>18</v>
       </c>
       <c r="AI17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ17" t="n">
         <v>120</v>
@@ -2788,7 +2788,7 @@
         <v>46</v>
       </c>
       <c r="AL17" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM17" t="n">
         <v>40</v>
@@ -2836,13 +2836,13 @@
         <v>2.56</v>
       </c>
       <c r="I18" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="J18" t="n">
         <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L18" t="n">
         <v>1.5</v>
@@ -2872,10 +2872,10 @@
         <v>1.91</v>
       </c>
       <c r="U18" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="W18" t="n">
         <v>1.44</v>
@@ -2929,7 +2929,7 @@
         <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AO18" t="n">
         <v>29</v>
@@ -2989,7 +2989,7 @@
         <v>2.46</v>
       </c>
       <c r="O19" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="P19" t="n">
         <v>1.5</v>
@@ -3103,7 +3103,7 @@
         <v>2.54</v>
       </c>
       <c r="H20" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I20" t="n">
         <v>4.1</v>
@@ -3121,13 +3121,13 @@
         <v>1.11</v>
       </c>
       <c r="N20" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="O20" t="n">
         <v>1.5</v>
       </c>
       <c r="P20" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="Q20" t="n">
         <v>2.46</v>
@@ -3136,7 +3136,7 @@
         <v>1.2</v>
       </c>
       <c r="S20" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="T20" t="n">
         <v>2.02</v>
@@ -3151,13 +3151,13 @@
         <v>1.64</v>
       </c>
       <c r="X20" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y20" t="n">
         <v>11</v>
       </c>
       <c r="Z20" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
@@ -3172,19 +3172,19 @@
         <v>17</v>
       </c>
       <c r="AE20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AF20" t="n">
         <v>16</v>
       </c>
       <c r="AG20" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI20" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ20" t="n">
         <v>42</v>
@@ -3202,7 +3202,7 @@
         <v>36</v>
       </c>
       <c r="AO20" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3262,7 +3262,7 @@
         <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="Q21" t="n">
         <v>2.38</v>
@@ -3271,7 +3271,7 @@
         <v>1.26</v>
       </c>
       <c r="S21" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T21" t="n">
         <v>2.06</v>
@@ -3301,7 +3301,7 @@
         <v>13.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD21" t="n">
         <v>10.5</v>
@@ -3313,7 +3313,7 @@
         <v>30</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH21" t="n">
         <v>21</v>
@@ -3394,13 +3394,13 @@
         <v>3.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P22" t="n">
         <v>1.74</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
         <v>1.27</v>
@@ -3415,7 +3415,7 @@
         <v>1.84</v>
       </c>
       <c r="V22" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="W22" t="n">
         <v>2.18</v>
@@ -3445,7 +3445,7 @@
         <v>85</v>
       </c>
       <c r="AF22" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AG22" t="n">
         <v>10.5</v>
@@ -3469,7 +3469,7 @@
         <v>140</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO22" t="n">
         <v>150</v>
@@ -3544,7 +3544,7 @@
         <v>4.6</v>
       </c>
       <c r="T23" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="U23" t="n">
         <v>1.98</v>
@@ -3640,7 +3640,7 @@
         <v>2.2</v>
       </c>
       <c r="G24" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="H24" t="n">
         <v>4.4</v>
@@ -3652,7 +3652,7 @@
         <v>2.92</v>
       </c>
       <c r="K24" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="L24" t="n">
         <v>1.63</v>
@@ -3661,16 +3661,16 @@
         <v>1.14</v>
       </c>
       <c r="N24" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="O24" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="P24" t="n">
         <v>1.47</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="R24" t="n">
         <v>1.16</v>
@@ -3679,19 +3679,19 @@
         <v>6.6</v>
       </c>
       <c r="T24" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="U24" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V24" t="n">
         <v>1.27</v>
       </c>
       <c r="W24" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="X24" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="Y24" t="n">
         <v>11</v>
@@ -3700,7 +3700,7 @@
         <v>32</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AB24" t="n">
         <v>6.6</v>
@@ -3724,7 +3724,7 @@
         <v>29</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ24" t="n">
         <v>32</v>
@@ -3739,10 +3739,10 @@
         <v>290</v>
       </c>
       <c r="AN24" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3772,10 +3772,10 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="G25" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="H25" t="n">
         <v>1.28</v>
@@ -3787,7 +3787,7 @@
         <v>6.2</v>
       </c>
       <c r="K25" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="L25" t="n">
         <v>1.36</v>
@@ -3802,19 +3802,19 @@
         <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R25" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S25" t="n">
         <v>3.15</v>
       </c>
       <c r="T25" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="U25" t="n">
         <v>1.6</v>
@@ -3823,7 +3823,7 @@
         <v>4.3</v>
       </c>
       <c r="W25" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="X25" t="n">
         <v>18.5</v>
@@ -3838,7 +3838,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AB25" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AC25" t="n">
         <v>14.5</v>
@@ -3850,7 +3850,7 @@
         <v>16</v>
       </c>
       <c r="AF25" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AG25" t="n">
         <v>60</v>
@@ -3871,7 +3871,7 @@
         <v>280</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>340</v>
       </c>
       <c r="AN25" t="n">
         <v>650</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="G26" t="n">
         <v>2.06</v>
@@ -3991,7 +3991,7 @@
         <v>13</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
         <v>1000</v>
@@ -4045,7 +4045,7 @@
         <v>5.1</v>
       </c>
       <c r="G27" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H27" t="n">
         <v>1.79</v>
@@ -4087,7 +4087,7 @@
         <v>1.8</v>
       </c>
       <c r="U27" t="n">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="V27" t="n">
         <v>2.1</v>
@@ -4183,7 +4183,7 @@
         <v>3.7</v>
       </c>
       <c r="H28" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="I28" t="n">
         <v>2.62</v>
@@ -4201,13 +4201,13 @@
         <v>1.16</v>
       </c>
       <c r="N28" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="O28" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="P28" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q28" t="n">
         <v>3.15</v>
@@ -4216,13 +4216,13 @@
         <v>1.14</v>
       </c>
       <c r="S28" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="T28" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="U28" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="V28" t="n">
         <v>1.61</v>
@@ -4249,10 +4249,10 @@
         <v>7.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AF28" t="n">
         <v>24</v>
@@ -4261,10 +4261,10 @@
         <v>18.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AI28" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AJ28" t="n">
         <v>95</v>
@@ -4282,7 +4282,7 @@
         <v>130</v>
       </c>
       <c r="AO28" t="n">
-        <v>60</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G29" t="n">
         <v>3.75</v>
@@ -4357,7 +4357,7 @@
         <v>2.28</v>
       </c>
       <c r="U29" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="V29" t="n">
         <v>1.6</v>
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="G30" t="n">
         <v>1.75</v>
       </c>
       <c r="H30" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="I30" t="n">
         <v>9.4</v>
@@ -4471,7 +4471,7 @@
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>1.1</v>
+        <v>2.74</v>
       </c>
       <c r="O30" t="n">
         <v>1.3</v>
@@ -4480,7 +4480,7 @@
         <v>1.67</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="R30" t="n">
         <v>1.28</v>
@@ -4492,7 +4492,7 @@
         <v>1.89</v>
       </c>
       <c r="U30" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="V30" t="n">
         <v>1.12</v>
@@ -4585,10 +4585,10 @@
         <v>3.35</v>
       </c>
       <c r="G31" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H31" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I31" t="n">
         <v>2.62</v>
@@ -4600,22 +4600,22 @@
         <v>3.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.55</v>
+        <v>1.01</v>
       </c>
       <c r="M31" t="n">
         <v>1.12</v>
       </c>
       <c r="N31" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="O31" t="n">
         <v>1.52</v>
       </c>
       <c r="P31" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="R31" t="n">
         <v>1.19</v>
@@ -4660,10 +4660,10 @@
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AH31" t="n">
         <v>1000</v>
@@ -4681,7 +4681,7 @@
         <v>95</v>
       </c>
       <c r="AM31" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AN31" t="n">
         <v>1000</v>
@@ -4735,7 +4735,7 @@
         <v>3.9</v>
       </c>
       <c r="L32" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
@@ -4819,7 +4819,7 @@
         <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4996,7 +4996,7 @@
         <v>6</v>
       </c>
       <c r="I34" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J34" t="n">
         <v>3.5</v>
@@ -5005,7 +5005,7 @@
         <v>3.65</v>
       </c>
       <c r="L34" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M34" t="n">
         <v>1.11</v>
@@ -5035,7 +5035,7 @@
         <v>1.65</v>
       </c>
       <c r="V34" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W34" t="n">
         <v>2.26</v>
@@ -5071,7 +5071,7 @@
         <v>11.5</v>
       </c>
       <c r="AH34" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AI34" t="n">
         <v>160</v>
@@ -5122,37 +5122,37 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="G35" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H35" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="I35" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="J35" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K35" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N35" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="O35" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="P35" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="Q35" t="n">
         <v>2.4</v>
@@ -5161,7 +5161,7 @@
         <v>1.22</v>
       </c>
       <c r="S35" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T35" t="n">
         <v>2</v>
@@ -5170,25 +5170,25 @@
         <v>1.84</v>
       </c>
       <c r="V35" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="W35" t="n">
         <v>1.29</v>
       </c>
       <c r="X35" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y35" t="n">
         <v>9</v>
       </c>
       <c r="Z35" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AA35" t="n">
         <v>34</v>
       </c>
       <c r="AB35" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC35" t="n">
         <v>7.8</v>
@@ -5200,7 +5200,7 @@
         <v>34</v>
       </c>
       <c r="AF35" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="AG35" t="n">
         <v>19</v>
@@ -5212,22 +5212,22 @@
         <v>60</v>
       </c>
       <c r="AJ35" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AK35" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL35" t="n">
         <v>85</v>
       </c>
-      <c r="AL35" t="n">
-        <v>100</v>
-      </c>
       <c r="AM35" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN35" t="n">
         <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO35"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,31 +667,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.76</v>
+        <v>1.81</v>
       </c>
       <c r="G2" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H2" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="I2" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="J2" t="n">
         <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
         <v>1.29</v>
@@ -700,25 +700,25 @@
         <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="T2" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="V2" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="W2" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,7 +733,7 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC2" t="n">
         <v>1000</v>
@@ -745,7 +745,7 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG2" t="n">
         <v>1000</v>
@@ -757,7 +757,7 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -808,40 +808,40 @@
         <v>4.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="J3" t="n">
         <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O3" t="n">
         <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="T3" t="n">
         <v>1.9</v>
@@ -850,16 +850,16 @@
         <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="W3" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z3" t="n">
         <v>15.5</v>
@@ -868,19 +868,19 @@
         <v>36</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AF3" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
         <v>17.5</v>
@@ -895,7 +895,7 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,10 +904,10 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -937,25 +937,25 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="I4" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="J4" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="M4" t="n">
         <v>1.02</v>
@@ -964,40 +964,40 @@
         <v>7.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="R4" t="n">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="S4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U4" t="n">
         <v>2</v>
       </c>
-      <c r="T4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.88</v>
-      </c>
       <c r="V4" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="W4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="X4" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AA4" t="n">
         <v>10.5</v>
@@ -1006,43 +1006,43 @@
         <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AD4" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE4" t="n">
         <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AG4" t="n">
         <v>970</v>
       </c>
       <c r="AH4" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AI4" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>530</v>
       </c>
       <c r="AK4" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AL4" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AM4" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AN4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="5">
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="G5" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J5" t="n">
         <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
@@ -1099,22 +1099,22 @@
         <v>3.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="P5" t="n">
         <v>1.67</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="R5" t="n">
         <v>1.25</v>
       </c>
       <c r="S5" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U5" t="n">
         <v>1.96</v>
@@ -1123,7 +1123,7 @@
         <v>1.45</v>
       </c>
       <c r="W5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X5" t="n">
         <v>12.5</v>
@@ -1135,22 +1135,22 @@
         <v>970</v>
       </c>
       <c r="AA5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AC5" t="n">
         <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE5" t="n">
         <v>55</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AG5" t="n">
         <v>13.5</v>
@@ -1165,7 +1165,7 @@
         <v>46</v>
       </c>
       <c r="AK5" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="n">
         <v>65</v>
@@ -1207,46 +1207,46 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="G6" t="n">
         <v>1.42</v>
       </c>
       <c r="H6" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="I6" t="n">
         <v>10.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K6" t="n">
         <v>5.7</v>
       </c>
       <c r="L6" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
         <v>5.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="S6" t="n">
-        <v>2.48</v>
+        <v>2.6</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
@@ -1255,7 +1255,7 @@
         <v>1.94</v>
       </c>
       <c r="V6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W6" t="n">
         <v>3.3</v>
@@ -1264,19 +1264,19 @@
         <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>40</v>
+        <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AA6" t="n">
         <v>330</v>
       </c>
       <c r="AB6" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AD6" t="n">
         <v>970</v>
@@ -1285,7 +1285,7 @@
         <v>150</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
@@ -1309,7 +1309,7 @@
         <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AO6" t="n">
         <v>170</v>
@@ -1345,13 +1345,13 @@
         <v>5.9</v>
       </c>
       <c r="G7" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H7" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="I7" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="J7" t="n">
         <v>3.8</v>
@@ -1360,7 +1360,7 @@
         <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
@@ -1372,25 +1372,25 @@
         <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="R7" t="n">
         <v>1.32</v>
       </c>
       <c r="S7" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="T7" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="V7" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="W7" t="n">
         <v>1.19</v>
@@ -1399,10 +1399,10 @@
         <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AA7" t="n">
         <v>17.5</v>
@@ -1411,7 +1411,7 @@
         <v>19</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD7" t="n">
         <v>9.6</v>
@@ -1426,7 +1426,7 @@
         <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>42</v>
@@ -1438,7 +1438,7 @@
         <v>95</v>
       </c>
       <c r="AL7" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM7" t="n">
         <v>150</v>
@@ -1477,109 +1477,109 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="G8" t="n">
         <v>1.92</v>
       </c>
       <c r="H8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I8" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="J8" t="n">
         <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="R8" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="S8" t="n">
-        <v>2.24</v>
+        <v>2.46</v>
       </c>
       <c r="T8" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="U8" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="V8" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="W8" t="n">
         <v>2.08</v>
       </c>
       <c r="X8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Y8" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="Z8" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AB8" t="n">
         <v>16.5</v>
       </c>
       <c r="AC8" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG8" t="n">
         <v>10.5</v>
       </c>
-      <c r="AD8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AH8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK8" t="n">
         <v>17</v>
       </c>
-      <c r="AG8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AL8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AN8" t="n">
-        <v>8.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AO8" t="n">
         <v>36</v>
@@ -1612,70 +1612,70 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="G9" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H9" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="I9" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="J9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L9" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M9" t="n">
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P9" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.88</v>
+        <v>2.04</v>
       </c>
       <c r="R9" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S9" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="T9" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U9" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="V9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W9" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X9" t="n">
         <v>14.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB9" t="n">
         <v>18</v>
@@ -1705,7 +1705,7 @@
         <v>150</v>
       </c>
       <c r="AK9" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="n">
         <v>80</v>
@@ -1717,7 +1717,7 @@
         <v>110</v>
       </c>
       <c r="AO9" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
@@ -1747,61 +1747,61 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H10" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="I10" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
         <v>3.45</v>
       </c>
       <c r="L10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R10" t="n">
         <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W10" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X10" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
         <v>10</v>
@@ -1810,7 +1810,7 @@
         <v>16</v>
       </c>
       <c r="AA10" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AB10" t="n">
         <v>14.5</v>
@@ -1825,7 +1825,7 @@
         <v>32</v>
       </c>
       <c r="AF10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG10" t="n">
         <v>17.5</v>
@@ -1834,7 +1834,7 @@
         <v>22</v>
       </c>
       <c r="AI10" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AJ10" t="n">
         <v>75</v>
@@ -1843,16 +1843,16 @@
         <v>55</v>
       </c>
       <c r="AL10" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM10" t="n">
         <v>130</v>
       </c>
       <c r="AN10" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -1882,55 +1882,55 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="G11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="I11" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="J11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K11" t="n">
         <v>4.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="O11" t="n">
         <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.46</v>
+        <v>2.56</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="R11" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S11" t="n">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="T11" t="n">
         <v>1.61</v>
       </c>
       <c r="U11" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="V11" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="W11" t="n">
         <v>1.22</v>
@@ -2020,7 +2020,7 @@
         <v>10.5</v>
       </c>
       <c r="G12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H12" t="n">
         <v>1.4</v>
@@ -2029,10 +2029,10 @@
         <v>1.41</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K12" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.38</v>
@@ -2041,22 +2041,22 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
         <v>2.08</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="R12" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S12" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T12" t="n">
         <v>2.22</v>
@@ -2065,7 +2065,7 @@
         <v>1.78</v>
       </c>
       <c r="V12" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="W12" t="n">
         <v>1.1</v>
@@ -2077,7 +2077,7 @@
         <v>7.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AA12" t="n">
         <v>11.5</v>
@@ -2116,13 +2116,13 @@
         <v>170</v>
       </c>
       <c r="AM12" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN12" t="n">
         <v>260</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="13">
@@ -2152,58 +2152,58 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="G13" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="I13" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="J13" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="K13" t="n">
         <v>5.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="M13" t="n">
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O13" t="n">
         <v>1.13</v>
       </c>
       <c r="P13" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="R13" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="S13" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="T13" t="n">
         <v>1.52</v>
       </c>
       <c r="U13" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="V13" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="X13" t="n">
         <v>50</v>
@@ -2212,7 +2212,7 @@
         <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
@@ -2242,22 +2242,22 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK13" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="14">
@@ -2287,58 +2287,58 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
         <v>3.7</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="R14" t="n">
         <v>1.46</v>
       </c>
       <c r="S14" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="T14" t="n">
         <v>1.68</v>
       </c>
       <c r="U14" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="X14" t="n">
         <v>20</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
         <v>32</v>
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H15" t="n">
         <v>1.83</v>
       </c>
       <c r="I15" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="J15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K15" t="n">
         <v>4.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2449,28 +2449,28 @@
         <v>6.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P15" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="R15" t="n">
         <v>1.74</v>
       </c>
       <c r="S15" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="T15" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="U15" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="V15" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="W15" t="n">
         <v>1.28</v>
@@ -2479,10 +2479,10 @@
         <v>30</v>
       </c>
       <c r="Y15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA15" t="n">
         <v>22</v>
@@ -2527,7 +2527,7 @@
         <v>32</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="16">
@@ -2557,58 +2557,58 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G16" t="n">
-        <v>2.46</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="I16" t="n">
         <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K16" t="n">
         <v>4.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="O16" t="n">
         <v>1.15</v>
       </c>
       <c r="P16" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="R16" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="S16" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="U16" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="V16" t="n">
         <v>1.5</v>
       </c>
       <c r="W16" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2626,7 +2626,7 @@
         <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2695,28 +2695,28 @@
         <v>4.1</v>
       </c>
       <c r="G17" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="I17" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="J17" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="K17" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M17" t="n">
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="O17" t="n">
         <v>1.1</v>
@@ -2725,34 +2725,34 @@
         <v>3.85</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="R17" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="S17" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="T17" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="U17" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="V17" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="W17" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="X17" t="n">
         <v>970</v>
       </c>
       <c r="Y17" t="n">
-        <v>25</v>
+        <v>970</v>
       </c>
       <c r="Z17" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AA17" t="n">
         <v>24</v>
@@ -2764,19 +2764,19 @@
         <v>970</v>
       </c>
       <c r="AD17" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AG17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI17" t="n">
         <v>24</v>
@@ -2785,7 +2785,7 @@
         <v>120</v>
       </c>
       <c r="AK17" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AL17" t="n">
         <v>36</v>
@@ -2794,7 +2794,7 @@
         <v>40</v>
       </c>
       <c r="AN17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO17" t="n">
         <v>5.6</v>
@@ -2830,61 +2830,61 @@
         <v>3.15</v>
       </c>
       <c r="G18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H18" t="n">
         <v>2.56</v>
       </c>
       <c r="I18" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L18" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
         <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P18" t="n">
         <v>1.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R18" t="n">
         <v>1.27</v>
       </c>
       <c r="S18" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U18" t="n">
         <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="W18" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z18" t="n">
         <v>15.5</v>
@@ -2911,7 +2911,7 @@
         <v>13.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
         <v>50</v>
@@ -2920,7 +2920,7 @@
         <v>60</v>
       </c>
       <c r="AK18" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AL18" t="n">
         <v>60</v>
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4.3</v>
+        <v>2.38</v>
       </c>
       <c r="G19" t="n">
-        <v>5.1</v>
+        <v>2.54</v>
       </c>
       <c r="H19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="n">
         <v>2.02</v>
       </c>
-      <c r="I19" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N19" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.18</v>
-      </c>
       <c r="U19" t="n">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="V19" t="n">
-        <v>1.81</v>
+        <v>1.35</v>
       </c>
       <c r="W19" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="Z19" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AA19" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF19" t="n">
         <v>14.5</v>
       </c>
-      <c r="AC19" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>36</v>
-      </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AK19" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO19" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G20" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I20" t="n">
         <v>2.28</v>
       </c>
-      <c r="G20" t="n">
+      <c r="J20" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N20" t="n">
         <v>2.54</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.64</v>
-      </c>
       <c r="O20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P20" t="n">
         <v>1.5</v>
       </c>
-      <c r="P20" t="n">
-        <v>1.56</v>
-      </c>
       <c r="Q20" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="R20" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="T20" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="U20" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="V20" t="n">
-        <v>1.33</v>
+        <v>1.79</v>
       </c>
       <c r="W20" t="n">
-        <v>1.64</v>
+        <v>1.27</v>
       </c>
       <c r="X20" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y20" t="n">
-        <v>11</v>
+        <v>6.8</v>
       </c>
       <c r="Z20" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.6</v>
+        <v>14</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="AF20" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AG20" t="n">
-        <v>12.5</v>
+        <v>22</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI20" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO20" t="n">
         <v>34</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3250,7 +3250,7 @@
         <v>3.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M21" t="n">
         <v>1.1</v>
@@ -3259,13 +3259,13 @@
         <v>3.15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P21" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R21" t="n">
         <v>1.26</v>
@@ -3274,10 +3274,10 @@
         <v>4.6</v>
       </c>
       <c r="T21" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U21" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V21" t="n">
         <v>1.95</v>
@@ -3286,10 +3286,10 @@
         <v>1.28</v>
       </c>
       <c r="X21" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z21" t="n">
         <v>11</v>
@@ -3298,7 +3298,7 @@
         <v>23</v>
       </c>
       <c r="AB21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC21" t="n">
         <v>7.6</v>
@@ -3313,13 +3313,13 @@
         <v>30</v>
       </c>
       <c r="AG21" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ21" t="n">
         <v>110</v>
@@ -3328,10 +3328,10 @@
         <v>65</v>
       </c>
       <c r="AL21" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM21" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN21" t="n">
         <v>90</v>
@@ -3343,7 +3343,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Ind Medellin</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="G22" t="n">
-        <v>1.84</v>
+        <v>690</v>
       </c>
       <c r="H22" t="n">
-        <v>5.5</v>
+        <v>1.04</v>
       </c>
       <c r="I22" t="n">
-        <v>5.6</v>
+        <v>690</v>
       </c>
       <c r="J22" t="n">
-        <v>3.6</v>
+        <v>1.01</v>
       </c>
       <c r="K22" t="n">
-        <v>3.65</v>
+        <v>2.22</v>
       </c>
       <c r="L22" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>3.2</v>
+        <v>1.33</v>
       </c>
       <c r="O22" t="n">
-        <v>1.44</v>
+        <v>1.09</v>
       </c>
       <c r="P22" t="n">
-        <v>1.74</v>
+        <v>1.06</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.3</v>
+        <v>1.09</v>
       </c>
       <c r="R22" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="S22" t="n">
-        <v>4.4</v>
+        <v>22</v>
       </c>
       <c r="T22" t="n">
-        <v>2.16</v>
+        <v>1.39</v>
       </c>
       <c r="U22" t="n">
-        <v>1.84</v>
+        <v>1.01</v>
       </c>
       <c r="V22" t="n">
-        <v>1.21</v>
+        <v>1.01</v>
       </c>
       <c r="W22" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="X22" t="n">
-        <v>10.5</v>
+        <v>2.96</v>
       </c>
       <c r="Y22" t="n">
-        <v>15.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z22" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA22" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.2</v>
+        <v>820</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.199999999999999</v>
+        <v>990</v>
       </c>
       <c r="AD22" t="n">
-        <v>22</v>
+        <v>990</v>
       </c>
       <c r="AE22" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>9.4</v>
+        <v>21</v>
       </c>
       <c r="AG22" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AH22" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AI22" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,31 +3493,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.6</v>
+        <v>1.83</v>
       </c>
       <c r="G23" t="n">
-        <v>2.64</v>
+        <v>1.84</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="I23" t="n">
-        <v>3.25</v>
+        <v>5.6</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="K23" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="L23" t="n">
         <v>1.52</v>
@@ -3526,94 +3526,94 @@
         <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R23" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S23" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="T23" t="n">
-        <v>1.98</v>
+        <v>2.14</v>
       </c>
       <c r="U23" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="V23" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="W23" t="n">
-        <v>1.61</v>
+        <v>2.18</v>
       </c>
       <c r="X23" t="n">
         <v>10.5</v>
       </c>
       <c r="Y23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG23" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z23" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF23" t="n">
+      <c r="AH23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN23" t="n">
         <v>15</v>
       </c>
-      <c r="AG23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>32</v>
-      </c>
       <c r="AO23" t="n">
-        <v>48</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.2</v>
+        <v>2.78</v>
       </c>
       <c r="G24" t="n">
-        <v>2.26</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>4.7</v>
+        <v>3.05</v>
       </c>
       <c r="J24" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="L24" t="n">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="M24" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>2.44</v>
+        <v>3.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="P24" t="n">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.98</v>
+        <v>2.38</v>
       </c>
       <c r="R24" t="n">
-        <v>1.16</v>
+        <v>1.26</v>
       </c>
       <c r="S24" t="n">
-        <v>6.6</v>
+        <v>4.6</v>
       </c>
       <c r="T24" t="n">
-        <v>2.38</v>
+        <v>1.97</v>
       </c>
       <c r="U24" t="n">
-        <v>1.68</v>
+        <v>1.98</v>
       </c>
       <c r="V24" t="n">
-        <v>1.27</v>
+        <v>1.48</v>
       </c>
       <c r="W24" t="n">
-        <v>1.79</v>
+        <v>1.55</v>
       </c>
       <c r="X24" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>32</v>
+        <v>18.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="AB24" t="n">
-        <v>6.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC24" t="n">
         <v>7</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AF24" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
       <c r="AI24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM24" t="n">
         <v>130</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>290</v>
-      </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>14</v>
+        <v>2.2</v>
       </c>
       <c r="G25" t="n">
-        <v>16.5</v>
+        <v>2.26</v>
       </c>
       <c r="H25" t="n">
-        <v>1.28</v>
+        <v>4.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1.3</v>
+        <v>4.8</v>
       </c>
       <c r="J25" t="n">
-        <v>6.2</v>
+        <v>2.92</v>
       </c>
       <c r="K25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S25" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="X25" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB25" t="n">
         <v>6.6</v>
       </c>
-      <c r="L25" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N25" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V25" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>40</v>
-      </c>
       <c r="AC25" t="n">
-        <v>14.5</v>
+        <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="AE25" t="n">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="AF25" t="n">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="AI25" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AK25" t="n">
-        <v>370</v>
+        <v>36</v>
       </c>
       <c r="AL25" t="n">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="AM25" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="AN25" t="n">
-        <v>650</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,126 +3893,126 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Everton De Vina</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.92</v>
+        <v>15</v>
       </c>
       <c r="G26" t="n">
-        <v>2.06</v>
+        <v>16</v>
       </c>
       <c r="H26" t="n">
-        <v>4.4</v>
+        <v>1.28</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>1.3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.35</v>
+        <v>6.2</v>
       </c>
       <c r="K26" t="n">
-        <v>3.7</v>
+        <v>6.4</v>
       </c>
       <c r="L26" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="M26" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>1.73</v>
+        <v>2.12</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.18</v>
+        <v>1.87</v>
       </c>
       <c r="R26" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="S26" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="T26" t="n">
-        <v>1.97</v>
+        <v>2.56</v>
       </c>
       <c r="U26" t="n">
-        <v>1.89</v>
+        <v>1.58</v>
       </c>
       <c r="V26" t="n">
-        <v>1.25</v>
+        <v>4.3</v>
       </c>
       <c r="W26" t="n">
-        <v>1.95</v>
+        <v>1.06</v>
       </c>
       <c r="X26" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="Y26" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE26" t="n">
         <v>16</v>
       </c>
-      <c r="Z26" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA26" t="n">
+      <c r="AF26" t="n">
         <v>150</v>
       </c>
-      <c r="AB26" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>85</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>29</v>
+        <v>350</v>
       </c>
       <c r="AL26" t="n">
-        <v>55</v>
+        <v>290</v>
       </c>
       <c r="AM26" t="n">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="AN26" t="n">
-        <v>20</v>
+        <v>630</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="27">
@@ -4042,46 +4042,46 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="G27" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="H27" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="I27" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="J27" t="n">
         <v>3.5</v>
       </c>
       <c r="K27" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="M27" t="n">
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P27" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="R27" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S27" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="T27" t="n">
         <v>1.8</v>
@@ -4090,10 +4090,10 @@
         <v>1.76</v>
       </c>
       <c r="V27" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="W27" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="X27" t="n">
         <v>15</v>
@@ -4117,7 +4117,7 @@
         <v>12.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
         <v>1000</v>
@@ -4132,7 +4132,7 @@
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AK27" t="n">
         <v>1000</v>
@@ -4147,13 +4147,13 @@
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,126 +4163,126 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Everton De Vina</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.6</v>
+        <v>1.94</v>
       </c>
       <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.7</v>
       </c>
-      <c r="H28" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.94</v>
-      </c>
       <c r="L28" t="n">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="M28" t="n">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="O28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P28" t="n">
         <v>1.74</v>
       </c>
-      <c r="P28" t="n">
-        <v>1.41</v>
-      </c>
       <c r="Q28" t="n">
-        <v>3.15</v>
+        <v>2.24</v>
       </c>
       <c r="R28" t="n">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="S28" t="n">
-        <v>7.4</v>
+        <v>4.2</v>
       </c>
       <c r="T28" t="n">
-        <v>2.44</v>
+        <v>1.97</v>
       </c>
       <c r="U28" t="n">
-        <v>1.62</v>
+        <v>1.89</v>
       </c>
       <c r="V28" t="n">
-        <v>1.61</v>
+        <v>1.26</v>
       </c>
       <c r="W28" t="n">
-        <v>1.37</v>
+        <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>6.6</v>
+        <v>14</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.6</v>
+        <v>16</v>
       </c>
       <c r="Z28" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="AA28" t="n">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AF28" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AH28" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL28" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>360</v>
+        <v>170</v>
       </c>
       <c r="AN28" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="AO28" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="G29" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="H29" t="n">
-        <v>2.6</v>
+        <v>2.48</v>
       </c>
       <c r="I29" t="n">
-        <v>2.66</v>
+        <v>2.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="K29" t="n">
         <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="M29" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="N29" t="n">
         <v>2.32</v>
       </c>
       <c r="O29" t="n">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="P29" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="R29" t="n">
         <v>1.14</v>
       </c>
       <c r="S29" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="T29" t="n">
-        <v>2.28</v>
+        <v>2.44</v>
       </c>
       <c r="U29" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V29" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="W29" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="X29" t="n">
-        <v>8.4</v>
+        <v>6.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="Z29" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AA29" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AF29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AH29" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AI29" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ29" t="n">
         <v>90</v>
       </c>
       <c r="AK29" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL29" t="n">
         <v>120</v>
       </c>
       <c r="AM29" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="AN29" t="n">
         <v>120</v>
       </c>
       <c r="AO29" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.53</v>
+        <v>3.55</v>
       </c>
       <c r="G30" t="n">
-        <v>1.75</v>
+        <v>3.7</v>
       </c>
       <c r="H30" t="n">
-        <v>4.9</v>
+        <v>2.6</v>
       </c>
       <c r="I30" t="n">
-        <v>9.4</v>
+        <v>2.68</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>2.86</v>
       </c>
       <c r="K30" t="n">
-        <v>950</v>
+        <v>2.94</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.69</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="N30" t="n">
-        <v>2.74</v>
+        <v>2.38</v>
       </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.69</v>
       </c>
       <c r="P30" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S30" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U30" t="n">
         <v>1.67</v>
       </c>
-      <c r="Q30" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.72</v>
-      </c>
       <c r="V30" t="n">
-        <v>1.12</v>
+        <v>1.59</v>
       </c>
       <c r="W30" t="n">
-        <v>2.32</v>
+        <v>1.37</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,78 +4568,78 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.35</v>
+        <v>1.59</v>
       </c>
       <c r="G31" t="n">
-        <v>3.8</v>
+        <v>1.64</v>
       </c>
       <c r="H31" t="n">
-        <v>2.42</v>
+        <v>5.8</v>
       </c>
       <c r="I31" t="n">
-        <v>2.62</v>
+        <v>7.8</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="L31" t="n">
-        <v>1.01</v>
+        <v>1.42</v>
       </c>
       <c r="M31" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="O31" t="n">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>1.52</v>
+        <v>1.92</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.42</v>
+        <v>2.02</v>
       </c>
       <c r="R31" t="n">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="S31" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="T31" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="U31" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="V31" t="n">
-        <v>1.62</v>
+        <v>1.16</v>
       </c>
       <c r="W31" t="n">
-        <v>1.37</v>
+        <v>2.52</v>
       </c>
       <c r="X31" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
         <v>1000</v>
@@ -4648,13 +4648,13 @@
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
         <v>1000</v>
@@ -4663,7 +4663,7 @@
         <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
         <v>1000</v>
@@ -4678,10 +4678,10 @@
         <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
         <v>1000</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,123 +4703,123 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>OHiggins</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.95</v>
+        <v>3.35</v>
       </c>
       <c r="G32" t="n">
-        <v>2.04</v>
+        <v>3.5</v>
       </c>
       <c r="H32" t="n">
-        <v>4.1</v>
+        <v>2.48</v>
       </c>
       <c r="I32" t="n">
-        <v>4.5</v>
+        <v>2.62</v>
       </c>
       <c r="J32" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="K32" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="L32" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W32" t="n">
         <v>1.4</v>
       </c>
-      <c r="M32" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N32" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S32" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.96</v>
-      </c>
       <c r="X32" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>18</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z32" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD32" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="AM32" t="n">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="AN32" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,126 +4838,126 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>OHiggins</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="G33" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="H33" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="I33" t="n">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="J33" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="K33" t="n">
-        <v>3.15</v>
+        <v>3.9</v>
       </c>
       <c r="L33" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M33" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>2.44</v>
+        <v>3.9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.62</v>
+        <v>1.32</v>
       </c>
       <c r="P33" t="n">
-        <v>1.48</v>
+        <v>1.98</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.88</v>
+        <v>1.96</v>
       </c>
       <c r="R33" t="n">
-        <v>1.16</v>
+        <v>1.37</v>
       </c>
       <c r="S33" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="T33" t="n">
-        <v>2.32</v>
+        <v>1.79</v>
       </c>
       <c r="U33" t="n">
-        <v>1.66</v>
+        <v>2.1</v>
       </c>
       <c r="V33" t="n">
-        <v>1.24</v>
+        <v>1.31</v>
       </c>
       <c r="W33" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="X33" t="n">
-        <v>7.8</v>
+        <v>17.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>6.4</v>
+        <v>11</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD33" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AE33" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG33" t="n">
         <v>12</v>
       </c>
       <c r="AH33" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="AI33" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK33" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AL33" t="n">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="AM33" t="n">
-        <v>320</v>
+        <v>120</v>
       </c>
       <c r="AN33" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AO33" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34">
@@ -4978,127 +4978,127 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.74</v>
+        <v>2.08</v>
       </c>
       <c r="G34" t="n">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="H34" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="I34" t="n">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="K34" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="L34" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="M34" t="n">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="N34" t="n">
-        <v>2.78</v>
+        <v>2.48</v>
       </c>
       <c r="O34" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="P34" t="n">
-        <v>1.59</v>
+        <v>1.48</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.46</v>
+        <v>3.05</v>
       </c>
       <c r="R34" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="S34" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="T34" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="U34" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="V34" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="W34" t="n">
-        <v>2.26</v>
+        <v>1.89</v>
       </c>
       <c r="X34" t="n">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="Y34" t="n">
-        <v>16</v>
+        <v>11.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="AA34" t="n">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="AB34" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AE34" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AF34" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH34" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AI34" t="n">
         <v>160</v>
       </c>
       <c r="AJ34" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AK34" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AL34" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AM34" t="n">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="AN34" t="n">
-        <v>18.5</v>
+        <v>32</v>
       </c>
       <c r="AO34" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,126 +5108,261 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Junior FC Barranquilla</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3.85</v>
+        <v>1.75</v>
       </c>
       <c r="G35" t="n">
-        <v>4.4</v>
+        <v>1.78</v>
       </c>
       <c r="H35" t="n">
-        <v>2.16</v>
+        <v>6.2</v>
       </c>
       <c r="I35" t="n">
-        <v>2.28</v>
+        <v>6.6</v>
       </c>
       <c r="J35" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="K35" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="L35" t="n">
-        <v>1.01</v>
+        <v>1.56</v>
       </c>
       <c r="M35" t="n">
         <v>1.11</v>
       </c>
       <c r="N35" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="O35" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="P35" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="R35" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="S35" t="n">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="U35" t="n">
-        <v>1.84</v>
+        <v>1.67</v>
       </c>
       <c r="V35" t="n">
-        <v>1.79</v>
+        <v>1.18</v>
       </c>
       <c r="W35" t="n">
-        <v>1.29</v>
+        <v>2.28</v>
       </c>
       <c r="X35" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y35" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Z35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>270</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>970</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Colombian Primera A</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2026-02-02</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>22:30:00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Deportivo Pereira</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Junior FC Barranquilla</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X36" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z36" t="n">
         <v>13</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AA36" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE36" t="n">
         <v>34</v>
       </c>
-      <c r="AB35" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF35" t="n">
+      <c r="AF36" t="n">
         <v>30</v>
       </c>
-      <c r="AG35" t="n">
+      <c r="AG36" t="n">
         <v>19</v>
       </c>
-      <c r="AH35" t="n">
+      <c r="AH36" t="n">
         <v>27</v>
       </c>
-      <c r="AI35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK35" t="n">
+      <c r="AI36" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK36" t="n">
         <v>70</v>
       </c>
-      <c r="AL35" t="n">
+      <c r="AL36" t="n">
         <v>85</v>
       </c>
-      <c r="AM35" t="n">
+      <c r="AM36" t="n">
         <v>190</v>
       </c>
-      <c r="AN35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>29</v>
+      <c r="AN36" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="G2" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="H2" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="I2" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="J2" t="n">
         <v>3.7</v>
@@ -685,7 +685,7 @@
         <v>4.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -697,31 +697,31 @@
         <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
         <v>3.25</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U2" t="n">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="V2" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -739,7 +739,7 @@
         <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -808,16 +808,16 @@
         <v>4.4</v>
       </c>
       <c r="H3" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I3" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="J3" t="n">
         <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L3" t="n">
         <v>1.49</v>
@@ -829,13 +829,13 @@
         <v>3.15</v>
       </c>
       <c r="O3" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R3" t="n">
         <v>1.26</v>
@@ -850,7 +850,7 @@
         <v>1.91</v>
       </c>
       <c r="V3" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="W3" t="n">
         <v>1.31</v>
@@ -859,31 +859,31 @@
         <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Z3" t="n">
         <v>15.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AB3" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC3" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AH3" t="n">
         <v>24</v>
@@ -895,7 +895,7 @@
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,7 +904,7 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>26</v>
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="I4" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="J4" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="K4" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="L4" t="n">
         <v>1.23</v>
@@ -961,88 +961,88 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P4" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="R4" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="S4" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="T4" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V4" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="W4" t="n">
         <v>1.07</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AB4" t="n">
         <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD4" t="n">
         <v>11.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AG4" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AH4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
         <v>32</v>
       </c>
       <c r="AJ4" t="n">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="AK4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>180</v>
+      </c>
+      <c r="AM4" t="n">
         <v>190</v>
       </c>
-      <c r="AL4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>180</v>
-      </c>
       <c r="AN4" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AO4" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G5" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I5" t="n">
         <v>3.2</v>
@@ -1087,7 +1087,7 @@
         <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L5" t="n">
         <v>1.53</v>
@@ -1096,25 +1096,25 @@
         <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P5" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S5" t="n">
         <v>4.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
         <v>1.96</v>
@@ -1126,7 +1126,7 @@
         <v>1.54</v>
       </c>
       <c r="X5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
         <v>11</v>
@@ -1138,7 +1138,7 @@
         <v>70</v>
       </c>
       <c r="AB5" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="AC5" t="n">
         <v>7.4</v>
@@ -1153,10 +1153,10 @@
         <v>17</v>
       </c>
       <c r="AG5" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
         <v>60</v>
@@ -1168,13 +1168,13 @@
         <v>38</v>
       </c>
       <c r="AL5" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
         <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AO5" t="n">
         <v>60</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H6" t="n">
         <v>8.4</v>
       </c>
       <c r="I6" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="J6" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="K6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.31</v>
@@ -1234,46 +1234,46 @@
         <v>5.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R6" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="U6" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V6" t="n">
         <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y6" t="n">
         <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA6" t="n">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC6" t="n">
         <v>12.5</v>
@@ -1282,7 +1282,7 @@
         <v>970</v>
       </c>
       <c r="AE6" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF6" t="n">
         <v>9.199999999999999</v>
@@ -1294,10 +1294,10 @@
         <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AK6" t="n">
         <v>15.5</v>
@@ -1309,10 +1309,10 @@
         <v>140</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="AO6" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
@@ -1345,19 +1345,19 @@
         <v>5.9</v>
       </c>
       <c r="G7" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.75</v>
       </c>
-      <c r="I7" t="n">
-        <v>1.76</v>
-      </c>
       <c r="J7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
         <v>1.45</v>
@@ -1372,34 +1372,34 @@
         <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
         <v>1.32</v>
       </c>
       <c r="S7" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T7" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V7" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="W7" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X7" t="n">
         <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="Z7" t="n">
         <v>9.4</v>
@@ -1435,7 +1435,7 @@
         <v>170</v>
       </c>
       <c r="AK7" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AL7" t="n">
         <v>95</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="G8" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="H8" t="n">
         <v>4.4</v>
@@ -1489,40 +1489,40 @@
         <v>4.6</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>4.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
         <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
         <v>1.18</v>
       </c>
       <c r="P8" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U8" t="n">
         <v>2.6</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.58</v>
       </c>
       <c r="V8" t="n">
         <v>1.27</v>
@@ -1531,19 +1531,19 @@
         <v>2.08</v>
       </c>
       <c r="X8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="n">
         <v>95</v>
       </c>
       <c r="AB8" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="n">
         <v>9.4</v>
@@ -1564,10 +1564,10 @@
         <v>15.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK8" t="n">
         <v>17</v>
@@ -1576,13 +1576,13 @@
         <v>26</v>
       </c>
       <c r="AM8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN8" t="n">
         <v>10.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="G9" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="H9" t="n">
         <v>1.78</v>
@@ -1627,7 +1627,7 @@
         <v>3.75</v>
       </c>
       <c r="K9" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L9" t="n">
         <v>1.43</v>
@@ -1639,22 +1639,22 @@
         <v>3.6</v>
       </c>
       <c r="O9" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P9" t="n">
         <v>1.89</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U9" t="n">
         <v>1.94</v>
@@ -1663,7 +1663,7 @@
         <v>2.2</v>
       </c>
       <c r="W9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X9" t="n">
         <v>14.5</v>
@@ -1693,7 +1693,7 @@
         <v>48</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
         <v>970</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="G10" t="n">
         <v>3.75</v>
@@ -1756,7 +1756,7 @@
         <v>2.28</v>
       </c>
       <c r="I10" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="J10" t="n">
         <v>3.35</v>
@@ -1795,10 +1795,10 @@
         <v>2.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="W10" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X10" t="n">
         <v>13.5</v>
@@ -1816,16 +1816,16 @@
         <v>14.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>32</v>
       </c>
       <c r="AF10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG10" t="n">
         <v>17.5</v>
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="G11" t="n">
         <v>5.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="I11" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="J11" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -1912,25 +1912,25 @@
         <v>1.19</v>
       </c>
       <c r="P11" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="R11" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S11" t="n">
         <v>2.48</v>
       </c>
       <c r="T11" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U11" t="n">
-        <v>2.42</v>
+        <v>2.28</v>
       </c>
       <c r="V11" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="W11" t="n">
         <v>1.22</v>
@@ -1939,7 +1939,7 @@
         <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
         <v>1000</v>
@@ -1951,10 +1951,10 @@
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
         <v>1000</v>
@@ -1966,7 +1966,7 @@
         <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="12">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
         <v>11</v>
@@ -2065,7 +2065,7 @@
         <v>1.78</v>
       </c>
       <c r="V12" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="W12" t="n">
         <v>1.1</v>
@@ -2104,16 +2104,16 @@
         <v>32</v>
       </c>
       <c r="AI12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ12" t="n">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="AK12" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AL12" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AM12" t="n">
         <v>200</v>
@@ -2161,13 +2161,13 @@
         <v>1.67</v>
       </c>
       <c r="I13" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="J13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L13" t="n">
         <v>1.23</v>
@@ -2182,28 +2182,28 @@
         <v>1.13</v>
       </c>
       <c r="P13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="S13" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
         <v>1.52</v>
       </c>
       <c r="U13" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="V13" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W13" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="X13" t="n">
         <v>50</v>
@@ -2212,7 +2212,7 @@
         <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
@@ -2224,7 +2224,7 @@
         <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
@@ -2233,7 +2233,7 @@
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
@@ -2254,10 +2254,10 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G14" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J14" t="n">
         <v>3.7</v>
@@ -2311,40 +2311,40 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O14" t="n">
         <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="R14" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S14" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="T14" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U14" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="W14" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="X14" t="n">
         <v>20</v>
       </c>
       <c r="Y14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z14" t="n">
         <v>29</v>
@@ -2389,7 +2389,7 @@
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
         <v>32</v>
@@ -2428,19 +2428,19 @@
         <v>4.6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="I15" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="J15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K15" t="n">
         <v>4.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -2452,22 +2452,22 @@
         <v>1.16</v>
       </c>
       <c r="P15" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S15" t="n">
         <v>2.26</v>
       </c>
       <c r="T15" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="U15" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="V15" t="n">
         <v>2.16</v>
@@ -2491,7 +2491,7 @@
         <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
         <v>11.5</v>
@@ -2503,7 +2503,7 @@
         <v>50</v>
       </c>
       <c r="AG15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH15" t="n">
         <v>15.5</v>
@@ -2515,16 +2515,16 @@
         <v>110</v>
       </c>
       <c r="AK15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM15" t="n">
         <v>60</v>
       </c>
-      <c r="AL15" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>65</v>
-      </c>
       <c r="AN15" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AO15" t="n">
         <v>7.2</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
         <v>2.38</v>
@@ -2569,40 +2569,40 @@
         <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K16" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
         <v>1.25</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P16" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="R16" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="S16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T16" t="n">
         <v>1.46</v>
       </c>
       <c r="U16" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>1.5</v>
@@ -2662,7 +2662,7 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="I17" t="n">
         <v>1.8</v>
@@ -2707,13 +2707,13 @@
         <v>4.6</v>
       </c>
       <c r="K17" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
         <v>1.2</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
         <v>9.6</v>
@@ -2734,10 +2734,10 @@
         <v>1.81</v>
       </c>
       <c r="T17" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="U17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="V17" t="n">
         <v>2.24</v>
@@ -2761,43 +2761,43 @@
         <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AF17" t="n">
         <v>50</v>
       </c>
       <c r="AG17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH17" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AI17" t="n">
         <v>24</v>
       </c>
       <c r="AJ17" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AK17" t="n">
         <v>40</v>
       </c>
       <c r="AL17" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="18">
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="G18" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="I18" t="n">
         <v>2.58</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
         <v>3.35</v>
@@ -2857,10 +2857,10 @@
         <v>1.43</v>
       </c>
       <c r="P18" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R18" t="n">
         <v>1.27</v>
@@ -2878,7 +2878,7 @@
         <v>1.63</v>
       </c>
       <c r="W18" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
@@ -2965,55 +2965,55 @@
         <v>2.38</v>
       </c>
       <c r="G19" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I19" t="n">
         <v>3.9</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="K19" t="n">
         <v>3.15</v>
       </c>
       <c r="L19" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M19" t="n">
         <v>1.12</v>
       </c>
       <c r="N19" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="O19" t="n">
         <v>1.5</v>
       </c>
       <c r="P19" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q19" t="n">
         <v>2.58</v>
       </c>
       <c r="R19" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T19" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="U19" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V19" t="n">
         <v>1.35</v>
       </c>
       <c r="W19" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X19" t="n">
         <v>10.5</v>
@@ -3052,10 +3052,10 @@
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
@@ -3064,10 +3064,10 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO19" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="G20" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="H20" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="I20" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="J20" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K20" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L20" t="n">
         <v>1.61</v>
@@ -3124,13 +3124,13 @@
         <v>2.54</v>
       </c>
       <c r="O20" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="P20" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="R20" t="n">
         <v>1.18</v>
@@ -3142,19 +3142,19 @@
         <v>2.18</v>
       </c>
       <c r="U20" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V20" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="W20" t="n">
-        <v>1.27</v>
+        <v>1.31</v>
       </c>
       <c r="X20" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="Z20" t="n">
         <v>14</v>
@@ -3163,25 +3163,25 @@
         <v>34</v>
       </c>
       <c r="AB20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AD20" t="n">
         <v>14</v>
       </c>
       <c r="AE20" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AF20" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AG20" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
@@ -3190,10 +3190,10 @@
         <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
@@ -3202,7 +3202,7 @@
         <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -3244,49 +3244,49 @@
         <v>2.06</v>
       </c>
       <c r="J21" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="M21" t="n">
         <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O21" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P21" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R21" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S21" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U21" t="n">
         <v>1.88</v>
       </c>
       <c r="V21" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="W21" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X21" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Y21" t="n">
         <v>7.4</v>
@@ -3301,13 +3301,13 @@
         <v>13</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF21" t="n">
         <v>30</v>
@@ -3319,25 +3319,25 @@
         <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ21" t="n">
         <v>110</v>
       </c>
       <c r="AK21" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL21" t="n">
         <v>85</v>
       </c>
       <c r="AM21" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN21" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AO21" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="G23" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="H23" t="n">
         <v>5.5</v>
@@ -3526,22 +3526,22 @@
         <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="R23" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S23" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T23" t="n">
         <v>2.14</v>
@@ -3553,7 +3553,7 @@
         <v>1.21</v>
       </c>
       <c r="W23" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="X23" t="n">
         <v>10.5</v>
@@ -3571,7 +3571,7 @@
         <v>7.2</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
         <v>22</v>
@@ -3589,25 +3589,25 @@
         <v>23</v>
       </c>
       <c r="AI23" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ23" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
       </c>
       <c r="AL23" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AM23" t="n">
         <v>140</v>
       </c>
       <c r="AN23" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G24" t="n">
         <v>2.78</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.8</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
@@ -3661,10 +3661,10 @@
         <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
         <v>1.7</v>
@@ -3679,7 +3679,7 @@
         <v>4.6</v>
       </c>
       <c r="T24" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U24" t="n">
         <v>1.98</v>
@@ -3688,13 +3688,13 @@
         <v>1.48</v>
       </c>
       <c r="W24" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X24" t="n">
         <v>10.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z24" t="n">
         <v>18.5</v>
@@ -3703,7 +3703,7 @@
         <v>50</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC24" t="n">
         <v>7</v>
@@ -3715,7 +3715,7 @@
         <v>40</v>
       </c>
       <c r="AF24" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG24" t="n">
         <v>12.5</v>
@@ -3787,7 +3787,7 @@
         <v>2.92</v>
       </c>
       <c r="K25" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
         <v>1.7</v>
@@ -3796,10 +3796,10 @@
         <v>1.16</v>
       </c>
       <c r="N25" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="O25" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="P25" t="n">
         <v>1.46</v>
@@ -3808,13 +3808,13 @@
         <v>3.1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="S25" t="n">
         <v>6.8</v>
       </c>
       <c r="T25" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="U25" t="n">
         <v>1.68</v>
@@ -3826,7 +3826,7 @@
         <v>1.79</v>
       </c>
       <c r="X25" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="Y25" t="n">
         <v>11</v>
@@ -3838,7 +3838,7 @@
         <v>130</v>
       </c>
       <c r="AB25" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC25" t="n">
         <v>7</v>
@@ -3847,7 +3847,7 @@
         <v>22</v>
       </c>
       <c r="AE25" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
         <v>12</v>
@@ -3862,19 +3862,19 @@
         <v>130</v>
       </c>
       <c r="AJ25" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK25" t="n">
         <v>36</v>
       </c>
       <c r="AL25" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
         <v>290</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3922,7 +3922,7 @@
         <v>6.2</v>
       </c>
       <c r="K26" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L26" t="n">
         <v>1.38</v>
@@ -3931,28 +3931,28 @@
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P26" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="R26" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S26" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="T26" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="U26" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="V26" t="n">
         <v>4.3</v>
@@ -3961,7 +3961,7 @@
         <v>1.06</v>
       </c>
       <c r="X26" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Y26" t="n">
         <v>7.4</v>
@@ -3991,7 +3991,7 @@
         <v>60</v>
       </c>
       <c r="AH26" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AI26" t="n">
         <v>55</v>
@@ -4000,16 +4000,16 @@
         <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AL26" t="n">
         <v>290</v>
       </c>
       <c r="AM26" t="n">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="AN26" t="n">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="AO26" t="n">
         <v>5.8</v>
@@ -4057,7 +4057,7 @@
         <v>3.5</v>
       </c>
       <c r="K27" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L27" t="n">
         <v>1.47</v>
@@ -4069,25 +4069,25 @@
         <v>3.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P27" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q27" t="n">
         <v>2.16</v>
       </c>
       <c r="R27" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S27" t="n">
         <v>4</v>
       </c>
       <c r="T27" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U27" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="V27" t="n">
         <v>2.08</v>
@@ -4099,25 +4099,25 @@
         <v>15</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z27" t="n">
         <v>12.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
         <v>19.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AD27" t="n">
         <v>12.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
         <v>1000</v>
@@ -4126,7 +4126,7 @@
         <v>26</v>
       </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
@@ -4138,7 +4138,7 @@
         <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AM27" t="n">
         <v>160</v>
@@ -4177,7 +4177,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -4216,13 +4216,13 @@
         <v>1.28</v>
       </c>
       <c r="S28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T28" t="n">
         <v>1.97</v>
       </c>
       <c r="U28" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V28" t="n">
         <v>1.26</v>
@@ -4240,7 +4240,7 @@
         <v>36</v>
       </c>
       <c r="AA28" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AB28" t="n">
         <v>9.199999999999999</v>
@@ -4249,10 +4249,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
         <v>11.5</v>
@@ -4279,7 +4279,7 @@
         <v>170</v>
       </c>
       <c r="AN28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4327,7 +4327,7 @@
         <v>2.98</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L29" t="n">
         <v>1.71</v>
@@ -4357,7 +4357,7 @@
         <v>2.44</v>
       </c>
       <c r="U29" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="V29" t="n">
         <v>1.66</v>
@@ -4384,10 +4384,10 @@
         <v>7.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="AF29" t="n">
         <v>23</v>
@@ -4411,13 +4411,13 @@
         <v>120</v>
       </c>
       <c r="AM29" t="n">
-        <v>360</v>
+        <v>280</v>
       </c>
       <c r="AN29" t="n">
         <v>120</v>
       </c>
       <c r="AO29" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -4474,7 +4474,7 @@
         <v>2.38</v>
       </c>
       <c r="O30" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="P30" t="n">
         <v>1.42</v>
@@ -4489,7 +4489,7 @@
         <v>7.2</v>
       </c>
       <c r="T30" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="U30" t="n">
         <v>1.67</v>
@@ -4510,13 +4510,13 @@
         <v>970</v>
       </c>
       <c r="AA30" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AB30" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD30" t="n">
         <v>970</v>
@@ -4543,7 +4543,7 @@
         <v>70</v>
       </c>
       <c r="AL30" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AM30" t="n">
         <v>300</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="G31" t="n">
         <v>1.64</v>
       </c>
       <c r="H31" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="I31" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="J31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="K31" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="L31" t="n">
         <v>1.42</v>
@@ -4615,28 +4615,28 @@
         <v>1.92</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S31" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="T31" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="V31" t="n">
         <v>1.16</v>
       </c>
       <c r="W31" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y31" t="n">
         <v>1000</v>
@@ -4645,22 +4645,22 @@
         <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AG31" t="n">
         <v>1000</v>
@@ -4669,22 +4669,22 @@
         <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL31" t="n">
         <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4720,52 +4720,52 @@
         <v>3.35</v>
       </c>
       <c r="G32" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H32" t="n">
-        <v>2.48</v>
+        <v>2.44</v>
       </c>
       <c r="I32" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="J32" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
         <v>3.3</v>
       </c>
       <c r="L32" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M32" t="n">
         <v>1.12</v>
       </c>
       <c r="N32" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O32" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="P32" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="R32" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S32" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="T32" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="U32" t="n">
         <v>1.79</v>
       </c>
       <c r="V32" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="W32" t="n">
         <v>1.4</v>
@@ -4774,7 +4774,7 @@
         <v>10.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="Z32" t="n">
         <v>1000</v>
@@ -4786,7 +4786,7 @@
         <v>12</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="AD32" t="n">
         <v>15</v>
@@ -4813,7 +4813,7 @@
         <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AM32" t="n">
         <v>210</v>
@@ -4852,19 +4852,19 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G33" t="n">
         <v>2.04</v>
       </c>
       <c r="H33" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
         <v>4.3</v>
       </c>
       <c r="J33" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K33" t="n">
         <v>3.9</v>
@@ -4912,7 +4912,7 @@
         <v>17.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
@@ -4933,7 +4933,7 @@
         <v>14.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH33" t="n">
         <v>21</v>
@@ -4945,7 +4945,7 @@
         <v>27</v>
       </c>
       <c r="AK33" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL33" t="n">
         <v>42</v>
@@ -4987,10 +4987,10 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="G34" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="H34" t="n">
         <v>4.9</v>
@@ -4999,7 +4999,7 @@
         <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
         <v>3.1</v>
@@ -5017,7 +5017,7 @@
         <v>1.64</v>
       </c>
       <c r="P34" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="Q34" t="n">
         <v>3.05</v>
@@ -5032,16 +5032,16 @@
         <v>2.32</v>
       </c>
       <c r="U34" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="V34" t="n">
         <v>1.25</v>
       </c>
       <c r="W34" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="X34" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Y34" t="n">
         <v>11.5</v>
@@ -5053,7 +5053,7 @@
         <v>150</v>
       </c>
       <c r="AB34" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC34" t="n">
         <v>7.4</v>
@@ -5071,7 +5071,7 @@
         <v>12</v>
       </c>
       <c r="AH34" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AI34" t="n">
         <v>160</v>
@@ -5086,7 +5086,7 @@
         <v>75</v>
       </c>
       <c r="AM34" t="n">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="AN34" t="n">
         <v>32</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="G35" t="n">
         <v>1.78</v>
@@ -5131,7 +5131,7 @@
         <v>6.2</v>
       </c>
       <c r="I35" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J35" t="n">
         <v>3.6</v>
@@ -5158,7 +5158,7 @@
         <v>2.62</v>
       </c>
       <c r="R35" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S35" t="n">
         <v>5.3</v>
@@ -5182,7 +5182,7 @@
         <v>16</v>
       </c>
       <c r="Z35" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AA35" t="n">
         <v>270</v>
@@ -5260,13 +5260,13 @@
         <v>3.9</v>
       </c>
       <c r="G36" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H36" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="I36" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J36" t="n">
         <v>3.15</v>
@@ -5284,13 +5284,13 @@
         <v>2.84</v>
       </c>
       <c r="O36" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="P36" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R36" t="n">
         <v>1.21</v>
@@ -5305,10 +5305,10 @@
         <v>1.81</v>
       </c>
       <c r="V36" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W36" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="X36" t="n">
         <v>11</v>
@@ -5320,13 +5320,13 @@
         <v>13</v>
       </c>
       <c r="AA36" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AB36" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD36" t="n">
         <v>12</v>
@@ -5338,13 +5338,13 @@
         <v>30</v>
       </c>
       <c r="AG36" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH36" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AI36" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ36" t="n">
         <v>110</v>
@@ -5362,7 +5362,7 @@
         <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -667,61 +667,61 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.78</v>
+        <v>2.08</v>
       </c>
       <c r="G2" t="n">
-        <v>1.89</v>
+        <v>2.18</v>
       </c>
       <c r="H2" t="n">
-        <v>4.8</v>
+        <v>3.65</v>
       </c>
       <c r="I2" t="n">
-        <v>5.4</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
         <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
         <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.79</v>
+        <v>1.05</v>
       </c>
       <c r="U2" t="n">
-        <v>2.08</v>
+        <v>1.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="W2" t="n">
-        <v>2.12</v>
+        <v>1.85</v>
       </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -733,19 +733,19 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
         <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
         <v>1000</v>
@@ -757,7 +757,7 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="G3" t="n">
         <v>4.4</v>
@@ -811,31 +811,31 @@
         <v>2.12</v>
       </c>
       <c r="I3" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K3" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L3" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
       </c>
       <c r="N3" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
       </c>
       <c r="P3" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R3" t="n">
         <v>1.26</v>
@@ -844,10 +844,10 @@
         <v>4.2</v>
       </c>
       <c r="T3" t="n">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="U3" t="n">
-        <v>1.91</v>
+        <v>1.05</v>
       </c>
       <c r="V3" t="n">
         <v>1.76</v>
@@ -856,25 +856,25 @@
         <v>1.31</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -883,13 +883,13 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="I4" t="n">
         <v>1.23</v>
       </c>
       <c r="J4" t="n">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="K4" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L4" t="n">
         <v>1.23</v>
@@ -961,88 +961,88 @@
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P4" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="R4" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.04</v>
       </c>
-      <c r="T4" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.02</v>
-      </c>
       <c r="V4" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="W4" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="X4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
         <v>970</v>
       </c>
       <c r="AC4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AJ4" t="n">
-        <v>560</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="G5" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="H5" t="n">
         <v>3.05</v>
       </c>
       <c r="I5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
         <v>3.05</v>
       </c>
       <c r="K5" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.53</v>
@@ -1099,13 +1099,13 @@
         <v>3.05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="P5" t="n">
         <v>1.66</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="R5" t="n">
         <v>1.24</v>
@@ -1114,70 +1114,70 @@
         <v>4.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="U5" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V5" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
         <v>1.54</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="Z5" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>970</v>
       </c>
       <c r="AD5" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AE5" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="G6" t="n">
         <v>1.44</v>
       </c>
       <c r="H6" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="O6" t="n">
         <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="S6" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="T6" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U6" t="n">
-        <v>1.96</v>
+        <v>1.05</v>
       </c>
       <c r="V6" t="n">
         <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="Y6" t="n">
         <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="AC6" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AD6" t="n">
         <v>970</v>
       </c>
       <c r="AE6" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AH6" t="n">
-        <v>27</v>
+        <v>970</v>
       </c>
       <c r="AI6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="G7" t="n">
         <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="I7" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="J7" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
         <v>1.45</v>
@@ -1366,10 +1366,10 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O7" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P7" t="n">
         <v>1.87</v>
@@ -1378,19 +1378,19 @@
         <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="U7" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V7" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="W7" t="n">
         <v>1.2</v>
@@ -1399,43 +1399,43 @@
         <v>13</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA7" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
         <v>19</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE7" t="n">
         <v>19</v>
       </c>
       <c r="AF7" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AG7" t="n">
         <v>23</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AI7" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="n">
         <v>170</v>
       </c>
       <c r="AK7" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AL7" t="n">
         <v>95</v>
@@ -1444,7 +1444,7 @@
         <v>150</v>
       </c>
       <c r="AN7" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AO7" t="n">
         <v>12.5</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="G8" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H8" t="n">
         <v>4.4</v>
       </c>
       <c r="I8" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.3</v>
@@ -1507,46 +1507,46 @@
         <v>1.18</v>
       </c>
       <c r="P8" t="n">
-        <v>2.64</v>
+        <v>2.72</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
         <v>1.67</v>
       </c>
       <c r="S8" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T8" t="n">
-        <v>1.55</v>
+        <v>1.05</v>
       </c>
       <c r="U8" t="n">
-        <v>2.6</v>
+        <v>2.24</v>
       </c>
       <c r="V8" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="X8" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="Z8" t="n">
         <v>38</v>
       </c>
       <c r="AA8" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AB8" t="n">
         <v>14</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.4</v>
+        <v>980</v>
       </c>
       <c r="AD8" t="n">
         <v>17.5</v>
@@ -1561,25 +1561,25 @@
         <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AI8" t="n">
         <v>44</v>
       </c>
       <c r="AJ8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
-        <v>65</v>
+        <v>980</v>
       </c>
       <c r="AN8" t="n">
-        <v>10.5</v>
+        <v>970</v>
       </c>
       <c r="AO8" t="n">
         <v>32</v>
@@ -1615,16 +1615,16 @@
         <v>5.2</v>
       </c>
       <c r="G9" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="H9" t="n">
         <v>1.78</v>
       </c>
       <c r="I9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K9" t="n">
         <v>3.95</v>
@@ -1636,7 +1636,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O9" t="n">
         <v>1.35</v>
@@ -1654,70 +1654,70 @@
         <v>3.75</v>
       </c>
       <c r="T9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.9</v>
       </c>
-      <c r="U9" t="n">
-        <v>1.94</v>
-      </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="W9" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.4</v>
+        <v>970</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AC9" t="n">
-        <v>9</v>
+        <v>970</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>23</v>
+        <v>970</v>
       </c>
       <c r="AH9" t="n">
         <v>970</v>
       </c>
       <c r="AI9" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="G10" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>2.28</v>
+        <v>2.6</v>
       </c>
       <c r="I10" t="n">
-        <v>2.36</v>
+        <v>2.68</v>
       </c>
       <c r="J10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.35</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.45</v>
       </c>
       <c r="L10" t="n">
         <v>1.48</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O10" t="n">
         <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>1.05</v>
       </c>
       <c r="U10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="W10" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="X10" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z10" t="n">
         <v>16</v>
       </c>
       <c r="AA10" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="n">
-        <v>14.5</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>970</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO10" t="n">
         <v>29</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="11">
@@ -1888,16 +1888,16 @@
         <v>5.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="I11" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J11" t="n">
         <v>4.4</v>
       </c>
       <c r="K11" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L11" t="n">
         <v>1.3</v>
@@ -1915,7 +1915,7 @@
         <v>2.54</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R11" t="n">
         <v>1.61</v>
@@ -1924,13 +1924,13 @@
         <v>2.48</v>
       </c>
       <c r="T11" t="n">
-        <v>1.62</v>
+        <v>1.05</v>
       </c>
       <c r="U11" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V11" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="W11" t="n">
         <v>1.22</v>
@@ -1951,7 +1951,7 @@
         <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
@@ -1966,7 +1966,7 @@
         <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G12" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="H12" t="n">
         <v>1.4</v>
@@ -2029,10 +2029,10 @@
         <v>1.41</v>
       </c>
       <c r="J12" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K12" t="n">
         <v>5.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.38</v>
@@ -2044,22 +2044,22 @@
         <v>4.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="R12" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T12" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U12" t="n">
         <v>1.78</v>
@@ -2089,7 +2089,7 @@
         <v>11.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE12" t="n">
         <v>15.5</v>
@@ -2101,13 +2101,13 @@
         <v>40</v>
       </c>
       <c r="AH12" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="AK12" t="n">
         <v>190</v>
@@ -2119,7 +2119,7 @@
         <v>200</v>
       </c>
       <c r="AN12" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AO12" t="n">
         <v>6.8</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="G13" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H13" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="I13" t="n">
         <v>1.7</v>
       </c>
       <c r="J13" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.23</v>
@@ -2176,7 +2176,7 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O13" t="n">
         <v>1.13</v>
@@ -2188,16 +2188,16 @@
         <v>1.4</v>
       </c>
       <c r="R13" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="S13" t="n">
         <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="U13" t="n">
-        <v>2.76</v>
+        <v>2.86</v>
       </c>
       <c r="V13" t="n">
         <v>2.42</v>
@@ -2212,7 +2212,7 @@
         <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
@@ -2224,7 +2224,7 @@
         <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
@@ -2233,7 +2233,7 @@
         <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
         <v>1000</v>
@@ -2242,7 +2242,7 @@
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
         <v>1000</v>
@@ -2254,10 +2254,10 @@
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2290,10 +2290,10 @@
         <v>2.18</v>
       </c>
       <c r="G14" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="H14" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
         <v>3.55</v>
@@ -2311,88 +2311,88 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O14" t="n">
         <v>1.26</v>
       </c>
       <c r="P14" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="Q14" t="n">
         <v>1.78</v>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S14" t="n">
         <v>2.96</v>
       </c>
       <c r="T14" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U14" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
       <c r="V14" t="n">
         <v>1.39</v>
       </c>
       <c r="W14" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="X14" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AA14" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE14" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF14" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG14" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AH14" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI14" t="n">
         <v>1000</v>
       </c>
       <c r="AJ14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM14" t="n">
         <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="G15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H15" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="I15" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="J15" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K15" t="n">
         <v>4.6</v>
@@ -2446,13 +2446,13 @@
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O15" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="Q15" t="n">
         <v>1.5</v>
@@ -2464,70 +2464,70 @@
         <v>2.26</v>
       </c>
       <c r="T15" t="n">
-        <v>1.52</v>
+        <v>1.58</v>
       </c>
       <c r="U15" t="n">
-        <v>2.7</v>
+        <v>1.69</v>
       </c>
       <c r="V15" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="W15" t="n">
         <v>1.28</v>
       </c>
       <c r="X15" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="Z15" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>29</v>
+        <v>970</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AD15" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AE15" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>970</v>
       </c>
       <c r="AH15" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AI15" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2563,7 +2563,7 @@
         <v>2.38</v>
       </c>
       <c r="H16" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="I16" t="n">
         <v>3</v>
@@ -2572,7 +2572,7 @@
         <v>4.2</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L16" t="n">
         <v>1.25</v>
@@ -2581,25 +2581,25 @@
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
         <v>1.14</v>
       </c>
       <c r="P16" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R16" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T16" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="U16" t="n">
         <v>3</v>
@@ -2662,7 +2662,7 @@
         <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="G17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H17" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="I17" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="J17" t="n">
         <v>4.6</v>
@@ -2716,7 +2716,7 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="O17" t="n">
         <v>1.1</v>
@@ -2734,16 +2734,16 @@
         <v>1.81</v>
       </c>
       <c r="T17" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="U17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="V17" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="W17" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="X17" t="n">
         <v>970</v>
@@ -2752,52 +2752,52 @@
         <v>970</v>
       </c>
       <c r="Z17" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
         <v>970</v>
       </c>
       <c r="AC17" t="n">
-        <v>15</v>
+        <v>970</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AE17" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AH17" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AI17" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>5.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H18" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="I18" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="J18" t="n">
         <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L18" t="n">
         <v>1.52</v>
@@ -2854,13 +2854,13 @@
         <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P18" t="n">
         <v>1.74</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="R18" t="n">
         <v>1.27</v>
@@ -2869,16 +2869,16 @@
         <v>4.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="U18" t="n">
         <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W18" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
@@ -2887,13 +2887,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Z18" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AA18" t="n">
         <v>38</v>
       </c>
       <c r="AB18" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AC18" t="n">
         <v>7</v>
@@ -2908,7 +2908,7 @@
         <v>21</v>
       </c>
       <c r="AG18" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
         <v>19.5</v>
@@ -2929,10 +2929,10 @@
         <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>48</v>
+        <v>170</v>
       </c>
       <c r="AO18" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -2965,28 +2965,28 @@
         <v>2.38</v>
       </c>
       <c r="G19" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="H19" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I19" t="n">
         <v>3.9</v>
       </c>
       <c r="J19" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L19" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="M19" t="n">
         <v>1.12</v>
       </c>
       <c r="N19" t="n">
-        <v>2.78</v>
+        <v>2.74</v>
       </c>
       <c r="O19" t="n">
         <v>1.5</v>
@@ -2998,64 +2998,64 @@
         <v>2.58</v>
       </c>
       <c r="R19" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S19" t="n">
         <v>5.1</v>
       </c>
       <c r="T19" t="n">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="U19" t="n">
-        <v>1.8</v>
+        <v>1.05</v>
       </c>
       <c r="V19" t="n">
         <v>1.35</v>
       </c>
       <c r="W19" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="X19" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
         <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
         <v>1000</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="G20" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="H20" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="I20" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="J20" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K20" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="L20" t="n">
         <v>1.61</v>
@@ -3127,7 +3127,7 @@
         <v>1.58</v>
       </c>
       <c r="P20" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="Q20" t="n">
         <v>2.8</v>
@@ -3139,49 +3139,49 @@
         <v>5.8</v>
       </c>
       <c r="T20" t="n">
-        <v>2.18</v>
+        <v>1.06</v>
       </c>
       <c r="U20" t="n">
-        <v>1.71</v>
+        <v>1.05</v>
       </c>
       <c r="V20" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="W20" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="X20" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG20" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
@@ -3193,7 +3193,7 @@
         <v>1000</v>
       </c>
       <c r="AL20" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
@@ -3202,7 +3202,7 @@
         <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="G21" t="n">
         <v>4.6</v>
       </c>
       <c r="H21" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="I21" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="J21" t="n">
         <v>3.35</v>
@@ -3250,28 +3250,28 @@
         <v>3.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="P21" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="R21" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S21" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="T21" t="n">
         <v>2.1</v>
@@ -3280,25 +3280,25 @@
         <v>1.88</v>
       </c>
       <c r="V21" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="W21" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z21" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>11</v>
-      </c>
       <c r="AA21" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AB21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC21" t="n">
         <v>7.4</v>
@@ -3307,7 +3307,7 @@
         <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AF21" t="n">
         <v>30</v>
@@ -3328,7 +3328,7 @@
         <v>70</v>
       </c>
       <c r="AL21" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM21" t="n">
         <v>160</v>
@@ -3337,7 +3337,7 @@
         <v>95</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -3505,13 +3505,13 @@
         <v>1.84</v>
       </c>
       <c r="G23" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="H23" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="I23" t="n">
         <v>5.5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.6</v>
       </c>
       <c r="J23" t="n">
         <v>3.6</v>
@@ -3526,7 +3526,7 @@
         <v>1.1</v>
       </c>
       <c r="N23" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O23" t="n">
         <v>1.44</v>
@@ -3547,19 +3547,19 @@
         <v>2.14</v>
       </c>
       <c r="U23" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V23" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W23" t="n">
         <v>2.16</v>
       </c>
       <c r="X23" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="Y23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z23" t="n">
         <v>38</v>
@@ -3568,10 +3568,10 @@
         <v>150</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
         <v>22</v>
@@ -3586,7 +3586,7 @@
         <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
         <v>85</v>
@@ -3607,7 +3607,7 @@
         <v>15.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24">
@@ -3637,10 +3637,10 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G24" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H24" t="n">
         <v>3</v>
@@ -3655,7 +3655,7 @@
         <v>3.25</v>
       </c>
       <c r="L24" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M24" t="n">
         <v>1.1</v>
@@ -3664,22 +3664,22 @@
         <v>3.15</v>
       </c>
       <c r="O24" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P24" t="n">
         <v>1.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="R24" t="n">
         <v>1.26</v>
       </c>
       <c r="S24" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T24" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="U24" t="n">
         <v>1.98</v>
@@ -3688,7 +3688,7 @@
         <v>1.48</v>
       </c>
       <c r="W24" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X24" t="n">
         <v>10.5</v>
@@ -3700,7 +3700,7 @@
         <v>18.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>50</v>
+        <v>990</v>
       </c>
       <c r="AB24" t="n">
         <v>9.199999999999999</v>
@@ -3709,19 +3709,19 @@
         <v>7</v>
       </c>
       <c r="AD24" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE24" t="n">
         <v>40</v>
       </c>
       <c r="AF24" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG24" t="n">
         <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
         <v>60</v>
@@ -3742,7 +3742,7 @@
         <v>36</v>
       </c>
       <c r="AO24" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25">
@@ -3781,13 +3781,13 @@
         <v>4.5</v>
       </c>
       <c r="I25" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="J25" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="L25" t="n">
         <v>1.7</v>
@@ -3805,7 +3805,7 @@
         <v>1.46</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R25" t="n">
         <v>1.15</v>
@@ -3817,10 +3817,10 @@
         <v>2.4</v>
       </c>
       <c r="U25" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="V25" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="W25" t="n">
         <v>1.79</v>
@@ -3829,13 +3829,13 @@
         <v>7.2</v>
       </c>
       <c r="Y25" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AA25" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
         <v>6.4</v>
@@ -3844,37 +3844,37 @@
         <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AK25" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AM25" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3913,7 +3913,7 @@
         <v>16</v>
       </c>
       <c r="H26" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="I26" t="n">
         <v>1.3</v>
@@ -3922,7 +3922,7 @@
         <v>6.2</v>
       </c>
       <c r="K26" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="L26" t="n">
         <v>1.38</v>
@@ -3931,28 +3931,28 @@
         <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="R26" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T26" t="n">
         <v>2.48</v>
       </c>
       <c r="U26" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="V26" t="n">
         <v>4.3</v>
@@ -3961,7 +3961,7 @@
         <v>1.06</v>
       </c>
       <c r="X26" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
         <v>7.4</v>
@@ -3973,10 +3973,10 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AB26" t="n">
-        <v>42</v>
+        <v>970</v>
       </c>
       <c r="AC26" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AD26" t="n">
         <v>11</v>
@@ -3988,7 +3988,7 @@
         <v>150</v>
       </c>
       <c r="AG26" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
       <c r="AH26" t="n">
         <v>44</v>
@@ -3997,7 +3997,7 @@
         <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>830</v>
       </c>
       <c r="AK26" t="n">
         <v>340</v>
@@ -4006,10 +4006,10 @@
         <v>290</v>
       </c>
       <c r="AM26" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AN26" t="n">
-        <v>610</v>
+        <v>540</v>
       </c>
       <c r="AO26" t="n">
         <v>5.8</v>
@@ -4042,88 +4042,88 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="G27" t="n">
         <v>5.5</v>
       </c>
       <c r="H27" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="I27" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="J27" t="n">
         <v>3.5</v>
       </c>
       <c r="K27" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L27" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="M27" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O27" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="P27" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="R27" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.95</v>
+        <v>1.05</v>
       </c>
       <c r="U27" t="n">
-        <v>1.92</v>
+        <v>1.05</v>
       </c>
       <c r="V27" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="W27" t="n">
         <v>1.23</v>
       </c>
       <c r="X27" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
         <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
         <v>1000</v>
@@ -4132,22 +4132,22 @@
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
         <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4201,16 +4201,16 @@
         <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O28" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P28" t="n">
         <v>1.74</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R28" t="n">
         <v>1.28</v>
@@ -4219,10 +4219,10 @@
         <v>4.3</v>
       </c>
       <c r="T28" t="n">
-        <v>1.97</v>
+        <v>1.05</v>
       </c>
       <c r="U28" t="n">
-        <v>1.91</v>
+        <v>1.05</v>
       </c>
       <c r="V28" t="n">
         <v>1.26</v>
@@ -4231,34 +4231,34 @@
         <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
         <v>1000</v>
@@ -4267,19 +4267,19 @@
         <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4324,10 +4324,10 @@
         <v>2.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="K29" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
         <v>1.71</v>
@@ -4339,7 +4339,7 @@
         <v>2.32</v>
       </c>
       <c r="O29" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="P29" t="n">
         <v>1.42</v>
@@ -4357,7 +4357,7 @@
         <v>2.44</v>
       </c>
       <c r="U29" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V29" t="n">
         <v>1.66</v>
@@ -4366,7 +4366,7 @@
         <v>1.35</v>
       </c>
       <c r="X29" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="Y29" t="n">
         <v>6.6</v>
@@ -4378,13 +4378,13 @@
         <v>38</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC29" t="n">
         <v>7.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AE29" t="n">
         <v>42</v>
@@ -4417,7 +4417,7 @@
         <v>120</v>
       </c>
       <c r="AO29" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30">
@@ -4450,13 +4450,13 @@
         <v>3.55</v>
       </c>
       <c r="G30" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H30" t="n">
         <v>2.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J30" t="n">
         <v>2.86</v>
@@ -4489,70 +4489,70 @@
         <v>7.2</v>
       </c>
       <c r="T30" t="n">
-        <v>2.28</v>
+        <v>1.05</v>
       </c>
       <c r="U30" t="n">
-        <v>1.67</v>
+        <v>1.05</v>
       </c>
       <c r="V30" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="W30" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X30" t="n">
-        <v>7.6</v>
+        <v>970</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z30" t="n">
         <v>970</v>
       </c>
       <c r="AA30" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.2</v>
+        <v>970</v>
       </c>
       <c r="AD30" t="n">
         <v>970</v>
       </c>
       <c r="AE30" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
         <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>17.5</v>
+        <v>970</v>
       </c>
       <c r="AH30" t="n">
         <v>970</v>
       </c>
       <c r="AI30" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
         <v>70</v>
       </c>
       <c r="AL30" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
@@ -4582,61 +4582,61 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="G31" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="H31" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I31" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K31" t="n">
         <v>4.4</v>
       </c>
       <c r="L31" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="P31" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R31" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="S31" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="T31" t="n">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="U31" t="n">
-        <v>1.86</v>
+        <v>1.05</v>
       </c>
       <c r="V31" t="n">
         <v>1.16</v>
       </c>
       <c r="W31" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="X31" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
         <v>1000</v>
@@ -4645,22 +4645,22 @@
         <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
         <v>1000</v>
@@ -4669,22 +4669,22 @@
         <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
         <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="G32" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="H32" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="I32" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K32" t="n">
         <v>3.3</v>
@@ -4759,22 +4759,22 @@
         <v>5.4</v>
       </c>
       <c r="T32" t="n">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="U32" t="n">
-        <v>1.79</v>
+        <v>1.05</v>
       </c>
       <c r="V32" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="W32" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="X32" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y32" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="Z32" t="n">
         <v>1000</v>
@@ -4783,13 +4783,13 @@
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AD32" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
@@ -4813,10 +4813,10 @@
         <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
         <v>1000</v>
@@ -4858,7 +4858,7 @@
         <v>2.04</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I33" t="n">
         <v>4.3</v>
@@ -4867,13 +4867,13 @@
         <v>3.75</v>
       </c>
       <c r="K33" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L33" t="n">
         <v>1.41</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N33" t="n">
         <v>3.9</v>
@@ -4894,67 +4894,67 @@
         <v>3.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.79</v>
+        <v>1.05</v>
       </c>
       <c r="U33" t="n">
-        <v>2.1</v>
+        <v>1.05</v>
       </c>
       <c r="V33" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="W33" t="n">
         <v>1.96</v>
       </c>
       <c r="X33" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y33" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z33" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA33" t="n">
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC33" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD33" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AE33" t="n">
         <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AG33" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH33" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI33" t="n">
         <v>1000</v>
       </c>
       <c r="AJ33" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL33" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN33" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4987,31 +4987,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="G34" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="H34" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K34" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="L34" t="n">
         <v>1.66</v>
       </c>
       <c r="M34" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="N34" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O34" t="n">
         <v>1.64</v>
@@ -5020,7 +5020,7 @@
         <v>1.47</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
         <v>1.16</v>
@@ -5029,52 +5029,52 @@
         <v>6.4</v>
       </c>
       <c r="T34" t="n">
-        <v>2.32</v>
+        <v>1.05</v>
       </c>
       <c r="U34" t="n">
-        <v>1.67</v>
+        <v>1.05</v>
       </c>
       <c r="V34" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="W34" t="n">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="X34" t="n">
         <v>7.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Z34" t="n">
         <v>36</v>
       </c>
       <c r="AA34" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AB34" t="n">
-        <v>6.2</v>
+        <v>970</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.4</v>
+        <v>970</v>
       </c>
       <c r="AD34" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE34" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AF34" t="n">
         <v>10.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AH34" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="AI34" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ34" t="n">
         <v>26</v>
@@ -5086,13 +5086,13 @@
         <v>75</v>
       </c>
       <c r="AM34" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="AN34" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AO34" t="n">
-        <v>180</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35">
@@ -5122,112 +5122,112 @@
         </is>
       </c>
       <c r="F35" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G35" t="n">
         <v>1.76</v>
       </c>
-      <c r="G35" t="n">
-        <v>1.78</v>
-      </c>
       <c r="H35" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I35" t="n">
         <v>6.4</v>
       </c>
       <c r="J35" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K35" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="L35" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="M35" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N35" t="n">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="O35" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="P35" t="n">
-        <v>1.59</v>
+        <v>1.66</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.62</v>
+        <v>2.44</v>
       </c>
       <c r="R35" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S35" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="T35" t="n">
-        <v>2.3</v>
+        <v>1.05</v>
       </c>
       <c r="U35" t="n">
-        <v>1.67</v>
+        <v>1.05</v>
       </c>
       <c r="V35" t="n">
         <v>1.18</v>
       </c>
       <c r="W35" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="X35" t="n">
-        <v>9.6</v>
+        <v>970</v>
       </c>
       <c r="Y35" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="Z35" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA35" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AB35" t="n">
-        <v>6.6</v>
+        <v>970</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.6</v>
+        <v>970</v>
       </c>
       <c r="AD35" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AE35" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="AG35" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AH35" t="n">
         <v>970</v>
       </c>
       <c r="AI35" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ35" t="n">
-        <v>19.5</v>
+        <v>970</v>
       </c>
       <c r="AK35" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL35" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM35" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AN35" t="n">
-        <v>18.5</v>
+        <v>970</v>
       </c>
       <c r="AO35" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36">
@@ -5257,112 +5257,112 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="G36" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="H36" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I36" t="n">
         <v>2.22</v>
       </c>
-      <c r="I36" t="n">
-        <v>2.26</v>
-      </c>
       <c r="J36" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K36" t="n">
         <v>3.3</v>
       </c>
       <c r="L36" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M36" t="n">
         <v>1.12</v>
       </c>
       <c r="N36" t="n">
-        <v>2.84</v>
+        <v>2.74</v>
       </c>
       <c r="O36" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="P36" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="R36" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S36" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="T36" t="n">
-        <v>2.04</v>
+        <v>1.05</v>
       </c>
       <c r="U36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V36" t="n">
         <v>1.81</v>
       </c>
-      <c r="V36" t="n">
-        <v>1.79</v>
-      </c>
       <c r="W36" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="X36" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.800000000000001</v>
+        <v>970</v>
       </c>
       <c r="Z36" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AA36" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB36" t="n">
-        <v>13</v>
+        <v>970</v>
       </c>
       <c r="AC36" t="n">
-        <v>7.6</v>
+        <v>970</v>
       </c>
       <c r="AD36" t="n">
-        <v>12</v>
+        <v>970</v>
       </c>
       <c r="AE36" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF36" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AG36" t="n">
-        <v>18</v>
+        <v>970</v>
       </c>
       <c r="AH36" t="n">
-        <v>24</v>
+        <v>970</v>
       </c>
       <c r="AI36" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ36" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK36" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL36" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM36" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN36" t="n">
         <v>1000</v>
       </c>
       <c r="AO36" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="G2" t="n">
-        <v>2.18</v>
+        <v>1.93</v>
       </c>
       <c r="H2" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="J2" t="n">
         <v>3.7</v>
       </c>
       <c r="K2" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L2" t="n">
         <v>1.41</v>
@@ -691,37 +691,37 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="S2" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="T2" t="n">
-        <v>1.05</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
-        <v>1.05</v>
+        <v>2.16</v>
       </c>
       <c r="V2" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="W2" t="n">
-        <v>1.85</v>
+        <v>2.06</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -748,7 +748,7 @@
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="G3" t="n">
         <v>4.4</v>
@@ -811,10 +811,10 @@
         <v>2.12</v>
       </c>
       <c r="I3" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="J3" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
         <v>3.6</v>
@@ -838,58 +838,58 @@
         <v>2.24</v>
       </c>
       <c r="R3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.05</v>
+        <v>1.97</v>
       </c>
       <c r="U3" t="n">
-        <v>1.05</v>
+        <v>1.93</v>
       </c>
       <c r="V3" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
         <v>1.31</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -904,10 +904,10 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -937,10 +937,10 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="G4" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
         <v>1.22</v>
@@ -949,37 +949,37 @@
         <v>1.23</v>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="K4" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="M4" t="n">
         <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
         <v>1.38</v>
       </c>
       <c r="R4" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="T4" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="U4" t="n">
         <v>2.04</v>
@@ -991,58 +991,58 @@
         <v>1.06</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>970</v>
+        <v>85</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AG4" t="n">
         <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI4" t="n">
-        <v>980</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>590</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="5">
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.74</v>
+        <v>2.8</v>
       </c>
       <c r="G5" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="H5" t="n">
         <v>3.05</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J5" t="n">
         <v>3.05</v>
@@ -1099,85 +1099,85 @@
         <v>3.05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P5" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R5" t="n">
         <v>1.24</v>
       </c>
       <c r="S5" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.05</v>
+        <v>1.94</v>
       </c>
       <c r="U5" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W5" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="X5" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB5" t="n">
-        <v>970</v>
+        <v>9.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>970</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AE5" t="n">
         <v>40</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH5" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="G6" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I6" t="n">
         <v>10.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.8</v>
+        <v>5.4</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="R6" t="n">
-        <v>1.55</v>
+        <v>1.59</v>
       </c>
       <c r="S6" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="T6" t="n">
         <v>1.94</v>
       </c>
       <c r="U6" t="n">
-        <v>1.05</v>
+        <v>1.92</v>
       </c>
       <c r="V6" t="n">
         <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="X6" t="n">
-        <v>970</v>
+        <v>34</v>
       </c>
       <c r="Y6" t="n">
         <v>970</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AB6" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>970</v>
+        <v>36</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>970</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
@@ -1348,67 +1348,67 @@
         <v>6</v>
       </c>
       <c r="H7" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I7" t="n">
         <v>1.76</v>
       </c>
-      <c r="I7" t="n">
-        <v>1.78</v>
-      </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O7" t="n">
         <v>1.35</v>
       </c>
       <c r="P7" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S7" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T7" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
       </c>
       <c r="V7" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="W7" t="n">
         <v>1.2</v>
       </c>
       <c r="X7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC7" t="n">
         <v>8.4</v>
@@ -1417,16 +1417,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AE7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>40</v>
@@ -1435,16 +1435,16 @@
         <v>170</v>
       </c>
       <c r="AK7" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL7" t="n">
         <v>95</v>
       </c>
       <c r="AM7" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AN7" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AO7" t="n">
         <v>12.5</v>
@@ -1477,82 +1477,82 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="G8" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="H8" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K8" t="n">
         <v>4.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S8" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="T8" t="n">
-        <v>1.05</v>
+        <v>1.58</v>
       </c>
       <c r="U8" t="n">
-        <v>2.24</v>
+        <v>2.66</v>
       </c>
       <c r="V8" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W8" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="X8" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y8" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="Z8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
         <v>14</v>
       </c>
       <c r="AC8" t="n">
-        <v>980</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD8" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AF8" t="n">
         <v>14.5</v>
@@ -1561,7 +1561,7 @@
         <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>44</v>
@@ -1570,19 +1570,19 @@
         <v>21</v>
       </c>
       <c r="AK8" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AM8" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>970</v>
+        <v>7.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="G9" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="H9" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="I9" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="J9" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K9" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L9" t="n">
         <v>1.43</v>
@@ -1636,7 +1636,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O9" t="n">
         <v>1.35</v>
@@ -1654,70 +1654,70 @@
         <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.05</v>
+        <v>1.92</v>
       </c>
       <c r="U9" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="V9" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="W9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X9" t="n">
-        <v>970</v>
+        <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>970</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>970</v>
+        <v>18</v>
       </c>
       <c r="AC9" t="n">
-        <v>970</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>970</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG9" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>970</v>
+        <v>22</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="10">
@@ -1747,100 +1747,100 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.1</v>
+        <v>2.94</v>
       </c>
       <c r="G10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.25</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L10" t="n">
         <v>1.48</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P10" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.05</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
         <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="W10" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="X10" t="n">
         <v>11.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AB10" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AF10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG10" t="n">
         <v>970</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AJ10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AK10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="n">
         <v>55</v>
@@ -1849,10 +1849,10 @@
         <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1882,61 +1882,61 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="G11" t="n">
-        <v>5.5</v>
+        <v>4.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="I11" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.4</v>
       </c>
-      <c r="K11" t="n">
-        <v>5.2</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="Q11" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R11" t="n">
         <v>1.58</v>
       </c>
-      <c r="R11" t="n">
-        <v>1.61</v>
-      </c>
       <c r="S11" t="n">
-        <v>2.48</v>
+        <v>2.56</v>
       </c>
       <c r="T11" t="n">
-        <v>1.05</v>
+        <v>1.68</v>
       </c>
       <c r="U11" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V11" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="W11" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y11" t="n">
         <v>1000</v>
@@ -1948,22 +1948,22 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD11" t="n">
         <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AF11" t="n">
         <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH11" t="n">
         <v>1000</v>
@@ -1987,7 +1987,7 @@
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -2029,7 +2029,7 @@
         <v>1.41</v>
       </c>
       <c r="J12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
         <v>5.2</v>
@@ -2041,10 +2041,10 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
         <v>2.1</v>
@@ -2056,10 +2056,10 @@
         <v>1.42</v>
       </c>
       <c r="S12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T12" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U12" t="n">
         <v>1.78</v>
@@ -2068,7 +2068,7 @@
         <v>3.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="X12" t="n">
         <v>16.5</v>
@@ -2080,7 +2080,7 @@
         <v>7.6</v>
       </c>
       <c r="AA12" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB12" t="n">
         <v>32</v>
@@ -2095,31 +2095,31 @@
         <v>15.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AG12" t="n">
         <v>40</v>
       </c>
       <c r="AH12" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI12" t="n">
         <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="AK12" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AL12" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AM12" t="n">
         <v>200</v>
       </c>
       <c r="AN12" t="n">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="AO12" t="n">
         <v>6.8</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H13" t="n">
-        <v>1.66</v>
+        <v>1.69</v>
       </c>
       <c r="I13" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="J13" t="n">
         <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="L13" t="n">
         <v>1.23</v>
@@ -2176,13 +2176,13 @@
         <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
         <v>1.13</v>
       </c>
       <c r="P13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q13" t="n">
         <v>1.4</v>
@@ -2194,70 +2194,70 @@
         <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="U13" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="V13" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="W13" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="X13" t="n">
+        <v>38</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF13" t="n">
         <v>50</v>
       </c>
-      <c r="Y13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="14">
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G14" t="n">
         <v>2.18</v>
       </c>
-      <c r="G14" t="n">
-        <v>2.26</v>
-      </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>3.55</v>
       </c>
       <c r="I14" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L14" t="n">
         <v>1.36</v>
@@ -2311,88 +2311,88 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="Q14" t="n">
         <v>1.78</v>
       </c>
       <c r="R14" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S14" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="T14" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U14" t="n">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="V14" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W14" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G15" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="I15" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="J15" t="n">
         <v>4.4</v>
@@ -2440,19 +2440,19 @@
         <v>4.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="O15" t="n">
         <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="Q15" t="n">
         <v>1.5</v>
@@ -2467,67 +2467,67 @@
         <v>1.58</v>
       </c>
       <c r="U15" t="n">
-        <v>1.69</v>
+        <v>2.68</v>
       </c>
       <c r="V15" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="W15" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X15" t="n">
-        <v>970</v>
+        <v>30</v>
       </c>
       <c r="Y15" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AG15" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AH15" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="H16" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J16" t="n">
         <v>4.2</v>
@@ -2575,40 +2575,40 @@
         <v>4.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="O16" t="n">
         <v>1.14</v>
       </c>
       <c r="P16" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q16" t="n">
         <v>1.45</v>
       </c>
       <c r="R16" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S16" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="T16" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="V16" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="W16" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="X16" t="n">
         <v>1000</v>
@@ -2617,7 +2617,7 @@
         <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AA16" t="n">
         <v>1000</v>
@@ -2626,7 +2626,7 @@
         <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD16" t="n">
         <v>1000</v>
@@ -2638,10 +2638,10 @@
         <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
         <v>1000</v>
@@ -2659,10 +2659,10 @@
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="17">
@@ -2692,112 +2692,112 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="G17" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="H17" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="I17" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="J17" t="n">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M17" t="n">
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="O17" t="n">
         <v>1.1</v>
       </c>
       <c r="P17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="Q17" t="n">
         <v>1.32</v>
       </c>
       <c r="R17" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="T17" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="U17" t="n">
         <v>3.25</v>
       </c>
       <c r="V17" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="W17" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X17" t="n">
-        <v>970</v>
+        <v>55</v>
       </c>
       <c r="Y17" t="n">
-        <v>970</v>
+        <v>23</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AB17" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AC17" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>970</v>
+        <v>13.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AG17" t="n">
-        <v>970</v>
+        <v>21</v>
       </c>
       <c r="AH17" t="n">
-        <v>970</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="18">
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.25</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.3</v>
       </c>
       <c r="L18" t="n">
         <v>1.52</v>
@@ -2854,13 +2854,13 @@
         <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P18" t="n">
         <v>1.74</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R18" t="n">
         <v>1.27</v>
@@ -2869,31 +2869,31 @@
         <v>4.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="U18" t="n">
         <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="W18" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="X18" t="n">
         <v>11</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA18" t="n">
         <v>38</v>
       </c>
       <c r="AB18" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC18" t="n">
         <v>7</v>
@@ -2911,7 +2911,7 @@
         <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
         <v>50</v>
@@ -2920,7 +2920,7 @@
         <v>60</v>
       </c>
       <c r="AK18" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL18" t="n">
         <v>60</v>
@@ -2929,10 +2929,10 @@
         <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>170</v>
+        <v>46</v>
       </c>
       <c r="AO18" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="G19" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="H19" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I19" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J19" t="n">
         <v>3</v>
@@ -2980,91 +2980,91 @@
         <v>3.25</v>
       </c>
       <c r="L19" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M19" t="n">
         <v>1.12</v>
       </c>
       <c r="N19" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="O19" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P19" t="n">
         <v>1.57</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="R19" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S19" t="n">
         <v>5.1</v>
       </c>
       <c r="T19" t="n">
-        <v>1.05</v>
+        <v>2.02</v>
       </c>
       <c r="U19" t="n">
-        <v>1.05</v>
+        <v>1.81</v>
       </c>
       <c r="V19" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="W19" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="G20" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H20" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="I20" t="n">
-        <v>2.56</v>
+        <v>2.44</v>
       </c>
       <c r="J20" t="n">
         <v>2.96</v>
@@ -3121,16 +3121,16 @@
         <v>1.13</v>
       </c>
       <c r="N20" t="n">
-        <v>2.54</v>
+        <v>2.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="P20" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="R20" t="n">
         <v>1.18</v>
@@ -3139,70 +3139,70 @@
         <v>5.8</v>
       </c>
       <c r="T20" t="n">
-        <v>1.06</v>
+        <v>2.14</v>
       </c>
       <c r="U20" t="n">
-        <v>1.05</v>
+        <v>1.74</v>
       </c>
       <c r="V20" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="W20" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -3232,64 +3232,64 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="G21" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H21" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I21" t="n">
         <v>2.08</v>
       </c>
-      <c r="I21" t="n">
-        <v>2.1</v>
-      </c>
       <c r="J21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.35</v>
       </c>
-      <c r="K21" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L21" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M21" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="O21" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="P21" t="n">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.48</v>
+        <v>2.58</v>
       </c>
       <c r="R21" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="S21" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="T21" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="U21" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="V21" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="W21" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X21" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y21" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z21" t="n">
         <v>10.5</v>
@@ -3298,46 +3298,46 @@
         <v>25</v>
       </c>
       <c r="AB21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD21" t="n">
         <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG21" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI21" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ21" t="n">
         <v>110</v>
       </c>
       <c r="AK21" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL21" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AM21" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AN21" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AO21" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -3391,7 +3391,7 @@
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="O22" t="n">
         <v>1.09</v>
@@ -3406,7 +3406,7 @@
         <v>1.01</v>
       </c>
       <c r="S22" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="T22" t="n">
         <v>1.39</v>
@@ -3424,7 +3424,7 @@
         <v>2.96</v>
       </c>
       <c r="Y22" t="n">
-        <v>7.6</v>
+        <v>830</v>
       </c>
       <c r="Z22" t="n">
         <v>1000</v>
@@ -3445,7 +3445,7 @@
         <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
         <v>990</v>
@@ -3505,7 +3505,7 @@
         <v>1.84</v>
       </c>
       <c r="G23" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="H23" t="n">
         <v>5.4</v>
@@ -3532,22 +3532,22 @@
         <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="R23" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S23" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="T23" t="n">
         <v>2.14</v>
       </c>
       <c r="U23" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="V23" t="n">
         <v>1.22</v>
@@ -3568,13 +3568,13 @@
         <v>150</v>
       </c>
       <c r="AB23" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AC23" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE23" t="n">
         <v>85</v>
@@ -3607,7 +3607,7 @@
         <v>15.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24">
@@ -3637,7 +3637,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G24" t="n">
         <v>2.8</v>
@@ -3655,34 +3655,34 @@
         <v>3.25</v>
       </c>
       <c r="L24" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M24" t="n">
         <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="O24" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="P24" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="R24" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S24" t="n">
         <v>4.7</v>
       </c>
       <c r="T24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.97</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.98</v>
       </c>
       <c r="V24" t="n">
         <v>1.48</v>
@@ -3694,16 +3694,16 @@
         <v>10.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Z24" t="n">
         <v>18.5</v>
       </c>
       <c r="AA24" t="n">
-        <v>990</v>
+        <v>55</v>
       </c>
       <c r="AB24" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AC24" t="n">
         <v>7</v>
@@ -3715,13 +3715,13 @@
         <v>40</v>
       </c>
       <c r="AF24" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG24" t="n">
         <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI24" t="n">
         <v>60</v>
@@ -3742,7 +3742,7 @@
         <v>36</v>
       </c>
       <c r="AO24" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25">
@@ -3772,13 +3772,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="G25" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="H25" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="I25" t="n">
         <v>4.7</v>
@@ -3790,91 +3790,91 @@
         <v>3.05</v>
       </c>
       <c r="L25" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="M25" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N25" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="O25" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="P25" t="n">
         <v>1.46</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="R25" t="n">
         <v>1.15</v>
       </c>
       <c r="S25" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="T25" t="n">
         <v>2.4</v>
       </c>
       <c r="U25" t="n">
-        <v>1.62</v>
+        <v>1.66</v>
       </c>
       <c r="V25" t="n">
         <v>1.27</v>
       </c>
       <c r="W25" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="X25" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Y25" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB25" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC25" t="n">
         <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AE25" t="n">
-        <v>970</v>
+        <v>100</v>
       </c>
       <c r="AF25" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ25" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="AL25" t="n">
         <v>970</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN25" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AO25" t="n">
         <v>1000</v>
@@ -3907,109 +3907,109 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="G26" t="n">
         <v>16</v>
       </c>
       <c r="H26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I26" t="n">
         <v>1.29</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.3</v>
       </c>
       <c r="J26" t="n">
         <v>6.2</v>
       </c>
       <c r="K26" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="L26" t="n">
         <v>1.38</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P26" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R26" t="n">
         <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T26" t="n">
-        <v>2.48</v>
+        <v>2.62</v>
       </c>
       <c r="U26" t="n">
-        <v>1.63</v>
+        <v>1.59</v>
       </c>
       <c r="V26" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="W26" t="n">
         <v>1.06</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AA26" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB26" t="n">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="AC26" t="n">
         <v>14</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
       </c>
       <c r="AF26" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AG26" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AH26" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI26" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ26" t="n">
-        <v>830</v>
+        <v>930</v>
       </c>
       <c r="AK26" t="n">
+        <v>380</v>
+      </c>
+      <c r="AL26" t="n">
         <v>340</v>
       </c>
-      <c r="AL26" t="n">
-        <v>290</v>
-      </c>
       <c r="AM26" t="n">
-        <v>320</v>
+        <v>400</v>
       </c>
       <c r="AN26" t="n">
-        <v>540</v>
+        <v>690</v>
       </c>
       <c r="AO26" t="n">
         <v>5.8</v>
@@ -4042,25 +4042,25 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="G27" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="H27" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="I27" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="J27" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K27" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L27" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
@@ -4069,13 +4069,13 @@
         <v>3.25</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="P27" t="n">
         <v>1.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="R27" t="n">
         <v>1.28</v>
@@ -4084,34 +4084,34 @@
         <v>4.2</v>
       </c>
       <c r="T27" t="n">
-        <v>1.05</v>
+        <v>2.04</v>
       </c>
       <c r="U27" t="n">
-        <v>1.05</v>
+        <v>1.84</v>
       </c>
       <c r="V27" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="W27" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA27" t="n">
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>
@@ -4132,16 +4132,16 @@
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AK27" t="n">
         <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN27" t="n">
         <v>1000</v>
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H28" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I28" t="n">
         <v>4.9</v>
@@ -4207,46 +4207,46 @@
         <v>1.41</v>
       </c>
       <c r="P28" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q28" t="n">
         <v>2.26</v>
       </c>
       <c r="R28" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S28" t="n">
         <v>4.3</v>
       </c>
       <c r="T28" t="n">
-        <v>1.05</v>
+        <v>1.98</v>
       </c>
       <c r="U28" t="n">
-        <v>1.05</v>
+        <v>1.9</v>
       </c>
       <c r="V28" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W28" t="n">
         <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Z28" t="n">
         <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
         <v>1000</v>
@@ -4255,16 +4255,16 @@
         <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="n">
         <v>1000</v>
@@ -4276,10 +4276,10 @@
         <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AO28" t="n">
         <v>1000</v>
@@ -4312,19 +4312,19 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="G29" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H29" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I29" t="n">
         <v>2.5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="K29" t="n">
         <v>3</v>
@@ -4336,7 +4336,7 @@
         <v>1.17</v>
       </c>
       <c r="N29" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="O29" t="n">
         <v>1.73</v>
@@ -4351,10 +4351,10 @@
         <v>1.14</v>
       </c>
       <c r="S29" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="T29" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="U29" t="n">
         <v>1.62</v>
@@ -4366,10 +4366,10 @@
         <v>1.35</v>
       </c>
       <c r="X29" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Z29" t="n">
         <v>13</v>
@@ -4384,25 +4384,25 @@
         <v>7.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AE29" t="n">
         <v>42</v>
       </c>
       <c r="AF29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG29" t="n">
         <v>18</v>
       </c>
       <c r="AH29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI29" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AJ29" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="n">
         <v>75</v>
@@ -4411,13 +4411,13 @@
         <v>120</v>
       </c>
       <c r="AM29" t="n">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="AN29" t="n">
         <v>120</v>
       </c>
       <c r="AO29" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
@@ -4447,112 +4447,112 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="G30" t="n">
         <v>3.6</v>
       </c>
       <c r="H30" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="I30" t="n">
         <v>2.7</v>
       </c>
       <c r="J30" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="K30" t="n">
         <v>2.94</v>
       </c>
       <c r="L30" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="M30" t="n">
         <v>1.17</v>
       </c>
       <c r="N30" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="O30" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="P30" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="R30" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="S30" t="n">
         <v>7.2</v>
       </c>
       <c r="T30" t="n">
-        <v>1.05</v>
+        <v>2.34</v>
       </c>
       <c r="U30" t="n">
-        <v>1.05</v>
+        <v>1.68</v>
       </c>
       <c r="V30" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W30" t="n">
         <v>1.38</v>
       </c>
       <c r="X30" t="n">
-        <v>970</v>
+        <v>7.4</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="Z30" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB30" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>970</v>
+        <v>7.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>970</v>
+        <v>14.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AF30" t="n">
         <v>24</v>
       </c>
       <c r="AG30" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK30" t="n">
         <v>70</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM30" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="G31" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="H31" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I31" t="n">
         <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K31" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L31" t="n">
         <v>1.43</v>
@@ -4615,28 +4615,28 @@
         <v>1.84</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R31" t="n">
         <v>1.31</v>
       </c>
       <c r="S31" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T31" t="n">
-        <v>1.05</v>
+        <v>2.12</v>
       </c>
       <c r="U31" t="n">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="V31" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="W31" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Y31" t="n">
         <v>1000</v>
@@ -4645,31 +4645,31 @@
         <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AC31" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH31" t="n">
         <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ31" t="n">
         <v>1000</v>
@@ -4681,7 +4681,7 @@
         <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN31" t="n">
         <v>1000</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G32" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="H32" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="I32" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="J32" t="n">
         <v>3.15</v>
@@ -4735,7 +4735,7 @@
         <v>3.3</v>
       </c>
       <c r="L32" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M32" t="n">
         <v>1.12</v>
@@ -4747,34 +4747,34 @@
         <v>1.53</v>
       </c>
       <c r="P32" t="n">
-        <v>1.56</v>
+        <v>1.54</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="R32" t="n">
         <v>1.2</v>
       </c>
       <c r="S32" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="T32" t="n">
-        <v>1.05</v>
+        <v>2.08</v>
       </c>
       <c r="U32" t="n">
-        <v>1.05</v>
+        <v>1.79</v>
       </c>
       <c r="V32" t="n">
         <v>1.62</v>
       </c>
       <c r="W32" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X32" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y32" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z32" t="n">
         <v>1000</v>
@@ -4783,10 +4783,10 @@
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC32" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD32" t="n">
         <v>1000</v>
@@ -4813,10 +4813,10 @@
         <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AN32" t="n">
         <v>1000</v>
@@ -4852,28 +4852,28 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="G33" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H33" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I33" t="n">
         <v>4.3</v>
       </c>
       <c r="J33" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K33" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L33" t="n">
         <v>1.41</v>
       </c>
       <c r="M33" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
         <v>3.9</v>
@@ -4894,22 +4894,22 @@
         <v>3.5</v>
       </c>
       <c r="T33" t="n">
-        <v>1.05</v>
+        <v>1.79</v>
       </c>
       <c r="U33" t="n">
-        <v>1.05</v>
+        <v>2.1</v>
       </c>
       <c r="V33" t="n">
         <v>1.3</v>
       </c>
       <c r="W33" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="X33" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="Y33" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z33" t="n">
         <v>1000</v>
@@ -4918,10 +4918,10 @@
         <v>1000</v>
       </c>
       <c r="AB33" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC33" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD33" t="n">
         <v>1000</v>
@@ -4930,10 +4930,10 @@
         <v>1000</v>
       </c>
       <c r="AF33" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG33" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH33" t="n">
         <v>1000</v>
@@ -4945,16 +4945,16 @@
         <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL33" t="n">
         <v>1000</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN33" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO33" t="n">
         <v>1000</v>
@@ -4990,13 +4990,13 @@
         <v>2.04</v>
       </c>
       <c r="G34" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H34" t="n">
         <v>5.1</v>
       </c>
       <c r="I34" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="J34" t="n">
         <v>3.05</v>
@@ -5008,10 +5008,10 @@
         <v>1.66</v>
       </c>
       <c r="M34" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="N34" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="O34" t="n">
         <v>1.64</v>
@@ -5020,7 +5020,7 @@
         <v>1.47</v>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="R34" t="n">
         <v>1.16</v>
@@ -5029,37 +5029,37 @@
         <v>6.4</v>
       </c>
       <c r="T34" t="n">
-        <v>1.05</v>
+        <v>2.4</v>
       </c>
       <c r="U34" t="n">
-        <v>1.05</v>
+        <v>1.63</v>
       </c>
       <c r="V34" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W34" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X34" t="n">
         <v>7.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Z34" t="n">
         <v>36</v>
       </c>
       <c r="AA34" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="AB34" t="n">
-        <v>970</v>
+        <v>6</v>
       </c>
       <c r="AC34" t="n">
-        <v>970</v>
+        <v>7.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE34" t="n">
         <v>110</v>
@@ -5068,13 +5068,13 @@
         <v>10.5</v>
       </c>
       <c r="AG34" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AH34" t="n">
         <v>36</v>
       </c>
       <c r="AI34" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ34" t="n">
         <v>26</v>
@@ -5086,10 +5086,10 @@
         <v>75</v>
       </c>
       <c r="AM34" t="n">
-        <v>340</v>
+        <v>290</v>
       </c>
       <c r="AN34" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO34" t="n">
         <v>210</v>
@@ -5125,109 +5125,109 @@
         <v>1.73</v>
       </c>
       <c r="G35" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I35" t="n">
         <v>6.4</v>
       </c>
       <c r="J35" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K35" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L35" t="n">
         <v>1.54</v>
       </c>
       <c r="M35" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N35" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O35" t="n">
         <v>1.48</v>
       </c>
       <c r="P35" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R35" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S35" t="n">
         <v>4.9</v>
       </c>
       <c r="T35" t="n">
-        <v>1.05</v>
+        <v>2.26</v>
       </c>
       <c r="U35" t="n">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="V35" t="n">
         <v>1.18</v>
       </c>
       <c r="W35" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="X35" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Y35" t="n">
-        <v>970</v>
+        <v>15.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AB35" t="n">
-        <v>970</v>
+        <v>6.4</v>
       </c>
       <c r="AC35" t="n">
-        <v>970</v>
+        <v>8.4</v>
       </c>
       <c r="AD35" t="n">
-        <v>970</v>
+        <v>27</v>
       </c>
       <c r="AE35" t="n">
         <v>1000</v>
       </c>
       <c r="AF35" t="n">
-        <v>970</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG35" t="n">
-        <v>970</v>
+        <v>11.5</v>
       </c>
       <c r="AH35" t="n">
-        <v>970</v>
+        <v>29</v>
       </c>
       <c r="AI35" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ35" t="n">
-        <v>970</v>
+        <v>17.5</v>
       </c>
       <c r="AK35" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AL35" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM35" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN35" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AO35" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36">
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G36" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H36" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I36" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="J36" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K36" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L36" t="n">
         <v>1.56</v>
@@ -5281,82 +5281,82 @@
         <v>1.12</v>
       </c>
       <c r="N36" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O36" t="n">
         <v>1.53</v>
       </c>
       <c r="P36" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="R36" t="n">
         <v>1.2</v>
       </c>
       <c r="S36" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.05</v>
+        <v>2.12</v>
       </c>
       <c r="U36" t="n">
-        <v>1.05</v>
+        <v>1.75</v>
       </c>
       <c r="V36" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="W36" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="X36" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="Y36" t="n">
-        <v>970</v>
+        <v>7.2</v>
       </c>
       <c r="Z36" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA36" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB36" t="n">
-        <v>970</v>
+        <v>12</v>
       </c>
       <c r="AC36" t="n">
-        <v>970</v>
+        <v>7.6</v>
       </c>
       <c r="AD36" t="n">
-        <v>970</v>
+        <v>12.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF36" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AG36" t="n">
-        <v>970</v>
+        <v>20</v>
       </c>
       <c r="AH36" t="n">
-        <v>970</v>
+        <v>26</v>
       </c>
       <c r="AI36" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ36" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK36" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL36" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM36" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AN36" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO36"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,109 +667,109 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="N2" t="n">
         <v>1.87</v>
       </c>
-      <c r="G2" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="S2" t="n">
+        <v>13</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>48</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>280</v>
+      </c>
+      <c r="AB2" t="n">
         <v>4.7</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N2" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="X2" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>23</v>
-      </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="G3" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.12</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.28</v>
       </c>
       <c r="J3" t="n">
         <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M3" t="n">
         <v>1.09</v>
@@ -829,13 +829,13 @@
         <v>3.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P3" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R3" t="n">
         <v>1.27</v>
@@ -844,25 +844,25 @@
         <v>4.3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U3" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W3" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="X3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA3" t="n">
         <v>32</v>
@@ -871,34 +871,34 @@
         <v>14.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI3" t="n">
         <v>50</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>85</v>
       </c>
       <c r="AO3" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -940,19 +940,19 @@
         <v>14.5</v>
       </c>
       <c r="G4" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I4" t="n">
         <v>1.22</v>
       </c>
-      <c r="I4" t="n">
-        <v>1.23</v>
-      </c>
       <c r="J4" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="K4" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L4" t="n">
         <v>1.22</v>
@@ -964,22 +964,22 @@
         <v>8.6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="R4" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="S4" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="T4" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U4" t="n">
         <v>2.04</v>
@@ -991,19 +991,19 @@
         <v>1.06</v>
       </c>
       <c r="X4" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA4" t="n">
         <v>11</v>
       </c>
-      <c r="AA4" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AB4" t="n">
-        <v>85</v>
+        <v>970</v>
       </c>
       <c r="AC4" t="n">
         <v>21</v>
@@ -1018,19 +1018,19 @@
         <v>160</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AH4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AI4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AJ4" t="n">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="AK4" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AL4" t="n">
         <v>150</v>
@@ -1039,10 +1039,10 @@
         <v>160</v>
       </c>
       <c r="AN4" t="n">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="5">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="G5" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="H5" t="n">
         <v>3.05</v>
@@ -1090,40 +1090,40 @@
         <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M5" t="n">
         <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P5" t="n">
         <v>1.65</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="R5" t="n">
         <v>1.24</v>
       </c>
       <c r="S5" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T5" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.94</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.95</v>
       </c>
       <c r="V5" t="n">
         <v>1.46</v>
       </c>
       <c r="W5" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X5" t="n">
         <v>9.4</v>
@@ -1132,13 +1132,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AA5" t="n">
         <v>60</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC5" t="n">
         <v>7</v>
@@ -1147,7 +1147,7 @@
         <v>13.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF5" t="n">
         <v>16.5</v>
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="G6" t="n">
-        <v>1.41</v>
+        <v>1.51</v>
       </c>
       <c r="H6" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="I6" t="n">
-        <v>10.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="S6" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="T6" t="n">
-        <v>1.94</v>
+        <v>1.81</v>
       </c>
       <c r="U6" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="V6" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="W6" t="n">
-        <v>3.4</v>
+        <v>2.98</v>
       </c>
       <c r="X6" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="Y6" t="n">
-        <v>970</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AA6" t="n">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="AB6" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF6" t="n">
         <v>9.800000000000001</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>9</v>
       </c>
       <c r="AG6" t="n">
         <v>10.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AK6" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL6" t="n">
         <v>32</v>
       </c>
       <c r="AM6" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
@@ -1348,106 +1348,106 @@
         <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="I7" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="J7" t="n">
         <v>3.9</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O7" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="U7" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="V7" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="W7" t="n">
         <v>1.2</v>
       </c>
       <c r="X7" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="Z7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD7" t="n">
         <v>9.6</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>9.800000000000001</v>
       </c>
       <c r="AE7" t="n">
         <v>18.5</v>
       </c>
       <c r="AF7" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AG7" t="n">
         <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ7" t="n">
         <v>170</v>
       </c>
       <c r="AK7" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN7" t="n">
         <v>110</v>
       </c>
-      <c r="AL7" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>130</v>
-      </c>
       <c r="AO7" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -1477,112 +1477,112 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.83</v>
+        <v>1.99</v>
       </c>
       <c r="G8" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="L8" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U8" t="n">
         <v>2.68</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.66</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="W8" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="X8" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="n">
         <v>14</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AF8" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AG8" t="n">
         <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK8" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
         <v>60</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="G9" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="H9" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="I9" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="J9" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K9" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L9" t="n">
         <v>1.43</v>
@@ -1636,7 +1636,7 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="O9" t="n">
         <v>1.35</v>
@@ -1645,34 +1645,34 @@
         <v>1.89</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
         <v>1.33</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="U9" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="V9" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="W9" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="X9" t="n">
         <v>14</v>
       </c>
       <c r="Y9" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA9" t="n">
         <v>18.5</v>
@@ -1687,7 +1687,7 @@
         <v>10</v>
       </c>
       <c r="AE9" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
         <v>44</v>
@@ -1705,16 +1705,16 @@
         <v>160</v>
       </c>
       <c r="AK9" t="n">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="AL9" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AM9" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN9" t="n">
         <v>130</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>150</v>
       </c>
       <c r="AO9" t="n">
         <v>12.5</v>
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I10" t="n">
         <v>2.94</v>
       </c>
-      <c r="G10" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.8</v>
-      </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="L10" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>3.4</v>
+        <v>2.96</v>
       </c>
       <c r="O10" t="n">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="P10" t="n">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="S10" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="T10" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="U10" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="V10" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="W10" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X10" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>970</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO10" t="n">
         <v>42</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>970</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1882,94 +1882,94 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G11" t="n">
         <v>4.5</v>
       </c>
-      <c r="G11" t="n">
-        <v>4.8</v>
-      </c>
       <c r="H11" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="I11" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.31</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.2</v>
       </c>
       <c r="P11" t="n">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="S11" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="T11" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="U11" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="X11" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB11" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE11" t="n">
         <v>22</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
         <v>1000</v>
@@ -1981,13 +1981,13 @@
         <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AO11" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="12">
@@ -2023,16 +2023,16 @@
         <v>11.5</v>
       </c>
       <c r="H12" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="I12" t="n">
         <v>1.4</v>
       </c>
-      <c r="I12" t="n">
-        <v>1.41</v>
-      </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="K12" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L12" t="n">
         <v>1.38</v>
@@ -2041,40 +2041,40 @@
         <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
         <v>2.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R12" t="n">
         <v>1.42</v>
       </c>
       <c r="S12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T12" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U12" t="n">
         <v>1.78</v>
       </c>
       <c r="V12" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="X12" t="n">
         <v>16.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z12" t="n">
         <v>7.6</v>
@@ -2101,16 +2101,16 @@
         <v>40</v>
       </c>
       <c r="AH12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI12" t="n">
         <v>40</v>
       </c>
       <c r="AJ12" t="n">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="AK12" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AL12" t="n">
         <v>170</v>
@@ -2119,10 +2119,10 @@
         <v>200</v>
       </c>
       <c r="AN12" t="n">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J13" t="n">
         <v>4.9</v>
       </c>
-      <c r="H13" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="J13" t="n">
-        <v>5</v>
-      </c>
       <c r="K13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.23</v>
@@ -2179,31 +2179,31 @@
         <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="P13" t="n">
         <v>3.35</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R13" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="S13" t="n">
         <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="U13" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="V13" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="W13" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="X13" t="n">
         <v>38</v>
@@ -2212,52 +2212,52 @@
         <v>17.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
         <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AF13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>140</v>
+      </c>
+      <c r="AK13" t="n">
         <v>50</v>
       </c>
-      <c r="AG13" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK13" t="n">
+      <c r="AL13" t="n">
         <v>44</v>
       </c>
-      <c r="AL13" t="n">
-        <v>40</v>
-      </c>
       <c r="AM13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN13" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AO13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -2296,7 +2296,7 @@
         <v>3.55</v>
       </c>
       <c r="I14" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J14" t="n">
         <v>3.8</v>
@@ -2311,7 +2311,7 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="O14" t="n">
         <v>1.25</v>
@@ -2320,19 +2320,19 @@
         <v>2.22</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="R14" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="S14" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="T14" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="U14" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V14" t="n">
         <v>1.37</v>
@@ -2344,16 +2344,16 @@
         <v>18</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Z14" t="n">
         <v>27</v>
       </c>
       <c r="AA14" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
         <v>8.800000000000001</v>
@@ -2383,13 +2383,13 @@
         <v>21</v>
       </c>
       <c r="AL14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM14" t="n">
         <v>75</v>
       </c>
       <c r="AN14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO14" t="n">
         <v>32</v>
@@ -2428,16 +2428,16 @@
         <v>4.6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="I15" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="J15" t="n">
         <v>4.4</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.27</v>
@@ -2446,88 +2446,88 @@
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P15" t="n">
         <v>2.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="R15" t="n">
         <v>1.75</v>
       </c>
       <c r="S15" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T15" t="n">
         <v>1.58</v>
       </c>
       <c r="U15" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="V15" t="n">
         <v>2.2</v>
       </c>
       <c r="W15" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X15" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE15" t="n">
         <v>21</v>
       </c>
-      <c r="AB15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AF15" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AG15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH15" t="n">
         <v>15.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AJ15" t="n">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="AK15" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AL15" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AM15" t="n">
         <v>55</v>
       </c>
       <c r="AN15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="16">
@@ -2557,112 +2557,112 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I16" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="J16" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K16" t="n">
         <v>4.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="O16" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P16" t="n">
-        <v>3.1</v>
+        <v>2.84</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="R16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.84</v>
       </c>
-      <c r="S16" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="W16" t="n">
-        <v>1.8</v>
-      </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE16" t="n">
         <v>32</v>
       </c>
-      <c r="AA16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG16" t="n">
-        <v>970</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AM16" t="n">
         <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>8.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AO16" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -2695,16 +2695,16 @@
         <v>4.4</v>
       </c>
       <c r="G17" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H17" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="I17" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="J17" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
         <v>5.1</v>
@@ -2716,22 +2716,22 @@
         <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="P17" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="Q17" t="n">
         <v>1.32</v>
       </c>
       <c r="R17" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S17" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="T17" t="n">
         <v>1.41</v>
@@ -2740,7 +2740,7 @@
         <v>3.25</v>
       </c>
       <c r="V17" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="W17" t="n">
         <v>1.27</v>
@@ -2752,52 +2752,52 @@
         <v>23</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB17" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AC17" t="n">
         <v>14.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AG17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
         <v>15</v>
       </c>
       <c r="AI17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="n">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AK17" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="AL17" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM17" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="18">
@@ -2827,112 +2827,112 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G18" t="n">
         <v>3.3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I18" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.2</v>
       </c>
-      <c r="K18" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="P18" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="R18" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="T18" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="U18" t="n">
-        <v>2.02</v>
+        <v>1.96</v>
       </c>
       <c r="V18" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="W18" t="n">
         <v>1.43</v>
       </c>
       <c r="X18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="Z18" t="n">
         <v>15.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB18" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC18" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AF18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG18" t="n">
         <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
         <v>60</v>
       </c>
       <c r="AK18" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AN18" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AO18" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F19" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H19" t="n">
         <v>2.28</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>2.42</v>
       </c>
-      <c r="H19" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I19" t="n">
-        <v>4.2</v>
-      </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="K19" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L19" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="O19" t="n">
         <v>1.56</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="P19" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="Q19" t="n">
         <v>2.72</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.6</v>
-      </c>
       <c r="R19" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="S19" t="n">
-        <v>5.1</v>
+        <v>5.8</v>
       </c>
       <c r="T19" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="U19" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="V19" t="n">
-        <v>1.33</v>
+        <v>1.7</v>
       </c>
       <c r="W19" t="n">
-        <v>1.69</v>
+        <v>1.31</v>
       </c>
       <c r="X19" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB19" t="n">
         <v>11</v>
       </c>
-      <c r="Y19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AC19" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AF19" t="n">
-        <v>14.5</v>
+        <v>28</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>18.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AJ19" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="AK19" t="n">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.8</v>
+        <v>2.18</v>
       </c>
       <c r="G20" t="n">
-        <v>4.2</v>
+        <v>2.32</v>
       </c>
       <c r="H20" t="n">
-        <v>2.32</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>2.44</v>
+        <v>4.6</v>
       </c>
       <c r="J20" t="n">
         <v>2.96</v>
       </c>
       <c r="K20" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="L20" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="M20" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N20" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="O20" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="P20" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.78</v>
+        <v>2.54</v>
       </c>
       <c r="R20" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S20" t="n">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="T20" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="U20" t="n">
-        <v>1.74</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.69</v>
+        <v>1.28</v>
       </c>
       <c r="W20" t="n">
-        <v>1.32</v>
+        <v>1.75</v>
       </c>
       <c r="X20" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>7.4</v>
+        <v>12.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AA20" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AF20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
         <v>28</v>
       </c>
-      <c r="AG20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN20" t="n">
+      <c r="AO20" t="n">
         <v>130</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -3241,7 +3241,7 @@
         <v>2.06</v>
       </c>
       <c r="I21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="J21" t="n">
         <v>3.3</v>
@@ -3250,37 +3250,37 @@
         <v>3.35</v>
       </c>
       <c r="L21" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M21" t="n">
         <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="O21" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="P21" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="R21" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="S21" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="T21" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="U21" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="W21" t="n">
         <v>1.27</v>
@@ -3289,16 +3289,16 @@
         <v>9.199999999999999</v>
       </c>
       <c r="Y21" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Z21" t="n">
         <v>10.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB21" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC21" t="n">
         <v>7.2</v>
@@ -3319,31 +3319,31 @@
         <v>24</v>
       </c>
       <c r="AI21" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
         <v>110</v>
       </c>
       <c r="AK21" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AL21" t="n">
         <v>95</v>
       </c>
       <c r="AM21" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AN21" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AO21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Millonarios</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ind Medellin</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="G22" t="n">
-        <v>690</v>
+        <v>1.9</v>
       </c>
       <c r="H22" t="n">
-        <v>1.04</v>
+        <v>5.2</v>
       </c>
       <c r="I22" t="n">
-        <v>690</v>
+        <v>5.3</v>
       </c>
       <c r="J22" t="n">
-        <v>1.01</v>
+        <v>3.55</v>
       </c>
       <c r="K22" t="n">
-        <v>2.22</v>
+        <v>3.6</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>1.24</v>
+        <v>3.25</v>
       </c>
       <c r="O22" t="n">
-        <v>1.09</v>
+        <v>1.43</v>
       </c>
       <c r="P22" t="n">
-        <v>1.06</v>
+        <v>1.76</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.09</v>
+        <v>2.28</v>
       </c>
       <c r="R22" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="S22" t="n">
-        <v>18</v>
+        <v>4.3</v>
       </c>
       <c r="T22" t="n">
-        <v>1.39</v>
+        <v>2.1</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.89</v>
       </c>
       <c r="V22" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="W22" t="n">
-        <v>1.01</v>
+        <v>2.1</v>
       </c>
       <c r="X22" t="n">
-        <v>2.96</v>
+        <v>10.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>830</v>
+        <v>15</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AB22" t="n">
-        <v>820</v>
+        <v>7.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>990</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>990</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG22" t="n">
-        <v>990</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
-        <v>990</v>
+        <v>22</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.84</v>
+        <v>2.76</v>
       </c>
       <c r="G23" t="n">
-        <v>1.85</v>
+        <v>2.78</v>
       </c>
       <c r="H23" t="n">
-        <v>5.4</v>
+        <v>3.05</v>
       </c>
       <c r="I23" t="n">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="J23" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="K23" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N23" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="P23" t="n">
-        <v>1.74</v>
+        <v>1.66</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.32</v>
+        <v>2.48</v>
       </c>
       <c r="R23" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="S23" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="T23" t="n">
-        <v>2.14</v>
+        <v>2.02</v>
       </c>
       <c r="U23" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="V23" t="n">
-        <v>1.22</v>
+        <v>1.47</v>
       </c>
       <c r="W23" t="n">
-        <v>2.16</v>
+        <v>1.56</v>
       </c>
       <c r="X23" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y23" t="n">
-        <v>15</v>
+        <v>9.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="AA23" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AD23" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="AF23" t="n">
-        <v>9.4</v>
+        <v>16.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="AL23" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AM23" t="n">
         <v>140</v>
       </c>
       <c r="AN23" t="n">
-        <v>15.5</v>
+        <v>38</v>
       </c>
       <c r="AO23" t="n">
-        <v>130</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.78</v>
+        <v>2.2</v>
       </c>
       <c r="G24" t="n">
-        <v>2.8</v>
+        <v>2.26</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="I24" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K24" t="n">
         <v>3.05</v>
       </c>
-      <c r="J24" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.25</v>
-      </c>
       <c r="L24" t="n">
-        <v>1.54</v>
+        <v>1.69</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="N24" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.46</v>
+        <v>1.69</v>
       </c>
       <c r="P24" t="n">
-        <v>1.69</v>
+        <v>1.45</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.42</v>
+        <v>3.15</v>
       </c>
       <c r="R24" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="S24" t="n">
-        <v>4.7</v>
+        <v>7.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.99</v>
+        <v>2.44</v>
       </c>
       <c r="U24" t="n">
-        <v>1.97</v>
+        <v>1.63</v>
       </c>
       <c r="V24" t="n">
-        <v>1.48</v>
+        <v>1.27</v>
       </c>
       <c r="W24" t="n">
-        <v>1.55</v>
+        <v>1.79</v>
       </c>
       <c r="X24" t="n">
-        <v>10.5</v>
+        <v>7</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AA24" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AB24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AC24" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AE24" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AG24" t="n">
         <v>12.5</v>
       </c>
       <c r="AH24" t="n">
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="AI24" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AJ24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>310</v>
+      </c>
+      <c r="AN24" t="n">
         <v>42</v>
       </c>
-      <c r="AK24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>36</v>
-      </c>
       <c r="AO24" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.22</v>
+        <v>16</v>
       </c>
       <c r="G25" t="n">
-        <v>2.28</v>
+        <v>17</v>
       </c>
       <c r="H25" t="n">
-        <v>4.4</v>
+        <v>1.27</v>
       </c>
       <c r="I25" t="n">
-        <v>4.7</v>
+        <v>1.28</v>
       </c>
       <c r="J25" t="n">
-        <v>2.94</v>
+        <v>6.4</v>
       </c>
       <c r="K25" t="n">
-        <v>3.05</v>
+        <v>6.6</v>
       </c>
       <c r="L25" t="n">
-        <v>1.68</v>
+        <v>1.39</v>
       </c>
       <c r="M25" t="n">
-        <v>1.17</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>2.42</v>
+        <v>4.1</v>
       </c>
       <c r="O25" t="n">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>1.46</v>
+        <v>2.04</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.15</v>
+        <v>1.94</v>
       </c>
       <c r="R25" t="n">
-        <v>1.15</v>
+        <v>1.4</v>
       </c>
       <c r="S25" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V25" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="X25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y25" t="n">
         <v>7</v>
       </c>
-      <c r="T25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="X25" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>11</v>
-      </c>
       <c r="Z25" t="n">
-        <v>32</v>
+        <v>6.4</v>
       </c>
       <c r="AA25" t="n">
-        <v>150</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB25" t="n">
-        <v>6.2</v>
+        <v>38</v>
       </c>
       <c r="AC25" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AD25" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="n">
-        <v>11.5</v>
+        <v>180</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="AH25" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AJ25" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>38</v>
+        <v>430</v>
       </c>
       <c r="AL25" t="n">
-        <v>970</v>
+        <v>320</v>
       </c>
       <c r="AM25" t="n">
-        <v>310</v>
+        <v>420</v>
       </c>
       <c r="AN25" t="n">
-        <v>40</v>
+        <v>860</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,126 +3893,126 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Everton De Vina</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>14.5</v>
+        <v>1.93</v>
       </c>
       <c r="G26" t="n">
-        <v>16</v>
+        <v>1.99</v>
       </c>
       <c r="H26" t="n">
-        <v>1.28</v>
+        <v>4.5</v>
       </c>
       <c r="I26" t="n">
-        <v>1.29</v>
+        <v>4.9</v>
       </c>
       <c r="J26" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="K26" t="n">
-        <v>6.6</v>
+        <v>3.7</v>
       </c>
       <c r="L26" t="n">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="P26" t="n">
-        <v>2.06</v>
+        <v>1.75</v>
       </c>
       <c r="Q26" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.9</v>
       </c>
-      <c r="R26" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.59</v>
-      </c>
       <c r="V26" t="n">
-        <v>4.4</v>
+        <v>1.25</v>
       </c>
       <c r="W26" t="n">
-        <v>1.06</v>
+        <v>2</v>
       </c>
       <c r="X26" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Y26" t="n">
-        <v>7</v>
+        <v>970</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>8.800000000000001</v>
+        <v>150</v>
       </c>
       <c r="AB26" t="n">
-        <v>38</v>
+        <v>7.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF26" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>190</v>
-      </c>
       <c r="AG26" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="AH26" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="n">
-        <v>930</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>340</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="AN26" t="n">
-        <v>690</v>
+        <v>18</v>
       </c>
       <c r="AO26" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
@@ -4042,25 +4042,25 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="G27" t="n">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="H27" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="I27" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J27" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K27" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="L27" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="M27" t="n">
         <v>1.09</v>
@@ -4069,13 +4069,13 @@
         <v>3.25</v>
       </c>
       <c r="O27" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P27" t="n">
         <v>1.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="R27" t="n">
         <v>1.28</v>
@@ -4084,16 +4084,16 @@
         <v>4.2</v>
       </c>
       <c r="T27" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V27" t="n">
         <v>2.04</v>
       </c>
-      <c r="U27" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W27" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X27" t="n">
         <v>13.5</v>
@@ -4108,10 +4108,10 @@
         <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
         <v>1000</v>
@@ -4123,7 +4123,7 @@
         <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
         <v>1000</v>
@@ -4132,16 +4132,16 @@
         <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AK27" t="n">
         <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AM27" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN27" t="n">
         <v>1000</v>
@@ -4153,7 +4153,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,126 +4163,126 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Everton De Vina</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.92</v>
+        <v>3.95</v>
       </c>
       <c r="G28" t="n">
-        <v>1.98</v>
+        <v>4.1</v>
       </c>
       <c r="H28" t="n">
-        <v>4.6</v>
+        <v>2.38</v>
       </c>
       <c r="I28" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="J28" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="L28" t="n">
-        <v>1.48</v>
+        <v>1.71</v>
       </c>
       <c r="M28" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="N28" t="n">
-        <v>3.25</v>
+        <v>2.36</v>
       </c>
       <c r="O28" t="n">
-        <v>1.41</v>
+        <v>1.72</v>
       </c>
       <c r="P28" t="n">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.26</v>
+        <v>3.2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="S28" t="n">
-        <v>4.3</v>
+        <v>7.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.98</v>
+        <v>2.46</v>
       </c>
       <c r="U28" t="n">
-        <v>1.9</v>
+        <v>1.63</v>
       </c>
       <c r="V28" t="n">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="W28" t="n">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="X28" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>36</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD28" t="n">
         <v>14</v>
       </c>
-      <c r="Y28" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA28" t="n">
+      <c r="AE28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>95</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>290</v>
+      </c>
+      <c r="AN28" t="n">
         <v>150</v>
       </c>
-      <c r="AB28" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>18</v>
-      </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="G29" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H29" t="n">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="I29" t="n">
-        <v>2.5</v>
+        <v>2.64</v>
       </c>
       <c r="J29" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K29" t="n">
         <v>2.94</v>
       </c>
-      <c r="K29" t="n">
-        <v>3</v>
-      </c>
       <c r="L29" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="M29" t="n">
         <v>1.17</v>
       </c>
       <c r="N29" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T29" t="n">
         <v>2.34</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S29" t="n">
+      <c r="U29" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X29" t="n">
         <v>7.4</v>
       </c>
-      <c r="T29" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X29" t="n">
-        <v>6.8</v>
-      </c>
       <c r="Y29" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AB29" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC29" t="n">
         <v>7.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AF29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG29" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>30</v>
+        <v>970</v>
       </c>
       <c r="AI29" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>85</v>
       </c>
-      <c r="AJ29" t="n">
-        <v>100</v>
-      </c>
       <c r="AK29" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AL29" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM29" t="n">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="AN29" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AO29" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="F30" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N30" t="n">
         <v>3.5</v>
       </c>
-      <c r="G30" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H30" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2.36</v>
-      </c>
       <c r="O30" t="n">
-        <v>1.69</v>
+        <v>1.39</v>
       </c>
       <c r="P30" t="n">
-        <v>1.43</v>
+        <v>1.85</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.25</v>
+        <v>2.14</v>
       </c>
       <c r="R30" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V30" t="n">
         <v>1.15</v>
       </c>
-      <c r="S30" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.59</v>
-      </c>
       <c r="W30" t="n">
-        <v>1.38</v>
+        <v>2.54</v>
       </c>
       <c r="X30" t="n">
-        <v>7.4</v>
+        <v>14.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>50</v>
+        <v>290</v>
       </c>
       <c r="AB30" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="AD30" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="AF30" t="n">
-        <v>24</v>
+        <v>9.6</v>
       </c>
       <c r="AG30" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AJ30" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
-        <v>300</v>
+        <v>210</v>
       </c>
       <c r="AN30" t="n">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="AO30" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,108 +4568,108 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.61</v>
+        <v>3.25</v>
       </c>
       <c r="G31" t="n">
-        <v>1.65</v>
+        <v>3.35</v>
       </c>
       <c r="H31" t="n">
-        <v>7</v>
+        <v>2.56</v>
       </c>
       <c r="I31" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W31" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X31" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y31" t="n">
         <v>8</v>
       </c>
-      <c r="J31" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N31" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W31" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="X31" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>1000</v>
-      </c>
       <c r="Z31" t="n">
         <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
         <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
         <v>1000</v>
@@ -4678,10 +4678,10 @@
         <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN31" t="n">
         <v>1000</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,78 +4703,78 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>OHiggins</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.3</v>
+        <v>1.97</v>
       </c>
       <c r="G32" t="n">
-        <v>3.35</v>
+        <v>2.04</v>
       </c>
       <c r="H32" t="n">
-        <v>2.52</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>2.6</v>
+        <v>4.3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="K32" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="L32" t="n">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="M32" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>2.74</v>
+        <v>3.9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="P32" t="n">
-        <v>1.54</v>
+        <v>1.98</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.7</v>
+        <v>1.96</v>
       </c>
       <c r="R32" t="n">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="S32" t="n">
-        <v>5.7</v>
+        <v>3.5</v>
       </c>
       <c r="T32" t="n">
-        <v>2.08</v>
+        <v>1.81</v>
       </c>
       <c r="U32" t="n">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="V32" t="n">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="W32" t="n">
-        <v>1.42</v>
+        <v>1.96</v>
       </c>
       <c r="X32" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.199999999999999</v>
+        <v>18</v>
       </c>
       <c r="Z32" t="n">
         <v>1000</v>
@@ -4783,23 +4783,23 @@
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG32" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC32" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH32" t="n">
         <v>1000</v>
       </c>
@@ -4810,16 +4810,16 @@
         <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL32" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO32" t="n">
         <v>1000</v>
@@ -4828,7 +4828,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,126 +4838,126 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>OHiggins</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="G33" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="I33" t="n">
-        <v>4.3</v>
+        <v>5.3</v>
       </c>
       <c r="J33" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="K33" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="L33" t="n">
-        <v>1.41</v>
+        <v>1.66</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="N33" t="n">
-        <v>3.9</v>
+        <v>2.48</v>
       </c>
       <c r="O33" t="n">
-        <v>1.32</v>
+        <v>1.64</v>
       </c>
       <c r="P33" t="n">
-        <v>1.98</v>
+        <v>1.47</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.96</v>
+        <v>3.05</v>
       </c>
       <c r="R33" t="n">
-        <v>1.37</v>
+        <v>1.16</v>
       </c>
       <c r="S33" t="n">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="T33" t="n">
-        <v>1.79</v>
+        <v>2.4</v>
       </c>
       <c r="U33" t="n">
-        <v>2.1</v>
+        <v>1.64</v>
       </c>
       <c r="V33" t="n">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="W33" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="X33" t="n">
-        <v>970</v>
+        <v>7.4</v>
       </c>
       <c r="Y33" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA33" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB33" t="n">
-        <v>9.4</v>
+        <v>6</v>
       </c>
       <c r="AC33" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE33" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AF33" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI33" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK33" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AL33" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM33" t="n">
-        <v>120</v>
+        <v>290</v>
       </c>
       <c r="AN33" t="n">
-        <v>14.5</v>
+        <v>30</v>
       </c>
       <c r="AO33" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34">
@@ -4978,127 +4978,127 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Union Santa Fe</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Gimnasia Mendoza</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="G34" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="H34" t="n">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="I34" t="n">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="J34" t="n">
-        <v>3.05</v>
+        <v>3.75</v>
       </c>
       <c r="K34" t="n">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="L34" t="n">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="M34" t="n">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="N34" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q34" t="n">
         <v>2.48</v>
       </c>
-      <c r="O34" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>3.05</v>
-      </c>
       <c r="R34" t="n">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="S34" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="T34" t="n">
-        <v>2.4</v>
+        <v>2.26</v>
       </c>
       <c r="U34" t="n">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="V34" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="W34" t="n">
-        <v>1.92</v>
+        <v>2.34</v>
       </c>
       <c r="X34" t="n">
-        <v>7.4</v>
+        <v>10.5</v>
       </c>
       <c r="Y34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>230</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG34" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z34" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH34" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AI34" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AJ34" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AL34" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AM34" t="n">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="AN34" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AO34" t="n">
-        <v>210</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -5108,260 +5108,125 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.73</v>
+        <v>4.2</v>
       </c>
       <c r="G35" t="n">
-        <v>1.74</v>
+        <v>4.4</v>
       </c>
       <c r="H35" t="n">
-        <v>6.2</v>
+        <v>2.14</v>
       </c>
       <c r="I35" t="n">
-        <v>6.4</v>
+        <v>2.22</v>
       </c>
       <c r="J35" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="K35" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="L35" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="M35" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>2.78</v>
       </c>
       <c r="O35" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="P35" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.46</v>
+        <v>2.66</v>
       </c>
       <c r="R35" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="S35" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="T35" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="U35" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V35" t="n">
-        <v>1.18</v>
+        <v>1.83</v>
       </c>
       <c r="W35" t="n">
-        <v>2.34</v>
+        <v>1.29</v>
       </c>
       <c r="X35" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.5</v>
+        <v>7.2</v>
       </c>
       <c r="Z35" t="n">
-        <v>55</v>
+        <v>12.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>260</v>
+        <v>32</v>
       </c>
       <c r="AB35" t="n">
-        <v>6.4</v>
+        <v>12</v>
       </c>
       <c r="AC35" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD35" t="n">
-        <v>27</v>
+        <v>12.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF35" t="n">
-        <v>8.800000000000001</v>
+        <v>30</v>
       </c>
       <c r="AG35" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AH35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI35" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AJ35" t="n">
-        <v>17.5</v>
+        <v>140</v>
       </c>
       <c r="AK35" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="AL35" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AM35" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AN35" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Deportivo Pereira</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="G36" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J36" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K36" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N36" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P36" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="T36" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W36" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X36" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO36" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO35"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,123 +653,123 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:50:00</t>
+          <t>11:20:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al-Raed (KSA)</t>
+          <t>Jeddah Club</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1.01</v>
       </c>
       <c r="G2" t="n">
-        <v>2.06</v>
+        <v>690</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>6.4</v>
+        <v>690</v>
       </c>
       <c r="J2" t="n">
-        <v>2.84</v>
+        <v>1.51</v>
       </c>
       <c r="K2" t="n">
-        <v>2.9</v>
+        <v>65</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.24</v>
+        <v>1.71</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.9</v>
+        <v>2.36</v>
       </c>
       <c r="R2" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="S2" t="n">
-        <v>13</v>
+        <v>8.6</v>
       </c>
       <c r="T2" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="W2" t="n">
-        <v>1.95</v>
+        <v>1.16</v>
       </c>
       <c r="X2" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.4</v>
+        <v>1.82</v>
       </c>
       <c r="AD2" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>75</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:20:00</t>
+          <t>12:15:09</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Al Riyadh SC</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.2</v>
+        <v>48</v>
       </c>
       <c r="G3" t="n">
-        <v>4.5</v>
+        <v>55</v>
       </c>
       <c r="H3" t="n">
-        <v>2.08</v>
+        <v>1.13</v>
       </c>
       <c r="I3" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.12</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.74</v>
-      </c>
       <c r="Q3" t="n">
-        <v>2.26</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.27</v>
+        <v>1.34</v>
       </c>
       <c r="S3" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="T3" t="n">
-        <v>1.98</v>
+        <v>2.62</v>
       </c>
       <c r="U3" t="n">
-        <v>1.96</v>
+        <v>1.54</v>
       </c>
       <c r="V3" t="n">
-        <v>1.9</v>
+        <v>8</v>
       </c>
       <c r="W3" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>790</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO3" t="n">
         <v>11</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>85</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:15:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>14.5</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>15.5</v>
+        <v>3.1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.21</v>
+        <v>2.82</v>
       </c>
       <c r="I4" t="n">
-        <v>1.22</v>
+        <v>2.84</v>
       </c>
       <c r="J4" t="n">
-        <v>8.6</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>8.800000000000001</v>
+        <v>3.15</v>
       </c>
       <c r="L4" t="n">
-        <v>1.22</v>
+        <v>1.54</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>8.6</v>
+        <v>2.98</v>
       </c>
       <c r="O4" t="n">
-        <v>1.12</v>
+        <v>1.48</v>
       </c>
       <c r="P4" t="n">
-        <v>3.55</v>
+        <v>1.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.37</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.98</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
-        <v>1.99</v>
+        <v>4.9</v>
       </c>
       <c r="T4" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>1.94</v>
       </c>
       <c r="V4" t="n">
-        <v>5.3</v>
+        <v>1.54</v>
       </c>
       <c r="W4" t="n">
-        <v>1.06</v>
+        <v>1.48</v>
       </c>
       <c r="X4" t="n">
-        <v>70</v>
+        <v>9.6</v>
       </c>
       <c r="Y4" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="AB4" t="n">
-        <v>970</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>12.5</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="n">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="AG4" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="AH4" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="n">
-        <v>550</v>
+        <v>55</v>
       </c>
       <c r="AK4" t="n">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="AL4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM4" t="n">
         <v>150</v>
       </c>
-      <c r="AM4" t="n">
-        <v>160</v>
-      </c>
       <c r="AN4" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="AO4" t="n">
-        <v>3.3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.78</v>
+        <v>1.53</v>
       </c>
       <c r="G5" t="n">
-        <v>2.88</v>
+        <v>1.55</v>
       </c>
       <c r="H5" t="n">
-        <v>3.05</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.15</v>
+        <v>7.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.05</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.52</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>5.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.47</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>1.65</v>
+        <v>2.42</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.46</v>
+        <v>1.67</v>
       </c>
       <c r="R5" t="n">
-        <v>1.24</v>
+        <v>1.56</v>
       </c>
       <c r="S5" t="n">
-        <v>4.9</v>
+        <v>2.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>1.94</v>
+        <v>2.04</v>
       </c>
       <c r="V5" t="n">
-        <v>1.46</v>
+        <v>1.15</v>
       </c>
       <c r="W5" t="n">
-        <v>1.53</v>
+        <v>2.84</v>
       </c>
       <c r="X5" t="n">
-        <v>9.4</v>
+        <v>23</v>
       </c>
       <c r="Y5" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF5" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="Z5" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AJ5" t="n">
-        <v>44</v>
+        <v>14.5</v>
       </c>
       <c r="AK5" t="n">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="AL5" t="n">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="n">
-        <v>44</v>
+        <v>6.8</v>
       </c>
       <c r="AO5" t="n">
-        <v>46</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1198,127 +1198,127 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.47</v>
+        <v>5.6</v>
       </c>
       <c r="G6" t="n">
-        <v>1.51</v>
+        <v>5.8</v>
       </c>
       <c r="H6" t="n">
-        <v>7.2</v>
+        <v>1.76</v>
       </c>
       <c r="I6" t="n">
-        <v>8.199999999999999</v>
+        <v>1.77</v>
       </c>
       <c r="J6" t="n">
-        <v>4.9</v>
+        <v>3.85</v>
       </c>
       <c r="K6" t="n">
-        <v>5.2</v>
+        <v>3.95</v>
       </c>
       <c r="L6" t="n">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="P6" t="n">
-        <v>2.42</v>
+        <v>1.92</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.65</v>
+        <v>2.06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.56</v>
+        <v>1.35</v>
       </c>
       <c r="S6" t="n">
-        <v>2.66</v>
+        <v>3.65</v>
       </c>
       <c r="T6" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="U6" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.14</v>
+        <v>2.28</v>
       </c>
       <c r="W6" t="n">
-        <v>2.98</v>
+        <v>1.2</v>
       </c>
       <c r="X6" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>32</v>
+        <v>7.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>70</v>
+        <v>9.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>240</v>
+        <v>17.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.6</v>
+        <v>18.5</v>
       </c>
       <c r="AC6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>190</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>960</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO6" t="n">
         <v>12</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>190</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,126 +1328,126 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>6</v>
+        <v>2.06</v>
       </c>
       <c r="H7" t="n">
-        <v>1.72</v>
+        <v>3.95</v>
       </c>
       <c r="I7" t="n">
-        <v>1.73</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.9</v>
       </c>
-      <c r="K7" t="n">
-        <v>4</v>
-      </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="O7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.31</v>
       </c>
-      <c r="P7" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.36</v>
-      </c>
       <c r="W7" t="n">
-        <v>1.2</v>
+        <v>1.97</v>
       </c>
       <c r="X7" t="n">
-        <v>15.5</v>
+        <v>24</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.6</v>
+        <v>25</v>
       </c>
       <c r="Z7" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="AB7" t="n">
-        <v>21</v>
+        <v>13.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.6</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
-        <v>18.5</v>
+        <v>44</v>
       </c>
       <c r="AF7" t="n">
-        <v>46</v>
+        <v>14.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AJ7" t="n">
-        <v>170</v>
+        <v>25</v>
       </c>
       <c r="AK7" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AL7" t="n">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="AM7" t="n">
-        <v>190</v>
+        <v>65</v>
       </c>
       <c r="AN7" t="n">
-        <v>110</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO7" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -1468,127 +1468,127 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K8" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.99</v>
       </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.57</v>
-      </c>
       <c r="U8" t="n">
-        <v>2.68</v>
+        <v>1.94</v>
       </c>
       <c r="V8" t="n">
-        <v>1.31</v>
+        <v>2.34</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="Z8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI8" t="n">
         <v>38</v>
       </c>
-      <c r="AA8" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>40</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="AK8" t="n">
-        <v>17.5</v>
+        <v>85</v>
       </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>960</v>
       </c>
       <c r="AM8" t="n">
-        <v>60</v>
+        <v>720</v>
       </c>
       <c r="AN8" t="n">
-        <v>9.199999999999999</v>
+        <v>130</v>
       </c>
       <c r="AO8" t="n">
-        <v>34</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="G9" t="n">
-        <v>5.9</v>
+        <v>4.9</v>
       </c>
       <c r="H9" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="I9" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="J9" t="n">
         <v>3.9</v>
       </c>
       <c r="K9" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>3.65</v>
+        <v>5.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>1.89</v>
+        <v>2.46</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>1.64</v>
       </c>
       <c r="R9" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>3.8</v>
+        <v>2.58</v>
       </c>
       <c r="T9" t="n">
-        <v>1.96</v>
+        <v>1.65</v>
       </c>
       <c r="U9" t="n">
-        <v>1.93</v>
+        <v>2.38</v>
       </c>
       <c r="V9" t="n">
-        <v>2.3</v>
+        <v>2.16</v>
       </c>
       <c r="W9" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.8</v>
+        <v>12.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG9" t="n">
         <v>18.5</v>
       </c>
-      <c r="AB9" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>23</v>
-      </c>
       <c r="AH9" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="AJ9" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AL9" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="AN9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="10">
@@ -1747,76 +1747,76 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.96</v>
+        <v>2.72</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="H10" t="n">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="I10" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="J10" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="L10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S10" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.56</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X10" t="n">
-        <v>9.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AA10" t="n">
         <v>55</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
         <v>13.5</v>
@@ -1825,40 +1825,40 @@
         <v>38</v>
       </c>
       <c r="AF10" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG10" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>95</v>
       </c>
       <c r="AJ10" t="n">
-        <v>970</v>
+        <v>60</v>
       </c>
       <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
         <v>55</v>
       </c>
-      <c r="AL10" t="n">
-        <v>65</v>
-      </c>
       <c r="AM10" t="n">
-        <v>150</v>
+        <v>480</v>
       </c>
       <c r="AN10" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
       <c r="AO10" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.2</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
       <c r="H11" t="n">
-        <v>1.85</v>
+        <v>1.36</v>
       </c>
       <c r="I11" t="n">
-        <v>1.89</v>
+        <v>1.37</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>5.3</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>5.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N11" t="n">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="P11" t="n">
-        <v>2.48</v>
+        <v>2.14</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.86</v>
       </c>
       <c r="R11" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="S11" t="n">
-        <v>2.58</v>
+        <v>3.15</v>
       </c>
       <c r="T11" t="n">
-        <v>1.6</v>
+        <v>2.24</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>1.76</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="W11" t="n">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
       <c r="X11" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>14.5</v>
+        <v>7.2</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>10.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>11.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE11" t="n">
-        <v>22</v>
+        <v>15.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="AG11" t="n">
-        <v>17.5</v>
+        <v>42</v>
       </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="AI11" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
-        <v>980</v>
+        <v>300</v>
       </c>
       <c r="AO11" t="n">
-        <v>9.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,126 +2003,126 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AVS Futebol SAD</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>10.5</v>
+        <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>11.5</v>
+        <v>5.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1.39</v>
+        <v>1.6</v>
       </c>
       <c r="I12" t="n">
-        <v>1.4</v>
+        <v>1.63</v>
       </c>
       <c r="J12" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="K12" t="n">
         <v>5.4</v>
       </c>
       <c r="L12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q12" t="n">
         <v>1.38</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.89</v>
-      </c>
       <c r="R12" t="n">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>3.25</v>
+        <v>1.96</v>
       </c>
       <c r="T12" t="n">
-        <v>2.24</v>
+        <v>1.48</v>
       </c>
       <c r="U12" t="n">
-        <v>1.78</v>
+        <v>2.9</v>
       </c>
       <c r="V12" t="n">
-        <v>3.5</v>
+        <v>2.58</v>
       </c>
       <c r="W12" t="n">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="X12" t="n">
+        <v>40</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH12" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y12" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>95</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>32</v>
-      </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>500</v>
+        <v>130</v>
       </c>
       <c r="AK12" t="n">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="AL12" t="n">
-        <v>170</v>
+        <v>42</v>
       </c>
       <c r="AM12" t="n">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="AN12" t="n">
-        <v>270</v>
+        <v>29</v>
       </c>
       <c r="AO12" t="n">
-        <v>6.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>2.16</v>
       </c>
       <c r="G13" t="n">
-        <v>5.2</v>
+        <v>2.2</v>
       </c>
       <c r="H13" t="n">
-        <v>1.62</v>
+        <v>3.45</v>
       </c>
       <c r="I13" t="n">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>8</v>
+        <v>4.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.12</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
-        <v>3.35</v>
+        <v>2.3</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.39</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.52</v>
-      </c>
       <c r="W13" t="n">
-        <v>1.23</v>
+        <v>1.83</v>
       </c>
       <c r="X13" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE13" t="n">
         <v>38</v>
       </c>
-      <c r="Y13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AC13" t="n">
+      <c r="AF13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN13" t="n">
         <v>13</v>
       </c>
-      <c r="AD13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>32</v>
-      </c>
       <c r="AO13" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -2278,121 +2278,121 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.14</v>
+        <v>4.2</v>
       </c>
       <c r="G14" t="n">
-        <v>2.18</v>
+        <v>4.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.55</v>
+        <v>1.81</v>
       </c>
       <c r="I14" t="n">
-        <v>3.7</v>
+        <v>1.85</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="L14" t="n">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>4.7</v>
+        <v>6.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="P14" t="n">
-        <v>2.22</v>
+        <v>2.88</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.77</v>
+        <v>1.51</v>
       </c>
       <c r="R14" t="n">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="S14" t="n">
-        <v>2.96</v>
+        <v>2.26</v>
       </c>
       <c r="T14" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="U14" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="V14" t="n">
-        <v>1.37</v>
+        <v>2.16</v>
       </c>
       <c r="W14" t="n">
-        <v>1.84</v>
+        <v>1.28</v>
       </c>
       <c r="X14" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG14" t="n">
         <v>18</v>
       </c>
-      <c r="Y14" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD14" t="n">
+      <c r="AH14" t="n">
         <v>15</v>
       </c>
-      <c r="AE14" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>16</v>
-      </c>
       <c r="AI14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK14" t="n">
         <v>44</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>21</v>
-      </c>
       <c r="AL14" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN14" t="n">
         <v>30</v>
       </c>
-      <c r="AM14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>13</v>
-      </c>
       <c r="AO14" t="n">
-        <v>32</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="15">
@@ -2413,28 +2413,28 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J15" t="n">
         <v>4.3</v>
-      </c>
-      <c r="G15" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4.4</v>
       </c>
       <c r="K15" t="n">
         <v>4.5</v>
@@ -2452,82 +2452,82 @@
         <v>1.16</v>
       </c>
       <c r="P15" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="Q15" t="n">
         <v>1.51</v>
       </c>
       <c r="R15" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S15" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="T15" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="U15" t="n">
-        <v>2.62</v>
+        <v>2.76</v>
       </c>
       <c r="V15" t="n">
-        <v>2.2</v>
+        <v>1.39</v>
       </c>
       <c r="W15" t="n">
-        <v>1.28</v>
+        <v>1.9</v>
       </c>
       <c r="X15" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y15" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD15" t="n">
         <v>15</v>
       </c>
-      <c r="Z15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC15" t="n">
+      <c r="AE15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG15" t="n">
         <v>11</v>
       </c>
-      <c r="AD15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>18</v>
-      </c>
       <c r="AH15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="AK15" t="n">
-        <v>44</v>
+        <v>18.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AM15" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="AO15" t="n">
-        <v>7.2</v>
+        <v>970</v>
       </c>
     </row>
     <row r="16">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="G16" t="n">
-        <v>2.18</v>
+        <v>4.8</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="I16" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U16" t="n">
         <v>3.35</v>
       </c>
-      <c r="J16" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.82</v>
-      </c>
       <c r="V16" t="n">
-        <v>1.42</v>
+        <v>2.36</v>
       </c>
       <c r="W16" t="n">
-        <v>1.84</v>
+        <v>1.26</v>
       </c>
       <c r="X16" t="n">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN16" t="n">
         <v>20</v>
       </c>
-      <c r="Z16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>11</v>
-      </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.4</v>
+        <v>3.25</v>
       </c>
       <c r="G17" t="n">
-        <v>4.7</v>
+        <v>3.35</v>
       </c>
       <c r="H17" t="n">
-        <v>1.71</v>
+        <v>2.62</v>
       </c>
       <c r="I17" t="n">
-        <v>1.75</v>
+        <v>2.64</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="K17" t="n">
-        <v>5.1</v>
+        <v>3.15</v>
       </c>
       <c r="L17" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N17" t="n">
+        <v>3</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X17" t="n">
         <v>10</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="U17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X17" t="n">
+      <c r="Y17" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>140</v>
+      </c>
+      <c r="AN17" t="n">
         <v>55</v>
       </c>
-      <c r="Y17" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>38</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>20</v>
-      </c>
       <c r="AO17" t="n">
-        <v>4.9</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.25</v>
+        <v>2.22</v>
       </c>
       <c r="G18" t="n">
-        <v>3.3</v>
+        <v>2.36</v>
       </c>
       <c r="H18" t="n">
-        <v>2.62</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N18" t="n">
         <v>2.66</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="O18" t="n">
         <v>1.54</v>
       </c>
-      <c r="M18" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N18" t="n">
-        <v>3</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.47</v>
-      </c>
       <c r="P18" t="n">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.48</v>
+        <v>2.64</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="S18" t="n">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="U18" t="n">
-        <v>1.96</v>
+        <v>1.76</v>
       </c>
       <c r="V18" t="n">
-        <v>1.6</v>
+        <v>1.29</v>
       </c>
       <c r="W18" t="n">
-        <v>1.43</v>
+        <v>1.74</v>
       </c>
       <c r="X18" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.6</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>15.5</v>
+        <v>30</v>
       </c>
       <c r="AA18" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK18" t="n">
         <v>34</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>44</v>
       </c>
       <c r="AL18" t="n">
         <v>65</v>
       </c>
       <c r="AM18" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AO18" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2971,73 +2971,73 @@
         <v>2.28</v>
       </c>
       <c r="I19" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J19" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
         <v>3.15</v>
       </c>
       <c r="L19" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="M19" t="n">
         <v>1.13</v>
       </c>
       <c r="N19" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="O19" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="P19" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.72</v>
+        <v>2.66</v>
       </c>
       <c r="R19" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="S19" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="T19" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="U19" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="V19" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W19" t="n">
         <v>1.31</v>
       </c>
       <c r="X19" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="Z19" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AB19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC19" t="n">
         <v>7.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE19" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF19" t="n">
         <v>28</v>
@@ -3046,10 +3046,10 @@
         <v>18.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="n">
         <v>120</v>
@@ -3067,13 +3067,13 @@
         <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.18</v>
+        <v>4.7</v>
       </c>
       <c r="G20" t="n">
-        <v>2.32</v>
+        <v>4.8</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>2.04</v>
       </c>
       <c r="I20" t="n">
-        <v>4.6</v>
+        <v>2.06</v>
       </c>
       <c r="J20" t="n">
-        <v>2.96</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="L20" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N20" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="O20" t="n">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="P20" t="n">
         <v>1.58</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.54</v>
+        <v>2.7</v>
       </c>
       <c r="R20" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S20" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="T20" t="n">
-        <v>2.02</v>
+        <v>2.28</v>
       </c>
       <c r="U20" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="V20" t="n">
-        <v>1.28</v>
+        <v>1.94</v>
       </c>
       <c r="W20" t="n">
-        <v>1.75</v>
+        <v>1.26</v>
       </c>
       <c r="X20" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="Y20" t="n">
-        <v>12.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF20" t="n">
         <v>32</v>
       </c>
-      <c r="AA20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>13</v>
-      </c>
       <c r="AG20" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ20" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="AK20" t="n">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN20" t="n">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="AO20" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>4.5</v>
+        <v>1.88</v>
       </c>
       <c r="G21" t="n">
-        <v>4.7</v>
+        <v>1.89</v>
       </c>
       <c r="H21" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T21" t="n">
         <v>2.06</v>
       </c>
-      <c r="I21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.22</v>
-      </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V21" t="n">
-        <v>1.91</v>
+        <v>1.23</v>
       </c>
       <c r="W21" t="n">
-        <v>1.27</v>
+        <v>2.12</v>
       </c>
       <c r="X21" t="n">
-        <v>9.199999999999999</v>
+        <v>11</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.8</v>
+        <v>15</v>
       </c>
       <c r="Z21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG21" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AH21" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AJ21" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO21" t="n">
         <v>110</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.89</v>
+        <v>2.76</v>
       </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H22" t="n">
-        <v>5.2</v>
+        <v>3.05</v>
       </c>
       <c r="I22" t="n">
-        <v>5.3</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="K22" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N22" t="n">
-        <v>3.25</v>
+        <v>2.96</v>
       </c>
       <c r="O22" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="P22" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.28</v>
+        <v>2.5</v>
       </c>
       <c r="R22" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="S22" t="n">
-        <v>4.3</v>
+        <v>5</v>
       </c>
       <c r="T22" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="U22" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="V22" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="W22" t="n">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="X22" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y22" t="n">
-        <v>15</v>
+        <v>9.4</v>
       </c>
       <c r="Z22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK22" t="n">
         <v>36</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AL22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM22" t="n">
         <v>140</v>
       </c>
-      <c r="AB22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>130</v>
-      </c>
       <c r="AN22" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AO22" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.76</v>
+        <v>2.22</v>
       </c>
       <c r="G23" t="n">
-        <v>2.78</v>
+        <v>2.26</v>
       </c>
       <c r="H23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.05</v>
       </c>
-      <c r="I23" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q23" t="n">
         <v>3.2</v>
       </c>
-      <c r="L23" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.48</v>
-      </c>
       <c r="R23" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="S23" t="n">
-        <v>4.9</v>
+        <v>7.2</v>
       </c>
       <c r="T23" t="n">
-        <v>2.02</v>
+        <v>2.46</v>
       </c>
       <c r="U23" t="n">
-        <v>1.95</v>
+        <v>1.64</v>
       </c>
       <c r="V23" t="n">
-        <v>1.47</v>
+        <v>1.27</v>
       </c>
       <c r="W23" t="n">
-        <v>1.56</v>
+        <v>1.79</v>
       </c>
       <c r="X23" t="n">
-        <v>9.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AB23" t="n">
-        <v>8.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="AC23" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AE23" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>16.5</v>
+        <v>11</v>
       </c>
       <c r="AG23" t="n">
         <v>12.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AI23" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AJ23" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="AK23" t="n">
         <v>36</v>
       </c>
       <c r="AL23" t="n">
-        <v>55</v>
+        <v>970</v>
       </c>
       <c r="AM23" t="n">
-        <v>140</v>
+        <v>310</v>
       </c>
       <c r="AN23" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO23" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.2</v>
+        <v>16</v>
       </c>
       <c r="G24" t="n">
-        <v>2.26</v>
+        <v>17</v>
       </c>
       <c r="H24" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="V24" t="n">
         <v>4.5</v>
       </c>
-      <c r="I24" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S24" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.27</v>
-      </c>
       <c r="W24" t="n">
-        <v>1.79</v>
+        <v>1.06</v>
       </c>
       <c r="X24" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y24" t="n">
         <v>7</v>
       </c>
-      <c r="Y24" t="n">
-        <v>11</v>
-      </c>
       <c r="Z24" t="n">
-        <v>34</v>
+        <v>6.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>200</v>
+        <v>8.6</v>
       </c>
       <c r="AB24" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.2</v>
+        <v>14</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AF24" t="n">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>60</v>
       </c>
       <c r="AH24" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AJ24" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>36</v>
+        <v>410</v>
       </c>
       <c r="AL24" t="n">
-        <v>130</v>
+        <v>310</v>
       </c>
       <c r="AM24" t="n">
-        <v>310</v>
+        <v>400</v>
       </c>
       <c r="AN24" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Everton De Vina</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>16</v>
+        <v>1.92</v>
       </c>
       <c r="G25" t="n">
-        <v>17</v>
+        <v>1.97</v>
       </c>
       <c r="H25" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R25" t="n">
         <v>1.27</v>
       </c>
-      <c r="I25" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="J25" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N25" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.4</v>
-      </c>
       <c r="S25" t="n">
-        <v>3.35</v>
+        <v>4.3</v>
       </c>
       <c r="T25" t="n">
-        <v>2.62</v>
+        <v>1.98</v>
       </c>
       <c r="U25" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="V25" t="n">
-        <v>4.6</v>
+        <v>1.25</v>
       </c>
       <c r="W25" t="n">
-        <v>1.06</v>
+        <v>2.02</v>
       </c>
       <c r="X25" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="Y25" t="n">
-        <v>7</v>
+        <v>970</v>
       </c>
       <c r="Z25" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>8.800000000000001</v>
+        <v>150</v>
       </c>
       <c r="AB25" t="n">
-        <v>38</v>
+        <v>7.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>14</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE25" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>180</v>
-      </c>
       <c r="AG25" t="n">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="n">
         <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>420</v>
+        <v>170</v>
       </c>
       <c r="AN25" t="n">
-        <v>860</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>5.9</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,40 +3898,40 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Everton De Vina</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.93</v>
+        <v>4.7</v>
       </c>
       <c r="G26" t="n">
-        <v>1.99</v>
+        <v>5.2</v>
       </c>
       <c r="H26" t="n">
-        <v>4.5</v>
+        <v>1.91</v>
       </c>
       <c r="I26" t="n">
-        <v>4.9</v>
+        <v>1.97</v>
       </c>
       <c r="J26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K26" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="M26" t="n">
         <v>1.09</v>
       </c>
       <c r="N26" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O26" t="n">
         <v>1.41</v>
@@ -3943,41 +3943,41 @@
         <v>2.24</v>
       </c>
       <c r="R26" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="S26" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T26" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U26" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="V26" t="n">
-        <v>1.25</v>
+        <v>2.02</v>
       </c>
       <c r="W26" t="n">
-        <v>2</v>
+        <v>1.23</v>
       </c>
       <c r="X26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC26" t="n">
         <v>14</v>
       </c>
-      <c r="Y26" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>150</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="AD26" t="n">
         <v>1000</v>
       </c>
@@ -3985,31 +3985,31 @@
         <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="AH26" t="n">
         <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK26" t="n">
         <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM26" t="n">
         <v>170</v>
       </c>
       <c r="AN26" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
         <v>1000</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,126 +4028,126 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="G27" t="n">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="H27" t="n">
-        <v>1.89</v>
+        <v>2.34</v>
       </c>
       <c r="I27" t="n">
-        <v>1.95</v>
+        <v>2.36</v>
       </c>
       <c r="J27" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="K27" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="L27" t="n">
-        <v>1.51</v>
+        <v>1.71</v>
       </c>
       <c r="M27" t="n">
-        <v>1.09</v>
+        <v>1.16</v>
       </c>
       <c r="N27" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="Q27" t="n">
         <v>3.25</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.22</v>
-      </c>
       <c r="R27" t="n">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="S27" t="n">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.98</v>
+        <v>2.46</v>
       </c>
       <c r="U27" t="n">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="V27" t="n">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="W27" t="n">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="X27" t="n">
-        <v>13.5</v>
+        <v>7</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="Z27" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AG27" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ27" t="n">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="n">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="AM27" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28">
@@ -4168,43 +4168,43 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="G28" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="H28" t="n">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="I28" t="n">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="K28" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="L28" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="M28" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N28" t="n">
         <v>2.36</v>
       </c>
       <c r="O28" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P28" t="n">
         <v>1.43</v>
@@ -4219,67 +4219,67 @@
         <v>7.4</v>
       </c>
       <c r="T28" t="n">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="U28" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="V28" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="W28" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X28" t="n">
         <v>7</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="Z28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA28" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AD28" t="n">
         <v>14</v>
       </c>
       <c r="AE28" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG28" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>85</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>95</v>
-      </c>
       <c r="AK28" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AL28" t="n">
         <v>120</v>
       </c>
       <c r="AM28" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AN28" t="n">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="AO28" t="n">
         <v>55</v>
@@ -4288,7 +4288,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="G29" t="n">
-        <v>3.7</v>
+        <v>1.64</v>
       </c>
       <c r="H29" t="n">
-        <v>2.6</v>
+        <v>6.8</v>
       </c>
       <c r="I29" t="n">
-        <v>2.64</v>
+        <v>8</v>
       </c>
       <c r="J29" t="n">
-        <v>2.86</v>
+        <v>4</v>
       </c>
       <c r="K29" t="n">
-        <v>2.94</v>
+        <v>4.2</v>
       </c>
       <c r="L29" t="n">
-        <v>1.69</v>
+        <v>1.44</v>
       </c>
       <c r="M29" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>2.38</v>
+        <v>3.55</v>
       </c>
       <c r="O29" t="n">
-        <v>1.69</v>
+        <v>1.37</v>
       </c>
       <c r="P29" t="n">
-        <v>1.43</v>
+        <v>1.86</v>
       </c>
       <c r="Q29" t="n">
-        <v>3.2</v>
+        <v>2.14</v>
       </c>
       <c r="R29" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="V29" t="n">
         <v>1.15</v>
       </c>
-      <c r="S29" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.61</v>
-      </c>
       <c r="W29" t="n">
-        <v>1.37</v>
+        <v>2.56</v>
       </c>
       <c r="X29" t="n">
-        <v>7.4</v>
+        <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>280</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN29" t="n">
         <v>15.5</v>
       </c>
-      <c r="AA29" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>46</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>970</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>85</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>300</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>110</v>
-      </c>
       <c r="AO29" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,108 +4433,108 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.61</v>
+        <v>3.25</v>
       </c>
       <c r="G30" t="n">
-        <v>1.65</v>
+        <v>3.35</v>
       </c>
       <c r="H30" t="n">
-        <v>6.8</v>
+        <v>2.56</v>
       </c>
       <c r="I30" t="n">
-        <v>7.8</v>
+        <v>2.64</v>
       </c>
       <c r="J30" t="n">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="K30" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="M30" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N30" t="n">
-        <v>3.5</v>
+        <v>2.74</v>
       </c>
       <c r="O30" t="n">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="P30" t="n">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.14</v>
+        <v>2.68</v>
       </c>
       <c r="R30" t="n">
-        <v>1.31</v>
+        <v>1.2</v>
       </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>5.7</v>
       </c>
       <c r="T30" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="U30" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="V30" t="n">
-        <v>1.15</v>
+        <v>1.6</v>
       </c>
       <c r="W30" t="n">
-        <v>2.54</v>
+        <v>1.42</v>
       </c>
       <c r="X30" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Z30" t="n">
         <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>290</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AD30" t="n">
         <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
         <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
         <v>1000</v>
@@ -4543,13 +4543,13 @@
         <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM30" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN30" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
         <v>1000</v>
@@ -4558,7 +4558,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,78 +4568,78 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>OHiggins</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.25</v>
+        <v>1.97</v>
       </c>
       <c r="G31" t="n">
-        <v>3.35</v>
+        <v>2.04</v>
       </c>
       <c r="H31" t="n">
-        <v>2.56</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>2.64</v>
+        <v>4.3</v>
       </c>
       <c r="J31" t="n">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="K31" t="n">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="L31" t="n">
-        <v>1.56</v>
+        <v>1.41</v>
       </c>
       <c r="M31" t="n">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>2.74</v>
+        <v>3.85</v>
       </c>
       <c r="O31" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="P31" t="n">
-        <v>1.55</v>
+        <v>1.98</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.68</v>
+        <v>1.97</v>
       </c>
       <c r="R31" t="n">
-        <v>1.2</v>
+        <v>1.37</v>
       </c>
       <c r="S31" t="n">
-        <v>5.6</v>
+        <v>3.55</v>
       </c>
       <c r="T31" t="n">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="U31" t="n">
-        <v>1.79</v>
+        <v>2.14</v>
       </c>
       <c r="V31" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="W31" t="n">
-        <v>1.42</v>
+        <v>1.96</v>
       </c>
       <c r="X31" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Y31" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="Z31" t="n">
         <v>1000</v>
@@ -4648,10 +4648,10 @@
         <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="AD31" t="n">
         <v>1000</v>
@@ -4660,10 +4660,10 @@
         <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AH31" t="n">
         <v>1000</v>
@@ -4675,16 +4675,16 @@
         <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL31" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>220</v>
+        <v>120</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AO31" t="n">
         <v>1000</v>
@@ -4693,7 +4693,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,126 +4703,126 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>OHiggins</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.97</v>
+        <v>1.74</v>
       </c>
       <c r="G32" t="n">
-        <v>2.04</v>
+        <v>1.76</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I32" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K32" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="L32" t="n">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N32" t="n">
-        <v>3.9</v>
+        <v>2.98</v>
       </c>
       <c r="O32" t="n">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="P32" t="n">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.96</v>
+        <v>2.48</v>
       </c>
       <c r="R32" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="S32" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="T32" t="n">
-        <v>1.81</v>
+        <v>2.3</v>
       </c>
       <c r="U32" t="n">
-        <v>2.12</v>
+        <v>1.72</v>
       </c>
       <c r="V32" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="W32" t="n">
-        <v>1.96</v>
+        <v>2.3</v>
       </c>
       <c r="X32" t="n">
-        <v>970</v>
+        <v>10.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AB32" t="n">
-        <v>9.4</v>
+        <v>6.4</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD32" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG32" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI32" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AK32" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM32" t="n">
-        <v>120</v>
+        <v>230</v>
       </c>
       <c r="AN32" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33">
@@ -4870,7 +4870,7 @@
         <v>3.15</v>
       </c>
       <c r="L33" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="M33" t="n">
         <v>1.16</v>
@@ -4879,7 +4879,7 @@
         <v>2.48</v>
       </c>
       <c r="O33" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="P33" t="n">
         <v>1.47</v>
@@ -4894,7 +4894,7 @@
         <v>6.6</v>
       </c>
       <c r="T33" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="U33" t="n">
         <v>1.64</v>
@@ -4957,13 +4957,13 @@
         <v>30</v>
       </c>
       <c r="AO33" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,260 +4973,125 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.73</v>
+        <v>4.2</v>
       </c>
       <c r="G34" t="n">
-        <v>1.74</v>
+        <v>4.4</v>
       </c>
       <c r="H34" t="n">
-        <v>6.2</v>
+        <v>2.14</v>
       </c>
       <c r="I34" t="n">
-        <v>6.4</v>
+        <v>2.18</v>
       </c>
       <c r="J34" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="K34" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="L34" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="M34" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N34" t="n">
-        <v>2.98</v>
+        <v>2.74</v>
       </c>
       <c r="O34" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="P34" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="R34" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="S34" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="T34" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="U34" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V34" t="n">
-        <v>1.18</v>
+        <v>1.85</v>
       </c>
       <c r="W34" t="n">
-        <v>2.34</v>
+        <v>1.29</v>
       </c>
       <c r="X34" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.5</v>
+        <v>7.2</v>
       </c>
       <c r="Z34" t="n">
-        <v>55</v>
+        <v>12.5</v>
       </c>
       <c r="AA34" t="n">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="AB34" t="n">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="AC34" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>27</v>
+        <v>12.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF34" t="n">
-        <v>8.800000000000001</v>
+        <v>30</v>
       </c>
       <c r="AG34" t="n">
-        <v>11.5</v>
+        <v>21</v>
       </c>
       <c r="AH34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI34" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>140</v>
       </c>
-      <c r="AJ34" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AK34" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AM34" t="n">
         <v>230</v>
       </c>
       <c r="AN34" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AO34" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Deportivo Pereira</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G35" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K35" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="T35" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U35" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X35" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO35" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO34"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,90 +653,90 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>11:20:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Jeddah Club</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Otelul Galati</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>5.9</v>
       </c>
       <c r="G2" t="n">
-        <v>690</v>
+        <v>6.4</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>690</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="K2" t="n">
-        <v>65</v>
+        <v>1.39</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="P2" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.36</v>
+        <v>100</v>
       </c>
       <c r="R2" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>8.6</v>
+        <v>100</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="W2" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>1.44</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.82</v>
+        <v>60</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,19 +745,19 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AG2" t="n">
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>590</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:15:09</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al Riyadh SC</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>48</v>
+        <v>1.17</v>
       </c>
       <c r="G3" t="n">
-        <v>55</v>
+        <v>1.19</v>
       </c>
       <c r="H3" t="n">
-        <v>1.13</v>
+        <v>32</v>
       </c>
       <c r="I3" t="n">
-        <v>1.14</v>
+        <v>38</v>
       </c>
       <c r="J3" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="K3" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,94 +826,94 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5.8</v>
+        <v>4.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>2.12</v>
+        <v>1.77</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>2.22</v>
       </c>
       <c r="R3" t="n">
-        <v>1.34</v>
+        <v>1.23</v>
       </c>
       <c r="S3" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="T3" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="U3" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="V3" t="n">
-        <v>8</v>
+        <v>1.02</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>6.4</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.7</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="AC3" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>9.199999999999999</v>
+        <v>65</v>
       </c>
       <c r="AE3" t="n">
-        <v>17.5</v>
+        <v>480</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>4.4</v>
       </c>
       <c r="AG3" t="n">
-        <v>790</v>
+        <v>9</v>
       </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="n">
+        <v>410</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL3" t="n">
         <v>100</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G4" t="n">
-        <v>3.1</v>
+        <v>22</v>
       </c>
       <c r="H4" t="n">
-        <v>2.82</v>
+        <v>1.33</v>
       </c>
       <c r="I4" t="n">
-        <v>2.84</v>
+        <v>1.34</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>4.9</v>
       </c>
       <c r="K4" t="n">
-        <v>3.15</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.98</v>
+        <v>3.9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="P4" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="R4" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="S4" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="U4" t="n">
-        <v>1.94</v>
+        <v>1.77</v>
       </c>
       <c r="V4" t="n">
-        <v>1.54</v>
+        <v>3.95</v>
       </c>
       <c r="W4" t="n">
-        <v>1.48</v>
+        <v>1.04</v>
       </c>
       <c r="X4" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.199999999999999</v>
+        <v>4.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="AA4" t="n">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>13.5</v>
+        <v>8.4</v>
       </c>
       <c r="AE4" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="AF4" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AJ4" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="AL4" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AM4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:47</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>Al-Akhdoud</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>NEOM Sports Club</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.53</v>
+        <v>2.22</v>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>7</v>
       </c>
-      <c r="I5" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K5" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N5" t="n">
-        <v>5.2</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="P5" t="n">
-        <v>2.42</v>
+        <v>2.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="R5" t="n">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
       <c r="S5" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.04</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
-        <v>1.15</v>
+        <v>1.33</v>
       </c>
       <c r="W5" t="n">
-        <v>2.84</v>
+        <v>1.71</v>
       </c>
       <c r="X5" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>5.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>28</v>
+        <v>7.2</v>
       </c>
       <c r="AE5" t="n">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.800000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>110</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:33:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.6</v>
+        <v>2.12</v>
       </c>
       <c r="G6" t="n">
-        <v>5.8</v>
+        <v>2.16</v>
       </c>
       <c r="H6" t="n">
-        <v>1.76</v>
+        <v>4.2</v>
       </c>
       <c r="I6" t="n">
-        <v>1.77</v>
+        <v>4.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>3.95</v>
+        <v>3.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.44</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>3.8</v>
+        <v>2.66</v>
       </c>
       <c r="O6" t="n">
-        <v>1.35</v>
+        <v>1.57</v>
       </c>
       <c r="P6" t="n">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="Q6" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T6" t="n">
         <v>2.06</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.96</v>
-      </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>2.28</v>
+        <v>1.31</v>
       </c>
       <c r="W6" t="n">
-        <v>1.2</v>
+        <v>1.84</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.8</v>
+        <v>11.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.6</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="n">
-        <v>17.5</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.5</v>
+        <v>6.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="n">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AI6" t="n">
-        <v>42</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="AK6" t="n">
-        <v>960</v>
+        <v>36</v>
       </c>
       <c r="AL6" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM6" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="AN6" t="n">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="AO6" t="n">
-        <v>12</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Israeli Premier League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Hapoel Kiryat Shmona</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Maccabi Tel Aviv</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>2.06</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>3.95</v>
+        <v>1.26</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>1.28</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>6.4</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>7</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>5.7</v>
+        <v>17.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="P7" t="n">
-        <v>2.46</v>
+        <v>4.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.65</v>
+        <v>1.26</v>
       </c>
       <c r="R7" t="n">
-        <v>1.6</v>
+        <v>2.24</v>
       </c>
       <c r="S7" t="n">
-        <v>2.62</v>
+        <v>1.74</v>
       </c>
       <c r="T7" t="n">
-        <v>1.58</v>
+        <v>1.47</v>
       </c>
       <c r="U7" t="n">
-        <v>2.62</v>
+        <v>2.84</v>
       </c>
       <c r="V7" t="n">
-        <v>1.31</v>
+        <v>4.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.97</v>
+        <v>1.06</v>
       </c>
       <c r="X7" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="AA7" t="n">
-        <v>110</v>
+        <v>11.5</v>
       </c>
       <c r="AB7" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>16</v>
+        <v>9.6</v>
       </c>
       <c r="AE7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
         <v>44</v>
       </c>
-      <c r="AF7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH7" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="AL7" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN7" t="n">
-        <v>9.800000000000001</v>
+        <v>85</v>
       </c>
       <c r="AO7" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Polish Ekstraklasa</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Nieciecza</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Cracovia Krakow</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.8</v>
+        <v>3.1</v>
       </c>
       <c r="G8" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.71</v>
+        <v>2.6</v>
       </c>
       <c r="I8" t="n">
-        <v>1.74</v>
+        <v>2.64</v>
       </c>
       <c r="J8" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>3.7</v>
+        <v>2.82</v>
       </c>
       <c r="O8" t="n">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="P8" t="n">
-        <v>1.91</v>
+        <v>1.58</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.04</v>
+        <v>2.7</v>
       </c>
       <c r="R8" t="n">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
       <c r="S8" t="n">
-        <v>3.75</v>
+        <v>5.3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.99</v>
+        <v>2.12</v>
       </c>
       <c r="U8" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="V8" t="n">
-        <v>2.34</v>
+        <v>1.61</v>
       </c>
       <c r="W8" t="n">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="X8" t="n">
-        <v>14</v>
+        <v>9.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.800000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>17.5</v>
+        <v>50</v>
       </c>
       <c r="AB8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF8" t="n">
         <v>18.5</v>
       </c>
-      <c r="AC8" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>44</v>
-      </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="AJ8" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AK8" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AL8" t="n">
-        <v>960</v>
+        <v>75</v>
       </c>
       <c r="AM8" t="n">
-        <v>720</v>
+        <v>190</v>
       </c>
       <c r="AN8" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AO8" t="n">
-        <v>11.5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="G9" t="n">
-        <v>4.9</v>
+        <v>12</v>
       </c>
       <c r="H9" t="n">
-        <v>1.82</v>
+        <v>1.37</v>
       </c>
       <c r="I9" t="n">
-        <v>1.87</v>
+        <v>1.38</v>
       </c>
       <c r="J9" t="n">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
-        <v>5.2</v>
+        <v>4.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>2.46</v>
+        <v>2.16</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
-        <v>2.58</v>
+        <v>3.15</v>
       </c>
       <c r="T9" t="n">
-        <v>1.65</v>
+        <v>2.24</v>
       </c>
       <c r="U9" t="n">
-        <v>2.38</v>
+        <v>1.76</v>
       </c>
       <c r="V9" t="n">
-        <v>2.16</v>
+        <v>3.65</v>
       </c>
       <c r="W9" t="n">
-        <v>1.26</v>
+        <v>1.09</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>7.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="AB9" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AC9" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AG9" t="n">
-        <v>18.5</v>
+        <v>40</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>100</v>
+        <v>480</v>
       </c>
       <c r="AK9" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="AM9" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.4</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cracovia Krakow</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.72</v>
+        <v>5.6</v>
       </c>
       <c r="G10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V10" t="n">
         <v>2.76</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.49</v>
-      </c>
       <c r="W10" t="n">
-        <v>1.56</v>
+        <v>1.21</v>
       </c>
       <c r="X10" t="n">
-        <v>11.5</v>
+        <v>44</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>130</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM10" t="n">
         <v>55</v>
       </c>
-      <c r="AB10" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>95</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>480</v>
-      </c>
       <c r="AN10" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AO10" t="n">
-        <v>40</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AVS Futebol SAD</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>1.98</v>
       </c>
       <c r="G11" t="n">
-        <v>12.5</v>
+        <v>2.02</v>
       </c>
       <c r="H11" t="n">
-        <v>1.36</v>
+        <v>3.95</v>
       </c>
       <c r="I11" t="n">
-        <v>1.37</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.86</v>
+        <v>1.74</v>
       </c>
       <c r="R11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S11" t="n">
-        <v>3.15</v>
+        <v>2.86</v>
       </c>
       <c r="T11" t="n">
-        <v>2.24</v>
+        <v>1.67</v>
       </c>
       <c r="U11" t="n">
-        <v>1.76</v>
+        <v>2.4</v>
       </c>
       <c r="V11" t="n">
-        <v>3.7</v>
+        <v>1.33</v>
       </c>
       <c r="W11" t="n">
-        <v>1.08</v>
+        <v>1.98</v>
       </c>
       <c r="X11" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y11" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y11" t="n">
-        <v>7.6</v>
-      </c>
       <c r="Z11" t="n">
-        <v>7.2</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
+        <v>160</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC11" t="n">
         <v>10.5</v>
       </c>
-      <c r="AB11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AD11" t="n">
-        <v>9.800000000000001</v>
+        <v>16.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>15.5</v>
+        <v>46</v>
       </c>
       <c r="AF11" t="n">
-        <v>110</v>
+        <v>13.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="n">
-        <v>510</v>
+        <v>23</v>
       </c>
       <c r="AK11" t="n">
-        <v>220</v>
+        <v>18</v>
       </c>
       <c r="AL11" t="n">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AN11" t="n">
-        <v>300</v>
+        <v>10.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>6.2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
@@ -2008,121 +2008,121 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="G12" t="n">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="H12" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="I12" t="n">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="J12" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="K12" t="n">
-        <v>5.4</v>
+        <v>4.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>8.199999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>1.76</v>
       </c>
       <c r="S12" t="n">
-        <v>1.96</v>
+        <v>2.26</v>
       </c>
       <c r="T12" t="n">
-        <v>1.48</v>
+        <v>1.56</v>
       </c>
       <c r="U12" t="n">
-        <v>2.9</v>
+        <v>2.66</v>
       </c>
       <c r="V12" t="n">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="W12" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="X12" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF12" t="n">
         <v>40</v>
       </c>
-      <c r="Y12" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>55</v>
-      </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AH12" t="n">
         <v>16.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AJ12" t="n">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="AK12" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM12" t="n">
         <v>55</v>
       </c>
       <c r="AN12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO12" t="n">
-        <v>5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="G13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>2.3</v>
+        <v>2.68</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="R13" t="n">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
-        <v>2.9</v>
+        <v>2.44</v>
       </c>
       <c r="T13" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="U13" t="n">
-        <v>2.44</v>
+        <v>2.6</v>
       </c>
       <c r="V13" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W13" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="Y13" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AB13" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD13" t="n">
         <v>15</v>
       </c>
       <c r="AE13" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF13" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AJ13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL13" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AN13" t="n">
-        <v>13</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO13" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -2278,127 +2278,127 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="G14" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="H14" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="I14" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="J14" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="K14" t="n">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="L14" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.27</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.28</v>
-      </c>
       <c r="X14" t="n">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="Y14" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE14" t="n">
         <v>15.5</v>
       </c>
-      <c r="Z14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>16</v>
-      </c>
       <c r="AF14" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AG14" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AH14" t="n">
         <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AK14" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL14" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AM14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN14" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
-        <v>7.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>3.55</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
-        <v>4.3</v>
+        <v>2.96</v>
       </c>
       <c r="K15" t="n">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
       <c r="L15" t="n">
-        <v>1.27</v>
+        <v>1.58</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="N15" t="n">
-        <v>6.4</v>
+        <v>2.68</v>
       </c>
       <c r="O15" t="n">
-        <v>1.16</v>
+        <v>1.53</v>
       </c>
       <c r="P15" t="n">
-        <v>2.84</v>
+        <v>1.55</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.51</v>
+        <v>2.64</v>
       </c>
       <c r="R15" t="n">
-        <v>1.72</v>
+        <v>1.22</v>
       </c>
       <c r="S15" t="n">
-        <v>2.32</v>
+        <v>5.4</v>
       </c>
       <c r="T15" t="n">
-        <v>1.5</v>
+        <v>2.08</v>
       </c>
       <c r="U15" t="n">
-        <v>2.76</v>
+        <v>1.77</v>
       </c>
       <c r="V15" t="n">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="W15" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="X15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>32</v>
       </c>
-      <c r="Y15" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AK15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN15" t="n">
         <v>32</v>
       </c>
-      <c r="AA15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>9</v>
-      </c>
       <c r="AO15" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="G16" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="H16" t="n">
-        <v>1.7</v>
+        <v>2.62</v>
       </c>
       <c r="I16" t="n">
-        <v>1.74</v>
+        <v>2.66</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>3.15</v>
       </c>
       <c r="K16" t="n">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N16" t="n">
-        <v>10.5</v>
+        <v>2.98</v>
       </c>
       <c r="O16" t="n">
-        <v>1.1</v>
+        <v>1.48</v>
       </c>
       <c r="P16" t="n">
-        <v>4.1</v>
+        <v>1.64</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.31</v>
+        <v>2.5</v>
       </c>
       <c r="R16" t="n">
-        <v>2.26</v>
+        <v>1.24</v>
       </c>
       <c r="S16" t="n">
-        <v>1.77</v>
+        <v>4.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
-        <v>3.35</v>
+        <v>1.93</v>
       </c>
       <c r="V16" t="n">
-        <v>2.36</v>
+        <v>1.6</v>
       </c>
       <c r="W16" t="n">
-        <v>1.26</v>
+        <v>1.42</v>
       </c>
       <c r="X16" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="Y16" t="n">
-        <v>23</v>
+        <v>8.6</v>
       </c>
       <c r="Z16" t="n">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="AB16" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="AC16" t="n">
-        <v>14</v>
+        <v>6.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="AF16" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="AG16" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AL16" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="AM16" t="n">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AO16" t="n">
-        <v>4.8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.25</v>
+        <v>3.85</v>
       </c>
       <c r="G17" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="H17" t="n">
-        <v>2.62</v>
+        <v>2.28</v>
       </c>
       <c r="I17" t="n">
-        <v>2.64</v>
+        <v>2.38</v>
       </c>
       <c r="J17" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="K17" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O17" t="n">
         <v>1.54</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.47</v>
-      </c>
       <c r="P17" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R17" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="S17" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="U17" t="n">
-        <v>1.98</v>
+        <v>1.78</v>
       </c>
       <c r="V17" t="n">
-        <v>1.6</v>
+        <v>1.72</v>
       </c>
       <c r="W17" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="X17" t="n">
         <v>10</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z17" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AB17" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
         <v>34</v>
       </c>
       <c r="AF17" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AG17" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI17" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ17" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AK17" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AM17" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.22</v>
+        <v>4.7</v>
       </c>
       <c r="G18" t="n">
-        <v>2.36</v>
+        <v>4.8</v>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>2.06</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>2.08</v>
       </c>
       <c r="J18" t="n">
-        <v>2.96</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="L18" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="M18" t="n">
         <v>1.13</v>
       </c>
       <c r="N18" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q18" t="n">
         <v>2.66</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.64</v>
-      </c>
       <c r="R18" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="S18" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="T18" t="n">
-        <v>2.06</v>
+        <v>2.28</v>
       </c>
       <c r="U18" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="V18" t="n">
-        <v>1.29</v>
+        <v>1.92</v>
       </c>
       <c r="W18" t="n">
-        <v>1.74</v>
+        <v>1.26</v>
       </c>
       <c r="X18" t="n">
         <v>8.6</v>
       </c>
       <c r="Y18" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB18" t="n">
         <v>12</v>
       </c>
-      <c r="Z18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AC18" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="AF18" t="n">
-        <v>13.5</v>
+        <v>32</v>
       </c>
       <c r="AG18" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="AH18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AO18" t="n">
         <v>24</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.85</v>
+        <v>1.89</v>
       </c>
       <c r="G19" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H19" t="n">
-        <v>2.28</v>
+        <v>5.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.4</v>
+        <v>5.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="K19" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="L19" t="n">
-        <v>1.6</v>
+        <v>1.49</v>
       </c>
       <c r="M19" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>2.66</v>
+        <v>3.35</v>
       </c>
       <c r="O19" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="P19" t="n">
-        <v>1.55</v>
+        <v>1.81</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.66</v>
+        <v>2.2</v>
       </c>
       <c r="R19" t="n">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="S19" t="n">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="T19" t="n">
         <v>2.06</v>
       </c>
       <c r="U19" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="V19" t="n">
-        <v>1.72</v>
+        <v>1.24</v>
       </c>
       <c r="W19" t="n">
-        <v>1.31</v>
+        <v>2.1</v>
       </c>
       <c r="X19" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>7.6</v>
+        <v>15</v>
       </c>
       <c r="Z19" t="n">
-        <v>13.5</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="n">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="AB19" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="AF19" t="n">
-        <v>28</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG19" t="n">
-        <v>18.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>120</v>
+        <v>19.5</v>
       </c>
       <c r="AK19" t="n">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AL19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM19" t="n">
         <v>110</v>
       </c>
-      <c r="AM19" t="n">
-        <v>1000</v>
-      </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>4.7</v>
+        <v>2.78</v>
       </c>
       <c r="G20" t="n">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
-        <v>2.04</v>
+        <v>3.05</v>
       </c>
       <c r="I20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T20" t="n">
         <v>2.06</v>
       </c>
-      <c r="J20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.28</v>
-      </c>
       <c r="U20" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="V20" t="n">
-        <v>1.94</v>
+        <v>1.47</v>
       </c>
       <c r="W20" t="n">
-        <v>1.26</v>
+        <v>1.55</v>
       </c>
       <c r="X20" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z20" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AF20" t="n">
-        <v>32</v>
+        <v>15.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL20" t="n">
         <v>60</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>110</v>
-      </c>
       <c r="AM20" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AN20" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AO20" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.88</v>
+        <v>2.2</v>
       </c>
       <c r="G21" t="n">
-        <v>1.89</v>
+        <v>2.24</v>
       </c>
       <c r="H21" t="n">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="I21" t="n">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="J21" t="n">
-        <v>3.55</v>
+        <v>2.96</v>
       </c>
       <c r="K21" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="N21" t="n">
-        <v>3.3</v>
+        <v>2.38</v>
       </c>
       <c r="O21" t="n">
-        <v>1.42</v>
+        <v>1.7</v>
       </c>
       <c r="P21" t="n">
-        <v>1.77</v>
+        <v>1.44</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.28</v>
+        <v>3.2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.29</v>
+        <v>1.15</v>
       </c>
       <c r="S21" t="n">
-        <v>4.3</v>
+        <v>7.2</v>
       </c>
       <c r="T21" t="n">
-        <v>2.06</v>
+        <v>2.48</v>
       </c>
       <c r="U21" t="n">
-        <v>1.9</v>
+        <v>1.64</v>
       </c>
       <c r="V21" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="W21" t="n">
-        <v>2.12</v>
+        <v>1.8</v>
       </c>
       <c r="X21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF21" t="n">
         <v>11</v>
       </c>
-      <c r="Y21" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z21" t="n">
+      <c r="AG21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK21" t="n">
         <v>36</v>
       </c>
-      <c r="AA21" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>21</v>
-      </c>
       <c r="AL21" t="n">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="AM21" t="n">
-        <v>130</v>
+        <v>290</v>
       </c>
       <c r="AN21" t="n">
-        <v>15.5</v>
+        <v>38</v>
       </c>
       <c r="AO21" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.76</v>
+        <v>16</v>
       </c>
       <c r="G22" t="n">
-        <v>2.8</v>
+        <v>16.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.05</v>
+        <v>1.27</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>1.28</v>
       </c>
       <c r="J22" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S22" t="n">
         <v>3.15</v>
       </c>
-      <c r="K22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
       <c r="T22" t="n">
-        <v>2.02</v>
+        <v>2.58</v>
       </c>
       <c r="U22" t="n">
-        <v>1.94</v>
+        <v>1.6</v>
       </c>
       <c r="V22" t="n">
-        <v>1.47</v>
+        <v>4.5</v>
       </c>
       <c r="W22" t="n">
-        <v>1.55</v>
+        <v>1.06</v>
       </c>
       <c r="X22" t="n">
-        <v>9.4</v>
+        <v>19.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="Z22" t="n">
-        <v>19</v>
+        <v>6.4</v>
       </c>
       <c r="AA22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>240</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI22" t="n">
         <v>55</v>
       </c>
-      <c r="AB22" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ22" t="n">
-        <v>42</v>
+        <v>930</v>
       </c>
       <c r="AK22" t="n">
-        <v>36</v>
+        <v>380</v>
       </c>
       <c r="AL22" t="n">
-        <v>55</v>
+        <v>300</v>
       </c>
       <c r="AM22" t="n">
-        <v>140</v>
+        <v>380</v>
       </c>
       <c r="AN22" t="n">
-        <v>38</v>
+        <v>600</v>
       </c>
       <c r="AO22" t="n">
-        <v>46</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,123 +3488,123 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Everton De Vina</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.22</v>
+        <v>1.97</v>
       </c>
       <c r="G23" t="n">
-        <v>2.26</v>
+        <v>2.02</v>
       </c>
       <c r="H23" t="n">
         <v>4.5</v>
       </c>
       <c r="I23" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S23" t="n">
         <v>4.7</v>
       </c>
-      <c r="J23" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S23" t="n">
-        <v>7.2</v>
-      </c>
       <c r="T23" t="n">
-        <v>2.46</v>
+        <v>2.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.64</v>
+        <v>1.84</v>
       </c>
       <c r="V23" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="W23" t="n">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="X23" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>970</v>
       </c>
       <c r="Z23" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
         <v>150</v>
       </c>
       <c r="AB23" t="n">
-        <v>6</v>
+        <v>7.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>7.2</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AF23" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG23" t="n">
         <v>11</v>
       </c>
-      <c r="AG23" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH23" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AJ23" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>310</v>
+        <v>190</v>
       </c>
       <c r="AN23" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>16</v>
+        <v>4.7</v>
       </c>
       <c r="G24" t="n">
-        <v>17</v>
+        <v>5.2</v>
       </c>
       <c r="H24" t="n">
-        <v>1.27</v>
+        <v>1.91</v>
       </c>
       <c r="I24" t="n">
-        <v>1.28</v>
+        <v>1.97</v>
       </c>
       <c r="J24" t="n">
-        <v>6.4</v>
+        <v>3.4</v>
       </c>
       <c r="K24" t="n">
-        <v>6.6</v>
+        <v>3.6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N24" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="O24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.29</v>
       </c>
-      <c r="P24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="S24" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U24" t="n">
         <v>1.9</v>
       </c>
-      <c r="R24" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.58</v>
-      </c>
       <c r="V24" t="n">
-        <v>4.5</v>
+        <v>2.02</v>
       </c>
       <c r="W24" t="n">
-        <v>1.06</v>
+        <v>1.23</v>
       </c>
       <c r="X24" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Z24" t="n">
         <v>19</v>
       </c>
-      <c r="Y24" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>6.2</v>
-      </c>
       <c r="AA24" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>11.5</v>
+        <v>970</v>
       </c>
       <c r="AE24" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="AH24" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK24" t="n">
-        <v>410</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>310</v>
+        <v>100</v>
       </c>
       <c r="AM24" t="n">
-        <v>400</v>
+        <v>170</v>
       </c>
       <c r="AN24" t="n">
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Everton De Vina</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.92</v>
+        <v>3.75</v>
       </c>
       <c r="G25" t="n">
-        <v>1.97</v>
+        <v>3.85</v>
       </c>
       <c r="H25" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="I25" t="n">
-        <v>4.9</v>
+        <v>2.56</v>
       </c>
       <c r="J25" t="n">
-        <v>3.55</v>
+        <v>2.9</v>
       </c>
       <c r="K25" t="n">
-        <v>3.75</v>
+        <v>2.96</v>
       </c>
       <c r="L25" t="n">
-        <v>1.48</v>
+        <v>1.69</v>
       </c>
       <c r="M25" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="N25" t="n">
-        <v>3.3</v>
+        <v>2.36</v>
       </c>
       <c r="O25" t="n">
-        <v>1.41</v>
+        <v>1.7</v>
       </c>
       <c r="P25" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.24</v>
+        <v>3.15</v>
       </c>
       <c r="R25" t="n">
-        <v>1.27</v>
+        <v>1.14</v>
       </c>
       <c r="S25" t="n">
-        <v>4.3</v>
+        <v>7.2</v>
       </c>
       <c r="T25" t="n">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="U25" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="V25" t="n">
-        <v>1.25</v>
+        <v>1.64</v>
       </c>
       <c r="W25" t="n">
-        <v>2.02</v>
+        <v>1.35</v>
       </c>
       <c r="X25" t="n">
-        <v>14</v>
+        <v>6.8</v>
       </c>
       <c r="Y25" t="n">
-        <v>970</v>
+        <v>6.8</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>150</v>
+        <v>42</v>
       </c>
       <c r="AB25" t="n">
-        <v>7.8</v>
+        <v>9</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AF25" t="n">
-        <v>11.5</v>
+        <v>23</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AI25" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM25" t="n">
-        <v>170</v>
+        <v>280</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="G26" t="n">
-        <v>5.2</v>
+        <v>3.75</v>
       </c>
       <c r="H26" t="n">
-        <v>1.91</v>
+        <v>2.56</v>
       </c>
       <c r="I26" t="n">
-        <v>1.97</v>
+        <v>2.62</v>
       </c>
       <c r="J26" t="n">
-        <v>3.4</v>
+        <v>2.94</v>
       </c>
       <c r="K26" t="n">
-        <v>3.6</v>
+        <v>2.96</v>
       </c>
       <c r="L26" t="n">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
       <c r="M26" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="N26" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="O26" t="n">
-        <v>1.41</v>
+        <v>1.64</v>
       </c>
       <c r="P26" t="n">
-        <v>1.75</v>
+        <v>1.49</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.24</v>
+        <v>2.98</v>
       </c>
       <c r="R26" t="n">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="S26" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.99</v>
+        <v>2.26</v>
       </c>
       <c r="U26" t="n">
-        <v>1.89</v>
+        <v>1.73</v>
       </c>
       <c r="V26" t="n">
-        <v>2.02</v>
+        <v>1.62</v>
       </c>
       <c r="W26" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="X26" t="n">
-        <v>13.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>14</v>
+        <v>6.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG26" t="n">
-        <v>24</v>
+        <v>17.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ26" t="n">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AL26" t="n">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="AM26" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.95</v>
+        <v>1.6</v>
       </c>
       <c r="G27" t="n">
-        <v>4.1</v>
+        <v>1.64</v>
       </c>
       <c r="H27" t="n">
-        <v>2.34</v>
+        <v>7</v>
       </c>
       <c r="I27" t="n">
-        <v>2.36</v>
+        <v>7.8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
       <c r="K27" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="L27" t="n">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="M27" t="n">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>2.34</v>
+        <v>3.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.73</v>
+        <v>1.36</v>
       </c>
       <c r="P27" t="n">
-        <v>1.43</v>
+        <v>1.84</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="R27" t="n">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="S27" t="n">
-        <v>7.6</v>
+        <v>3.9</v>
       </c>
       <c r="T27" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="U27" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="V27" t="n">
-        <v>1.73</v>
+        <v>1.15</v>
       </c>
       <c r="W27" t="n">
-        <v>1.33</v>
+        <v>2.56</v>
       </c>
       <c r="X27" t="n">
-        <v>7</v>
+        <v>970</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.4</v>
+        <v>970</v>
       </c>
       <c r="Z27" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="AF27" t="n">
-        <v>26</v>
+        <v>8.6</v>
       </c>
       <c r="AG27" t="n">
-        <v>19</v>
+        <v>10.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="AJ27" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AN27" t="n">
-        <v>140</v>
+        <v>15.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,132 +4163,132 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="G28" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="H28" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="I28" t="n">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="J28" t="n">
-        <v>2.86</v>
+        <v>3.15</v>
       </c>
       <c r="K28" t="n">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="L28" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="M28" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="N28" t="n">
-        <v>2.36</v>
+        <v>2.76</v>
       </c>
       <c r="O28" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="P28" t="n">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.2</v>
+        <v>2.66</v>
       </c>
       <c r="R28" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="S28" t="n">
-        <v>7.4</v>
+        <v>5.6</v>
       </c>
       <c r="T28" t="n">
-        <v>2.36</v>
+        <v>2.04</v>
       </c>
       <c r="U28" t="n">
-        <v>1.68</v>
+        <v>1.79</v>
       </c>
       <c r="V28" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="W28" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X28" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Y28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AA28" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AJ28" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AM28" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="AN28" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,99 +4298,99 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>OHiggins</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="G29" t="n">
-        <v>1.64</v>
+        <v>2.04</v>
       </c>
       <c r="H29" t="n">
-        <v>6.8</v>
+        <v>3.95</v>
       </c>
       <c r="I29" t="n">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="J29" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K29" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="L29" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S29" t="n">
         <v>3.55</v>
       </c>
-      <c r="O29" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="T29" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U29" t="n">
         <v>2.14</v>
       </c>
-      <c r="R29" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.79</v>
-      </c>
       <c r="V29" t="n">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="W29" t="n">
-        <v>2.56</v>
+        <v>1.96</v>
       </c>
       <c r="X29" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="Z29" t="n">
         <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>280</v>
+        <v>100</v>
       </c>
       <c r="AB29" t="n">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="AC29" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
         <v>10.5</v>
@@ -4399,22 +4399,22 @@
         <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
         <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL29" t="n">
         <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
       <c r="AN29" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO29" t="n">
         <v>1000</v>
@@ -4423,7 +4423,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Colombian Primera A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>3.35</v>
+        <v>2.04</v>
       </c>
       <c r="H30" t="n">
-        <v>2.56</v>
+        <v>5.1</v>
       </c>
       <c r="I30" t="n">
-        <v>2.64</v>
+        <v>5.3</v>
       </c>
       <c r="J30" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L30" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="M30" t="n">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="N30" t="n">
-        <v>2.74</v>
+        <v>2.48</v>
       </c>
       <c r="O30" t="n">
-        <v>1.53</v>
+        <v>1.65</v>
       </c>
       <c r="P30" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.68</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="S30" t="n">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="T30" t="n">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="U30" t="n">
-        <v>1.79</v>
+        <v>1.64</v>
       </c>
       <c r="V30" t="n">
-        <v>1.6</v>
+        <v>1.23</v>
       </c>
       <c r="W30" t="n">
-        <v>1.42</v>
+        <v>1.96</v>
       </c>
       <c r="X30" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="Y30" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="AC30" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL30" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM30" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20:30:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>OHiggins</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Deportes Concepcion</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.97</v>
+        <v>1.74</v>
       </c>
       <c r="G31" t="n">
-        <v>2.04</v>
+        <v>1.75</v>
       </c>
       <c r="H31" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I31" t="n">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="J31" t="n">
         <v>3.7</v>
       </c>
       <c r="K31" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L31" t="n">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="M31" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N31" t="n">
-        <v>3.85</v>
+        <v>2.96</v>
       </c>
       <c r="O31" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="P31" t="n">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.97</v>
+        <v>2.48</v>
       </c>
       <c r="R31" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="S31" t="n">
-        <v>3.55</v>
+        <v>5</v>
       </c>
       <c r="T31" t="n">
-        <v>1.8</v>
+        <v>2.28</v>
       </c>
       <c r="U31" t="n">
-        <v>2.14</v>
+        <v>1.72</v>
       </c>
       <c r="V31" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="W31" t="n">
-        <v>1.96</v>
+        <v>2.32</v>
       </c>
       <c r="X31" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Y31" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA31" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AB31" t="n">
-        <v>9.4</v>
+        <v>6.2</v>
       </c>
       <c r="AC31" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF31" t="n">
         <v>8.6</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>13</v>
       </c>
       <c r="AG31" t="n">
         <v>10.5</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AK31" t="n">
         <v>22</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM31" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="AN31" t="n">
-        <v>14.5</v>
+        <v>16.5</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,396 +4703,126 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Argentinos Juniors</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Belgrano</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.74</v>
+        <v>3.9</v>
       </c>
       <c r="G32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U32" t="n">
         <v>1.76</v>
       </c>
-      <c r="H32" t="n">
-        <v>6</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.72</v>
-      </c>
       <c r="V32" t="n">
-        <v>1.18</v>
+        <v>1.73</v>
       </c>
       <c r="W32" t="n">
-        <v>2.3</v>
+        <v>1.33</v>
       </c>
       <c r="X32" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.5</v>
+        <v>7.6</v>
       </c>
       <c r="Z32" t="n">
-        <v>55</v>
+        <v>13.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="AB32" t="n">
-        <v>6.4</v>
+        <v>11</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF32" t="n">
         <v>27</v>
       </c>
-      <c r="AE32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AG32" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="AH32" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI32" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="AJ32" t="n">
-        <v>17.5</v>
+        <v>95</v>
       </c>
       <c r="AK32" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AL32" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AM32" t="n">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="AN32" t="n">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="AO32" t="n">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Union Santa Fe</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Gimnasia Mendoza</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="H33" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S33" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="X33" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>290</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Deportivo Pereira</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G34" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="I34" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X34" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>140</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>230</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO32"/>
+  <dimension ref="A1:AO25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,111 +653,111 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>15:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>AVS Futebol SAD</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Otelul Galati</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.9</v>
+        <v>230</v>
       </c>
       <c r="G2" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>8.199999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>1.02</v>
       </c>
       <c r="J2" t="n">
-        <v>1.37</v>
+        <v>60</v>
       </c>
       <c r="K2" t="n">
-        <v>1.39</v>
+        <v>75</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="V2" t="n">
+        <v>55</v>
+      </c>
+      <c r="W2" t="n">
         <v>1.01</v>
       </c>
-      <c r="Q2" t="n">
-        <v>100</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S2" t="n">
-        <v>100</v>
-      </c>
-      <c r="T2" t="n">
-        <v>29</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.21</v>
-      </c>
       <c r="X2" t="n">
-        <v>1.44</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>230</v>
+        <v>2.34</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ2" t="n">
-        <v>590</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -772,13 +772,13 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.17</v>
+        <v>5.1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.19</v>
+        <v>5.6</v>
       </c>
       <c r="H3" t="n">
-        <v>32</v>
+        <v>1.99</v>
       </c>
       <c r="I3" t="n">
-        <v>38</v>
+        <v>2.02</v>
       </c>
       <c r="J3" t="n">
-        <v>7.8</v>
+        <v>3.15</v>
       </c>
       <c r="K3" t="n">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,34 +826,34 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.77</v>
+        <v>6.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.22</v>
+        <v>1.17</v>
       </c>
       <c r="R3" t="n">
-        <v>1.23</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>1.86</v>
       </c>
       <c r="T3" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.02</v>
+        <v>1.92</v>
       </c>
       <c r="W3" t="n">
-        <v>6.4</v>
+        <v>1.22</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -868,52 +868,52 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>5</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>7.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>65</v>
+        <v>5.6</v>
       </c>
       <c r="AE3" t="n">
-        <v>480</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO3" t="n">
         <v>9</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>48</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>410</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Vitesse Arnhem</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>21</v>
+        <v>2.9</v>
       </c>
       <c r="G4" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>1.33</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>1.34</v>
+        <v>4.3</v>
       </c>
       <c r="J4" t="n">
-        <v>4.9</v>
+        <v>2.34</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,94 +961,94 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.62</v>
+        <v>3.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.56</v>
+        <v>1.43</v>
       </c>
       <c r="R4" t="n">
-        <v>1.16</v>
+        <v>1.55</v>
       </c>
       <c r="S4" t="n">
-        <v>6.6</v>
+        <v>2.72</v>
       </c>
       <c r="T4" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>3.95</v>
+        <v>1.29</v>
       </c>
       <c r="W4" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.1</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
         <v>5</v>
       </c>
-      <c r="AA4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>29</v>
-      </c>
       <c r="AH4" t="n">
-        <v>30</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AI4" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>230</v>
+        <v>16.5</v>
       </c>
       <c r="AL4" t="n">
-        <v>290</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO4" t="n">
-        <v>27</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:47</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Akhdoud</t>
+          <t>Jong Ajax Amsterdam</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>NEOM Sports Club</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.22</v>
+        <v>4.1</v>
       </c>
       <c r="G5" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.45</v>
+        <v>2.6</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>2.62</v>
       </c>
       <c r="J5" t="n">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>1.87</v>
       </c>
       <c r="O5" t="n">
-        <v>1.15</v>
+        <v>2.12</v>
       </c>
       <c r="P5" t="n">
-        <v>2.24</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.72</v>
+        <v>4.9</v>
       </c>
       <c r="R5" t="n">
-        <v>1.37</v>
+        <v>1.07</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>13</v>
       </c>
       <c r="T5" t="n">
-        <v>1.25</v>
+        <v>3.15</v>
       </c>
       <c r="U5" t="n">
-        <v>4</v>
+        <v>1.43</v>
       </c>
       <c r="V5" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>1.71</v>
+        <v>1.31</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB5" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC5" t="n">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.2</v>
+        <v>18</v>
       </c>
       <c r="AE5" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AF5" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AG5" t="n">
-        <v>9.4</v>
+        <v>27</v>
       </c>
       <c r="AH5" t="n">
-        <v>13.5</v>
+        <v>55</v>
       </c>
       <c r="AI5" t="n">
-        <v>38</v>
+        <v>270</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AM5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
         <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>26</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:33:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Jong FC Utrecht</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.12</v>
+        <v>2.46</v>
       </c>
       <c r="G6" t="n">
-        <v>2.16</v>
+        <v>2.52</v>
       </c>
       <c r="H6" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I6" t="n">
         <v>4.4</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>2.68</v>
       </c>
       <c r="K6" t="n">
-        <v>3.4</v>
+        <v>2.74</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.55</v>
+        <v>4.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.76</v>
+        <v>1.27</v>
       </c>
       <c r="R6" t="n">
-        <v>1.22</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
-        <v>5.4</v>
+        <v>2.22</v>
       </c>
       <c r="T6" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="W6" t="n">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="X6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>990</v>
+        <v>7.6</v>
       </c>
       <c r="AE6" t="n">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="AF6" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
         <v>12</v>
       </c>
-      <c r="AH6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>36</v>
-      </c>
       <c r="AL6" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="AM6" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AN6" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AO6" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Israeli Premier League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hapoel Kiryat Shmona</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Maccabi Tel Aviv</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>13</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>1.05</v>
       </c>
       <c r="H7" t="n">
-        <v>1.26</v>
+        <v>60</v>
       </c>
       <c r="I7" t="n">
-        <v>1.28</v>
+        <v>300</v>
       </c>
       <c r="J7" t="n">
-        <v>6.4</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1366,94 +1366,94 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W7" t="n">
+        <v>21</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN7" t="n">
         <v>2.24</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="V7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>44</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>130</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>85</v>
-      </c>
       <c r="AO7" t="n">
-        <v>4</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Polish Ekstraklasa</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nieciecza</t>
+          <t>Giana Erminio</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cracovia Krakow</t>
+          <t>Union Brescia</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.1</v>
+        <v>13.5</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>14.5</v>
       </c>
       <c r="H8" t="n">
-        <v>2.6</v>
+        <v>1.39</v>
       </c>
       <c r="I8" t="n">
-        <v>2.64</v>
+        <v>1.43</v>
       </c>
       <c r="J8" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="L8" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>2.82</v>
+        <v>3.7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="P8" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="R8" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="S8" t="n">
-        <v>5.3</v>
+        <v>7.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="U8" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="V8" t="n">
-        <v>1.61</v>
+        <v>3.35</v>
       </c>
       <c r="W8" t="n">
-        <v>1.45</v>
+        <v>1.07</v>
       </c>
       <c r="X8" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.199999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="Z8" t="n">
-        <v>14.5</v>
+        <v>5.8</v>
       </c>
       <c r="AA8" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.2</v>
+        <v>5.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE8" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AF8" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>14.5</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="AL8" t="n">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="AM8" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AVS Futebol SAD</t>
+          <t>Renate</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>ASD Alcione</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>11</v>
+        <v>2.72</v>
       </c>
       <c r="G9" t="n">
-        <v>12</v>
+        <v>2.88</v>
       </c>
       <c r="H9" t="n">
-        <v>1.37</v>
+        <v>4.4</v>
       </c>
       <c r="I9" t="n">
-        <v>1.38</v>
+        <v>4.7</v>
       </c>
       <c r="J9" t="n">
-        <v>5.4</v>
+        <v>2.32</v>
       </c>
       <c r="K9" t="n">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.37</v>
+        <v>26</v>
       </c>
       <c r="M9" t="n">
-        <v>1.06</v>
+        <v>1.4</v>
       </c>
       <c r="N9" t="n">
-        <v>4.4</v>
+        <v>1.54</v>
       </c>
       <c r="O9" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="S9" t="n">
+        <v>27</v>
+      </c>
+      <c r="T9" t="n">
+        <v>4</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.27</v>
       </c>
-      <c r="P9" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3.65</v>
-      </c>
       <c r="W9" t="n">
-        <v>1.09</v>
+        <v>1.54</v>
       </c>
       <c r="X9" t="n">
-        <v>18</v>
+        <v>3.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.4</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>30</v>
+        <v>4.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD9" t="n">
-        <v>9.800000000000001</v>
+        <v>990</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>110</v>
+        <v>15.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>990</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>990</v>
       </c>
       <c r="AI9" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>480</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Malaga</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>5.6</v>
+        <v>1.63</v>
       </c>
       <c r="G10" t="n">
-        <v>5.8</v>
+        <v>1.64</v>
       </c>
       <c r="H10" t="n">
-        <v>1.55</v>
+        <v>7.6</v>
       </c>
       <c r="I10" t="n">
-        <v>1.57</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="K10" t="n">
-        <v>5.7</v>
+        <v>3.85</v>
       </c>
       <c r="L10" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>8.6</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.11</v>
+        <v>1.31</v>
       </c>
       <c r="P10" t="n">
-        <v>3.55</v>
+        <v>1.71</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.37</v>
+        <v>2.38</v>
       </c>
       <c r="R10" t="n">
-        <v>2.04</v>
+        <v>1.19</v>
       </c>
       <c r="S10" t="n">
-        <v>1.92</v>
+        <v>5.9</v>
       </c>
       <c r="T10" t="n">
-        <v>1.52</v>
+        <v>1.74</v>
       </c>
       <c r="U10" t="n">
-        <v>2.74</v>
+        <v>2.32</v>
       </c>
       <c r="V10" t="n">
-        <v>2.76</v>
+        <v>1.14</v>
       </c>
       <c r="W10" t="n">
-        <v>1.21</v>
+        <v>2.52</v>
       </c>
       <c r="X10" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>38</v>
+        <v>4.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>14.5</v>
+        <v>5</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>14.5</v>
+        <v>55</v>
       </c>
       <c r="AF10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>390</v>
+      </c>
+      <c r="AN10" t="n">
         <v>60</v>
       </c>
-      <c r="AG10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>36</v>
-      </c>
       <c r="AO10" t="n">
-        <v>4.4</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Vitesse Arnhem</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.98</v>
+        <v>4.1</v>
       </c>
       <c r="G11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="O11" t="n">
         <v>2.02</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.24</v>
-      </c>
       <c r="P11" t="n">
-        <v>2.3</v>
+        <v>1.29</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.74</v>
+        <v>4.3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="S11" t="n">
-        <v>2.86</v>
+        <v>12</v>
       </c>
       <c r="T11" t="n">
-        <v>1.67</v>
+        <v>3.05</v>
       </c>
       <c r="U11" t="n">
-        <v>2.4</v>
+        <v>1.45</v>
       </c>
       <c r="V11" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="W11" t="n">
-        <v>1.98</v>
+        <v>1.31</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>5.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>18.5</v>
+        <v>5.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="AH11" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="AJ11" t="n">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="AK11" t="n">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="AL11" t="n">
-        <v>28</v>
+        <v>300</v>
       </c>
       <c r="AM11" t="n">
-        <v>75</v>
+        <v>490</v>
       </c>
       <c r="AN11" t="n">
-        <v>10.5</v>
+        <v>300</v>
       </c>
       <c r="AO11" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jong Ajax Amsterdam</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Willem II</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>4.5</v>
+        <v>2.86</v>
       </c>
       <c r="H12" t="n">
-        <v>1.8</v>
+        <v>3.05</v>
       </c>
       <c r="I12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S12" t="n">
+        <v>6</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.83</v>
       </c>
-      <c r="J12" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
+      <c r="V12" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC12" t="n">
         <v>6.6</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="X12" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z12" t="n">
+      <c r="AD12" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="AF12" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="AJ12" t="n">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="AK12" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AL12" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="n">
-        <v>55</v>
+        <v>240</v>
       </c>
       <c r="AN12" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AO12" t="n">
-        <v>7.2</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jong FC Utrecht</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.06</v>
+        <v>1.32</v>
       </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>1.33</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>13.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3.65</v>
+        <v>14.5</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>5.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="n">
-        <v>2.68</v>
+        <v>2.24</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="R13" t="n">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="S13" t="n">
-        <v>2.44</v>
+        <v>3.45</v>
       </c>
       <c r="T13" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="U13" t="n">
-        <v>2.6</v>
+        <v>2.08</v>
       </c>
       <c r="V13" t="n">
-        <v>1.37</v>
+        <v>1.07</v>
       </c>
       <c r="W13" t="n">
-        <v>1.9</v>
+        <v>4</v>
       </c>
       <c r="X13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>95</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL13" t="n">
         <v>36</v>
       </c>
-      <c r="AA13" t="n">
-        <v>85</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG13" t="n">
+      <c r="AM13" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN13" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>980</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AO13" t="n">
-        <v>23</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Gimnasia La Plata</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.6</v>
+        <v>2.06</v>
       </c>
       <c r="G14" t="n">
-        <v>4.7</v>
+        <v>2.08</v>
       </c>
       <c r="H14" t="n">
-        <v>1.71</v>
+        <v>5.1</v>
       </c>
       <c r="I14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L14" t="n">
         <v>1.72</v>
       </c>
-      <c r="J14" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.19</v>
-      </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="N14" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X14" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>170</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF14" t="n">
         <v>10.5</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U14" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X14" t="n">
-        <v>90</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>44</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>55</v>
-      </c>
       <c r="AG14" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AI14" t="n">
-        <v>19.5</v>
+        <v>170</v>
       </c>
       <c r="AJ14" t="n">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="AK14" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AL14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>320</v>
+      </c>
+      <c r="AN14" t="n">
         <v>36</v>
       </c>
-      <c r="AM14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>20</v>
-      </c>
       <c r="AO14" t="n">
-        <v>4.8</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Renate</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ASD Alcione</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.22</v>
+        <v>16.5</v>
       </c>
       <c r="G15" t="n">
-        <v>2.36</v>
+        <v>17.5</v>
       </c>
       <c r="H15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J15" t="n">
+        <v>6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N15" t="n">
         <v>4</v>
       </c>
-      <c r="I15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T15" t="n">
         <v>2.68</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.08</v>
-      </c>
       <c r="U15" t="n">
-        <v>1.77</v>
+        <v>1.56</v>
       </c>
       <c r="V15" t="n">
-        <v>1.29</v>
+        <v>4.4</v>
       </c>
       <c r="W15" t="n">
-        <v>1.73</v>
+        <v>1.06</v>
       </c>
       <c r="X15" t="n">
-        <v>8.6</v>
+        <v>16.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z15" t="n">
-        <v>30</v>
+        <v>6.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.4</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="n">
-        <v>7</v>
+        <v>13.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>13.5</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="AH15" t="n">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>34</v>
+        <v>430</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>320</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>390</v>
       </c>
       <c r="AN15" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Everton De Vina</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Union La Calera</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.25</v>
+        <v>2.02</v>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>2.06</v>
       </c>
       <c r="H16" t="n">
-        <v>2.62</v>
+        <v>4.3</v>
       </c>
       <c r="I16" t="n">
-        <v>2.66</v>
+        <v>4.6</v>
       </c>
       <c r="J16" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K16" t="n">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="M16" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N16" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="O16" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="P16" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R16" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S16" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U16" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="V16" t="n">
-        <v>1.6</v>
+        <v>1.27</v>
       </c>
       <c r="W16" t="n">
-        <v>1.42</v>
+        <v>1.94</v>
       </c>
       <c r="X16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.6</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="AB16" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>12.5</v>
+        <v>970</v>
       </c>
       <c r="AE16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="AK16" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AM16" t="n">
-        <v>150</v>
+        <v>190</v>
       </c>
       <c r="AN16" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Giana Erminio</t>
+          <t>Deportivo Recoleta</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Union Brescia</t>
+          <t>Libertad</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.85</v>
+        <v>5.1</v>
       </c>
       <c r="G17" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="H17" t="n">
-        <v>2.28</v>
+        <v>1.85</v>
       </c>
       <c r="I17" t="n">
-        <v>2.38</v>
+        <v>1.9</v>
       </c>
       <c r="J17" t="n">
-        <v>2.98</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="L17" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="N17" t="n">
-        <v>2.66</v>
+        <v>3.35</v>
       </c>
       <c r="O17" t="n">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="P17" t="n">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="R17" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="S17" t="n">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="T17" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="U17" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="V17" t="n">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="W17" t="n">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="X17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AB17" t="n">
-        <v>11.5</v>
+        <v>16</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AF17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG17" t="n">
         <v>28</v>
       </c>
-      <c r="AG17" t="n">
-        <v>18</v>
-      </c>
       <c r="AH17" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AI17" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AJ17" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="AK17" t="n">
         <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN17" t="n">
         <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="G18" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="H18" t="n">
-        <v>2.06</v>
+        <v>2.42</v>
       </c>
       <c r="I18" t="n">
-        <v>2.08</v>
+        <v>2.44</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>2.98</v>
       </c>
       <c r="K18" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="L18" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="M18" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="N18" t="n">
-        <v>2.76</v>
+        <v>2.4</v>
       </c>
       <c r="O18" t="n">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="P18" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.66</v>
+        <v>3.15</v>
       </c>
       <c r="R18" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="S18" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="T18" t="n">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="U18" t="n">
-        <v>1.77</v>
+        <v>1.66</v>
       </c>
       <c r="V18" t="n">
-        <v>1.92</v>
+        <v>1.69</v>
       </c>
       <c r="W18" t="n">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="X18" t="n">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>10.5</v>
+        <v>13</v>
       </c>
       <c r="AA18" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="n">
-        <v>12</v>
+        <v>9.6</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AF18" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AG18" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI18" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AJ18" t="n">
+        <v>90</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL18" t="n">
         <v>120</v>
       </c>
-      <c r="AK18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>100</v>
-      </c>
       <c r="AM18" t="n">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="AN18" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AO18" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.89</v>
+        <v>3.6</v>
       </c>
       <c r="G19" t="n">
-        <v>1.9</v>
+        <v>3.7</v>
       </c>
       <c r="H19" t="n">
-        <v>5.1</v>
+        <v>2.54</v>
       </c>
       <c r="I19" t="n">
-        <v>5.2</v>
+        <v>2.58</v>
       </c>
       <c r="J19" t="n">
-        <v>3.55</v>
+        <v>2.94</v>
       </c>
       <c r="K19" t="n">
-        <v>3.6</v>
+        <v>2.98</v>
       </c>
       <c r="L19" t="n">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
       <c r="M19" t="n">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="N19" t="n">
-        <v>3.35</v>
+        <v>2.52</v>
       </c>
       <c r="O19" t="n">
-        <v>1.4</v>
+        <v>1.63</v>
       </c>
       <c r="P19" t="n">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.2</v>
+        <v>2.96</v>
       </c>
       <c r="R19" t="n">
-        <v>1.31</v>
+        <v>1.17</v>
       </c>
       <c r="S19" t="n">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="T19" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="U19" t="n">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="V19" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="W19" t="n">
-        <v>2.1</v>
+        <v>1.37</v>
       </c>
       <c r="X19" t="n">
-        <v>11.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y19" t="n">
-        <v>15</v>
+        <v>7.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>36</v>
+        <v>13.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="AB19" t="n">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="n">
-        <v>9.800000000000001</v>
+        <v>23</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
         <v>75</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19.5</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="AL19" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="AM19" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN19" t="n">
         <v>110</v>
       </c>
-      <c r="AN19" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AO19" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.78</v>
+        <v>1.6</v>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>1.64</v>
       </c>
       <c r="H20" t="n">
-        <v>3.05</v>
+        <v>7</v>
       </c>
       <c r="I20" t="n">
-        <v>3.1</v>
+        <v>7.8</v>
       </c>
       <c r="J20" t="n">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="K20" t="n">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="L20" t="n">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="M20" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>2.92</v>
+        <v>3.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="R20" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="S20" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="T20" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="U20" t="n">
-        <v>1.9</v>
+        <v>1.81</v>
       </c>
       <c r="V20" t="n">
-        <v>1.47</v>
+        <v>1.15</v>
       </c>
       <c r="W20" t="n">
-        <v>1.55</v>
+        <v>2.56</v>
       </c>
       <c r="X20" t="n">
-        <v>9.199999999999999</v>
+        <v>970</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.4</v>
+        <v>970</v>
       </c>
       <c r="Z20" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="AB20" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="AF20" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN20" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>40</v>
-      </c>
       <c r="AO20" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="G21" t="n">
-        <v>2.24</v>
+        <v>3.3</v>
       </c>
       <c r="H21" t="n">
-        <v>4.5</v>
+        <v>2.56</v>
       </c>
       <c r="I21" t="n">
-        <v>4.7</v>
+        <v>2.64</v>
       </c>
       <c r="J21" t="n">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="K21" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="M21" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="N21" t="n">
-        <v>2.38</v>
+        <v>2.82</v>
       </c>
       <c r="O21" t="n">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="P21" t="n">
-        <v>1.44</v>
+        <v>1.59</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="R21" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="S21" t="n">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="T21" t="n">
-        <v>2.48</v>
+        <v>2.06</v>
       </c>
       <c r="U21" t="n">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>1.27</v>
+        <v>1.6</v>
       </c>
       <c r="W21" t="n">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="X21" t="n">
-        <v>6.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.5</v>
+        <v>8</v>
       </c>
       <c r="Z21" t="n">
-        <v>30</v>
+        <v>16.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AF21" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AH21" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI21" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM21" t="n">
-        <v>290</v>
+        <v>200</v>
       </c>
       <c r="AN21" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>OHiggins</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>16</v>
+        <v>1.96</v>
       </c>
       <c r="G22" t="n">
+        <v>2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2</v>
+      </c>
+      <c r="X22" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD22" t="n">
         <v>16.5</v>
       </c>
-      <c r="H22" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="J22" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K22" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="X22" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC22" t="n">
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN22" t="n">
         <v>14</v>
       </c>
-      <c r="AD22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>240</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>930</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>380</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>300</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>380</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>600</v>
-      </c>
       <c r="AO22" t="n">
-        <v>5.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Everton De Vina</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S23" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W23" t="n">
         <v>2.02</v>
       </c>
-      <c r="H23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I23" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.98</v>
-      </c>
       <c r="X23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y23" t="n">
         <v>13</v>
       </c>
-      <c r="Y23" t="n">
-        <v>970</v>
-      </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA23" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AE23" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AF23" t="n">
-        <v>14</v>
+        <v>9.4</v>
       </c>
       <c r="AG23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI23" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM23" t="n">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.7</v>
+        <v>1.74</v>
       </c>
       <c r="G24" t="n">
-        <v>5.2</v>
+        <v>1.75</v>
       </c>
       <c r="H24" t="n">
-        <v>1.91</v>
+        <v>6.2</v>
       </c>
       <c r="I24" t="n">
-        <v>1.97</v>
+        <v>6.6</v>
       </c>
       <c r="J24" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K24" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="M24" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="N24" t="n">
-        <v>3.25</v>
+        <v>2.84</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="P24" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.22</v>
+        <v>2.6</v>
       </c>
       <c r="R24" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="S24" t="n">
-        <v>4.2</v>
+        <v>5.3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.96</v>
+        <v>2.38</v>
       </c>
       <c r="U24" t="n">
-        <v>1.9</v>
+        <v>1.68</v>
       </c>
       <c r="V24" t="n">
-        <v>2.02</v>
+        <v>1.17</v>
       </c>
       <c r="W24" t="n">
-        <v>1.23</v>
+        <v>2.32</v>
       </c>
       <c r="X24" t="n">
-        <v>12</v>
+        <v>9.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>7.8</v>
+        <v>15.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>5.9</v>
       </c>
       <c r="AC24" t="n">
-        <v>13.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD24" t="n">
-        <v>970</v>
+        <v>28</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AF24" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AG24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK24" t="n">
         <v>24</v>
       </c>
-      <c r="AH24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL24" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AM24" t="n">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,111 +3758,111 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="G25" t="n">
-        <v>3.85</v>
+        <v>4.2</v>
       </c>
       <c r="H25" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="I25" t="n">
-        <v>2.56</v>
+        <v>2.28</v>
       </c>
       <c r="J25" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="K25" t="n">
-        <v>2.96</v>
+        <v>3.2</v>
       </c>
       <c r="L25" t="n">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="M25" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="N25" t="n">
-        <v>2.36</v>
+        <v>2.88</v>
       </c>
       <c r="O25" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="P25" t="n">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.15</v>
+        <v>2.62</v>
       </c>
       <c r="R25" t="n">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="S25" t="n">
-        <v>7.2</v>
+        <v>5.3</v>
       </c>
       <c r="T25" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="U25" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="V25" t="n">
-        <v>1.64</v>
+        <v>1.78</v>
       </c>
       <c r="W25" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="X25" t="n">
-        <v>6.8</v>
+        <v>9</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z25" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AB25" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AC25" t="n">
         <v>7</v>
       </c>
       <c r="AD25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE25" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AF25" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH25" t="n">
         <v>23</v>
       </c>
-      <c r="AG25" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>30</v>
-      </c>
       <c r="AI25" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ25" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="n">
         <v>70</v>
@@ -3871,958 +3871,13 @@
         <v>120</v>
       </c>
       <c r="AM25" t="n">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="AN25" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AO25" t="n">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>19:45:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Defensa y Justicia</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Estudiantes</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="S26" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X26" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>95</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Paraguayan Primera Division</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>20:15:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Cerro Porteno</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Sportivo Luqueno</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-      <c r="I27" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W27" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="X27" t="n">
-        <v>970</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>970</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>280</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>20:20:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>La Equidad</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="G28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N28" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="X28" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>110</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Chilean Primera Division</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>OHiggins</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Deportes Concepcion</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="X29" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Union Santa Fe</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Gimnasia Mendoza</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H30" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S30" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="X30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>160</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>6</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>36</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>280</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Argentinos Juniors</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Belgrano</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-      <c r="I31" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S31" t="n">
-        <v>5</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="W31" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="X31" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH31" t="n">
         <v>29</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>260</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Deportivo Pereira</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G32" t="n">
-        <v>4</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W32" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X32" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>27</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>210</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>95</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gimnasia La Plata</t>
+          <t>Tigre</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Racing Club</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="G2" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="H2" t="n">
-        <v>300</v>
+        <v>34</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>4.7</v>
       </c>
       <c r="K2" t="n">
-        <v>520</v>
+        <v>4.8</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="W2" t="n">
-        <v>100</v>
+        <v>3.9</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,22 +733,22 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>1.64</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>5.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -757,19 +757,19 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.21</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>390</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,90 +788,90 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>19:45:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Defensa y Justicia</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Estudiantes</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.12</v>
+        <v>4.1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.14</v>
+        <v>4.4</v>
       </c>
       <c r="H3" t="n">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>5.6</v>
+        <v>12.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.82</v>
+        <v>1.46</v>
       </c>
       <c r="K3" t="n">
-        <v>2.84</v>
+        <v>1.48</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="R3" t="n">
-        <v>2.38</v>
+        <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>1.71</v>
+        <v>690</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="V3" t="n">
-        <v>1.26</v>
+        <v>1.1</v>
       </c>
       <c r="W3" t="n">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>1.52</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -880,40 +880,40 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG3" t="n">
-        <v>2.62</v>
+        <v>410</v>
       </c>
       <c r="AH3" t="n">
-        <v>2.98</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chilean Primera Division</t>
+          <t>Paraguayan Primera Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:15:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Everton De Vina</t>
+          <t>Cerro Porteno</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Union La Calera</t>
+          <t>Sportivo Luqueno</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>7.4</v>
+        <v>1.03</v>
       </c>
       <c r="G4" t="n">
-        <v>8.4</v>
+        <v>1.04</v>
       </c>
       <c r="H4" t="n">
-        <v>1.06</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>20</v>
+        <v>330</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>29</v>
       </c>
       <c r="K4" t="n">
-        <v>3.45</v>
+        <v>36</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,43 +961,43 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.52</v>
+        <v>3.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.03</v>
+        <v>1.43</v>
       </c>
       <c r="R4" t="n">
-        <v>1.1</v>
+        <v>1.49</v>
       </c>
       <c r="S4" t="n">
-        <v>8.199999999999999</v>
+        <v>2.92</v>
       </c>
       <c r="T4" t="n">
-        <v>1.94</v>
+        <v>2.82</v>
       </c>
       <c r="U4" t="n">
-        <v>1.91</v>
+        <v>1.48</v>
       </c>
       <c r="V4" t="n">
         <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>26</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.75</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
@@ -1006,40 +1006,40 @@
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="AG4" t="n">
-        <v>790</v>
+        <v>8</v>
       </c>
       <c r="AH4" t="n">
-        <v>990</v>
+        <v>44</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>370</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>490</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,123 +1058,123 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18:00:00</t>
+          <t>20:20:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Deportivo Recoleta</t>
+          <t>La Equidad</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Libertad</t>
+          <t>Tolima</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>14</v>
+        <v>2.02</v>
       </c>
       <c r="G5" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H5" t="n">
-        <v>1.21</v>
+        <v>1.7</v>
       </c>
       <c r="I5" t="n">
-        <v>1.45</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>3.55</v>
+        <v>1.05</v>
       </c>
       <c r="K5" t="n">
-        <v>6.6</v>
+        <v>2.68</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="N5" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="O5" t="n">
-        <v>2.54</v>
+        <v>2.64</v>
       </c>
       <c r="P5" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R5" t="n">
         <v>1.03</v>
       </c>
       <c r="S5" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="T5" t="n">
-        <v>1.39</v>
+        <v>4.7</v>
       </c>
       <c r="U5" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="V5" t="n">
-        <v>1.66</v>
+        <v>1.11</v>
       </c>
       <c r="W5" t="n">
-        <v>1.21</v>
+        <v>1.94</v>
       </c>
       <c r="X5" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>12</v>
+        <v>4.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>990</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>990</v>
+        <v>85</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AG5" t="n">
         <v>990</v>
       </c>
       <c r="AH5" t="n">
-        <v>990</v>
+        <v>160</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Argentinian Primera Division</t>
+          <t>Chilean Primera Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>20:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>OHiggins</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Deportes Concepcion</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1.36</v>
       </c>
       <c r="G6" t="n">
-        <v>4.2</v>
+        <v>1.38</v>
       </c>
       <c r="H6" t="n">
-        <v>2.36</v>
+        <v>13</v>
       </c>
       <c r="I6" t="n">
-        <v>2.4</v>
+        <v>14.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.96</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.98</v>
+        <v>5.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.44</v>
+        <v>4.8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>1.46</v>
+        <v>1.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.15</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="S6" t="n">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>1.92</v>
       </c>
       <c r="U6" t="n">
-        <v>1.68</v>
+        <v>1.98</v>
       </c>
       <c r="V6" t="n">
-        <v>1.71</v>
+        <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>1.31</v>
+        <v>3.6</v>
       </c>
       <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AC6" t="n">
         <v>7.2</v>
       </c>
-      <c r="Y6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Z6" t="n">
+      <c r="AD6" t="n">
+        <v>880</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>13</v>
       </c>
-      <c r="AA6" t="n">
-        <v>36</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG6" t="n">
+      <c r="AK6" t="n">
         <v>18.5</v>
       </c>
-      <c r="AH6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>75</v>
-      </c>
       <c r="AL6" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="AM6" t="n">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="AN6" t="n">
-        <v>120</v>
+        <v>18.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>44</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.7</v>
       </c>
-      <c r="G7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.05</v>
-      </c>
       <c r="L7" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.65</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="R7" t="n">
+      <c r="V7" t="n">
         <v>1.17</v>
       </c>
-      <c r="S7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T7" t="n">
+      <c r="W7" t="n">
         <v>2.28</v>
       </c>
-      <c r="U7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.35</v>
-      </c>
       <c r="X7" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.2</v>
+        <v>15</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="AA7" t="n">
-        <v>38</v>
+        <v>260</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.4</v>
+        <v>5.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.8</v>
+        <v>8.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AE7" t="n">
-        <v>42</v>
+        <v>140</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>8.4</v>
       </c>
       <c r="AG7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>270</v>
+      </c>
+      <c r="AN7" t="n">
         <v>17.5</v>
       </c>
-      <c r="AH7" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>100</v>
-      </c>
       <c r="AO7" t="n">
-        <v>46</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Argentinian Primera Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.61</v>
       </c>
-      <c r="G8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W8" t="n">
         <v>2.08</v>
       </c>
-      <c r="U8" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.54</v>
-      </c>
       <c r="X8" t="n">
-        <v>16</v>
+        <v>7.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>970</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA8" t="n">
+        <v>210</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>170</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO8" t="n">
         <v>270</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>140</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>190</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1598,666 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>20:20:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>La Equidad</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tolima</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="G9" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.58</v>
+        <v>2.28</v>
       </c>
       <c r="I9" t="n">
-        <v>2.68</v>
+        <v>2.3</v>
       </c>
       <c r="J9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.2</v>
       </c>
-      <c r="K9" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L9" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P9" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="R9" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S9" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="T9" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="U9" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="W9" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="X9" t="n">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.6</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AF9" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="n">
-        <v>14.5</v>
+        <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>960</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AK9" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AL9" t="n">
         <v>90</v>
       </c>
       <c r="AM9" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AN9" t="n">
         <v>90</v>
       </c>
       <c r="AO9" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Chilean Primera Division</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>OHiggins</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Deportes Concepcion</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Argentinos Juniors</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Belgrano</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-      <c r="I11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="X11" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>280</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD11" t="n">
         <v>32</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>300</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>280</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Union Santa Fe</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Gimnasia Mendoza</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H12" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N12" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S12" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="W12" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="X12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>27</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Deportivo Pereira</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="G13" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I13" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="S13" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="X13" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>70</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>95</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2026-02-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,102 +653,102 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>Argentinos Juniors</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Racing Club</t>
+          <t>Belgrano</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.31</v>
+        <v>3.3</v>
       </c>
       <c r="G2" t="n">
-        <v>1.32</v>
+        <v>3.35</v>
       </c>
       <c r="H2" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>40</v>
+        <v>9.4</v>
       </c>
       <c r="J2" t="n">
-        <v>4.7</v>
+        <v>1.69</v>
       </c>
       <c r="K2" t="n">
-        <v>4.8</v>
+        <v>1.73</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N2" t="n">
-        <v>1.62</v>
+        <v>1.14</v>
       </c>
       <c r="O2" t="n">
-        <v>2.6</v>
+        <v>7.6</v>
       </c>
       <c r="P2" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="R2" t="n">
         <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>100</v>
+        <v>230</v>
       </c>
       <c r="T2" t="n">
-        <v>3.4</v>
+        <v>16.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.35</v>
+        <v>1.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="W2" t="n">
-        <v>3.9</v>
+        <v>1.42</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>1.87</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AA2" t="n">
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.64</v>
+        <v>4.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.4</v>
+        <v>25</v>
       </c>
       <c r="AD2" t="n">
-        <v>44</v>
+        <v>510</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.4</v>
+        <v>24</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="AH2" t="n">
         <v>1000</v>
@@ -757,7 +757,7 @@
         <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="AK2" t="n">
         <v>1000</v>
@@ -788,90 +788,90 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>19:45:00</t>
+          <t>22:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Defensa y Justicia</t>
+          <t>Union Santa Fe</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Estudiantes</t>
+          <t>Gimnasia Mendoza</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>4.1</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>4.4</v>
+        <v>1.01</v>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="I3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>1.46</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>1.48</v>
+        <v>320</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.96</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="S3" t="n">
+        <v>9</v>
+      </c>
+      <c r="T3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="V3" t="n">
         <v>1.01</v>
       </c>
-      <c r="Q3" t="n">
-        <v>110</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S3" t="n">
-        <v>690</v>
-      </c>
-      <c r="T3" t="n">
-        <v>19</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.1</v>
-      </c>
       <c r="W3" t="n">
-        <v>1.33</v>
+        <v>100</v>
       </c>
       <c r="X3" t="n">
-        <v>1.52</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
         <v>1000</v>
@@ -880,31 +880,31 @@
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>55</v>
+        <v>1.89</v>
       </c>
       <c r="AG3" t="n">
-        <v>410</v>
+        <v>16.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>3.75</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Paraguayan Primera Division</t>
+          <t>Colombian Primera A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>20:15:00</t>
+          <t>22:30:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Cerro Porteno</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sportivo Luqueno</t>
+          <t>Junior FC Barranquilla</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.03</v>
+        <v>23</v>
       </c>
       <c r="G4" t="n">
-        <v>1.04</v>
+        <v>25</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>1.26</v>
       </c>
       <c r="I4" t="n">
-        <v>330</v>
+        <v>1.27</v>
       </c>
       <c r="J4" t="n">
-        <v>29</v>
+        <v>5.9</v>
       </c>
       <c r="K4" t="n">
-        <v>36</v>
+        <v>6.2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,763 +961,88 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.43</v>
+        <v>2.62</v>
       </c>
       <c r="R4" t="n">
-        <v>1.49</v>
+        <v>1.15</v>
       </c>
       <c r="S4" t="n">
-        <v>2.92</v>
+        <v>7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.82</v>
+        <v>2.48</v>
       </c>
       <c r="U4" t="n">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="W4" t="n">
-        <v>26</v>
+        <v>1.04</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>4.7</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AB4" t="n">
         <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>7.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="AH4" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="n">
-        <v>370</v>
+        <v>130</v>
       </c>
       <c r="AJ4" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>11</v>
+        <v>320</v>
       </c>
       <c r="AL4" t="n">
-        <v>65</v>
+        <v>350</v>
       </c>
       <c r="AM4" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>20:20:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>La Equidad</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Tolima</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="G5" t="n">
-        <v>65</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>7</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="S5" t="n">
-        <v>28</v>
-      </c>
-      <c r="T5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W5" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="X5" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>95</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>85</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>160</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>570</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Chilean Primera Division</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>20:30:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>OHiggins</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Deportes Concepcion</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="H6" t="n">
-        <v>13</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>880</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>290</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Argentinos Juniors</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Belgrano</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W7" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="X7" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>260</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>160</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>270</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Argentinian Primera Division</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>22:00:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Union Santa Fe</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Gimnasia Mendoza</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="H8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I8" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S8" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X8" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>210</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>130</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>170</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK8" t="n">
         <v>29</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>300</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>25</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Colombian Primera A</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-02-02</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>22:30:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Deportivo Pereira</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Junior FC Barranquilla</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="N9" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="X9" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
